--- a/docs/Gantt Chart.xlsx
+++ b/docs/Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natev\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Homework Assignments\Tower-of-Annihilation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{295FDA7F-E64C-481D-9CDD-7DFD2A653E6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDF93A2-0765-41B5-8503-40DEEB2A66D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="SA" sheetId="4" r:id="rId4"/>
     <sheet name="Overhead" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="103">
   <si>
     <t>Total</t>
   </si>
@@ -100,45 +100,12 @@
     <t>planned</t>
   </si>
   <si>
-    <t>Requirements Collection</t>
-  </si>
-  <si>
     <t>Repo + Git Setup</t>
   </si>
   <si>
-    <t>Installation</t>
-  </si>
-  <si>
-    <t>Music - Pre Loaded</t>
-  </si>
-  <si>
-    <t>Base Sound Managment</t>
-  </si>
-  <si>
-    <t>Base Sound - Obstacle Connection</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>In-Depth Frequency + Obstacle Connection (Beatmap working)</t>
-  </si>
-  <si>
-    <t>Integrate With Song Menu</t>
-  </si>
-  <si>
     <t>Coin/Power-up integration</t>
   </si>
   <si>
-    <t>Documentation</t>
-  </si>
-  <si>
-    <t>Further Testing</t>
-  </si>
-  <si>
-    <t>Adding Patterns and Other Requirements</t>
-  </si>
-  <si>
     <t>totals</t>
   </si>
   <si>
@@ -362,6 +329,24 @@
   </si>
   <si>
     <t>Post Mortum Presentation Prep</t>
+  </si>
+  <si>
+    <t>Player Manager Script</t>
+  </si>
+  <si>
+    <t>Sprites / Animations / Tileset</t>
+  </si>
+  <si>
+    <t>Sound Manager</t>
+  </si>
+  <si>
+    <t>Unity Project Setup</t>
+  </si>
+  <si>
+    <t>Player Movement</t>
+  </si>
+  <si>
+    <t>Health Bars</t>
   </si>
 </sst>
 </file>
@@ -372,7 +357,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -717,7 +702,7 @@
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="87">
+  <dxfs count="126">
     <dxf>
       <font>
         <color auto="1"/>
@@ -810,6 +795,516 @@
     </dxf>
     <dxf>
       <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -1200,16 +1695,106 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFF00"/>
       </font>
       <fill>
@@ -1221,216 +1806,6 @@
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
@@ -1904,7 +2279,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
@@ -1927,8 +2302,8 @@
     <col min="21" max="21" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:21">
+    <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C2" s="60" t="s">
         <v>0</v>
       </c>
@@ -1956,7 +2331,7 @@
       <c r="T2" s="61"/>
       <c r="U2" s="62"/>
     </row>
-    <row r="3" spans="2:21" ht="15.75" thickBot="1">
+    <row r="3" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
@@ -2004,34 +2379,34 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:21">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="23">
         <f>(G4+K4 +O4+S4)</f>
-        <v>9500</v>
+        <v>6900</v>
       </c>
       <c r="D4" s="24">
         <f t="shared" ref="D4:D6" si="0">(H4+L4 +P4+T4)</f>
-        <v>11100</v>
+        <v>8000</v>
       </c>
       <c r="E4" s="25">
         <f>(C4-D4)</f>
-        <v>-1600</v>
+        <v>-1100</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="17">
-        <f>(Gantt!$B16)*100</f>
-        <v>4400</v>
+        <f>(Gantt!$B11)*100</f>
+        <v>1800</v>
       </c>
       <c r="H4" s="18">
-        <f>(Gantt!$C16)*100</f>
-        <v>4200</v>
+        <f>(Gantt!$C11)*100</f>
+        <v>1100</v>
       </c>
       <c r="I4" s="19">
         <f>(G4-H4)</f>
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="K4" s="23">
         <v>1000</v>
@@ -2068,7 +2443,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="2:21">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
@@ -2086,11 +2461,11 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="17">
-        <f>(Gantt!$B26)*100</f>
+        <f>(Gantt!$B21)*100</f>
         <v>4500</v>
       </c>
       <c r="H5" s="18">
-        <f>(Gantt!$C26)*100</f>
+        <f>(Gantt!$C21)*100</f>
         <v>900</v>
       </c>
       <c r="I5" s="19">
@@ -2132,7 +2507,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="6" spans="2:21">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
@@ -2150,11 +2525,11 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="17">
-        <f>(Gantt!$B35)*100</f>
+        <f>(Gantt!$B30)*100</f>
         <v>4800</v>
       </c>
       <c r="H6" s="18">
-        <f>(Gantt!$C35)*100</f>
+        <f>(Gantt!$C30)*100</f>
         <v>1400</v>
       </c>
       <c r="I6" s="19">
@@ -2196,7 +2571,7 @@
         <v>-1300</v>
       </c>
     </row>
-    <row r="7" spans="2:21">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
@@ -2214,11 +2589,11 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="17">
-        <f>(Gantt!$B49)*100</f>
+        <f>(Gantt!$B44)*100</f>
         <v>8400</v>
       </c>
       <c r="H7" s="18">
-        <f>(Gantt!$C49)*100</f>
+        <f>(Gantt!$C44)*100</f>
         <v>4400</v>
       </c>
       <c r="I7" s="19">
@@ -2260,7 +2635,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="8" spans="2:21">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
@@ -2278,11 +2653,11 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="17">
-        <f>(Gantt!$B63)*100</f>
+        <f>(Gantt!$B58)*100</f>
         <v>8400</v>
       </c>
       <c r="H8" s="18">
-        <f>(Gantt!$C63)*100</f>
+        <f>(Gantt!$C58)*100</f>
         <v>4400</v>
       </c>
       <c r="I8" s="19">
@@ -2324,34 +2699,34 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="15.75" thickBot="1">
+    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="27">
         <f>SUM(C4:C8)</f>
-        <v>56000</v>
+        <v>53400</v>
       </c>
       <c r="D9" s="28">
         <f>SUM(D4:D8)</f>
-        <v>50500</v>
+        <v>47400</v>
       </c>
       <c r="E9" s="29">
         <f>SUM(E4:E8)</f>
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="20">
         <f>SUM(G4:G8)</f>
-        <v>30500</v>
+        <v>27900</v>
       </c>
       <c r="H9" s="21">
         <f>SUM(H4:H8)</f>
-        <v>15300</v>
+        <v>12200</v>
       </c>
       <c r="I9" s="22">
         <f>SUM(I4:I8)</f>
-        <v>15200</v>
+        <v>15700</v>
       </c>
       <c r="K9" s="20">
         <f>SUM(K4:K8)</f>
@@ -2405,22 +2780,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BK65"/>
+  <dimension ref="A1:BK60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="1" max="1" width="57.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1" s="48"/>
       <c r="B1" s="48" t="s">
         <v>13</v>
@@ -2499,7 +2874,7 @@
       <c r="BJ1" s="48"/>
       <c r="BK1" s="48"/>
     </row>
-    <row r="2" spans="1:63" s="2" customFormat="1">
+    <row r="2" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2739,15 +3114,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:63">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -2756,17 +3131,13 @@
         <f>($D3)</f>
         <v>complete</v>
       </c>
-      <c r="F3" t="str">
-        <f>($D3)</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="4" spans="1:63">
+    </row>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2774,840 +3145,790 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="str">
-        <f t="shared" ref="G4:H4" si="3">($D4)</f>
-        <v>complete</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="3"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="5" spans="1:63">
+      <c r="F4" t="str">
+        <f>($D4)</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="I5" t="str">
+      <c r="G5" t="str">
         <f>($D5)</f>
         <v>complete</v>
       </c>
-    </row>
-    <row r="6" spans="1:63">
+      <c r="H5" t="str">
+        <f>($D5)</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="J6" t="str">
+      <c r="I6" t="str">
         <f>($D6)</f>
         <v>complete</v>
       </c>
     </row>
-    <row r="7" spans="1:63">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
+      <c r="J7" t="str">
+        <f>($D7)</f>
+        <v>complete</v>
+      </c>
       <c r="K7" t="str">
-        <f t="shared" ref="K7:M7" si="4">($D7)</f>
+        <f>($D7)</f>
         <v>complete</v>
       </c>
       <c r="L7" t="str">
+        <f>($D7)</f>
+        <v>complete</v>
+      </c>
+      <c r="M7" t="str">
+        <f>($D7)</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" ref="N8" si="3">($D8)</f>
+        <v>this week</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" ref="O8:T9" si="4">($D8)</f>
+        <v>this week</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" t="str">
         <f t="shared" si="4"/>
-        <v>complete</v>
-      </c>
-      <c r="M7" t="str">
+        <v>this week</v>
+      </c>
+      <c r="Q9" t="str">
         <f t="shared" si="4"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="8" spans="1:63">
-      <c r="A8" t="s">
+        <v>this week</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="4"/>
+        <v>this week</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" ref="S10:T10" si="5">($D10)</f>
+        <v>planned</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="5"/>
+        <v>planned</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B3:B10)</f>
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <f>SUM(C3:C10)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="str">
+        <f>($D13)</f>
+        <v>complete</v>
+      </c>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="54"/>
+      <c r="G14" s="56"/>
+      <c r="H14" t="str">
+        <f t="shared" ref="H14:I14" si="6">($D14)</f>
+        <v>complete</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="6"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B8">
+      <c r="B15">
         <v>3</v>
       </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
         <v>17</v>
       </c>
-      <c r="N8" t="str">
-        <f t="shared" ref="N8:P8" si="5">($D8)</f>
-        <v>complete</v>
-      </c>
-      <c r="O8" t="str">
-        <f t="shared" si="5"/>
-        <v>complete</v>
-      </c>
-      <c r="P8" t="str">
-        <f t="shared" si="5"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="9" spans="1:63">
-      <c r="A9" t="s">
+      <c r="J15" t="str">
+        <f t="shared" ref="J15:K15" si="7">($D15)</f>
+        <v>complete</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="7"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q9" t="str">
-        <f t="shared" ref="Q9:T9" si="6">($D9)</f>
-        <v>complete</v>
-      </c>
-      <c r="R9" t="str">
-        <f t="shared" si="6"/>
-        <v>complete</v>
-      </c>
-      <c r="S9" t="str">
-        <f t="shared" si="6"/>
-        <v>complete</v>
-      </c>
-      <c r="T9" t="str">
-        <f t="shared" si="6"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="10" spans="1:63">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="U10" t="str">
-        <f t="shared" ref="U10:AG10" si="7">($D10)</f>
-        <v>complete</v>
-      </c>
-      <c r="V10" t="str">
-        <f t="shared" si="7"/>
-        <v>complete</v>
-      </c>
-      <c r="W10" t="str">
-        <f t="shared" si="7"/>
-        <v>complete</v>
-      </c>
-      <c r="X10" t="str">
-        <f t="shared" si="7"/>
-        <v>complete</v>
-      </c>
-      <c r="Y10" t="str">
-        <f t="shared" si="7"/>
-        <v>complete</v>
-      </c>
-      <c r="Z10" t="str">
-        <f t="shared" si="7"/>
-        <v>complete</v>
-      </c>
-      <c r="AA10" t="str">
-        <f t="shared" si="7"/>
-        <v>complete</v>
-      </c>
-      <c r="AB10" t="str">
-        <f t="shared" si="7"/>
-        <v>complete</v>
-      </c>
-      <c r="AC10" t="str">
-        <f t="shared" si="7"/>
-        <v>complete</v>
-      </c>
-      <c r="AD10" t="str">
-        <f t="shared" si="7"/>
-        <v>complete</v>
-      </c>
-      <c r="AE10" t="str">
-        <f t="shared" si="7"/>
-        <v>complete</v>
-      </c>
-      <c r="AF10" t="str">
-        <f t="shared" si="7"/>
-        <v>complete</v>
-      </c>
-      <c r="AG10" t="str">
-        <f t="shared" si="7"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="11" spans="1:63">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH11" t="str">
-        <f>($D11)</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="12" spans="1:63">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI12" t="str">
-        <f>($D12)</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="13" spans="1:63">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
         <v>18</v>
       </c>
-      <c r="AJ13" t="str">
-        <f t="shared" ref="AJ13:AN13" si="8">($D13)</f>
+      <c r="L16" t="str">
+        <f t="shared" ref="L16:M16" si="8">($D16)</f>
         <v>this week</v>
       </c>
-      <c r="AK13" t="str">
+      <c r="M16" t="str">
         <f t="shared" si="8"/>
         <v>this week</v>
       </c>
-      <c r="AL13" t="str">
-        <f t="shared" si="8"/>
-        <v>this week</v>
-      </c>
-      <c r="AM13" t="str">
-        <f t="shared" si="8"/>
-        <v>this week</v>
-      </c>
-      <c r="AN13" t="str">
-        <f t="shared" si="8"/>
-        <v>this week</v>
-      </c>
-    </row>
-    <row r="14" spans="1:63">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14">
+    </row>
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
         <v>5</v>
       </c>
-      <c r="C14">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="AO14" t="str">
-        <f t="shared" ref="AO14:AV14" si="9">($D14)</f>
-        <v>this week</v>
-      </c>
-      <c r="AP14" t="str">
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" ref="N17:Q17" si="9">($D17)</f>
+        <v>planned</v>
+      </c>
+      <c r="O17" t="str">
         <f t="shared" si="9"/>
-        <v>this week</v>
-      </c>
-      <c r="AQ14" t="str">
+        <v>planned</v>
+      </c>
+      <c r="P17" t="str">
         <f t="shared" si="9"/>
-        <v>this week</v>
-      </c>
-      <c r="AR14" t="str">
+        <v>planned</v>
+      </c>
+      <c r="Q17" t="str">
         <f t="shared" si="9"/>
-        <v>this week</v>
-      </c>
-      <c r="AS14" t="str">
-        <f t="shared" si="9"/>
-        <v>this week</v>
-      </c>
-      <c r="AT14" t="str">
-        <f t="shared" si="9"/>
-        <v>this week</v>
-      </c>
-      <c r="AU14" t="str">
-        <f t="shared" si="9"/>
-        <v>this week</v>
-      </c>
-      <c r="AV14" t="str">
-        <f t="shared" si="9"/>
-        <v>this week</v>
-      </c>
-    </row>
-    <row r="15" spans="1:63">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
+        <v>planned</v>
+      </c>
+    </row>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
         <v>19</v>
       </c>
-      <c r="AW15" t="str">
-        <f t="shared" ref="AW15:AZ15" si="10">($D15)</f>
+      <c r="R18" t="str">
+        <f t="shared" ref="R18:T18" si="10">($D18)</f>
         <v>planned</v>
       </c>
-      <c r="AX15" t="str">
+      <c r="S18" t="str">
         <f t="shared" si="10"/>
         <v>planned</v>
       </c>
-      <c r="AY15" t="str">
+      <c r="T18" t="str">
         <f t="shared" si="10"/>
         <v>planned</v>
       </c>
-      <c r="AZ15" t="str">
-        <f t="shared" si="10"/>
+    </row>
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="V19" t="str">
+        <f t="shared" ref="V19:AA19" si="11">($D19)</f>
         <v>planned</v>
       </c>
-    </row>
-    <row r="16" spans="1:63">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16">
-        <f>SUM(B3:B15)</f>
-        <v>44</v>
-      </c>
-      <c r="C16">
-        <f>SUM(C3:C15)</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:46" s="2" customFormat="1">
-      <c r="A17" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:46">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="str">
-        <f>($D18)</f>
-        <v>complete</v>
-      </c>
-      <c r="F18" s="56"/>
-    </row>
-    <row r="19" spans="1:46">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="54"/>
-      <c r="G19" s="56"/>
-      <c r="H19" t="str">
-        <f t="shared" ref="H19:I19" si="11">($D19)</f>
-        <v>complete</v>
-      </c>
-      <c r="I19" t="str">
+      <c r="W19" t="str">
         <f t="shared" si="11"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="20" spans="1:46">
+        <v>planned</v>
+      </c>
+      <c r="X19" t="str">
+        <f t="shared" si="11"/>
+        <v>planned</v>
+      </c>
+      <c r="Y19" t="str">
+        <f t="shared" si="11"/>
+        <v>planned</v>
+      </c>
+      <c r="Z19" t="str">
+        <f t="shared" si="11"/>
+        <v>planned</v>
+      </c>
+      <c r="AA19" t="str">
+        <f t="shared" si="11"/>
+        <v>planned</v>
+      </c>
+    </row>
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
-      <c r="C20">
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ20" t="str">
+        <f t="shared" ref="AQ20:AT20" si="12">($D20)</f>
+        <v>planned</v>
+      </c>
+      <c r="AR20" t="str">
+        <f t="shared" si="12"/>
+        <v>planned</v>
+      </c>
+      <c r="AS20" t="str">
+        <f t="shared" si="12"/>
+        <v>planned</v>
+      </c>
+      <c r="AT20" t="str">
+        <f t="shared" si="12"/>
+        <v>planned</v>
+      </c>
+    </row>
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <f>SUM(B13:B20)</f>
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <f>SUM(C13:C20)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" ref="E23" si="13">($D23)</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
         <v>2</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
         <v>17</v>
       </c>
-      <c r="J20" t="str">
-        <f t="shared" ref="J20:K20" si="12">($D20)</f>
-        <v>complete</v>
-      </c>
-      <c r="K20" t="str">
-        <f t="shared" si="12"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="21" spans="1:46">
-      <c r="A21" t="s">
+      <c r="F24" t="str">
+        <f>($D24)</f>
+        <v>complete</v>
+      </c>
+      <c r="G24" t="str">
+        <f>($D24)</f>
+        <v>complete</v>
+      </c>
+      <c r="H24" t="str">
+        <f>($D24)</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="str">
+        <f>($D25)</f>
+        <v>complete</v>
+      </c>
+      <c r="J25" t="str">
+        <f>($D25)</f>
+        <v>complete</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" ref="K25:M25" si="14">($D25)</f>
+        <v>complete</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="14"/>
+        <v>complete</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="14"/>
+        <v>complete</v>
+      </c>
+      <c r="N25" t="str">
+        <f>($D25)</f>
+        <v>complete</v>
+      </c>
+      <c r="O25" t="str">
+        <f>($D25)</f>
+        <v>complete</v>
+      </c>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+    </row>
+    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="S26" s="57"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="58"/>
+    </row>
+    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="X27" s="59"/>
+      <c r="Y27" s="59"/>
+      <c r="Z27" s="59"/>
+      <c r="AA27" s="59"/>
+      <c r="AB27" s="59"/>
+    </row>
+    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC28" s="59"/>
+      <c r="AD28" s="59"/>
+      <c r="AE28" s="59"/>
+      <c r="AF28" s="59"/>
+      <c r="AG28" s="59"/>
+      <c r="AH28" s="59"/>
+      <c r="AI28" s="59"/>
+      <c r="AJ28" s="59"/>
+      <c r="AK28" s="59"/>
+      <c r="AL28" s="59"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+    </row>
+    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>37</v>
       </c>
-      <c r="B21">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" t="str">
-        <f t="shared" ref="L21:M21" si="13">($D21)</f>
-        <v>this week</v>
-      </c>
-      <c r="M21" t="str">
-        <f t="shared" si="13"/>
-        <v>this week</v>
-      </c>
-    </row>
-    <row r="22" spans="1:46">
-      <c r="A22" t="s">
+      <c r="B29">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM29" s="59"/>
+      <c r="AN29" s="59"/>
+      <c r="AO29" s="59"/>
+      <c r="AP29" s="59"/>
+      <c r="AQ29" s="59"/>
+      <c r="AR29" s="59"/>
+      <c r="AS29" s="59"/>
+      <c r="AT29" s="59"/>
+      <c r="AU29" s="59"/>
+      <c r="AV29" s="59"/>
+      <c r="AW29" s="59"/>
+      <c r="AX29" s="59"/>
+      <c r="AY29" s="59"/>
+      <c r="AZ29" s="59"/>
+      <c r="BA29" s="59"/>
+      <c r="BB29" s="3"/>
+    </row>
+    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <f>SUM(B23:B29)</f>
+        <v>48</v>
+      </c>
+      <c r="C30">
+        <f>SUM(C23:C29)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>38</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="N22" t="str">
-        <f t="shared" ref="N22:Q22" si="14">($D22)</f>
-        <v>planned</v>
-      </c>
-      <c r="O22" t="str">
-        <f t="shared" si="14"/>
-        <v>planned</v>
-      </c>
-      <c r="P22" t="str">
-        <f t="shared" si="14"/>
-        <v>planned</v>
-      </c>
-      <c r="Q22" t="str">
-        <f t="shared" si="14"/>
-        <v>planned</v>
-      </c>
-    </row>
-    <row r="23" spans="1:46">
-      <c r="A23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23">
-        <v>10</v>
-      </c>
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
-      <c r="R23" t="str">
-        <f t="shared" ref="R23:T23" si="15">($D23)</f>
-        <v>planned</v>
-      </c>
-      <c r="S23" t="str">
-        <f t="shared" si="15"/>
-        <v>planned</v>
-      </c>
-      <c r="T23" t="str">
-        <f t="shared" si="15"/>
-        <v>planned</v>
-      </c>
-    </row>
-    <row r="24" spans="1:46">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24">
-        <v>10</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="V24" t="str">
-        <f t="shared" ref="V24:AA24" si="16">($D24)</f>
-        <v>planned</v>
-      </c>
-      <c r="W24" t="str">
-        <f t="shared" si="16"/>
-        <v>planned</v>
-      </c>
-      <c r="X24" t="str">
-        <f t="shared" si="16"/>
-        <v>planned</v>
-      </c>
-      <c r="Y24" t="str">
-        <f t="shared" si="16"/>
-        <v>planned</v>
-      </c>
-      <c r="Z24" t="str">
-        <f t="shared" si="16"/>
-        <v>planned</v>
-      </c>
-      <c r="AA24" t="str">
-        <f t="shared" si="16"/>
-        <v>planned</v>
-      </c>
-    </row>
-    <row r="25" spans="1:46">
-      <c r="A25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
-      <c r="AQ25" t="str">
-        <f t="shared" ref="AQ25:AT25" si="17">($D25)</f>
-        <v>planned</v>
-      </c>
-      <c r="AR25" t="str">
-        <f t="shared" si="17"/>
-        <v>planned</v>
-      </c>
-      <c r="AS25" t="str">
-        <f t="shared" si="17"/>
-        <v>planned</v>
-      </c>
-      <c r="AT25" t="str">
-        <f t="shared" si="17"/>
-        <v>planned</v>
-      </c>
-    </row>
-    <row r="26" spans="1:46">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26">
-        <f>SUM(B18:B25)</f>
-        <v>45</v>
-      </c>
-      <c r="C26">
-        <f>SUM(C18:C25)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:46" s="2" customFormat="1">
-      <c r="A27" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:46">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" ref="E28:H28" si="18">($D28)</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="29" spans="1:46">
-      <c r="A29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" t="str">
-        <f>($D29)</f>
-        <v>complete</v>
-      </c>
-      <c r="G29" t="str">
-        <f>($D29)</f>
-        <v>complete</v>
-      </c>
-      <c r="H29" t="str">
-        <f>($D29)</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="30" spans="1:46">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30">
-        <v>10</v>
-      </c>
-      <c r="C30">
-        <v>9</v>
-      </c>
-      <c r="D30" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" t="str">
-        <f>($D30)</f>
-        <v>complete</v>
-      </c>
-      <c r="J30" t="str">
-        <f>($D30)</f>
-        <v>complete</v>
-      </c>
-      <c r="K30" t="str">
-        <f t="shared" ref="J30:M30" si="19">($D30)</f>
-        <v>complete</v>
-      </c>
-      <c r="L30" t="str">
-        <f t="shared" si="19"/>
-        <v>complete</v>
-      </c>
-      <c r="M30" t="str">
-        <f t="shared" si="19"/>
-        <v>complete</v>
-      </c>
-      <c r="N30" t="str">
-        <f>($D30)</f>
-        <v>complete</v>
-      </c>
-      <c r="O30" t="str">
-        <f>($D30)</f>
-        <v>complete</v>
-      </c>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="56"/>
-    </row>
-    <row r="31" spans="1:46">
-      <c r="A31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31">
-        <v>5</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>18</v>
-      </c>
-      <c r="S31" s="57"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="58"/>
-    </row>
-    <row r="32" spans="1:46">
-      <c r="A32" t="s">
-        <v>46</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
       <c r="D32" t="s">
-        <v>19</v>
-      </c>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="59"/>
-      <c r="AA32" s="59"/>
-      <c r="AB32" s="59"/>
-    </row>
-    <row r="33" spans="1:54">
+        <v>17</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" ref="E32:I32" si="15">($D32)</f>
+        <v>complete</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="15"/>
+        <v>complete</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="15"/>
+        <v>complete</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="15"/>
+        <v>complete</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="15"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="33" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>10</v>
       </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
       <c r="D33" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="59"/>
-      <c r="AE33" s="59"/>
-      <c r="AF33" s="59"/>
-      <c r="AG33" s="59"/>
-      <c r="AH33" s="59"/>
-      <c r="AI33" s="59"/>
-      <c r="AJ33" s="59"/>
-      <c r="AK33" s="59"/>
-      <c r="AL33" s="59"/>
-      <c r="AM33" s="3"/>
-      <c r="AN33" s="3"/>
-      <c r="AO33" s="3"/>
-      <c r="AP33" s="3"/>
-      <c r="AQ33" s="3"/>
-    </row>
-    <row r="34" spans="1:54">
+        <v>17</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" ref="J33:N33" si="16">($D33)</f>
+        <v>complete</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="16"/>
+        <v>complete</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="16"/>
+        <v>complete</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="16"/>
+        <v>complete</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="16"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="34" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM34" s="59"/>
-      <c r="AN34" s="59"/>
-      <c r="AO34" s="59"/>
-      <c r="AP34" s="59"/>
-      <c r="AQ34" s="59"/>
-      <c r="AR34" s="59"/>
-      <c r="AS34" s="59"/>
-      <c r="AT34" s="59"/>
-      <c r="AU34" s="59"/>
-      <c r="AV34" s="59"/>
-      <c r="AW34" s="59"/>
-      <c r="AX34" s="59"/>
-      <c r="AY34" s="59"/>
-      <c r="AZ34" s="59"/>
-      <c r="BA34" s="59"/>
-      <c r="BB34" s="3"/>
-    </row>
-    <row r="35" spans="1:54">
+        <v>17</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" ref="O34:T34" si="17">($D34)</f>
+        <v>complete</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="17"/>
+        <v>complete</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="17"/>
+        <v>complete</v>
+      </c>
+      <c r="R34" t="str">
+        <f t="shared" si="17"/>
+        <v>complete</v>
+      </c>
+      <c r="S34" t="str">
+        <f t="shared" si="17"/>
+        <v>complete</v>
+      </c>
+      <c r="T34" t="str">
+        <f t="shared" si="17"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="35" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <f>SUM(B28:B34)</f>
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C35">
-        <f>SUM(C28:C34)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:54" s="2" customFormat="1">
-      <c r="A36" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:54">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="U35" t="str">
+        <f t="shared" ref="U35:V35" si="18">($D35)</f>
+        <v>complete</v>
+      </c>
+      <c r="V35" t="str">
+        <f t="shared" si="18"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="36" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="W36" t="str">
+        <f t="shared" ref="W36:AB36" si="19">($D36)</f>
+        <v>complete</v>
+      </c>
+      <c r="X36" t="str">
+        <f t="shared" si="19"/>
+        <v>complete</v>
+      </c>
+      <c r="Y36" t="str">
+        <f t="shared" si="19"/>
+        <v>complete</v>
+      </c>
+      <c r="Z36" t="str">
+        <f t="shared" si="19"/>
+        <v>complete</v>
+      </c>
+      <c r="AA36" t="str">
+        <f t="shared" si="19"/>
+        <v>complete</v>
+      </c>
+      <c r="AB36" t="str">
+        <f t="shared" si="19"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="37" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
       </c>
-      <c r="E37" t="str">
-        <f t="shared" ref="E37:I37" si="20">($D37)</f>
-        <v>complete</v>
-      </c>
-      <c r="F37" t="str">
+      <c r="AC37" t="str">
+        <f t="shared" ref="AC37:AD37" si="20">($D37)</f>
+        <v>complete</v>
+      </c>
+      <c r="AD37" t="str">
         <f t="shared" si="20"/>
         <v>complete</v>
       </c>
-      <c r="G37" t="str">
-        <f t="shared" si="20"/>
-        <v>complete</v>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" si="20"/>
-        <v>complete</v>
-      </c>
-      <c r="I37" t="str">
-        <f t="shared" si="20"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="38" spans="1:54">
+    </row>
+    <row r="38" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
       </c>
-      <c r="J38" t="str">
-        <f t="shared" ref="J38:N38" si="21">($D38)</f>
-        <v>complete</v>
-      </c>
-      <c r="K38" t="str">
+      <c r="AE38" t="str">
+        <f t="shared" ref="AE38:AH38" si="21">($D38)</f>
+        <v>complete</v>
+      </c>
+      <c r="AF38" t="str">
         <f t="shared" si="21"/>
         <v>complete</v>
       </c>
-      <c r="L38" t="str">
+      <c r="AG38" t="str">
         <f t="shared" si="21"/>
         <v>complete</v>
       </c>
-      <c r="M38" t="str">
+      <c r="AH38" t="str">
         <f t="shared" si="21"/>
         <v>complete</v>
       </c>
-      <c r="N38" t="str">
-        <f t="shared" si="21"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="39" spans="1:54">
+    </row>
+    <row r="39" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B39">
         <v>10</v>
@@ -3618,444 +3939,444 @@
       <c r="D39" t="s">
         <v>17</v>
       </c>
-      <c r="O39" t="str">
-        <f t="shared" ref="O39:T39" si="22">($D39)</f>
-        <v>complete</v>
-      </c>
-      <c r="P39" t="str">
+      <c r="AI39" t="str">
+        <f t="shared" ref="AI39:AN39" si="22">($D39)</f>
+        <v>complete</v>
+      </c>
+      <c r="AJ39" t="str">
         <f t="shared" si="22"/>
         <v>complete</v>
       </c>
-      <c r="Q39" t="str">
+      <c r="AK39" t="str">
         <f t="shared" si="22"/>
         <v>complete</v>
       </c>
-      <c r="R39" t="str">
+      <c r="AL39" t="str">
         <f t="shared" si="22"/>
         <v>complete</v>
       </c>
-      <c r="S39" t="str">
+      <c r="AM39" t="str">
         <f t="shared" si="22"/>
         <v>complete</v>
       </c>
-      <c r="T39" t="str">
+      <c r="AN39" t="str">
         <f t="shared" si="22"/>
         <v>complete</v>
       </c>
     </row>
-    <row r="40" spans="1:54">
+    <row r="40" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="s">
         <v>17</v>
       </c>
-      <c r="U40" t="str">
-        <f t="shared" ref="U40:V40" si="23">($D40)</f>
-        <v>complete</v>
-      </c>
-      <c r="V40" t="str">
+      <c r="AO40" t="str">
+        <f t="shared" ref="AO40:AR40" si="23">($D40)</f>
+        <v>complete</v>
+      </c>
+      <c r="AP40" t="str">
         <f t="shared" si="23"/>
         <v>complete</v>
       </c>
-    </row>
-    <row r="41" spans="1:54">
+      <c r="AQ40" t="str">
+        <f t="shared" si="23"/>
+        <v>complete</v>
+      </c>
+      <c r="AR40" t="str">
+        <f t="shared" si="23"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="41" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
       </c>
-      <c r="W41" t="str">
-        <f t="shared" ref="W41:AB41" si="24">($D41)</f>
-        <v>complete</v>
-      </c>
-      <c r="X41" t="str">
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AS41" t="str">
+        <f t="shared" ref="AS41:AT41" si="24">($D41)</f>
+        <v>complete</v>
+      </c>
+      <c r="AT41" t="str">
         <f t="shared" si="24"/>
         <v>complete</v>
       </c>
-      <c r="Y41" t="str">
-        <f t="shared" si="24"/>
-        <v>complete</v>
-      </c>
-      <c r="Z41" t="str">
-        <f t="shared" si="24"/>
-        <v>complete</v>
-      </c>
-      <c r="AA41" t="str">
-        <f t="shared" si="24"/>
-        <v>complete</v>
-      </c>
-      <c r="AB41" t="str">
-        <f t="shared" si="24"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="42" spans="1:54">
+    </row>
+    <row r="42" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC42" t="str">
-        <f t="shared" ref="AC42:AD42" si="25">($D42)</f>
-        <v>complete</v>
-      </c>
-      <c r="AD42" t="str">
+        <v>18</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AU42" t="str">
+        <f t="shared" ref="AU42:AV42" si="25">($D42)</f>
+        <v>this week</v>
+      </c>
+      <c r="AV42" t="str">
         <f t="shared" si="25"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="43" spans="1:54">
+        <v>this week</v>
+      </c>
+    </row>
+    <row r="43" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B43">
         <v>5</v>
       </c>
-      <c r="C43">
-        <v>4</v>
-      </c>
       <c r="D43" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE43" t="str">
-        <f t="shared" ref="AE43:AH43" si="26">($D43)</f>
-        <v>complete</v>
-      </c>
-      <c r="AF43" t="str">
+        <v>19</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AW43" t="str">
+        <f t="shared" ref="AW43:BA43" si="26">($D43)</f>
+        <v>planned</v>
+      </c>
+      <c r="AX43" t="str">
         <f t="shared" si="26"/>
-        <v>complete</v>
-      </c>
-      <c r="AG43" t="str">
+        <v>planned</v>
+      </c>
+      <c r="AY43" t="str">
         <f t="shared" si="26"/>
-        <v>complete</v>
-      </c>
-      <c r="AH43" t="str">
+        <v>planned</v>
+      </c>
+      <c r="AZ43" t="str">
         <f t="shared" si="26"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="44" spans="1:54">
+        <v>planned</v>
+      </c>
+      <c r="BA43" t="str">
+        <f t="shared" si="26"/>
+        <v>planned</v>
+      </c>
+    </row>
+    <row r="44" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B44">
-        <v>10</v>
+        <f>SUM(B32:B43)</f>
+        <v>84</v>
       </c>
       <c r="C44">
-        <v>6</v>
-      </c>
-      <c r="D44" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI44" t="str">
-        <f t="shared" ref="AI44:AN44" si="27">($D44)</f>
-        <v>complete</v>
-      </c>
-      <c r="AJ44" t="str">
-        <f t="shared" si="27"/>
-        <v>complete</v>
-      </c>
-      <c r="AK44" t="str">
-        <f t="shared" si="27"/>
-        <v>complete</v>
-      </c>
-      <c r="AL44" t="str">
-        <f t="shared" si="27"/>
-        <v>complete</v>
-      </c>
-      <c r="AM44" t="str">
-        <f t="shared" si="27"/>
-        <v>complete</v>
-      </c>
-      <c r="AN44" t="str">
-        <f t="shared" si="27"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="45" spans="1:54">
-      <c r="A45" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45">
+        <f>SUM(C32:C43)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46">
         <v>5</v>
       </c>
-      <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="D45" t="s">
-        <v>17</v>
-      </c>
-      <c r="AO45" t="str">
-        <f t="shared" ref="AO45:AR45" si="28">($D45)</f>
-        <v>complete</v>
-      </c>
-      <c r="AP45" t="str">
-        <f t="shared" si="28"/>
-        <v>complete</v>
-      </c>
-      <c r="AQ45" t="str">
-        <f t="shared" si="28"/>
-        <v>complete</v>
-      </c>
-      <c r="AR45" t="str">
-        <f t="shared" si="28"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="46" spans="1:54">
-      <c r="A46" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46">
-        <v>2</v>
-      </c>
       <c r="C46">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-      <c r="AA46" s="3"/>
-      <c r="AS46" t="str">
-        <f t="shared" ref="AS46:AT46" si="29">($D46)</f>
-        <v>complete</v>
-      </c>
-      <c r="AT46" t="str">
+      <c r="E46" t="str">
+        <f t="shared" ref="E46:I46" si="27">($D46)</f>
+        <v>complete</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="27"/>
+        <v>complete</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="27"/>
+        <v>complete</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="27"/>
+        <v>complete</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="27"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="47" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" ref="J47:N47" si="28">($D47)</f>
+        <v>complete</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="28"/>
+        <v>complete</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="28"/>
+        <v>complete</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="28"/>
+        <v>complete</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="28"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="48" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>17</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" ref="O48:T48" si="29">($D48)</f>
+        <v>complete</v>
+      </c>
+      <c r="P48" t="str">
         <f t="shared" si="29"/>
         <v>complete</v>
       </c>
-    </row>
-    <row r="47" spans="1:54">
-      <c r="A47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47">
+      <c r="Q48" t="str">
+        <f t="shared" si="29"/>
+        <v>complete</v>
+      </c>
+      <c r="R48" t="str">
+        <f t="shared" si="29"/>
+        <v>complete</v>
+      </c>
+      <c r="S48" t="str">
+        <f t="shared" si="29"/>
+        <v>complete</v>
+      </c>
+      <c r="T48" t="str">
+        <f t="shared" si="29"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="49" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
         <v>2</v>
       </c>
-      <c r="C47">
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
+      <c r="U49" t="str">
+        <f t="shared" ref="U49:V49" si="30">($D49)</f>
+        <v>complete</v>
+      </c>
+      <c r="V49" t="str">
+        <f t="shared" si="30"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="50" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="W50" t="str">
+        <f t="shared" ref="W50:AB50" si="31">($D50)</f>
+        <v>complete</v>
+      </c>
+      <c r="X50" t="str">
+        <f t="shared" si="31"/>
+        <v>complete</v>
+      </c>
+      <c r="Y50" t="str">
+        <f t="shared" si="31"/>
+        <v>complete</v>
+      </c>
+      <c r="Z50" t="str">
+        <f t="shared" si="31"/>
+        <v>complete</v>
+      </c>
+      <c r="AA50" t="str">
+        <f t="shared" si="31"/>
+        <v>complete</v>
+      </c>
+      <c r="AB50" t="str">
+        <f t="shared" si="31"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="51" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
         <v>2</v>
-      </c>
-      <c r="D47" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-      <c r="AA47" s="3"/>
-      <c r="AU47" t="str">
-        <f t="shared" ref="AU47:AV47" si="30">($D47)</f>
-        <v>this week</v>
-      </c>
-      <c r="AV47" t="str">
-        <f t="shared" si="30"/>
-        <v>this week</v>
-      </c>
-    </row>
-    <row r="48" spans="1:54">
-      <c r="A48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48">
-        <v>5</v>
-      </c>
-      <c r="D48" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
-      <c r="AW48" t="str">
-        <f t="shared" ref="AW48:BA48" si="31">($D48)</f>
-        <v>planned</v>
-      </c>
-      <c r="AX48" t="str">
-        <f t="shared" si="31"/>
-        <v>planned</v>
-      </c>
-      <c r="AY48" t="str">
-        <f t="shared" si="31"/>
-        <v>planned</v>
-      </c>
-      <c r="AZ48" t="str">
-        <f t="shared" si="31"/>
-        <v>planned</v>
-      </c>
-      <c r="BA48" t="str">
-        <f t="shared" si="31"/>
-        <v>planned</v>
-      </c>
-    </row>
-    <row r="49" spans="1:53">
-      <c r="A49" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49">
-        <f>SUM(B37:B48)</f>
-        <v>84</v>
-      </c>
-      <c r="C49">
-        <f>SUM(C37:C48)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:53" s="2" customFormat="1">
-      <c r="A50" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:53">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>5</v>
-      </c>
-      <c r="C51">
-        <v>5</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
       </c>
-      <c r="E51" t="str">
-        <f t="shared" ref="E51:I51" si="32">($D51)</f>
-        <v>complete</v>
-      </c>
-      <c r="F51" t="str">
+      <c r="AC51" t="str">
+        <f t="shared" ref="AC51:AD51" si="32">($D51)</f>
+        <v>complete</v>
+      </c>
+      <c r="AD51" t="str">
         <f t="shared" si="32"/>
         <v>complete</v>
       </c>
-      <c r="G51" t="str">
-        <f t="shared" si="32"/>
-        <v>complete</v>
-      </c>
-      <c r="H51" t="str">
-        <f t="shared" si="32"/>
-        <v>complete</v>
-      </c>
-      <c r="I51" t="str">
-        <f t="shared" si="32"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="52" spans="1:53">
+    </row>
+    <row r="52" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B52">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="s">
         <v>17</v>
       </c>
-      <c r="J52" t="str">
-        <f t="shared" ref="J52:N52" si="33">($D52)</f>
-        <v>complete</v>
-      </c>
-      <c r="K52" t="str">
+      <c r="AE52" t="str">
+        <f t="shared" ref="AE52:AH52" si="33">($D52)</f>
+        <v>complete</v>
+      </c>
+      <c r="AF52" t="str">
         <f t="shared" si="33"/>
         <v>complete</v>
       </c>
-      <c r="L52" t="str">
+      <c r="AG52" t="str">
         <f t="shared" si="33"/>
         <v>complete</v>
       </c>
-      <c r="M52" t="str">
+      <c r="AH52" t="str">
         <f t="shared" si="33"/>
         <v>complete</v>
       </c>
-      <c r="N52" t="str">
-        <f t="shared" si="33"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="53" spans="1:53">
+    </row>
+    <row r="53" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B53">
         <v>10</v>
@@ -4066,419 +4387,412 @@
       <c r="D53" t="s">
         <v>17</v>
       </c>
-      <c r="O53" t="str">
-        <f t="shared" ref="O53:T53" si="34">($D53)</f>
-        <v>complete</v>
-      </c>
-      <c r="P53" t="str">
+      <c r="AI53" t="str">
+        <f t="shared" ref="AI53:AN53" si="34">($D53)</f>
+        <v>complete</v>
+      </c>
+      <c r="AJ53" t="str">
         <f t="shared" si="34"/>
         <v>complete</v>
       </c>
-      <c r="Q53" t="str">
+      <c r="AK53" t="str">
         <f t="shared" si="34"/>
         <v>complete</v>
       </c>
-      <c r="R53" t="str">
+      <c r="AL53" t="str">
         <f t="shared" si="34"/>
         <v>complete</v>
       </c>
-      <c r="S53" t="str">
+      <c r="AM53" t="str">
         <f t="shared" si="34"/>
         <v>complete</v>
       </c>
-      <c r="T53" t="str">
+      <c r="AN53" t="str">
         <f t="shared" si="34"/>
         <v>complete</v>
       </c>
     </row>
-    <row r="54" spans="1:53">
+    <row r="54" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
       </c>
-      <c r="U54" t="str">
-        <f t="shared" ref="U54:V54" si="35">($D54)</f>
-        <v>complete</v>
-      </c>
-      <c r="V54" t="str">
+      <c r="AO54" t="str">
+        <f t="shared" ref="AO54:AR54" si="35">($D54)</f>
+        <v>complete</v>
+      </c>
+      <c r="AP54" t="str">
         <f t="shared" si="35"/>
         <v>complete</v>
       </c>
-    </row>
-    <row r="55" spans="1:53">
+      <c r="AQ54" t="str">
+        <f t="shared" si="35"/>
+        <v>complete</v>
+      </c>
+      <c r="AR54" t="str">
+        <f t="shared" si="35"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="55" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B55">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C55">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D55" t="s">
         <v>17</v>
       </c>
-      <c r="W55" t="str">
-        <f t="shared" ref="W55:AB55" si="36">($D55)</f>
-        <v>complete</v>
-      </c>
-      <c r="X55" t="str">
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+      <c r="AS55" t="str">
+        <f t="shared" ref="AS55:AT55" si="36">($D55)</f>
+        <v>complete</v>
+      </c>
+      <c r="AT55" t="str">
         <f t="shared" si="36"/>
         <v>complete</v>
       </c>
-      <c r="Y55" t="str">
-        <f t="shared" si="36"/>
-        <v>complete</v>
-      </c>
-      <c r="Z55" t="str">
-        <f t="shared" si="36"/>
-        <v>complete</v>
-      </c>
-      <c r="AA55" t="str">
-        <f t="shared" si="36"/>
-        <v>complete</v>
-      </c>
-      <c r="AB55" t="str">
-        <f t="shared" si="36"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="56" spans="1:53">
+    </row>
+    <row r="56" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B56">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC56" t="str">
-        <f t="shared" ref="AC56:AD56" si="37">($D56)</f>
-        <v>complete</v>
-      </c>
-      <c r="AD56" t="str">
+        <v>18</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AU56" t="str">
+        <f t="shared" ref="AU56:AV56" si="37">($D56)</f>
+        <v>this week</v>
+      </c>
+      <c r="AV56" t="str">
         <f t="shared" si="37"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="57" spans="1:53">
+        <v>this week</v>
+      </c>
+    </row>
+    <row r="57" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B57">
         <v>5</v>
       </c>
-      <c r="C57">
-        <v>4</v>
-      </c>
       <c r="D57" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE57" t="str">
-        <f t="shared" ref="AE57:AH57" si="38">($D57)</f>
-        <v>complete</v>
-      </c>
-      <c r="AF57" t="str">
+        <v>19</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+      <c r="AW57" t="str">
+        <f t="shared" ref="AW57:BA57" si="38">($D57)</f>
+        <v>planned</v>
+      </c>
+      <c r="AX57" t="str">
         <f t="shared" si="38"/>
-        <v>complete</v>
-      </c>
-      <c r="AG57" t="str">
+        <v>planned</v>
+      </c>
+      <c r="AY57" t="str">
         <f t="shared" si="38"/>
-        <v>complete</v>
-      </c>
-      <c r="AH57" t="str">
+        <v>planned</v>
+      </c>
+      <c r="AZ57" t="str">
         <f t="shared" si="38"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="58" spans="1:53">
+        <v>planned</v>
+      </c>
+      <c r="BA57" t="str">
+        <f t="shared" si="38"/>
+        <v>planned</v>
+      </c>
+    </row>
+    <row r="58" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B58">
-        <v>10</v>
+        <f>SUM(B46:B57)</f>
+        <v>84</v>
       </c>
       <c r="C58">
-        <v>6</v>
-      </c>
-      <c r="D58" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI58" t="str">
-        <f t="shared" ref="AI58:AN58" si="39">($D58)</f>
-        <v>complete</v>
-      </c>
-      <c r="AJ58" t="str">
-        <f t="shared" si="39"/>
-        <v>complete</v>
-      </c>
-      <c r="AK58" t="str">
-        <f t="shared" si="39"/>
-        <v>complete</v>
-      </c>
-      <c r="AL58" t="str">
-        <f t="shared" si="39"/>
-        <v>complete</v>
-      </c>
-      <c r="AM58" t="str">
-        <f t="shared" si="39"/>
-        <v>complete</v>
-      </c>
-      <c r="AN58" t="str">
-        <f t="shared" si="39"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="59" spans="1:53">
-      <c r="A59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>5</v>
-      </c>
-      <c r="C59">
-        <v>4</v>
-      </c>
-      <c r="D59" t="s">
-        <v>17</v>
-      </c>
-      <c r="AO59" t="str">
-        <f t="shared" ref="AO59:AR59" si="40">($D59)</f>
-        <v>complete</v>
-      </c>
-      <c r="AP59" t="str">
-        <f t="shared" si="40"/>
-        <v>complete</v>
-      </c>
-      <c r="AQ59" t="str">
-        <f t="shared" si="40"/>
-        <v>complete</v>
-      </c>
-      <c r="AR59" t="str">
-        <f t="shared" si="40"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="60" spans="1:53">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>2</v>
-      </c>
-      <c r="C60">
-        <v>2</v>
-      </c>
-      <c r="D60" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
-      <c r="X60" s="3"/>
-      <c r="Y60" s="3"/>
-      <c r="Z60" s="3"/>
-      <c r="AA60" s="3"/>
-      <c r="AS60" t="str">
-        <f t="shared" ref="AS60:AT60" si="41">($D60)</f>
-        <v>complete</v>
-      </c>
-      <c r="AT60" t="str">
-        <f t="shared" si="41"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="61" spans="1:53">
-      <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>2</v>
-      </c>
-      <c r="C61">
-        <v>2</v>
-      </c>
-      <c r="D61" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
-      <c r="W61" s="3"/>
-      <c r="X61" s="3"/>
-      <c r="Y61" s="3"/>
-      <c r="Z61" s="3"/>
-      <c r="AA61" s="3"/>
-      <c r="AU61" t="str">
-        <f t="shared" ref="AU61:AV61" si="42">($D61)</f>
-        <v>this week</v>
-      </c>
-      <c r="AV61" t="str">
-        <f t="shared" si="42"/>
-        <v>this week</v>
-      </c>
-    </row>
-    <row r="62" spans="1:53">
-      <c r="A62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>5</v>
-      </c>
-      <c r="D62" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-      <c r="V62" s="3"/>
-      <c r="W62" s="3"/>
-      <c r="X62" s="3"/>
-      <c r="Y62" s="3"/>
-      <c r="Z62" s="3"/>
-      <c r="AA62" s="3"/>
-      <c r="AW62" t="str">
-        <f t="shared" ref="AW62:BA62" si="43">($D62)</f>
-        <v>planned</v>
-      </c>
-      <c r="AX62" t="str">
-        <f t="shared" si="43"/>
-        <v>planned</v>
-      </c>
-      <c r="AY62" t="str">
-        <f t="shared" si="43"/>
-        <v>planned</v>
-      </c>
-      <c r="AZ62" t="str">
-        <f t="shared" si="43"/>
-        <v>planned</v>
-      </c>
-      <c r="BA62" t="str">
-        <f t="shared" si="43"/>
-        <v>planned</v>
-      </c>
-    </row>
-    <row r="63" spans="1:53">
-      <c r="A63" t="s">
-        <v>33</v>
-      </c>
-      <c r="B63">
-        <f>SUM(B51:B62)</f>
-        <v>84</v>
-      </c>
-      <c r="C63">
-        <f>SUM(C51:C62)</f>
+        <f>SUM(C46:C57)</f>
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:53" s="6" customFormat="1">
-      <c r="A64" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" s="6">
-        <f>SUM(B35,B49,B26,B16)</f>
-        <v>221</v>
-      </c>
-      <c r="C64" s="6">
-        <f>SUM(C16,C26,C35,C49)</f>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" s="6" customFormat="1">
-      <c r="A65" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B65" s="53">
-        <f>B64*100</f>
-        <v>22100</v>
-      </c>
-      <c r="C65" s="53">
-        <f>C64*100</f>
-        <v>10900</v>
-      </c>
-      <c r="D65" s="53"/>
+    <row r="59" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="6">
+        <f>SUM(B30,B44,B21,B11)</f>
+        <v>195</v>
+      </c>
+      <c r="C59" s="6">
+        <f>SUM(C11,C21,C30,C44)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="53">
+        <f>B59*100</f>
+        <v>19500</v>
+      </c>
+      <c r="C60" s="53">
+        <f>C59*100</f>
+        <v>7800</v>
+      </c>
+      <c r="D60" s="53"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D3 D18:D24">
-    <cfRule type="cellIs" dxfId="86" priority="115" operator="equal">
+  <conditionalFormatting sqref="D13:D19">
+    <cfRule type="cellIs" dxfId="125" priority="169" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="170" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="171" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D15">
-    <cfRule type="cellIs" dxfId="83" priority="112" operator="equal">
+  <conditionalFormatting sqref="D20">
+    <cfRule type="cellIs" dxfId="122" priority="163" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="164" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="165" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
+  <conditionalFormatting sqref="D28">
+    <cfRule type="cellIs" dxfId="119" priority="160" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="161" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="162" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="cellIs" dxfId="116" priority="157" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="158" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="159" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:D43">
+    <cfRule type="cellIs" dxfId="113" priority="154" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="155" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="156" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14 G14:BR14 E26:BR40 E25:O25 Q25:BR25 E15:BR24 F3 E4 E5:F5 H3:BR4 I5:BR5 E6:H6 E7:I7 K6:BR6 N7:BR7 E8:BR13">
+    <cfRule type="cellIs" dxfId="110" priority="151" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="152" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="153" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D10">
+    <cfRule type="cellIs" dxfId="107" priority="148" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="149" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="150" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:D27">
+    <cfRule type="cellIs" dxfId="104" priority="142" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="143" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="144" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D41">
+    <cfRule type="cellIs" dxfId="101" priority="139" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="140" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="141" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="cellIs" dxfId="98" priority="130" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="131" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="132" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="cellIs" dxfId="95" priority="127" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="128" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="129" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:M6">
+    <cfRule type="cellIs" dxfId="92" priority="124" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="125" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="126" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7:P7">
+    <cfRule type="cellIs" dxfId="89" priority="121" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="122" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="123" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q8:T8">
+    <cfRule type="cellIs" dxfId="86" priority="118" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="119" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="120" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9:AG9">
+    <cfRule type="cellIs" dxfId="83" priority="115" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="116" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="117" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH10">
     <cfRule type="cellIs" dxfId="80" priority="109" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4489,294 +4803,294 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="77" priority="106" operator="equal">
+  <conditionalFormatting sqref="AS41:AT41">
+    <cfRule type="cellIs" dxfId="77" priority="97" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="98" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="99" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="74" priority="103" operator="equal">
+  <conditionalFormatting sqref="AU42:AV42">
+    <cfRule type="cellIs" dxfId="74" priority="94" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="95" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="96" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D48">
-    <cfRule type="cellIs" dxfId="71" priority="100" operator="equal">
+  <conditionalFormatting sqref="AW43:BA43">
+    <cfRule type="cellIs" dxfId="71" priority="91" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="92" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="93" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:BR18 E19 G19:BR19 E31:BR45 E30:O30 Q30:BR30 E20:BR29">
-    <cfRule type="cellIs" dxfId="68" priority="97" operator="equal">
+  <conditionalFormatting sqref="D56:D57">
+    <cfRule type="cellIs" dxfId="68" priority="88" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="89" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="90" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D12">
-    <cfRule type="cellIs" dxfId="65" priority="94" operator="equal">
+  <conditionalFormatting sqref="E45:BR54">
+    <cfRule type="cellIs" dxfId="65" priority="85" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="86" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="87" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D32">
-    <cfRule type="cellIs" dxfId="62" priority="88" operator="equal">
+  <conditionalFormatting sqref="D46:D55">
+    <cfRule type="cellIs" dxfId="62" priority="82" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="83" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="84" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37:D46">
-    <cfRule type="cellIs" dxfId="59" priority="85" operator="equal">
+  <conditionalFormatting sqref="AS55:AT55">
+    <cfRule type="cellIs" dxfId="59" priority="79" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="80" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="81" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="56" priority="82" operator="equal">
+  <conditionalFormatting sqref="AU56:AV56">
+    <cfRule type="cellIs" dxfId="56" priority="76" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="77" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="78" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:H4">
-    <cfRule type="cellIs" dxfId="53" priority="79" operator="equal">
+  <conditionalFormatting sqref="AW57:BA57">
+    <cfRule type="cellIs" dxfId="53" priority="73" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="74" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="75" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="51" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="45" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="50" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="47" priority="73" operator="equal">
+  <conditionalFormatting sqref="J7">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7:M7">
-    <cfRule type="cellIs" dxfId="44" priority="70" operator="equal">
+  <conditionalFormatting sqref="K7">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8:P8">
-    <cfRule type="cellIs" dxfId="41" priority="67" operator="equal">
+  <conditionalFormatting sqref="L7">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q9:T9">
-    <cfRule type="cellIs" dxfId="38" priority="64" operator="equal">
+  <conditionalFormatting sqref="M7">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U10:AG10">
-    <cfRule type="cellIs" dxfId="35" priority="61" operator="equal">
+  <conditionalFormatting sqref="N8">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI12">
-    <cfRule type="cellIs" dxfId="32" priority="58" operator="equal">
+  <conditionalFormatting sqref="O8">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH11">
-    <cfRule type="cellIs" dxfId="29" priority="55" operator="equal">
+  <conditionalFormatting sqref="P9">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS46:AT46">
-    <cfRule type="cellIs" dxfId="26" priority="43" operator="equal">
+  <conditionalFormatting sqref="Q9">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU47:AV47">
-    <cfRule type="cellIs" dxfId="23" priority="40" operator="equal">
+  <conditionalFormatting sqref="R9">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="42" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW48:BA48">
-    <cfRule type="cellIs" dxfId="20" priority="37" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="38" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="39" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D61:D62">
-    <cfRule type="cellIs" dxfId="17" priority="34" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="35" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="36" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50:BR59">
-    <cfRule type="cellIs" dxfId="14" priority="31" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="32" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="33" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51:D60">
-    <cfRule type="cellIs" dxfId="11" priority="28" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="29" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="30" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS60:AT60">
-    <cfRule type="cellIs" dxfId="8" priority="25" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="26" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="27" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU61:AV61">
-    <cfRule type="cellIs" dxfId="5" priority="22" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="23" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="24" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW62:BA62">
-    <cfRule type="cellIs" dxfId="2" priority="19" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28:D34 D3:D15 D37:D48 D51:D62 D18:D25" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23:D29 D32:D43 D46:D57 D13:D20 D3:D10" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$F$1:$H$1</formula1>
     </dataValidation>
   </dataValidations>
@@ -4793,81 +5107,81 @@
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="6" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="62.25" customHeight="1">
-      <c r="B2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="B3" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -4900,7 +5214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -4909,37 +5223,37 @@
         <v>30</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -4948,31 +5262,31 @@
         <v>26</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -4981,33 +5295,33 @@
         <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -5016,33 +5330,33 @@
         <v>26</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -5051,33 +5365,33 @@
         <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
@@ -5086,55 +5400,55 @@
         <v>134</v>
       </c>
       <c r="C9" s="8">
-        <f>COUNTIF(C4:C8,"*ü*") * C3</f>
+        <f t="shared" ref="C9:L9" si="0">COUNTIF(C4:C8,"*ü*") * C3</f>
         <v>5</v>
       </c>
       <c r="D9" s="8">
-        <f>COUNTIF(D4:D8,"*ü*") * D3</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E9" s="8">
-        <f>COUNTIF(E4:E8,"*ü*") * E3</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F9" s="8">
-        <f>COUNTIF(F4:F8,"*ü*") * F3</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G9" s="8">
-        <f>COUNTIF(G4:G8,"*ü*") * G3</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="H9" s="8">
-        <f>COUNTIF(H4:H8,"*ü*") * H3</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I9" s="8">
-        <f>COUNTIF(I4:I8,"*ü*") * I3</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="J9" s="8">
-        <f>COUNTIF(J4:J8,"*ü*") * J3</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="K9" s="8">
-        <f>COUNTIF(K4:K8,"*ü*") * K3</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="L9" s="8">
-        <f>COUNTIF(L4:L8,"*ü*") * L3</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
     </row>
   </sheetData>
@@ -5151,7 +5465,7 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
@@ -5160,16 +5474,16 @@
     <col min="5" max="19" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="31"/>
       <c r="B1" s="32" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E1">
         <v>1</v>
@@ -5217,12 +5531,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C2" s="36">
         <v>2</v>
@@ -5233,10 +5547,10 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
       <c r="B3" s="35" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C3" s="36">
         <v>5</v>
@@ -5250,10 +5564,10 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="38"/>
       <c r="B4" s="35" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C4" s="36">
         <v>4</v>
@@ -5266,10 +5580,10 @@
       <c r="I4" s="4"/>
       <c r="J4" s="52"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
       <c r="B5" s="35" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C5" s="35">
         <f>SUM(C2:C4)</f>
@@ -5280,12 +5594,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C6" s="36">
         <v>2</v>
@@ -5296,10 +5610,10 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="46"/>
       <c r="B7" s="35" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C7" s="36">
         <v>5</v>
@@ -5313,10 +5627,10 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="38"/>
       <c r="B8" s="35" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C8" s="36">
         <v>4</v>
@@ -5329,10 +5643,10 @@
       <c r="I8" s="4"/>
       <c r="J8" s="47"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="35" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C9" s="35">
         <f>SUM(C6:C8)</f>
@@ -5343,12 +5657,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C10" s="36">
         <v>1</v>
@@ -5358,10 +5672,10 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="46"/>
       <c r="B11" s="35" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C11" s="36">
         <v>5</v>
@@ -5375,10 +5689,10 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="40" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C12" s="36">
         <v>2</v>
@@ -5387,14 +5701,14 @@
         <v>2</v>
       </c>
       <c r="K12" s="47" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="40" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C13" s="36">
         <v>1</v>
@@ -5403,13 +5717,13 @@
         <v>1</v>
       </c>
       <c r="M13" s="47" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="40" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C14" s="36">
         <v>2</v>
@@ -5418,14 +5732,14 @@
         <v>3</v>
       </c>
       <c r="N14" s="47" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="41" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C15" s="35">
         <f>SUM(C10:C14)</f>
@@ -5436,12 +5750,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C16" s="36">
         <v>2</v>
@@ -5452,10 +5766,10 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="46"/>
       <c r="B17" s="35" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C17" s="36">
         <v>5</v>
@@ -5469,10 +5783,10 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="35" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C18" s="36">
         <v>4</v>
@@ -5485,10 +5799,10 @@
       <c r="I18" s="4"/>
       <c r="J18" s="47"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="41" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C19" s="35">
         <f>SUM(C16:C18)</f>
@@ -5499,12 +5813,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C20" s="36">
         <v>2</v>
@@ -5515,10 +5829,10 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="46"/>
       <c r="B21" s="35" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C21" s="36">
         <v>5</v>
@@ -5532,10 +5846,10 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="35" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C22" s="36">
         <v>4</v>
@@ -5548,10 +5862,10 @@
       <c r="I22" s="4"/>
       <c r="J22" s="47"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
       <c r="B23" s="41" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C23" s="35">
         <f>SUM(C20:C22)</f>
@@ -5562,7 +5876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" thickBot="1">
+    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="42"/>
       <c r="B24" s="43" t="s">
         <v>0</v>
@@ -5576,9 +5890,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" s="30" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -5595,12 +5909,12 @@
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>8</v>
@@ -5618,9 +5932,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -5638,9 +5952,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5658,9 +5972,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -5678,9 +5992,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5698,9 +6012,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -5718,9 +6032,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5738,10 +6052,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>

--- a/docs/Gantt Chart.xlsx
+++ b/docs/Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Homework Assignments\Tower-of-Annihilation\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattmorrison/Documents/GitHub/Tower-of-Annihilation/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDF93A2-0765-41B5-8503-40DEEB2A66D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B979F22-4E68-3842-A8B6-BAAAD36D3073}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19180" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="115">
   <si>
     <t>Total</t>
   </si>
@@ -347,6 +347,42 @@
   </si>
   <si>
     <t>Health Bars</t>
+  </si>
+  <si>
+    <t>Plan basic moves</t>
+  </si>
+  <si>
+    <t>create a 'can see player function'</t>
+  </si>
+  <si>
+    <t>create a chase player function</t>
+  </si>
+  <si>
+    <t>plan patrolling system</t>
+  </si>
+  <si>
+    <t>Create basic detection system</t>
+  </si>
+  <si>
+    <t>Implement A Star Pathfinding</t>
+  </si>
+  <si>
+    <t>collaborate pathfinding features</t>
+  </si>
+  <si>
+    <t>plan searching system</t>
+  </si>
+  <si>
+    <t>implement searching functions</t>
+  </si>
+  <si>
+    <t>functions to interact with enviroment</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Demo Mode</t>
   </si>
 </sst>
 </file>
@@ -2279,31 +2315,30 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="2.83203125" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" customWidth="1"/>
-    <col min="18" max="18" width="5.140625" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" customWidth="1"/>
+    <col min="14" max="14" width="5.5" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" customWidth="1"/>
+    <col min="18" max="18" width="5.1640625" customWidth="1"/>
+    <col min="19" max="20" width="13.5" customWidth="1"/>
+    <col min="21" max="21" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C2" s="60" t="s">
         <v>0</v>
       </c>
@@ -2331,7 +2366,7 @@
       <c r="T2" s="61"/>
       <c r="U2" s="62"/>
     </row>
-    <row r="3" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
@@ -2379,7 +2414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B4" s="26" t="s">
         <v>8</v>
       </c>
@@ -2443,7 +2478,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
@@ -2507,7 +2542,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
@@ -2571,34 +2606,34 @@
         <v>-1300</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="17">
         <f t="shared" ref="C7:C8" si="7">(G7+K7 +O7+S7)</f>
-        <v>13500</v>
+        <v>8900</v>
       </c>
       <c r="D7" s="18">
         <f t="shared" ref="D7:D8" si="8">(H7+L7 +P7+T7)</f>
-        <v>11600</v>
+        <v>8500</v>
       </c>
       <c r="E7" s="19">
         <f t="shared" ref="E7:E8" si="9">(C7-D7)</f>
-        <v>1900</v>
+        <v>400</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="17">
         <f>(Gantt!$B44)*100</f>
-        <v>8400</v>
+        <v>3800</v>
       </c>
       <c r="H7" s="18">
         <f>(Gantt!$C44)*100</f>
-        <v>4400</v>
+        <v>2100</v>
       </c>
       <c r="I7" s="19">
         <f t="shared" ref="I7:I8" si="10">(G7-H7)</f>
-        <v>4000</v>
+        <v>1700</v>
       </c>
       <c r="K7" s="17">
         <v>1000</v>
@@ -2628,14 +2663,14 @@
       </c>
       <c r="T7" s="18">
         <f>Overhead!E9*100</f>
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="U7" s="19">
         <f t="shared" ref="U7:U8" si="13">(S7-T7)</f>
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
@@ -2699,34 +2734,34 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="27">
         <f>SUM(C4:C8)</f>
-        <v>53400</v>
+        <v>48800</v>
       </c>
       <c r="D9" s="28">
         <f>SUM(D4:D8)</f>
-        <v>47400</v>
+        <v>44300</v>
       </c>
       <c r="E9" s="29">
         <f>SUM(E4:E8)</f>
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="20">
         <f>SUM(G4:G8)</f>
-        <v>27900</v>
+        <v>23300</v>
       </c>
       <c r="H9" s="21">
         <f>SUM(H4:H8)</f>
-        <v>12200</v>
+        <v>9900</v>
       </c>
       <c r="I9" s="22">
         <f>SUM(I4:I8)</f>
-        <v>15700</v>
+        <v>13400</v>
       </c>
       <c r="K9" s="20">
         <f>SUM(K4:K8)</f>
@@ -2758,11 +2793,11 @@
       </c>
       <c r="T9" s="28">
         <f>SUM(T4:T8)</f>
-        <v>16000</v>
+        <v>15200</v>
       </c>
       <c r="U9" s="29">
         <f>SUM(U4:U8)</f>
-        <v>-1000</v>
+        <v>-200</v>
       </c>
     </row>
   </sheetData>
@@ -2782,20 +2817,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BK60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="57.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="57.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A1" s="48"/>
       <c r="B1" s="48" t="s">
         <v>13</v>
@@ -2874,7 +2909,7 @@
       <c r="BJ1" s="48"/>
       <c r="BK1" s="48"/>
     </row>
-    <row r="2" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3114,7 +3149,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -3132,7 +3167,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -3150,7 +3185,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -3172,7 +3207,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -3190,7 +3225,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>98</v>
       </c>
@@ -3220,7 +3255,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>99</v>
       </c>
@@ -3235,11 +3270,11 @@
         <v>this week</v>
       </c>
       <c r="O8" t="str">
-        <f t="shared" ref="O8:T9" si="4">($D8)</f>
+        <f t="shared" ref="O8:R9" si="4">($D8)</f>
         <v>this week</v>
       </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3262,7 +3297,7 @@
         <v>this week</v>
       </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -3281,7 +3316,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -3294,12 +3329,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -3318,7 +3353,7 @@
       </c>
       <c r="F13" s="56"/>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3342,7 +3377,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -3364,7 +3399,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -3383,7 +3418,7 @@
         <v>this week</v>
       </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -3410,7 +3445,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -3433,7 +3468,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -3468,7 +3503,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -3495,7 +3530,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -3508,12 +3543,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3531,7 +3566,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3557,7 +3592,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3602,7 +3637,7 @@
       <c r="Q25" s="56"/>
       <c r="R25" s="56"/>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3621,7 +3656,7 @@
       <c r="V26" s="58"/>
       <c r="W26" s="58"/>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3637,7 +3672,7 @@
       <c r="AA27" s="59"/>
       <c r="AB27" s="59"/>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3663,7 +3698,7 @@
       <c r="AP28" s="3"/>
       <c r="AQ28" s="3"/>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3690,7 +3725,7 @@
       <c r="BA29" s="59"/>
       <c r="BB29" s="3"/>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -3703,20 +3738,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -3742,12 +3777,12 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="33" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -3776,15 +3811,15 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="34" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
@@ -3814,15 +3849,15 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="35" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -3836,15 +3871,15 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="36" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
@@ -3874,15 +3909,15 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="37" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="B37">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
@@ -3896,15 +3931,15 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="38" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
@@ -3926,86 +3961,77 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="39" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="B39">
-        <v>10</v>
-      </c>
-      <c r="C39">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI39" t="str">
         <f t="shared" ref="AI39:AN39" si="22">($D39)</f>
-        <v>complete</v>
+        <v>this week</v>
       </c>
       <c r="AJ39" t="str">
         <f t="shared" si="22"/>
-        <v>complete</v>
+        <v>this week</v>
       </c>
       <c r="AK39" t="str">
         <f t="shared" si="22"/>
-        <v>complete</v>
+        <v>this week</v>
       </c>
       <c r="AL39" t="str">
         <f t="shared" si="22"/>
-        <v>complete</v>
+        <v>this week</v>
       </c>
       <c r="AM39" t="str">
         <f t="shared" si="22"/>
-        <v>complete</v>
+        <v>this week</v>
       </c>
       <c r="AN39" t="str">
         <f t="shared" si="22"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="40" spans="1:53" x14ac:dyDescent="0.25">
+        <v>this week</v>
+      </c>
+    </row>
+    <row r="40" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="B40">
-        <v>5</v>
-      </c>
-      <c r="C40">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO40" t="str">
         <f t="shared" ref="AO40:AR40" si="23">($D40)</f>
-        <v>complete</v>
+        <v>planned</v>
       </c>
       <c r="AP40" t="str">
         <f t="shared" si="23"/>
-        <v>complete</v>
+        <v>planned</v>
       </c>
       <c r="AQ40" t="str">
         <f t="shared" si="23"/>
-        <v>complete</v>
+        <v>planned</v>
       </c>
       <c r="AR40" t="str">
         <f t="shared" si="23"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="41" spans="1:53" x14ac:dyDescent="0.25">
+        <v>planned</v>
+      </c>
+    </row>
+    <row r="41" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -4032,25 +4058,22 @@
       <c r="AA41" s="3"/>
       <c r="AS41" t="str">
         <f t="shared" ref="AS41:AT41" si="24">($D41)</f>
-        <v>complete</v>
+        <v>planned</v>
       </c>
       <c r="AT41" t="str">
         <f t="shared" si="24"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="42" spans="1:53" x14ac:dyDescent="0.25">
+        <v>planned</v>
+      </c>
+    </row>
+    <row r="42" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="C42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -4077,19 +4100,19 @@
       <c r="AA42" s="3"/>
       <c r="AU42" t="str">
         <f t="shared" ref="AU42:AV42" si="25">($D42)</f>
-        <v>this week</v>
+        <v>planned</v>
       </c>
       <c r="AV42" t="str">
         <f t="shared" si="25"/>
-        <v>this week</v>
-      </c>
-    </row>
-    <row r="43" spans="1:53" x14ac:dyDescent="0.25">
+        <v>planned</v>
+      </c>
+    </row>
+    <row r="43" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="s">
         <v>19</v>
@@ -4138,25 +4161,25 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="44" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>22</v>
       </c>
       <c r="B44">
         <f>SUM(B32:B43)</f>
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="C44">
         <f>SUM(C32:C43)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -4190,7 +4213,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="47" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -4224,7 +4247,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="48" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -4262,7 +4285,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="49" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -4284,7 +4307,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="50" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -4322,7 +4345,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="51" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -4344,7 +4367,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="52" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -4374,7 +4397,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="53" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -4412,7 +4435,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="54" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -4442,7 +4465,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="55" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -4487,7 +4510,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="56" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -4532,7 +4555,7 @@
         <v>this week</v>
       </c>
     </row>
-    <row r="57" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -4586,7 +4609,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="58" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -4599,30 +4622,30 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B59" s="6">
         <f>SUM(B30,B44,B21,B11)</f>
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="C59" s="6">
         <f>SUM(C11,C21,C30,C44)</f>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B60" s="53">
         <f>B59*100</f>
-        <v>19500</v>
+        <v>14900</v>
       </c>
       <c r="C60" s="53">
         <f>C59*100</f>
-        <v>7800</v>
+        <v>5500</v>
       </c>
       <c r="D60" s="53"/>
     </row>
@@ -5107,9 +5130,9 @@
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>52</v>
       </c>
@@ -5144,7 +5167,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>63</v>
       </c>
@@ -5179,7 +5202,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>72</v>
       </c>
@@ -5214,7 +5237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -5253,7 +5276,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -5286,7 +5309,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -5321,7 +5344,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -5356,7 +5379,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -5391,7 +5414,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
@@ -5440,15 +5463,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
     </row>
   </sheetData>
@@ -5461,20 +5484,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="19" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="19" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="31"/>
       <c r="B1" s="32" t="s">
         <v>74</v>
@@ -5531,7 +5554,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>8</v>
       </c>
@@ -5547,7 +5570,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="46"/>
       <c r="B3" s="35" t="s">
         <v>78</v>
@@ -5564,7 +5587,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
       <c r="B4" s="35" t="s">
         <v>79</v>
@@ -5580,7 +5603,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="52"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="38"/>
       <c r="B5" s="35" t="s">
         <v>80</v>
@@ -5594,7 +5617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
         <v>9</v>
       </c>
@@ -5610,7 +5633,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="46"/>
       <c r="B7" s="35" t="s">
         <v>78</v>
@@ -5627,7 +5650,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="38"/>
       <c r="B8" s="35" t="s">
         <v>81</v>
@@ -5643,7 +5666,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="47"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="35" t="s">
         <v>80</v>
@@ -5657,7 +5680,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
         <v>10</v>
       </c>
@@ -5672,7 +5695,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="46"/>
       <c r="B11" s="35" t="s">
         <v>78</v>
@@ -5689,7 +5712,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="38"/>
       <c r="B12" s="40" t="s">
         <v>82</v>
@@ -5705,7 +5728,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="38"/>
       <c r="B13" s="40" t="s">
         <v>84</v>
@@ -5720,7 +5743,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="38"/>
       <c r="B14" s="40" t="s">
         <v>86</v>
@@ -5736,7 +5759,7 @@
       </c>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="38"/>
       <c r="B15" s="41" t="s">
         <v>80</v>
@@ -5750,7 +5773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
         <v>11</v>
       </c>
@@ -5766,7 +5789,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="46"/>
       <c r="B17" s="35" t="s">
         <v>78</v>
@@ -5783,7 +5806,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="38"/>
       <c r="B18" s="35" t="s">
         <v>88</v>
@@ -5799,7 +5822,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="47"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="38"/>
       <c r="B19" s="41" t="s">
         <v>80</v>
@@ -5813,7 +5836,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="34" t="s">
         <v>12</v>
       </c>
@@ -5829,7 +5852,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="46"/>
       <c r="B21" s="35" t="s">
         <v>78</v>
@@ -5846,7 +5869,7 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="38"/>
       <c r="B22" s="35" t="s">
         <v>89</v>
@@ -5862,7 +5885,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="47"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="38"/>
       <c r="B23" s="41" t="s">
         <v>80</v>
@@ -5876,7 +5899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="42"/>
       <c r="B24" s="43" t="s">
         <v>0</v>
@@ -5890,7 +5913,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B25" s="30" t="s">
         <v>90</v>
       </c>
@@ -5906,15 +5929,15 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>8</v>
@@ -5932,7 +5955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>91</v>
       </c>
@@ -5946,13 +5969,13 @@
         <v>27</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>92</v>
       </c>
@@ -5966,13 +5989,13 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>93</v>
       </c>
@@ -5992,7 +6015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>94</v>
       </c>
@@ -6006,13 +6029,13 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>95</v>
       </c>
@@ -6026,13 +6049,13 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F6">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>96</v>
       </c>
@@ -6052,10 +6075,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
@@ -6073,7 +6096,7 @@
       </c>
       <c r="E9" s="6">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="0"/>

--- a/docs/Gantt Chart.xlsx
+++ b/docs/Gantt Chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattmorrison/Documents/GitHub/Tower-of-Annihilation/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B979F22-4E68-3842-A8B6-BAAAD36D3073}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F5C1DE-0DEB-4A45-B7A9-849659EDB930}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19180" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -655,7 +655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -733,6 +733,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -2616,11 +2617,11 @@
       </c>
       <c r="D7" s="18">
         <f t="shared" ref="D7:D8" si="8">(H7+L7 +P7+T7)</f>
-        <v>8500</v>
+        <v>8800</v>
       </c>
       <c r="E7" s="19">
         <f t="shared" ref="E7:E8" si="9">(C7-D7)</f>
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="17">
@@ -2629,11 +2630,11 @@
       </c>
       <c r="H7" s="18">
         <f>(Gantt!$C44)*100</f>
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="I7" s="19">
         <f t="shared" ref="I7:I8" si="10">(G7-H7)</f>
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="K7" s="17">
         <v>1000</v>
@@ -2744,11 +2745,11 @@
       </c>
       <c r="D9" s="28">
         <f>SUM(D4:D8)</f>
-        <v>44300</v>
+        <v>44600</v>
       </c>
       <c r="E9" s="29">
         <f>SUM(E4:E8)</f>
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="20">
@@ -2757,11 +2758,11 @@
       </c>
       <c r="H9" s="21">
         <f>SUM(H4:H8)</f>
-        <v>9900</v>
+        <v>10200</v>
       </c>
       <c r="I9" s="22">
         <f>SUM(I4:I8)</f>
-        <v>13400</v>
+        <v>13100</v>
       </c>
       <c r="K9" s="20">
         <f>SUM(K4:K8)</f>
@@ -2817,8 +2818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BK60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3968,32 +3969,35 @@
       <c r="B39">
         <v>3</v>
       </c>
-      <c r="D39" t="s">
-        <v>18</v>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39" s="63" t="s">
+        <v>17</v>
       </c>
       <c r="AI39" t="str">
         <f t="shared" ref="AI39:AN39" si="22">($D39)</f>
-        <v>this week</v>
+        <v>complete</v>
       </c>
       <c r="AJ39" t="str">
         <f t="shared" si="22"/>
-        <v>this week</v>
+        <v>complete</v>
       </c>
       <c r="AK39" t="str">
         <f t="shared" si="22"/>
-        <v>this week</v>
+        <v>complete</v>
       </c>
       <c r="AL39" t="str">
         <f t="shared" si="22"/>
-        <v>this week</v>
+        <v>complete</v>
       </c>
       <c r="AM39" t="str">
         <f t="shared" si="22"/>
-        <v>this week</v>
+        <v>complete</v>
       </c>
       <c r="AN39" t="str">
         <f t="shared" si="22"/>
-        <v>this week</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="40" spans="1:53" x14ac:dyDescent="0.2">
@@ -4003,24 +4007,24 @@
       <c r="B40">
         <v>4</v>
       </c>
-      <c r="D40" t="s">
-        <v>19</v>
+      <c r="D40" s="58" t="s">
+        <v>18</v>
       </c>
       <c r="AO40" t="str">
         <f t="shared" ref="AO40:AR40" si="23">($D40)</f>
-        <v>planned</v>
+        <v>this week</v>
       </c>
       <c r="AP40" t="str">
         <f t="shared" si="23"/>
-        <v>planned</v>
+        <v>this week</v>
       </c>
       <c r="AQ40" t="str">
         <f t="shared" si="23"/>
-        <v>planned</v>
+        <v>this week</v>
       </c>
       <c r="AR40" t="str">
         <f t="shared" si="23"/>
-        <v>planned</v>
+        <v>this week</v>
       </c>
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.2">
@@ -4171,7 +4175,7 @@
       </c>
       <c r="C44">
         <f>SUM(C32:C43)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4632,7 +4636,7 @@
       </c>
       <c r="C59" s="6">
         <f>SUM(C11,C21,C30,C44)</f>
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4645,7 +4649,7 @@
       </c>
       <c r="C60" s="53">
         <f>C59*100</f>
-        <v>5500</v>
+        <v>5800</v>
       </c>
       <c r="D60" s="53"/>
     </row>

--- a/docs/Gantt Chart.xlsx
+++ b/docs/Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23821"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattmorrison/Documents/GitHub/Tower-of-Annihilation/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natev\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F5C1DE-0DEB-4A45-B7A9-849659EDB930}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3CF0D36-6AD4-4847-8C0C-9F2AE00F73E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19180" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="SA" sheetId="4" r:id="rId4"/>
     <sheet name="Overhead" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="110">
   <si>
     <t>Total</t>
   </si>
@@ -100,12 +100,45 @@
     <t>planned</t>
   </si>
   <si>
+    <t>Requirements Collection</t>
+  </si>
+  <si>
     <t>Repo + Git Setup</t>
   </si>
   <si>
+    <t>Installation</t>
+  </si>
+  <si>
+    <t>Music - Pre Loaded</t>
+  </si>
+  <si>
+    <t>Base Sound Managment</t>
+  </si>
+  <si>
+    <t>Base Sound - Obstacle Connection</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>In-Depth Frequency + Obstacle Connection (Beatmap working)</t>
+  </si>
+  <si>
+    <t>Integrate With Song Menu</t>
+  </si>
+  <si>
     <t>Coin/Power-up integration</t>
   </si>
   <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Further Testing</t>
+  </si>
+  <si>
+    <t>Adding Patterns and Other Requirements</t>
+  </si>
+  <si>
     <t>totals</t>
   </si>
   <si>
@@ -124,15 +157,21 @@
     <t>Implement Dialogue</t>
   </si>
   <si>
-    <t>Code boss' battles/ bullets</t>
-  </si>
-  <si>
     <t>Possibly Add Other Attack Types</t>
   </si>
   <si>
+    <t>Help Code Mid-Boss</t>
+  </si>
+  <si>
+    <t>Code Final Boss</t>
+  </si>
+  <si>
     <t>Possible Cutscene Creation</t>
   </si>
   <si>
+    <t>Debug + Misc</t>
+  </si>
+  <si>
     <t>Next Level Script</t>
   </si>
   <si>
@@ -151,7 +190,7 @@
     <t>Audio Production</t>
   </si>
   <si>
-    <t>Quality Insurance Testing</t>
+    <t>Final Quality Insurance Testing</t>
   </si>
   <si>
     <t>HUD Layout</t>
@@ -329,60 +368,6 @@
   </si>
   <si>
     <t>Post Mortum Presentation Prep</t>
-  </si>
-  <si>
-    <t>Player Manager Script</t>
-  </si>
-  <si>
-    <t>Sprites / Animations / Tileset</t>
-  </si>
-  <si>
-    <t>Sound Manager</t>
-  </si>
-  <si>
-    <t>Unity Project Setup</t>
-  </si>
-  <si>
-    <t>Player Movement</t>
-  </si>
-  <si>
-    <t>Health Bars</t>
-  </si>
-  <si>
-    <t>Plan basic moves</t>
-  </si>
-  <si>
-    <t>create a 'can see player function'</t>
-  </si>
-  <si>
-    <t>create a chase player function</t>
-  </si>
-  <si>
-    <t>plan patrolling system</t>
-  </si>
-  <si>
-    <t>Create basic detection system</t>
-  </si>
-  <si>
-    <t>Implement A Star Pathfinding</t>
-  </si>
-  <si>
-    <t>collaborate pathfinding features</t>
-  </si>
-  <si>
-    <t>plan searching system</t>
-  </si>
-  <si>
-    <t>implement searching functions</t>
-  </si>
-  <si>
-    <t>functions to interact with enviroment</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Demo Mode</t>
   </si>
 </sst>
 </file>
@@ -393,7 +378,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,7 +640,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -733,13 +718,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="126">
+  <dxfs count="87">
     <dxf>
       <font>
         <color auto="1"/>
@@ -832,10 +816,40 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="1"/>
         </patternFill>
       </fill>
@@ -862,10 +876,40 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="1"/>
         </patternFill>
       </fill>
@@ -1252,16 +1296,106 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFF00"/>
       </font>
       <fill>
@@ -1282,567 +1416,27 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill>
@@ -2316,30 +1910,31 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="3.5" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="2.83203125" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" customWidth="1"/>
-    <col min="14" max="14" width="5.5" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" customWidth="1"/>
-    <col min="18" max="18" width="5.1640625" customWidth="1"/>
-    <col min="19" max="20" width="13.5" customWidth="1"/>
-    <col min="21" max="21" width="16.5" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" customWidth="1"/>
+    <col min="21" max="21" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:21" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:21">
       <c r="C2" s="60" t="s">
         <v>0</v>
       </c>
@@ -2367,7 +1962,7 @@
       <c r="T2" s="61"/>
       <c r="U2" s="62"/>
     </row>
-    <row r="3" spans="2:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" ht="15.75" thickBot="1">
       <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
@@ -2415,34 +2010,34 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:21">
       <c r="B4" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="23">
         <f>(G4+K4 +O4+S4)</f>
-        <v>6900</v>
+        <v>9500</v>
       </c>
       <c r="D4" s="24">
         <f t="shared" ref="D4:D6" si="0">(H4+L4 +P4+T4)</f>
-        <v>8000</v>
+        <v>11100</v>
       </c>
       <c r="E4" s="25">
         <f>(C4-D4)</f>
-        <v>-1100</v>
+        <v>-1600</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="17">
-        <f>(Gantt!$B11)*100</f>
-        <v>1800</v>
+        <f>(Gantt!$B16)*100</f>
+        <v>4400</v>
       </c>
       <c r="H4" s="18">
-        <f>(Gantt!$C11)*100</f>
-        <v>1100</v>
+        <f>(Gantt!$C16)*100</f>
+        <v>4200</v>
       </c>
       <c r="I4" s="19">
         <f>(G4-H4)</f>
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="K4" s="23">
         <v>1000</v>
@@ -2479,13 +2074,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:21">
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="17">
         <f t="shared" ref="C5:C6" si="1">(G5+K5 +O5+S5)</f>
-        <v>9600</v>
+        <v>10000</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" si="0"/>
@@ -2493,20 +2088,20 @@
       </c>
       <c r="E5" s="19">
         <f t="shared" ref="E5:E6" si="2">(C5-D5)</f>
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="17">
-        <f>(Gantt!$B21)*100</f>
-        <v>4500</v>
+        <f>(Gantt!$B28)*100</f>
+        <v>4900</v>
       </c>
       <c r="H5" s="18">
-        <f>(Gantt!$C21)*100</f>
+        <f>(Gantt!$C28)*100</f>
         <v>900</v>
       </c>
       <c r="I5" s="19">
         <f t="shared" ref="I5:I6" si="3">(G5-H5)</f>
-        <v>3600</v>
+        <v>4000</v>
       </c>
       <c r="K5" s="17">
         <v>1000</v>
@@ -2543,7 +2138,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:21">
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
@@ -2561,11 +2156,11 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="17">
-        <f>(Gantt!$B30)*100</f>
+        <f>(Gantt!$B37)*100</f>
         <v>4800</v>
       </c>
       <c r="H6" s="18">
-        <f>(Gantt!$C30)*100</f>
+        <f>(Gantt!$C37)*100</f>
         <v>1400</v>
       </c>
       <c r="I6" s="19">
@@ -2607,34 +2202,34 @@
         <v>-1300</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:21">
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="17">
         <f t="shared" ref="C7:C8" si="7">(G7+K7 +O7+S7)</f>
-        <v>8900</v>
+        <v>13500</v>
       </c>
       <c r="D7" s="18">
         <f t="shared" ref="D7:D8" si="8">(H7+L7 +P7+T7)</f>
-        <v>8800</v>
+        <v>11600</v>
       </c>
       <c r="E7" s="19">
         <f t="shared" ref="E7:E8" si="9">(C7-D7)</f>
-        <v>100</v>
+        <v>1900</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="17">
-        <f>(Gantt!$B44)*100</f>
-        <v>3800</v>
+        <f>(Gantt!$B51)*100</f>
+        <v>8400</v>
       </c>
       <c r="H7" s="18">
-        <f>(Gantt!$C44)*100</f>
-        <v>2400</v>
+        <f>(Gantt!$C51)*100</f>
+        <v>4400</v>
       </c>
       <c r="I7" s="19">
         <f t="shared" ref="I7:I8" si="10">(G7-H7)</f>
-        <v>1400</v>
+        <v>4000</v>
       </c>
       <c r="K7" s="17">
         <v>1000</v>
@@ -2664,14 +2259,14 @@
       </c>
       <c r="T7" s="18">
         <f>Overhead!E9*100</f>
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="U7" s="19">
         <f t="shared" ref="U7:U8" si="13">(S7-T7)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21">
       <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
@@ -2689,11 +2284,11 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="17">
-        <f>(Gantt!$B58)*100</f>
+        <f>(Gantt!$B65)*100</f>
         <v>8400</v>
       </c>
       <c r="H8" s="18">
-        <f>(Gantt!$C58)*100</f>
+        <f>(Gantt!$C65)*100</f>
         <v>4400</v>
       </c>
       <c r="I8" s="19">
@@ -2735,34 +2330,34 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" ht="15.75" thickBot="1">
       <c r="B9" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="27">
         <f>SUM(C4:C8)</f>
-        <v>48800</v>
+        <v>56400</v>
       </c>
       <c r="D9" s="28">
         <f>SUM(D4:D8)</f>
-        <v>44600</v>
+        <v>50500</v>
       </c>
       <c r="E9" s="29">
         <f>SUM(E4:E8)</f>
-        <v>4200</v>
+        <v>5900</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="20">
         <f>SUM(G4:G8)</f>
-        <v>23300</v>
+        <v>30900</v>
       </c>
       <c r="H9" s="21">
         <f>SUM(H4:H8)</f>
-        <v>10200</v>
+        <v>15300</v>
       </c>
       <c r="I9" s="22">
         <f>SUM(I4:I8)</f>
-        <v>13100</v>
+        <v>15600</v>
       </c>
       <c r="K9" s="20">
         <f>SUM(K4:K8)</f>
@@ -2794,11 +2389,11 @@
       </c>
       <c r="T9" s="28">
         <f>SUM(T4:T8)</f>
-        <v>15200</v>
+        <v>16000</v>
       </c>
       <c r="U9" s="29">
         <f>SUM(U4:U8)</f>
-        <v>-200</v>
+        <v>-1000</v>
       </c>
     </row>
   </sheetData>
@@ -2816,22 +2411,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BK60"/>
+  <dimension ref="A1:BK67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:63">
       <c r="A1" s="48"/>
       <c r="B1" s="48" t="s">
         <v>13</v>
@@ -2910,7 +2504,7 @@
       <c r="BJ1" s="48"/>
       <c r="BK1" s="48"/>
     </row>
-    <row r="2" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:63" s="2" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3150,15 +2744,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:63">
       <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -3167,13 +2761,17 @@
         <f>($D3)</f>
         <v>complete</v>
       </c>
-    </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="F3" t="str">
+        <f>($D3)</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -3181,1645 +2779,1737 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="str">
-        <f>($D4)</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:H4" si="3">($D4)</f>
+        <v>complete</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="3"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="str">
+      <c r="I5" t="str">
         <f>($D5)</f>
         <v>complete</v>
       </c>
-      <c r="H5" t="str">
-        <f>($D5)</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:63">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="I6" t="str">
+      <c r="J6" t="str">
         <f>($D6)</f>
         <v>complete</v>
       </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:63">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="J7" t="str">
-        <f>($D7)</f>
-        <v>complete</v>
-      </c>
       <c r="K7" t="str">
-        <f>($D7)</f>
+        <f t="shared" ref="K7:M7" si="4">($D7)</f>
         <v>complete</v>
       </c>
       <c r="L7" t="str">
-        <f>($D7)</f>
+        <f t="shared" si="4"/>
         <v>complete</v>
       </c>
       <c r="M7" t="str">
-        <f>($D7)</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" ref="N8:P8" si="5">($D8)</f>
+        <v>complete</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="5"/>
+        <v>complete</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="5"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" ref="Q9:T9" si="6">($D9)</f>
+        <v>complete</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="6"/>
+        <v>complete</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="6"/>
+        <v>complete</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="6"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" ref="U10:AG10" si="7">($D10)</f>
+        <v>complete</v>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="7"/>
+        <v>complete</v>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="7"/>
+        <v>complete</v>
+      </c>
+      <c r="X10" t="str">
+        <f t="shared" si="7"/>
+        <v>complete</v>
+      </c>
+      <c r="Y10" t="str">
+        <f t="shared" si="7"/>
+        <v>complete</v>
+      </c>
+      <c r="Z10" t="str">
+        <f t="shared" si="7"/>
+        <v>complete</v>
+      </c>
+      <c r="AA10" t="str">
+        <f t="shared" si="7"/>
+        <v>complete</v>
+      </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="7"/>
+        <v>complete</v>
+      </c>
+      <c r="AC10" t="str">
+        <f t="shared" si="7"/>
+        <v>complete</v>
+      </c>
+      <c r="AD10" t="str">
+        <f t="shared" si="7"/>
+        <v>complete</v>
+      </c>
+      <c r="AE10" t="str">
+        <f t="shared" si="7"/>
+        <v>complete</v>
+      </c>
+      <c r="AF10" t="str">
+        <f t="shared" si="7"/>
+        <v>complete</v>
+      </c>
+      <c r="AG10" t="str">
+        <f t="shared" si="7"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH11" t="str">
+        <f>($D11)</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI12" t="str">
+        <f>($D12)</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="N8" t="str">
-        <f t="shared" ref="N8" si="3">($D8)</f>
+      <c r="AJ13" t="str">
+        <f t="shared" ref="AJ13:AN13" si="8">($D13)</f>
         <v>this week</v>
       </c>
-      <c r="O8" t="str">
-        <f t="shared" ref="O8:R9" si="4">($D8)</f>
-        <v>this week</v>
-      </c>
-    </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="P9" t="str">
-        <f t="shared" si="4"/>
-        <v>this week</v>
-      </c>
-      <c r="Q9" t="str">
-        <f t="shared" si="4"/>
-        <v>this week</v>
-      </c>
-      <c r="R9" t="str">
-        <f t="shared" si="4"/>
-        <v>this week</v>
-      </c>
-    </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="S10" t="str">
-        <f t="shared" ref="S10:T10" si="5">($D10)</f>
-        <v>planned</v>
-      </c>
-      <c r="T10" t="str">
-        <f t="shared" si="5"/>
-        <v>planned</v>
-      </c>
-    </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <f>SUM(B3:B10)</f>
-        <v>18</v>
-      </c>
-      <c r="C11">
-        <f>SUM(C3:C10)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="str">
-        <f>($D13)</f>
-        <v>complete</v>
-      </c>
-      <c r="F13" s="56"/>
-    </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="54"/>
-      <c r="G14" s="56"/>
-      <c r="H14" t="str">
-        <f t="shared" ref="H14:I14" si="6">($D14)</f>
-        <v>complete</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="6"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" ref="J15:K15" si="7">($D15)</f>
-        <v>complete</v>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="7"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" t="str">
-        <f t="shared" ref="L16:M16" si="8">($D16)</f>
-        <v>this week</v>
-      </c>
-      <c r="M16" t="str">
+      <c r="AK13" t="str">
         <f t="shared" si="8"/>
         <v>this week</v>
       </c>
-    </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17">
+      <c r="AL13" t="str">
+        <f t="shared" si="8"/>
+        <v>this week</v>
+      </c>
+      <c r="AM13" t="str">
+        <f t="shared" si="8"/>
+        <v>this week</v>
+      </c>
+      <c r="AN13" t="str">
+        <f t="shared" si="8"/>
+        <v>this week</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
         <v>5</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO14" t="str">
+        <f t="shared" ref="AO14:AV14" si="9">($D14)</f>
+        <v>this week</v>
+      </c>
+      <c r="AP14" t="str">
+        <f t="shared" si="9"/>
+        <v>this week</v>
+      </c>
+      <c r="AQ14" t="str">
+        <f t="shared" si="9"/>
+        <v>this week</v>
+      </c>
+      <c r="AR14" t="str">
+        <f t="shared" si="9"/>
+        <v>this week</v>
+      </c>
+      <c r="AS14" t="str">
+        <f t="shared" si="9"/>
+        <v>this week</v>
+      </c>
+      <c r="AT14" t="str">
+        <f t="shared" si="9"/>
+        <v>this week</v>
+      </c>
+      <c r="AU14" t="str">
+        <f t="shared" si="9"/>
+        <v>this week</v>
+      </c>
+      <c r="AV14" t="str">
+        <f t="shared" si="9"/>
+        <v>this week</v>
+      </c>
+    </row>
+    <row r="15" spans="1:63">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="N17" t="str">
-        <f t="shared" ref="N17:Q17" si="9">($D17)</f>
+      <c r="AW15" t="str">
+        <f t="shared" ref="AW15:AZ15" si="10">($D15)</f>
         <v>planned</v>
       </c>
-      <c r="O17" t="str">
-        <f t="shared" si="9"/>
-        <v>planned</v>
-      </c>
-      <c r="P17" t="str">
-        <f t="shared" si="9"/>
-        <v>planned</v>
-      </c>
-      <c r="Q17" t="str">
-        <f t="shared" si="9"/>
-        <v>planned</v>
-      </c>
-    </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18">
-        <v>10</v>
-      </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
-      <c r="R18" t="str">
-        <f t="shared" ref="R18:T18" si="10">($D18)</f>
-        <v>planned</v>
-      </c>
-      <c r="S18" t="str">
+      <c r="AX15" t="str">
         <f t="shared" si="10"/>
         <v>planned</v>
       </c>
-      <c r="T18" t="str">
+      <c r="AY15" t="str">
         <f t="shared" si="10"/>
         <v>planned</v>
       </c>
-    </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="AZ15" t="str">
+        <f t="shared" si="10"/>
+        <v>planned</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <f>SUM(B3:B15)</f>
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <f>SUM(C3:C15)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" s="2" customFormat="1">
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="str">
+        <f>($D18)</f>
+        <v>complete</v>
+      </c>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:46">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="V19" t="str">
-        <f t="shared" ref="V19:AA19" si="11">($D19)</f>
-        <v>planned</v>
-      </c>
-      <c r="W19" t="str">
+        <v>17</v>
+      </c>
+      <c r="F19" s="54"/>
+      <c r="G19" s="56"/>
+      <c r="H19" t="str">
+        <f t="shared" ref="H19:I19" si="11">($D19)</f>
+        <v>complete</v>
+      </c>
+      <c r="I19" t="str">
         <f t="shared" si="11"/>
-        <v>planned</v>
-      </c>
-      <c r="X19" t="str">
-        <f t="shared" si="11"/>
-        <v>planned</v>
-      </c>
-      <c r="Y19" t="str">
-        <f t="shared" si="11"/>
-        <v>planned</v>
-      </c>
-      <c r="Z19" t="str">
-        <f t="shared" si="11"/>
-        <v>planned</v>
-      </c>
-      <c r="AA19" t="str">
-        <f t="shared" si="11"/>
-        <v>planned</v>
-      </c>
-    </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.2">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
       <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" ref="J20:K20" si="12">($D20)</f>
+        <v>complete</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="12"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>19</v>
       </c>
-      <c r="AQ20" t="str">
-        <f t="shared" ref="AQ20:AT20" si="12">($D20)</f>
+      <c r="L21" t="str">
+        <f t="shared" ref="L21:M21" si="13">($D21)</f>
         <v>planned</v>
       </c>
-      <c r="AR20" t="str">
-        <f t="shared" si="12"/>
+      <c r="M21" t="str">
+        <f t="shared" si="13"/>
         <v>planned</v>
       </c>
-      <c r="AS20" t="str">
-        <f t="shared" si="12"/>
+    </row>
+    <row r="22" spans="1:46">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" ref="N22:Q22" si="14">($D22)</f>
         <v>planned</v>
       </c>
-      <c r="AT20" t="str">
-        <f t="shared" si="12"/>
+      <c r="O22" t="str">
+        <f t="shared" si="14"/>
         <v>planned</v>
       </c>
-    </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <f>SUM(B13:B20)</f>
-        <v>45</v>
-      </c>
-      <c r="C21">
-        <f>SUM(C13:C20)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="P22" t="str">
+        <f t="shared" si="14"/>
+        <v>planned</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="14"/>
+        <v>planned</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" ref="E23" si="13">($D23)</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="R23" t="str">
+        <f t="shared" ref="R23:T23" si="15">($D23)</f>
+        <v>planned</v>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" si="15"/>
+        <v>planned</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="15"/>
+        <v>planned</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" t="str">
+        <v>19</v>
+      </c>
+      <c r="U24" t="str">
         <f>($D24)</f>
-        <v>complete</v>
-      </c>
-      <c r="G24" t="str">
-        <f>($D24)</f>
-        <v>complete</v>
-      </c>
-      <c r="H24" t="str">
-        <f>($D24)</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.2">
+        <v>planned</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <v>10</v>
       </c>
-      <c r="C25">
-        <v>9</v>
-      </c>
       <c r="D25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" t="str">
-        <f>($D25)</f>
-        <v>complete</v>
-      </c>
-      <c r="J25" t="str">
-        <f>($D25)</f>
-        <v>complete</v>
-      </c>
-      <c r="K25" t="str">
-        <f t="shared" ref="K25:M25" si="14">($D25)</f>
-        <v>complete</v>
-      </c>
-      <c r="L25" t="str">
-        <f t="shared" si="14"/>
-        <v>complete</v>
-      </c>
-      <c r="M25" t="str">
-        <f t="shared" si="14"/>
-        <v>complete</v>
-      </c>
-      <c r="N25" t="str">
-        <f>($D25)</f>
-        <v>complete</v>
-      </c>
-      <c r="O25" t="str">
-        <f>($D25)</f>
-        <v>complete</v>
-      </c>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-    </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" ref="V25:AA25" si="16">($D25)</f>
+        <v>planned</v>
+      </c>
+      <c r="W25" t="str">
+        <f t="shared" si="16"/>
+        <v>planned</v>
+      </c>
+      <c r="X25" t="str">
+        <f t="shared" si="16"/>
+        <v>planned</v>
+      </c>
+      <c r="Y25" t="str">
+        <f t="shared" si="16"/>
+        <v>planned</v>
+      </c>
+      <c r="Z25" t="str">
+        <f t="shared" si="16"/>
+        <v>planned</v>
+      </c>
+      <c r="AA25" t="str">
+        <f t="shared" si="16"/>
+        <v>planned</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B26">
-        <v>5</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
-      </c>
-      <c r="S26" s="57"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="58"/>
-      <c r="W26" s="58"/>
-    </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="AQ26" t="str">
+        <f t="shared" ref="AQ26:AT26" si="17">($D26)</f>
+        <v>planned</v>
+      </c>
+      <c r="AR26" t="str">
+        <f t="shared" si="17"/>
+        <v>planned</v>
+      </c>
+      <c r="AS26" t="str">
+        <f t="shared" si="17"/>
+        <v>planned</v>
+      </c>
+      <c r="AT26" t="str">
+        <f t="shared" si="17"/>
+        <v>planned</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
         <v>19</v>
       </c>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="59"/>
-      <c r="AA27" s="59"/>
-      <c r="AB27" s="59"/>
-    </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:46">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B28">
+        <f>SUM(B18:B27)</f>
+        <v>49</v>
+      </c>
+      <c r="C28">
+        <f>SUM(C18:C27)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" s="2" customFormat="1">
+      <c r="A29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC28" s="59"/>
-      <c r="AD28" s="59"/>
-      <c r="AE28" s="59"/>
-      <c r="AF28" s="59"/>
-      <c r="AG28" s="59"/>
-      <c r="AH28" s="59"/>
-      <c r="AI28" s="59"/>
-      <c r="AJ28" s="59"/>
-      <c r="AK28" s="59"/>
-      <c r="AL28" s="59"/>
-      <c r="AM28" s="3"/>
-      <c r="AN28" s="3"/>
-      <c r="AO28" s="3"/>
-      <c r="AP28" s="3"/>
-      <c r="AQ28" s="3"/>
-    </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29">
-        <v>15</v>
-      </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM29" s="59"/>
-      <c r="AN29" s="59"/>
-      <c r="AO29" s="59"/>
-      <c r="AP29" s="59"/>
-      <c r="AQ29" s="59"/>
-      <c r="AR29" s="59"/>
-      <c r="AS29" s="59"/>
-      <c r="AT29" s="59"/>
-      <c r="AU29" s="59"/>
-      <c r="AV29" s="59"/>
-      <c r="AW29" s="59"/>
-      <c r="AX29" s="59"/>
-      <c r="AY29" s="59"/>
-      <c r="AZ29" s="59"/>
-      <c r="BA29" s="59"/>
-      <c r="BB29" s="3"/>
-    </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:46">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B30">
-        <f>SUM(B23:B29)</f>
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <f>SUM(C23:C29)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" ref="E30:H30" si="18">($D30)</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" t="str">
+        <f>($D31)</f>
+        <v>complete</v>
+      </c>
+      <c r="G31" t="str">
+        <f>($D31)</f>
+        <v>complete</v>
+      </c>
+      <c r="H31" t="str">
+        <f>($D31)</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
       </c>
-      <c r="E32" t="str">
-        <f t="shared" ref="E32:I32" si="15">($D32)</f>
-        <v>complete</v>
-      </c>
-      <c r="F32" t="str">
-        <f t="shared" si="15"/>
-        <v>complete</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" si="15"/>
-        <v>complete</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="15"/>
-        <v>complete</v>
-      </c>
       <c r="I32" t="str">
-        <f t="shared" si="15"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="33" spans="1:53" x14ac:dyDescent="0.2">
+        <f>($D32)</f>
+        <v>complete</v>
+      </c>
+      <c r="J32" t="str">
+        <f>($D32)</f>
+        <v>complete</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" ref="J32:M32" si="19">($D32)</f>
+        <v>complete</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="19"/>
+        <v>complete</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="19"/>
+        <v>complete</v>
+      </c>
+      <c r="N32" t="str">
+        <f>($D32)</f>
+        <v>complete</v>
+      </c>
+      <c r="O32" t="str">
+        <f>($D32)</f>
+        <v>complete</v>
+      </c>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+    </row>
+    <row r="33" spans="1:54">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="S33" s="57"/>
+      <c r="T33" s="58"/>
+      <c r="U33" s="58"/>
+      <c r="V33" s="58"/>
+      <c r="W33" s="58"/>
+    </row>
+    <row r="34" spans="1:54">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="59"/>
+      <c r="AA34" s="59"/>
+      <c r="AB34" s="59"/>
+    </row>
+    <row r="35" spans="1:54">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="59"/>
+      <c r="AF35" s="59"/>
+      <c r="AG35" s="59"/>
+      <c r="AH35" s="59"/>
+      <c r="AI35" s="59"/>
+      <c r="AJ35" s="59"/>
+      <c r="AK35" s="59"/>
+      <c r="AL35" s="59"/>
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="3"/>
+      <c r="AO35" s="3"/>
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="3"/>
+    </row>
+    <row r="36" spans="1:54">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM36" s="59"/>
+      <c r="AN36" s="59"/>
+      <c r="AO36" s="59"/>
+      <c r="AP36" s="59"/>
+      <c r="AQ36" s="59"/>
+      <c r="AR36" s="59"/>
+      <c r="AS36" s="59"/>
+      <c r="AT36" s="59"/>
+      <c r="AU36" s="59"/>
+      <c r="AV36" s="59"/>
+      <c r="AW36" s="59"/>
+      <c r="AX36" s="59"/>
+      <c r="AY36" s="59"/>
+      <c r="AZ36" s="59"/>
+      <c r="BA36" s="59"/>
+      <c r="BB36" s="3"/>
+    </row>
+    <row r="37" spans="1:54">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37">
+        <f>SUM(B30:B36)</f>
+        <v>48</v>
+      </c>
+      <c r="C37">
+        <f>SUM(C30:C36)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:54" s="2" customFormat="1">
+      <c r="A38" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:54">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" ref="E39:I39" si="20">($D39)</f>
+        <v>complete</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="20"/>
+        <v>complete</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="20"/>
+        <v>complete</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="20"/>
+        <v>complete</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="20"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="40" spans="1:54">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" ref="J40:N40" si="21">($D40)</f>
+        <v>complete</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="21"/>
+        <v>complete</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="21"/>
+        <v>complete</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="21"/>
+        <v>complete</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="21"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="41" spans="1:54">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>17</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" ref="O41:T41" si="22">($D41)</f>
+        <v>complete</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="22"/>
+        <v>complete</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="22"/>
+        <v>complete</v>
+      </c>
+      <c r="R41" t="str">
+        <f t="shared" si="22"/>
+        <v>complete</v>
+      </c>
+      <c r="S41" t="str">
+        <f t="shared" si="22"/>
+        <v>complete</v>
+      </c>
+      <c r="T41" t="str">
+        <f t="shared" si="22"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="42" spans="1:54">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="U42" t="str">
+        <f t="shared" ref="U42:V42" si="23">($D42)</f>
+        <v>complete</v>
+      </c>
+      <c r="V42" t="str">
+        <f t="shared" si="23"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="43" spans="1:54">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+      <c r="W43" t="str">
+        <f t="shared" ref="W43:AB43" si="24">($D43)</f>
+        <v>complete</v>
+      </c>
+      <c r="X43" t="str">
+        <f t="shared" si="24"/>
+        <v>complete</v>
+      </c>
+      <c r="Y43" t="str">
+        <f t="shared" si="24"/>
+        <v>complete</v>
+      </c>
+      <c r="Z43" t="str">
+        <f t="shared" si="24"/>
+        <v>complete</v>
+      </c>
+      <c r="AA43" t="str">
+        <f t="shared" si="24"/>
+        <v>complete</v>
+      </c>
+      <c r="AB43" t="str">
+        <f t="shared" si="24"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="44" spans="1:54">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC44" t="str">
+        <f t="shared" ref="AC44:AD44" si="25">($D44)</f>
+        <v>complete</v>
+      </c>
+      <c r="AD44" t="str">
+        <f t="shared" si="25"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="45" spans="1:54">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
         <v>4</v>
       </c>
-      <c r="C33">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="D45" t="s">
         <v>17</v>
       </c>
-      <c r="J33" t="str">
-        <f t="shared" ref="J33:N33" si="16">($D33)</f>
-        <v>complete</v>
-      </c>
-      <c r="K33" t="str">
-        <f t="shared" si="16"/>
-        <v>complete</v>
-      </c>
-      <c r="L33" t="str">
-        <f t="shared" si="16"/>
-        <v>complete</v>
-      </c>
-      <c r="M33" t="str">
-        <f t="shared" si="16"/>
-        <v>complete</v>
-      </c>
-      <c r="N33" t="str">
-        <f t="shared" si="16"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="34" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>17</v>
-      </c>
-      <c r="O34" t="str">
-        <f t="shared" ref="O34:T34" si="17">($D34)</f>
-        <v>complete</v>
-      </c>
-      <c r="P34" t="str">
-        <f t="shared" si="17"/>
-        <v>complete</v>
-      </c>
-      <c r="Q34" t="str">
-        <f t="shared" si="17"/>
-        <v>complete</v>
-      </c>
-      <c r="R34" t="str">
-        <f t="shared" si="17"/>
-        <v>complete</v>
-      </c>
-      <c r="S34" t="str">
-        <f t="shared" si="17"/>
-        <v>complete</v>
-      </c>
-      <c r="T34" t="str">
-        <f t="shared" si="17"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="35" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>17</v>
-      </c>
-      <c r="U35" t="str">
-        <f t="shared" ref="U35:V35" si="18">($D35)</f>
-        <v>complete</v>
-      </c>
-      <c r="V35" t="str">
-        <f t="shared" si="18"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="36" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s">
-        <v>17</v>
-      </c>
-      <c r="W36" t="str">
-        <f t="shared" ref="W36:AB36" si="19">($D36)</f>
-        <v>complete</v>
-      </c>
-      <c r="X36" t="str">
-        <f t="shared" si="19"/>
-        <v>complete</v>
-      </c>
-      <c r="Y36" t="str">
-        <f t="shared" si="19"/>
-        <v>complete</v>
-      </c>
-      <c r="Z36" t="str">
-        <f t="shared" si="19"/>
-        <v>complete</v>
-      </c>
-      <c r="AA36" t="str">
-        <f t="shared" si="19"/>
-        <v>complete</v>
-      </c>
-      <c r="AB36" t="str">
-        <f t="shared" si="19"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="37" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37">
-        <v>5</v>
-      </c>
-      <c r="C37">
+      <c r="AE45" t="str">
+        <f t="shared" ref="AE45:AH45" si="26">($D45)</f>
+        <v>complete</v>
+      </c>
+      <c r="AF45" t="str">
+        <f t="shared" si="26"/>
+        <v>complete</v>
+      </c>
+      <c r="AG45" t="str">
+        <f t="shared" si="26"/>
+        <v>complete</v>
+      </c>
+      <c r="AH45" t="str">
+        <f t="shared" si="26"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="46" spans="1:54">
+      <c r="A46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46">
         <v>6</v>
-      </c>
-      <c r="D37" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC37" t="str">
-        <f t="shared" ref="AC37:AD37" si="20">($D37)</f>
-        <v>complete</v>
-      </c>
-      <c r="AD37" t="str">
-        <f t="shared" si="20"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="38" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>109</v>
-      </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-      <c r="D38" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE38" t="str">
-        <f t="shared" ref="AE38:AH38" si="21">($D38)</f>
-        <v>complete</v>
-      </c>
-      <c r="AF38" t="str">
-        <f t="shared" si="21"/>
-        <v>complete</v>
-      </c>
-      <c r="AG38" t="str">
-        <f t="shared" si="21"/>
-        <v>complete</v>
-      </c>
-      <c r="AH38" t="str">
-        <f t="shared" si="21"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="39" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI39" t="str">
-        <f t="shared" ref="AI39:AN39" si="22">($D39)</f>
-        <v>complete</v>
-      </c>
-      <c r="AJ39" t="str">
-        <f t="shared" si="22"/>
-        <v>complete</v>
-      </c>
-      <c r="AK39" t="str">
-        <f t="shared" si="22"/>
-        <v>complete</v>
-      </c>
-      <c r="AL39" t="str">
-        <f t="shared" si="22"/>
-        <v>complete</v>
-      </c>
-      <c r="AM39" t="str">
-        <f t="shared" si="22"/>
-        <v>complete</v>
-      </c>
-      <c r="AN39" t="str">
-        <f t="shared" si="22"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="40" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>111</v>
-      </c>
-      <c r="B40">
-        <v>4</v>
-      </c>
-      <c r="D40" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="AO40" t="str">
-        <f t="shared" ref="AO40:AR40" si="23">($D40)</f>
-        <v>this week</v>
-      </c>
-      <c r="AP40" t="str">
-        <f t="shared" si="23"/>
-        <v>this week</v>
-      </c>
-      <c r="AQ40" t="str">
-        <f t="shared" si="23"/>
-        <v>this week</v>
-      </c>
-      <c r="AR40" t="str">
-        <f t="shared" si="23"/>
-        <v>this week</v>
-      </c>
-    </row>
-    <row r="41" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="D41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-      <c r="AS41" t="str">
-        <f t="shared" ref="AS41:AT41" si="24">($D41)</f>
-        <v>planned</v>
-      </c>
-      <c r="AT41" t="str">
-        <f t="shared" si="24"/>
-        <v>planned</v>
-      </c>
-    </row>
-    <row r="42" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>114</v>
-      </c>
-      <c r="B42">
-        <v>5</v>
-      </c>
-      <c r="D42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
-      <c r="AU42" t="str">
-        <f t="shared" ref="AU42:AV42" si="25">($D42)</f>
-        <v>planned</v>
-      </c>
-      <c r="AV42" t="str">
-        <f t="shared" si="25"/>
-        <v>planned</v>
-      </c>
-    </row>
-    <row r="43" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>113</v>
-      </c>
-      <c r="B43">
-        <v>4</v>
-      </c>
-      <c r="D43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-      <c r="AW43" t="str">
-        <f t="shared" ref="AW43:BA43" si="26">($D43)</f>
-        <v>planned</v>
-      </c>
-      <c r="AX43" t="str">
-        <f t="shared" si="26"/>
-        <v>planned</v>
-      </c>
-      <c r="AY43" t="str">
-        <f t="shared" si="26"/>
-        <v>planned</v>
-      </c>
-      <c r="AZ43" t="str">
-        <f t="shared" si="26"/>
-        <v>planned</v>
-      </c>
-      <c r="BA43" t="str">
-        <f t="shared" si="26"/>
-        <v>planned</v>
-      </c>
-    </row>
-    <row r="44" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44">
-        <f>SUM(B32:B43)</f>
-        <v>38</v>
-      </c>
-      <c r="C44">
-        <f>SUM(C32:C43)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46">
-        <v>5</v>
-      </c>
-      <c r="C46">
-        <v>5</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
       </c>
-      <c r="E46" t="str">
-        <f t="shared" ref="E46:I46" si="27">($D46)</f>
-        <v>complete</v>
-      </c>
-      <c r="F46" t="str">
+      <c r="AI46" t="str">
+        <f t="shared" ref="AI46:AN46" si="27">($D46)</f>
+        <v>complete</v>
+      </c>
+      <c r="AJ46" t="str">
         <f t="shared" si="27"/>
         <v>complete</v>
       </c>
-      <c r="G46" t="str">
+      <c r="AK46" t="str">
         <f t="shared" si="27"/>
         <v>complete</v>
       </c>
-      <c r="H46" t="str">
+      <c r="AL46" t="str">
         <f t="shared" si="27"/>
         <v>complete</v>
       </c>
-      <c r="I46" t="str">
+      <c r="AM46" t="str">
         <f t="shared" si="27"/>
         <v>complete</v>
       </c>
-    </row>
-    <row r="47" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="AN46" t="str">
+        <f t="shared" si="27"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="47" spans="1:54">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B47">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
       </c>
-      <c r="J47" t="str">
-        <f t="shared" ref="J47:N47" si="28">($D47)</f>
-        <v>complete</v>
-      </c>
-      <c r="K47" t="str">
+      <c r="AO47" t="str">
+        <f t="shared" ref="AO47:AR47" si="28">($D47)</f>
+        <v>complete</v>
+      </c>
+      <c r="AP47" t="str">
         <f t="shared" si="28"/>
         <v>complete</v>
       </c>
-      <c r="L47" t="str">
+      <c r="AQ47" t="str">
         <f t="shared" si="28"/>
         <v>complete</v>
       </c>
-      <c r="M47" t="str">
+      <c r="AR47" t="str">
         <f t="shared" si="28"/>
         <v>complete</v>
       </c>
-      <c r="N47" t="str">
-        <f t="shared" si="28"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="48" spans="1:53" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:54">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
       </c>
-      <c r="O48" t="str">
-        <f t="shared" ref="O48:T48" si="29">($D48)</f>
-        <v>complete</v>
-      </c>
-      <c r="P48" t="str">
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AS48" t="str">
+        <f t="shared" ref="AS48:AT48" si="29">($D48)</f>
+        <v>complete</v>
+      </c>
+      <c r="AT48" t="str">
         <f t="shared" si="29"/>
         <v>complete</v>
       </c>
-      <c r="Q48" t="str">
-        <f t="shared" si="29"/>
-        <v>complete</v>
-      </c>
-      <c r="R48" t="str">
-        <f t="shared" si="29"/>
-        <v>complete</v>
-      </c>
-      <c r="S48" t="str">
-        <f t="shared" si="29"/>
-        <v>complete</v>
-      </c>
-      <c r="T48" t="str">
-        <f t="shared" si="29"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="49" spans="1:53" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:53">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
-      </c>
-      <c r="U49" t="str">
-        <f t="shared" ref="U49:V49" si="30">($D49)</f>
-        <v>complete</v>
-      </c>
-      <c r="V49" t="str">
+        <v>18</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AU49" t="str">
+        <f t="shared" ref="AU49:AV49" si="30">($D49)</f>
+        <v>this week</v>
+      </c>
+      <c r="AV49" t="str">
         <f t="shared" si="30"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="50" spans="1:53" x14ac:dyDescent="0.2">
+        <v>this week</v>
+      </c>
+    </row>
+    <row r="50" spans="1:53">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B50">
-        <v>10</v>
-      </c>
-      <c r="C50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
-      </c>
-      <c r="W50" t="str">
-        <f t="shared" ref="W50:AB50" si="31">($D50)</f>
-        <v>complete</v>
-      </c>
-      <c r="X50" t="str">
+        <v>19</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AW50" t="str">
+        <f t="shared" ref="AW50:BA50" si="31">($D50)</f>
+        <v>planned</v>
+      </c>
+      <c r="AX50" t="str">
         <f t="shared" si="31"/>
-        <v>complete</v>
-      </c>
-      <c r="Y50" t="str">
+        <v>planned</v>
+      </c>
+      <c r="AY50" t="str">
         <f t="shared" si="31"/>
-        <v>complete</v>
-      </c>
-      <c r="Z50" t="str">
+        <v>planned</v>
+      </c>
+      <c r="AZ50" t="str">
         <f t="shared" si="31"/>
-        <v>complete</v>
-      </c>
-      <c r="AA50" t="str">
+        <v>planned</v>
+      </c>
+      <c r="BA50" t="str">
         <f t="shared" si="31"/>
-        <v>complete</v>
-      </c>
-      <c r="AB50" t="str">
-        <f t="shared" si="31"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="51" spans="1:53" x14ac:dyDescent="0.2">
+        <v>planned</v>
+      </c>
+    </row>
+    <row r="51" spans="1:53">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <f>SUM(B39:B50)</f>
+        <v>84</v>
       </c>
       <c r="C51">
-        <v>2</v>
-      </c>
-      <c r="D51" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC51" t="str">
-        <f t="shared" ref="AC51:AD51" si="32">($D51)</f>
-        <v>complete</v>
-      </c>
-      <c r="AD51" t="str">
-        <f t="shared" si="32"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="52" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+        <f>SUM(C39:C50)</f>
         <v>44</v>
       </c>
-      <c r="B52">
+    </row>
+    <row r="52" spans="1:53" s="2" customFormat="1">
+      <c r="A52" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:53">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53">
         <v>5</v>
       </c>
-      <c r="C52">
-        <v>4</v>
-      </c>
-      <c r="D52" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE52" t="str">
-        <f t="shared" ref="AE52:AH52" si="33">($D52)</f>
-        <v>complete</v>
-      </c>
-      <c r="AF52" t="str">
-        <f t="shared" si="33"/>
-        <v>complete</v>
-      </c>
-      <c r="AG52" t="str">
-        <f t="shared" si="33"/>
-        <v>complete</v>
-      </c>
-      <c r="AH52" t="str">
-        <f t="shared" si="33"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="53" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>45</v>
-      </c>
-      <c r="B53">
-        <v>10</v>
-      </c>
       <c r="C53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D53" t="s">
         <v>17</v>
       </c>
-      <c r="AI53" t="str">
-        <f t="shared" ref="AI53:AN53" si="34">($D53)</f>
-        <v>complete</v>
-      </c>
-      <c r="AJ53" t="str">
-        <f t="shared" si="34"/>
-        <v>complete</v>
-      </c>
-      <c r="AK53" t="str">
-        <f t="shared" si="34"/>
-        <v>complete</v>
-      </c>
-      <c r="AL53" t="str">
-        <f t="shared" si="34"/>
-        <v>complete</v>
-      </c>
-      <c r="AM53" t="str">
-        <f t="shared" si="34"/>
-        <v>complete</v>
-      </c>
-      <c r="AN53" t="str">
-        <f t="shared" si="34"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="54" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="E53" t="str">
+        <f t="shared" ref="E53:I53" si="32">($D53)</f>
+        <v>complete</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="32"/>
+        <v>complete</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="32"/>
+        <v>complete</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="32"/>
+        <v>complete</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="32"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="54" spans="1:53">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
         <v>5</v>
-      </c>
-      <c r="C54">
-        <v>4</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
       </c>
-      <c r="AO54" t="str">
-        <f t="shared" ref="AO54:AR54" si="35">($D54)</f>
-        <v>complete</v>
-      </c>
-      <c r="AP54" t="str">
-        <f t="shared" si="35"/>
-        <v>complete</v>
-      </c>
-      <c r="AQ54" t="str">
-        <f t="shared" si="35"/>
-        <v>complete</v>
-      </c>
-      <c r="AR54" t="str">
-        <f t="shared" si="35"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="55" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="J54" t="str">
+        <f t="shared" ref="J54:N54" si="33">($D54)</f>
+        <v>complete</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="33"/>
+        <v>complete</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="33"/>
+        <v>complete</v>
+      </c>
+      <c r="M54" t="str">
+        <f t="shared" si="33"/>
+        <v>complete</v>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="33"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="55" spans="1:53">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D55" t="s">
         <v>17</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
-      <c r="AA55" s="3"/>
-      <c r="AS55" t="str">
-        <f t="shared" ref="AS55:AT55" si="36">($D55)</f>
-        <v>complete</v>
-      </c>
-      <c r="AT55" t="str">
-        <f t="shared" si="36"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="56" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="O55" t="str">
+        <f t="shared" ref="O55:T55" si="34">($D55)</f>
+        <v>complete</v>
+      </c>
+      <c r="P55" t="str">
+        <f t="shared" si="34"/>
+        <v>complete</v>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" si="34"/>
+        <v>complete</v>
+      </c>
+      <c r="R55" t="str">
+        <f t="shared" si="34"/>
+        <v>complete</v>
+      </c>
+      <c r="S55" t="str">
+        <f t="shared" si="34"/>
+        <v>complete</v>
+      </c>
+      <c r="T55" t="str">
+        <f t="shared" si="34"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="56" spans="1:53">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
       <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="U56" t="str">
+        <f t="shared" ref="U56:V56" si="35">($D56)</f>
+        <v>complete</v>
+      </c>
+      <c r="V56" t="str">
+        <f t="shared" si="35"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="57" spans="1:53">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="W57" t="str">
+        <f t="shared" ref="W57:AB57" si="36">($D57)</f>
+        <v>complete</v>
+      </c>
+      <c r="X57" t="str">
+        <f t="shared" si="36"/>
+        <v>complete</v>
+      </c>
+      <c r="Y57" t="str">
+        <f t="shared" si="36"/>
+        <v>complete</v>
+      </c>
+      <c r="Z57" t="str">
+        <f t="shared" si="36"/>
+        <v>complete</v>
+      </c>
+      <c r="AA57" t="str">
+        <f t="shared" si="36"/>
+        <v>complete</v>
+      </c>
+      <c r="AB57" t="str">
+        <f t="shared" si="36"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="58" spans="1:53">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC58" t="str">
+        <f t="shared" ref="AC58:AD58" si="37">($D58)</f>
+        <v>complete</v>
+      </c>
+      <c r="AD58" t="str">
+        <f t="shared" si="37"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="59" spans="1:53">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE59" t="str">
+        <f t="shared" ref="AE59:AH59" si="38">($D59)</f>
+        <v>complete</v>
+      </c>
+      <c r="AF59" t="str">
+        <f t="shared" si="38"/>
+        <v>complete</v>
+      </c>
+      <c r="AG59" t="str">
+        <f t="shared" si="38"/>
+        <v>complete</v>
+      </c>
+      <c r="AH59" t="str">
+        <f t="shared" si="38"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="60" spans="1:53">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI60" t="str">
+        <f t="shared" ref="AI60:AN60" si="39">($D60)</f>
+        <v>complete</v>
+      </c>
+      <c r="AJ60" t="str">
+        <f t="shared" si="39"/>
+        <v>complete</v>
+      </c>
+      <c r="AK60" t="str">
+        <f t="shared" si="39"/>
+        <v>complete</v>
+      </c>
+      <c r="AL60" t="str">
+        <f t="shared" si="39"/>
+        <v>complete</v>
+      </c>
+      <c r="AM60" t="str">
+        <f t="shared" si="39"/>
+        <v>complete</v>
+      </c>
+      <c r="AN60" t="str">
+        <f t="shared" si="39"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="61" spans="1:53">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO61" t="str">
+        <f t="shared" ref="AO61:AR61" si="40">($D61)</f>
+        <v>complete</v>
+      </c>
+      <c r="AP61" t="str">
+        <f t="shared" si="40"/>
+        <v>complete</v>
+      </c>
+      <c r="AQ61" t="str">
+        <f t="shared" si="40"/>
+        <v>complete</v>
+      </c>
+      <c r="AR61" t="str">
+        <f t="shared" si="40"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="62" spans="1:53">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="3"/>
+      <c r="AA62" s="3"/>
+      <c r="AS62" t="str">
+        <f t="shared" ref="AS62:AT62" si="41">($D62)</f>
+        <v>complete</v>
+      </c>
+      <c r="AT62" t="str">
+        <f t="shared" si="41"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="63" spans="1:53">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-      <c r="AA56" s="3"/>
-      <c r="AU56" t="str">
-        <f t="shared" ref="AU56:AV56" si="37">($D56)</f>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+      <c r="Z63" s="3"/>
+      <c r="AA63" s="3"/>
+      <c r="AU63" t="str">
+        <f t="shared" ref="AU63:AV63" si="42">($D63)</f>
         <v>this week</v>
       </c>
-      <c r="AV56" t="str">
-        <f t="shared" si="37"/>
+      <c r="AV63" t="str">
+        <f t="shared" si="42"/>
         <v>this week</v>
       </c>
     </row>
-    <row r="57" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>49</v>
-      </c>
-      <c r="B57">
+    <row r="64" spans="1:53">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64">
         <v>5</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D64" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
-      <c r="V57" s="3"/>
-      <c r="W57" s="3"/>
-      <c r="X57" s="3"/>
-      <c r="Y57" s="3"/>
-      <c r="Z57" s="3"/>
-      <c r="AA57" s="3"/>
-      <c r="AW57" t="str">
-        <f t="shared" ref="AW57:BA57" si="38">($D57)</f>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="3"/>
+      <c r="AA64" s="3"/>
+      <c r="AW64" t="str">
+        <f t="shared" ref="AW64:BA64" si="43">($D64)</f>
         <v>planned</v>
       </c>
-      <c r="AX57" t="str">
-        <f t="shared" si="38"/>
+      <c r="AX64" t="str">
+        <f t="shared" si="43"/>
         <v>planned</v>
       </c>
-      <c r="AY57" t="str">
-        <f t="shared" si="38"/>
+      <c r="AY64" t="str">
+        <f t="shared" si="43"/>
         <v>planned</v>
       </c>
-      <c r="AZ57" t="str">
-        <f t="shared" si="38"/>
+      <c r="AZ64" t="str">
+        <f t="shared" si="43"/>
         <v>planned</v>
       </c>
-      <c r="BA57" t="str">
-        <f t="shared" si="38"/>
+      <c r="BA64" t="str">
+        <f t="shared" si="43"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="58" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>22</v>
-      </c>
-      <c r="B58">
-        <f>SUM(B46:B57)</f>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65">
+        <f>SUM(B53:B64)</f>
         <v>84</v>
       </c>
-      <c r="C58">
-        <f>SUM(C46:C57)</f>
+      <c r="C65">
+        <f>SUM(C53:C64)</f>
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B59" s="6">
-        <f>SUM(B30,B44,B21,B11)</f>
-        <v>149</v>
-      </c>
-      <c r="C59" s="6">
-        <f>SUM(C11,C21,C30,C44)</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B60" s="53">
-        <f>B59*100</f>
-        <v>14900</v>
-      </c>
-      <c r="C60" s="53">
-        <f>C59*100</f>
-        <v>5800</v>
-      </c>
-      <c r="D60" s="53"/>
+    <row r="66" spans="1:4" s="6" customFormat="1">
+      <c r="A66" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="6">
+        <f>SUM(B37,B51,B28,B16)</f>
+        <v>225</v>
+      </c>
+      <c r="C66" s="6">
+        <f>SUM(C16,C28,C37,C51)</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="6" customFormat="1">
+      <c r="A67" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" s="53">
+        <f>B66*100</f>
+        <v>22500</v>
+      </c>
+      <c r="C67" s="53">
+        <f>C66*100</f>
+        <v>10900</v>
+      </c>
+      <c r="D67" s="53"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D13:D19">
-    <cfRule type="cellIs" dxfId="125" priority="169" operator="equal">
+  <conditionalFormatting sqref="D3 D18:D25">
+    <cfRule type="cellIs" dxfId="86" priority="115" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="116" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="117" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="122" priority="163" operator="equal">
+  <conditionalFormatting sqref="D13:D15">
+    <cfRule type="cellIs" dxfId="83" priority="112" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="113" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="114" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="119" priority="160" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="161" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="162" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
-    <cfRule type="cellIs" dxfId="116" priority="157" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="158" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="159" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D42:D43">
-    <cfRule type="cellIs" dxfId="113" priority="154" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="155" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="156" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14 G14:BR14 E26:BR40 E25:O25 Q25:BR25 E15:BR24 F3 E4 E5:F5 H3:BR4 I5:BR5 E6:H6 E7:I7 K6:BR6 N7:BR7 E8:BR13">
-    <cfRule type="cellIs" dxfId="110" priority="151" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="152" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="153" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D10">
-    <cfRule type="cellIs" dxfId="107" priority="148" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="149" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="150" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D27">
-    <cfRule type="cellIs" dxfId="104" priority="142" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="143" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="144" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32:D41">
-    <cfRule type="cellIs" dxfId="101" priority="139" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="140" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="141" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="cellIs" dxfId="98" priority="130" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="131" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="132" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="95" priority="127" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="128" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="129" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6:M6">
-    <cfRule type="cellIs" dxfId="92" priority="124" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="125" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="126" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7:P7">
-    <cfRule type="cellIs" dxfId="89" priority="121" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="122" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="123" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q8:T8">
-    <cfRule type="cellIs" dxfId="86" priority="118" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="119" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="120" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U9:AG9">
-    <cfRule type="cellIs" dxfId="83" priority="115" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="116" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="117" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH10">
+  <conditionalFormatting sqref="D26:D27">
     <cfRule type="cellIs" dxfId="80" priority="109" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4830,294 +4520,294 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS41:AT41">
-    <cfRule type="cellIs" dxfId="77" priority="97" operator="equal">
+  <conditionalFormatting sqref="D35">
+    <cfRule type="cellIs" dxfId="77" priority="106" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="107" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="108" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU42:AV42">
-    <cfRule type="cellIs" dxfId="74" priority="94" operator="equal">
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="74" priority="103" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="104" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="105" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW43:BA43">
-    <cfRule type="cellIs" dxfId="71" priority="91" operator="equal">
+  <conditionalFormatting sqref="D49:D50">
+    <cfRule type="cellIs" dxfId="71" priority="100" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="101" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="102" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56:D57">
-    <cfRule type="cellIs" dxfId="68" priority="88" operator="equal">
+  <conditionalFormatting sqref="E3:BR18 E19 G19:BR19 E33:BR47 E32:O32 Q32:BR32 E20:BR31">
+    <cfRule type="cellIs" dxfId="68" priority="97" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="98" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="99" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45:BR54">
-    <cfRule type="cellIs" dxfId="65" priority="85" operator="equal">
+  <conditionalFormatting sqref="D4:D12">
+    <cfRule type="cellIs" dxfId="65" priority="94" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="95" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="96" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46:D55">
-    <cfRule type="cellIs" dxfId="62" priority="82" operator="equal">
+  <conditionalFormatting sqref="D30:D34">
+    <cfRule type="cellIs" dxfId="62" priority="88" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="89" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="90" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS55:AT55">
-    <cfRule type="cellIs" dxfId="59" priority="79" operator="equal">
+  <conditionalFormatting sqref="D39:D48">
+    <cfRule type="cellIs" dxfId="59" priority="85" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="86" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="87" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU56:AV56">
-    <cfRule type="cellIs" dxfId="56" priority="76" operator="equal">
+  <conditionalFormatting sqref="F3">
+    <cfRule type="cellIs" dxfId="56" priority="82" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="83" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="84" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW57:BA57">
-    <cfRule type="cellIs" dxfId="53" priority="73" operator="equal">
+  <conditionalFormatting sqref="G4:H4">
+    <cfRule type="cellIs" dxfId="53" priority="79" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="80" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="75" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="51" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="45" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="81" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="76" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="77" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="78" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+  <conditionalFormatting sqref="I5">
+    <cfRule type="cellIs" dxfId="47" priority="73" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="74" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="75" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+  <conditionalFormatting sqref="K7:M7">
+    <cfRule type="cellIs" dxfId="44" priority="70" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="71" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="72" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+  <conditionalFormatting sqref="N8:P8">
+    <cfRule type="cellIs" dxfId="41" priority="67" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="68" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="69" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+  <conditionalFormatting sqref="Q9:T9">
+    <cfRule type="cellIs" dxfId="38" priority="64" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="65" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="66" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+  <conditionalFormatting sqref="U10:AG10">
+    <cfRule type="cellIs" dxfId="35" priority="61" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="62" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="63" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+  <conditionalFormatting sqref="AI12">
+    <cfRule type="cellIs" dxfId="32" priority="58" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="59" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="60" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P9">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+  <conditionalFormatting sqref="AH11">
+    <cfRule type="cellIs" dxfId="29" priority="55" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="56" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="57" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q9">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+  <conditionalFormatting sqref="AS48:AT48">
+    <cfRule type="cellIs" dxfId="26" priority="43" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="44" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="45" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R9">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="AU49:AV49">
+    <cfRule type="cellIs" dxfId="23" priority="40" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="41" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="42" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW50:BA50">
+    <cfRule type="cellIs" dxfId="20" priority="37" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="38" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="39" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D63:D64">
+    <cfRule type="cellIs" dxfId="17" priority="34" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="35" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="36" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52:BR61">
+    <cfRule type="cellIs" dxfId="14" priority="31" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="32" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="33" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53:D62">
+    <cfRule type="cellIs" dxfId="11" priority="28" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="29" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="30" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS62:AT62">
+    <cfRule type="cellIs" dxfId="8" priority="25" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="26" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="27" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU63:AV63">
+    <cfRule type="cellIs" dxfId="5" priority="22" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="23" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="24" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AW64:BA64">
+    <cfRule type="cellIs" dxfId="2" priority="19" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="21" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23:D29 D32:D43 D46:D57 D13:D20 D3:D10" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30:D36 D3:D15 D39:D50 D53:D64 D18:D27" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$F$1:$H$1</formula1>
     </dataValidation>
   </dataValidations>
@@ -5134,81 +4824,81 @@
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="B1" s="6" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="62.25" customHeight="1">
       <c r="B2" s="6" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="B3" s="6" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -5241,7 +4931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -5250,37 +4940,37 @@
         <v>30</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -5289,31 +4979,31 @@
         <v>26</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -5322,33 +5012,33 @@
         <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -5357,33 +5047,33 @@
         <v>26</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -5392,33 +5082,33 @@
         <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
@@ -5427,55 +5117,55 @@
         <v>134</v>
       </c>
       <c r="C9" s="8">
-        <f t="shared" ref="C9:L9" si="0">COUNTIF(C4:C8,"*ü*") * C3</f>
+        <f>COUNTIF(C4:C8,"*ü*") * C3</f>
         <v>5</v>
       </c>
       <c r="D9" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(D4:D8,"*ü*") * D3</f>
         <v>20</v>
       </c>
       <c r="E9" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(E4:E8,"*ü*") * E3</f>
         <v>10</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F4:F8,"*ü*") * F3</f>
         <v>10</v>
       </c>
       <c r="G9" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(G4:G8,"*ü*") * G3</f>
         <v>4</v>
       </c>
       <c r="H9" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(H4:H8,"*ü*") * H3</f>
         <v>4</v>
       </c>
       <c r="I9" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(I4:I8,"*ü*") * I3</f>
         <v>6</v>
       </c>
       <c r="J9" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(J4:J8,"*ü*") * J3</f>
         <v>30</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(K4:K8,"*ü*") * K3</f>
         <v>5</v>
       </c>
       <c r="L9" s="8">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(L4:L8,"*ü*") * L3</f>
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="5"/>
     </row>
   </sheetData>
@@ -5488,29 +5178,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="19" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="19" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="A1" s="31"/>
       <c r="B1" s="32" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E1">
         <v>1</v>
@@ -5558,12 +5248,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="A2" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C2" s="36">
         <v>2</v>
@@ -5574,10 +5264,10 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="A3" s="46"/>
       <c r="B3" s="35" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C3" s="36">
         <v>5</v>
@@ -5591,10 +5281,10 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4" s="38"/>
       <c r="B4" s="35" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C4" s="36">
         <v>4</v>
@@ -5607,10 +5297,10 @@
       <c r="I4" s="4"/>
       <c r="J4" s="52"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5" s="38"/>
       <c r="B5" s="35" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C5" s="35">
         <f>SUM(C2:C4)</f>
@@ -5621,12 +5311,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="A6" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C6" s="36">
         <v>2</v>
@@ -5637,10 +5327,10 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19">
       <c r="A7" s="46"/>
       <c r="B7" s="35" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C7" s="36">
         <v>5</v>
@@ -5654,10 +5344,10 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="A8" s="38"/>
       <c r="B8" s="35" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C8" s="36">
         <v>4</v>
@@ -5670,10 +5360,10 @@
       <c r="I8" s="4"/>
       <c r="J8" s="47"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9" s="38"/>
       <c r="B9" s="35" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C9" s="35">
         <f>SUM(C6:C8)</f>
@@ -5684,12 +5374,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10" s="34" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C10" s="36">
         <v>1</v>
@@ -5699,10 +5389,10 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="A11" s="46"/>
       <c r="B11" s="35" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C11" s="36">
         <v>5</v>
@@ -5716,10 +5406,10 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="A12" s="38"/>
       <c r="B12" s="40" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C12" s="36">
         <v>2</v>
@@ -5728,14 +5418,14 @@
         <v>2</v>
       </c>
       <c r="K12" s="47" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13" s="38"/>
       <c r="B13" s="40" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C13" s="36">
         <v>1</v>
@@ -5744,13 +5434,13 @@
         <v>1</v>
       </c>
       <c r="M13" s="47" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="38"/>
       <c r="B14" s="40" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C14" s="36">
         <v>2</v>
@@ -5759,14 +5449,14 @@
         <v>3</v>
       </c>
       <c r="N14" s="47" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="A15" s="38"/>
       <c r="B15" s="41" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C15" s="35">
         <f>SUM(C10:C14)</f>
@@ -5777,12 +5467,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19">
       <c r="A16" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C16" s="36">
         <v>2</v>
@@ -5793,10 +5483,10 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17" s="46"/>
       <c r="B17" s="35" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C17" s="36">
         <v>5</v>
@@ -5810,10 +5500,10 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18" s="38"/>
       <c r="B18" s="35" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C18" s="36">
         <v>4</v>
@@ -5826,10 +5516,10 @@
       <c r="I18" s="4"/>
       <c r="J18" s="47"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19" s="38"/>
       <c r="B19" s="41" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C19" s="35">
         <f>SUM(C16:C18)</f>
@@ -5840,12 +5530,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20" s="34" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C20" s="36">
         <v>2</v>
@@ -5856,10 +5546,10 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" s="46"/>
       <c r="B21" s="35" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C21" s="36">
         <v>5</v>
@@ -5873,10 +5563,10 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" s="38"/>
       <c r="B22" s="35" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C22" s="36">
         <v>4</v>
@@ -5889,10 +5579,10 @@
       <c r="I22" s="4"/>
       <c r="J22" s="47"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23" s="38"/>
       <c r="B23" s="41" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C23" s="35">
         <f>SUM(C20:C22)</f>
@@ -5903,7 +5593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" thickBot="1">
       <c r="A24" s="42"/>
       <c r="B24" s="43" t="s">
         <v>0</v>
@@ -5917,9 +5607,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="B25" s="30" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -5933,15 +5623,15 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>8</v>
@@ -5959,9 +5649,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -5973,15 +5663,15 @@
         <v>27</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5993,15 +5683,15 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6019,9 +5709,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -6033,15 +5723,15 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -6053,15 +5743,15 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6079,10 +5769,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
@@ -6100,7 +5790,7 @@
       </c>
       <c r="E9" s="6">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="0"/>

--- a/docs/Gantt Chart.xlsx
+++ b/docs/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattmorrison/Documents/GitHub/Tower-of-Annihilation/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F5C1DE-0DEB-4A45-B7A9-849659EDB930}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22B00CA-E86F-5845-A656-745780FE37A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19180" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -199,36 +199,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Aug. 30</t>
-  </si>
-  <si>
-    <t>Sept. 1</t>
-  </si>
-  <si>
-    <t>Sept. 13</t>
-  </si>
-  <si>
-    <t>Sept. 15</t>
-  </si>
-  <si>
-    <t>Sept. 21</t>
-  </si>
-  <si>
-    <t>Sept. 22</t>
-  </si>
-  <si>
-    <t>Sept. 23</t>
-  </si>
-  <si>
-    <t>Sept. 29</t>
-  </si>
-  <si>
-    <t>Oct. 4</t>
-  </si>
-  <si>
-    <t>Oct. 20</t>
-  </si>
-  <si>
     <t>Purpose</t>
   </si>
   <si>
@@ -383,6 +353,36 @@
   </si>
   <si>
     <t>Demo Mode</t>
+  </si>
+  <si>
+    <t>Jan. 30</t>
+  </si>
+  <si>
+    <t>Feb. 1</t>
+  </si>
+  <si>
+    <t>Feb. 13</t>
+  </si>
+  <si>
+    <t>Feb. 15</t>
+  </si>
+  <si>
+    <t>Feb. 21</t>
+  </si>
+  <si>
+    <t>Feb. 22</t>
+  </si>
+  <si>
+    <t>Feb. 23</t>
+  </si>
+  <si>
+    <t>March. 4</t>
+  </si>
+  <si>
+    <t>March. 2</t>
+  </si>
+  <si>
+    <t>March. 20</t>
   </si>
 </sst>
 </file>
@@ -724,6 +724,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -733,7 +734,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -2340,32 +2340,32 @@
   <sheetData>
     <row r="1" spans="2:21" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="62"/>
-      <c r="K2" s="60" t="s">
+      <c r="H2" s="62"/>
+      <c r="I2" s="63"/>
+      <c r="K2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="61"/>
-      <c r="M2" s="62"/>
-      <c r="O2" s="60" t="s">
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
+      <c r="O2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="62"/>
-      <c r="S2" s="60" t="s">
+      <c r="P2" s="62"/>
+      <c r="Q2" s="63"/>
+      <c r="S2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="61"/>
-      <c r="U2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="63"/>
     </row>
     <row r="3" spans="2:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="10" t="s">
@@ -2617,11 +2617,11 @@
       </c>
       <c r="D7" s="18">
         <f t="shared" ref="D7:D8" si="8">(H7+L7 +P7+T7)</f>
-        <v>8800</v>
+        <v>9800</v>
       </c>
       <c r="E7" s="19">
         <f t="shared" ref="E7:E8" si="9">(C7-D7)</f>
-        <v>100</v>
+        <v>-900</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="17">
@@ -2630,11 +2630,11 @@
       </c>
       <c r="H7" s="18">
         <f>(Gantt!$C44)*100</f>
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="I7" s="19">
         <f t="shared" ref="I7:I8" si="10">(G7-H7)</f>
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K7" s="17">
         <v>1000</v>
@@ -2745,11 +2745,11 @@
       </c>
       <c r="D9" s="28">
         <f>SUM(D4:D8)</f>
-        <v>44600</v>
+        <v>45600</v>
       </c>
       <c r="E9" s="29">
         <f>SUM(E4:E8)</f>
-        <v>4200</v>
+        <v>3200</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="20">
@@ -2758,11 +2758,11 @@
       </c>
       <c r="H9" s="21">
         <f>SUM(H4:H8)</f>
-        <v>10200</v>
+        <v>11200</v>
       </c>
       <c r="I9" s="22">
         <f>SUM(I4:I8)</f>
-        <v>13100</v>
+        <v>12100</v>
       </c>
       <c r="K9" s="20">
         <f>SUM(K4:K8)</f>
@@ -2818,8 +2818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BK60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="4" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -3188,7 +3188,7 @@
     </row>
     <row r="5" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -3210,7 +3210,7 @@
     </row>
     <row r="6" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -3258,7 +3258,7 @@
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -3300,7 +3300,7 @@
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -3746,7 +3746,7 @@
     </row>
     <row r="32" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -3814,7 +3814,7 @@
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -3852,7 +3852,7 @@
     </row>
     <row r="35" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -3874,7 +3874,7 @@
     </row>
     <row r="36" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -3912,7 +3912,7 @@
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="38" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -3964,7 +3964,7 @@
     </row>
     <row r="39" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -3972,7 +3972,7 @@
       <c r="C39">
         <v>3</v>
       </c>
-      <c r="D39" s="63" t="s">
+      <c r="D39" s="60" t="s">
         <v>17</v>
       </c>
       <c r="AI39" t="str">
@@ -4002,40 +4002,46 @@
     </row>
     <row r="40" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B40">
         <v>4</v>
       </c>
-      <c r="D40" s="58" t="s">
-        <v>18</v>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="AO40" t="str">
         <f t="shared" ref="AO40:AR40" si="23">($D40)</f>
-        <v>this week</v>
+        <v>complete</v>
       </c>
       <c r="AP40" t="str">
         <f t="shared" si="23"/>
-        <v>this week</v>
+        <v>complete</v>
       </c>
       <c r="AQ40" t="str">
         <f t="shared" si="23"/>
-        <v>this week</v>
+        <v>complete</v>
       </c>
       <c r="AR40" t="str">
         <f t="shared" si="23"/>
-        <v>this week</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="41" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -4062,22 +4068,25 @@
       <c r="AA41" s="3"/>
       <c r="AS41" t="str">
         <f t="shared" ref="AS41:AT41" si="24">($D41)</f>
-        <v>planned</v>
+        <v>complete</v>
       </c>
       <c r="AT41" t="str">
         <f t="shared" si="24"/>
-        <v>planned</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="42" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B42">
         <v>5</v>
       </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -4104,16 +4113,16 @@
       <c r="AA42" s="3"/>
       <c r="AU42" t="str">
         <f t="shared" ref="AU42:AV42" si="25">($D42)</f>
-        <v>planned</v>
+        <v>complete</v>
       </c>
       <c r="AV42" t="str">
         <f t="shared" si="25"/>
-        <v>planned</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="43" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -4175,7 +4184,7 @@
       </c>
       <c r="C44">
         <f>SUM(C32:C43)</f>
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4636,7 +4645,7 @@
       </c>
       <c r="C59" s="6">
         <f>SUM(C11,C21,C30,C44)</f>
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -4649,7 +4658,7 @@
       </c>
       <c r="C60" s="53">
         <f>C59*100</f>
-        <v>5800</v>
+        <v>6800</v>
       </c>
       <c r="D60" s="53"/>
     </row>
@@ -5131,7 +5140,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5141,74 +5150,74 @@
         <v>52</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -5250,34 +5259,34 @@
         <v>30</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -5289,28 +5298,28 @@
         <v>26</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -5322,30 +5331,30 @@
         <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -5357,30 +5366,30 @@
         <v>26</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -5392,30 +5401,30 @@
         <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -5472,7 +5481,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -5504,13 +5513,13 @@
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="31"/>
       <c r="B1" s="32" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E1">
         <v>1</v>
@@ -5563,7 +5572,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C2" s="36">
         <v>2</v>
@@ -5577,7 +5586,7 @@
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="46"/>
       <c r="B3" s="35" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C3" s="36">
         <v>5</v>
@@ -5594,7 +5603,7 @@
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
       <c r="B4" s="35" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C4" s="36">
         <v>4</v>
@@ -5610,7 +5619,7 @@
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="38"/>
       <c r="B5" s="35" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C5" s="35">
         <f>SUM(C2:C4)</f>
@@ -5626,7 +5635,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C6" s="36">
         <v>2</v>
@@ -5640,7 +5649,7 @@
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="46"/>
       <c r="B7" s="35" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C7" s="36">
         <v>5</v>
@@ -5657,7 +5666,7 @@
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="38"/>
       <c r="B8" s="35" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C8" s="36">
         <v>4</v>
@@ -5673,7 +5682,7 @@
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="35" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C9" s="35">
         <f>SUM(C6:C8)</f>
@@ -5689,7 +5698,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C10" s="36">
         <v>1</v>
@@ -5702,7 +5711,7 @@
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="46"/>
       <c r="B11" s="35" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C11" s="36">
         <v>5</v>
@@ -5719,7 +5728,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="38"/>
       <c r="B12" s="40" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C12" s="36">
         <v>2</v>
@@ -5728,14 +5737,14 @@
         <v>2</v>
       </c>
       <c r="K12" s="47" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="38"/>
       <c r="B13" s="40" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C13" s="36">
         <v>1</v>
@@ -5744,13 +5753,13 @@
         <v>1</v>
       </c>
       <c r="M13" s="47" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="38"/>
       <c r="B14" s="40" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C14" s="36">
         <v>2</v>
@@ -5759,14 +5768,14 @@
         <v>3</v>
       </c>
       <c r="N14" s="47" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="38"/>
       <c r="B15" s="41" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C15" s="35">
         <f>SUM(C10:C14)</f>
@@ -5782,7 +5791,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C16" s="36">
         <v>2</v>
@@ -5796,7 +5805,7 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="46"/>
       <c r="B17" s="35" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C17" s="36">
         <v>5</v>
@@ -5813,7 +5822,7 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="38"/>
       <c r="B18" s="35" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C18" s="36">
         <v>4</v>
@@ -5829,7 +5838,7 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="38"/>
       <c r="B19" s="41" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C19" s="35">
         <f>SUM(C16:C18)</f>
@@ -5845,7 +5854,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C20" s="36">
         <v>2</v>
@@ -5859,7 +5868,7 @@
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="46"/>
       <c r="B21" s="35" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C21" s="36">
         <v>5</v>
@@ -5876,7 +5885,7 @@
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="38"/>
       <c r="B22" s="35" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C22" s="36">
         <v>4</v>
@@ -5892,7 +5901,7 @@
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="38"/>
       <c r="B23" s="41" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C23" s="35">
         <f>SUM(C20:C22)</f>
@@ -5919,7 +5928,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B25" s="30" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -5961,7 +5970,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -5981,7 +5990,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -6001,7 +6010,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6021,7 +6030,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -6041,7 +6050,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -6061,7 +6070,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B7">
         <v>1</v>

--- a/docs/Gantt Chart.xlsx
+++ b/docs/Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattmorrison/Documents/GitHub/Tower-of-Annihilation/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Homework Assignments\Tower-of-Annihilation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22B00CA-E86F-5845-A656-745780FE37A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24BD08C-31C7-436C-AF9B-D2F38C82CC40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19180" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="118">
   <si>
     <t>Total</t>
   </si>
@@ -316,9 +316,6 @@
     <t>Player Movement</t>
   </si>
   <si>
-    <t>Health Bars</t>
-  </si>
-  <si>
     <t>Plan basic moves</t>
   </si>
   <si>
@@ -383,6 +380,18 @@
   </si>
   <si>
     <t>March. 20</t>
+  </si>
+  <si>
+    <t>Add New Levels</t>
+  </si>
+  <si>
+    <t>Player health bars</t>
+  </si>
+  <si>
+    <t>NPC Health bars</t>
+  </si>
+  <si>
+    <t>Implement code template</t>
   </si>
 </sst>
 </file>
@@ -2316,30 +2325,30 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="3.5" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="2.83203125" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" customWidth="1"/>
-    <col min="14" max="14" width="5.5" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" customWidth="1"/>
-    <col min="18" max="18" width="5.1640625" customWidth="1"/>
-    <col min="19" max="20" width="13.5" customWidth="1"/>
-    <col min="21" max="21" width="16.5" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" customWidth="1"/>
+    <col min="19" max="20" width="13.42578125" customWidth="1"/>
+    <col min="21" max="21" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C2" s="61" t="s">
         <v>0</v>
       </c>
@@ -2367,7 +2376,7 @@
       <c r="T2" s="62"/>
       <c r="U2" s="63"/>
     </row>
-    <row r="3" spans="2:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
@@ -2415,34 +2424,34 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="23">
         <f>(G4+K4 +O4+S4)</f>
-        <v>6900</v>
+        <v>8800</v>
       </c>
       <c r="D4" s="24">
         <f t="shared" ref="D4:D6" si="0">(H4+L4 +P4+T4)</f>
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="E4" s="25">
         <f>(C4-D4)</f>
-        <v>-1100</v>
+        <v>1000</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="17">
-        <f>(Gantt!$B11)*100</f>
-        <v>1800</v>
+        <f>(Gantt!$B14)*100</f>
+        <v>3700</v>
       </c>
       <c r="H4" s="18">
-        <f>(Gantt!$C11)*100</f>
-        <v>1100</v>
+        <f>(Gantt!$C14)*100</f>
+        <v>1200</v>
       </c>
       <c r="I4" s="19">
         <f>(G4-H4)</f>
-        <v>700</v>
+        <v>2500</v>
       </c>
       <c r="K4" s="23">
         <v>1000</v>
@@ -2461,11 +2470,11 @@
       </c>
       <c r="P4" s="24">
         <f>(SA!D5)*100</f>
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="Q4" s="25">
         <f>(O4-P4)</f>
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="S4" s="23">
         <v>3000</v>
@@ -2479,7 +2488,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
@@ -2497,11 +2506,11 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="17">
-        <f>(Gantt!$B21)*100</f>
+        <f>(Gantt!$B24)*100</f>
         <v>4500</v>
       </c>
       <c r="H5" s="18">
-        <f>(Gantt!$C21)*100</f>
+        <f>(Gantt!$C24)*100</f>
         <v>900</v>
       </c>
       <c r="I5" s="19">
@@ -2543,7 +2552,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
@@ -2561,11 +2570,11 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="17">
-        <f>(Gantt!$B30)*100</f>
+        <f>(Gantt!$B33)*100</f>
         <v>4800</v>
       </c>
       <c r="H6" s="18">
-        <f>(Gantt!$C30)*100</f>
+        <f>(Gantt!$C33)*100</f>
         <v>1400</v>
       </c>
       <c r="I6" s="19">
@@ -2607,7 +2616,7 @@
         <v>-1300</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
@@ -2625,11 +2634,11 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="17">
-        <f>(Gantt!$B44)*100</f>
+        <f>(Gantt!$B47)*100</f>
         <v>3800</v>
       </c>
       <c r="H7" s="18">
-        <f>(Gantt!$C44)*100</f>
+        <f>(Gantt!$C47)*100</f>
         <v>3400</v>
       </c>
       <c r="I7" s="19">
@@ -2671,7 +2680,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
@@ -2689,11 +2698,11 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="17">
-        <f>(Gantt!$B58)*100</f>
+        <f>(Gantt!$B61)*100</f>
         <v>8400</v>
       </c>
       <c r="H8" s="18">
-        <f>(Gantt!$C58)*100</f>
+        <f>(Gantt!$C61)*100</f>
         <v>4400</v>
       </c>
       <c r="I8" s="19">
@@ -2735,34 +2744,34 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="27">
         <f>SUM(C4:C8)</f>
-        <v>48800</v>
+        <v>50700</v>
       </c>
       <c r="D9" s="28">
         <f>SUM(D4:D8)</f>
-        <v>45600</v>
+        <v>45400</v>
       </c>
       <c r="E9" s="29">
         <f>SUM(E4:E8)</f>
-        <v>3200</v>
+        <v>5300</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="20">
         <f>SUM(G4:G8)</f>
-        <v>23300</v>
+        <v>25200</v>
       </c>
       <c r="H9" s="21">
         <f>SUM(H4:H8)</f>
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="I9" s="22">
         <f>SUM(I4:I8)</f>
-        <v>12100</v>
+        <v>13900</v>
       </c>
       <c r="K9" s="20">
         <f>SUM(K4:K8)</f>
@@ -2782,11 +2791,11 @@
       </c>
       <c r="P9" s="28">
         <f>SUM(P4:P8)</f>
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="Q9" s="29">
         <f>SUM(Q4:Q8)</f>
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="S9" s="27">
         <f>SUM(S4:S8)</f>
@@ -2816,22 +2825,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BK60"/>
+  <dimension ref="A1:BK63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1" s="48"/>
       <c r="B1" s="48" t="s">
         <v>13</v>
@@ -2910,7 +2919,7 @@
       <c r="BJ1" s="48"/>
       <c r="BK1" s="48"/>
     </row>
-    <row r="2" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3150,7 +3159,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -3168,7 +3177,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -3186,7 +3195,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>87</v>
       </c>
@@ -3208,7 +3217,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -3226,7 +3235,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -3256,26 +3265,29 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>89</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" ref="N8" si="3">($D8)</f>
-        <v>this week</v>
+        <v>complete</v>
       </c>
       <c r="O8" t="str">
         <f t="shared" ref="O8:R9" si="4">($D8)</f>
-        <v>this week</v>
-      </c>
-    </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.2">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3283,1136 +3295,1079 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P9" t="str">
         <f t="shared" si="4"/>
-        <v>this week</v>
+        <v>complete</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="4"/>
-        <v>this week</v>
+        <v>complete</v>
       </c>
       <c r="R9" t="str">
         <f t="shared" si="4"/>
-        <v>this week</v>
-      </c>
-    </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.2">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="S10" t="str">
-        <f t="shared" ref="S10:T10" si="5">($D10)</f>
-        <v>planned</v>
-      </c>
-      <c r="T10" t="str">
+    </row>
+    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" ref="S12:T12" si="5">($D12)</f>
+        <v>this week</v>
+      </c>
+      <c r="T12" t="str">
         <f t="shared" si="5"/>
-        <v>planned</v>
-      </c>
-    </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+        <v>this week</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B11">
-        <f>SUM(B3:B10)</f>
+      <c r="B14">
+        <f>SUM(B3:B13)</f>
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <f>SUM(C3:C12)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="str">
+        <f>($D16)</f>
+        <v>complete</v>
+      </c>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="54"/>
+      <c r="G17" s="56"/>
+      <c r="H17" t="str">
+        <f t="shared" ref="H17:I17" si="6">($D17)</f>
+        <v>complete</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="6"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" ref="J18:K18" si="7">($D18)</f>
+        <v>complete</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="7"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
         <v>18</v>
       </c>
-      <c r="C11">
-        <f>SUM(C3:C10)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="str">
-        <f>($D13)</f>
-        <v>complete</v>
-      </c>
-      <c r="F13" s="56"/>
-    </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="54"/>
-      <c r="G14" s="56"/>
-      <c r="H14" t="str">
-        <f t="shared" ref="H14:I14" si="6">($D14)</f>
-        <v>complete</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="6"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" ref="J15:K15" si="7">($D15)</f>
-        <v>complete</v>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="7"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" t="str">
-        <f t="shared" ref="L16:M16" si="8">($D16)</f>
+      <c r="L19" t="str">
+        <f t="shared" ref="L19:M19" si="8">($D19)</f>
         <v>this week</v>
       </c>
-      <c r="M16" t="str">
+      <c r="M19" t="str">
         <f t="shared" si="8"/>
         <v>this week</v>
       </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B17">
+      <c r="B20">
         <v>5</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D20" t="s">
         <v>19</v>
       </c>
-      <c r="N17" t="str">
-        <f t="shared" ref="N17:Q17" si="9">($D17)</f>
+      <c r="N20" t="str">
+        <f t="shared" ref="N20:Q20" si="9">($D20)</f>
         <v>planned</v>
       </c>
-      <c r="O17" t="str">
+      <c r="O20" t="str">
         <f t="shared" si="9"/>
         <v>planned</v>
       </c>
-      <c r="P17" t="str">
+      <c r="P20" t="str">
         <f t="shared" si="9"/>
         <v>planned</v>
       </c>
-      <c r="Q17" t="str">
+      <c r="Q20" t="str">
         <f t="shared" si="9"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B18">
+      <c r="B21">
         <v>10</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D21" t="s">
         <v>19</v>
       </c>
-      <c r="R18" t="str">
-        <f t="shared" ref="R18:T18" si="10">($D18)</f>
+      <c r="R21" t="str">
+        <f t="shared" ref="R21:T21" si="10">($D21)</f>
         <v>planned</v>
       </c>
-      <c r="S18" t="str">
+      <c r="S21" t="str">
         <f t="shared" si="10"/>
         <v>planned</v>
       </c>
-      <c r="T18" t="str">
+      <c r="T21" t="str">
         <f t="shared" si="10"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="B19">
+      <c r="B22">
         <v>10</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D22" t="s">
         <v>19</v>
       </c>
-      <c r="V19" t="str">
-        <f t="shared" ref="V19:AA19" si="11">($D19)</f>
+      <c r="V22" t="str">
+        <f t="shared" ref="V22:AA22" si="11">($D22)</f>
         <v>planned</v>
       </c>
-      <c r="W19" t="str">
+      <c r="W22" t="str">
         <f t="shared" si="11"/>
         <v>planned</v>
       </c>
-      <c r="X19" t="str">
+      <c r="X22" t="str">
         <f t="shared" si="11"/>
         <v>planned</v>
       </c>
-      <c r="Y19" t="str">
+      <c r="Y22" t="str">
         <f t="shared" si="11"/>
         <v>planned</v>
       </c>
-      <c r="Z19" t="str">
+      <c r="Z22" t="str">
         <f t="shared" si="11"/>
         <v>planned</v>
       </c>
-      <c r="AA19" t="str">
+      <c r="AA22" t="str">
         <f t="shared" si="11"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="B20">
+      <c r="B23">
         <v>3</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D23" t="s">
         <v>19</v>
       </c>
-      <c r="AQ20" t="str">
-        <f t="shared" ref="AQ20:AT20" si="12">($D20)</f>
+      <c r="AQ23" t="str">
+        <f t="shared" ref="AQ23:AT23" si="12">($D23)</f>
         <v>planned</v>
       </c>
-      <c r="AR20" t="str">
+      <c r="AR23" t="str">
         <f t="shared" si="12"/>
         <v>planned</v>
       </c>
-      <c r="AS20" t="str">
+      <c r="AS23" t="str">
         <f t="shared" si="12"/>
         <v>planned</v>
       </c>
-      <c r="AT20" t="str">
+      <c r="AT23" t="str">
         <f t="shared" si="12"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B21">
-        <f>SUM(B13:B20)</f>
+      <c r="B24">
+        <f>SUM(B16:B23)</f>
         <v>45</v>
       </c>
-      <c r="C21">
-        <f>SUM(C13:C20)</f>
+      <c r="C24">
+        <f>SUM(C16:C23)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="25" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B23">
+      <c r="B26">
         <v>1</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" t="str">
-        <f t="shared" ref="E23" si="13">($D23)</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" t="str">
-        <f>($D24)</f>
-        <v>complete</v>
-      </c>
-      <c r="G24" t="str">
-        <f>($D24)</f>
-        <v>complete</v>
-      </c>
-      <c r="H24" t="str">
-        <f>($D24)</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25">
-        <v>10</v>
-      </c>
-      <c r="C25">
-        <v>9</v>
-      </c>
-      <c r="D25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" t="str">
-        <f>($D25)</f>
-        <v>complete</v>
-      </c>
-      <c r="J25" t="str">
-        <f>($D25)</f>
-        <v>complete</v>
-      </c>
-      <c r="K25" t="str">
-        <f t="shared" ref="K25:M25" si="14">($D25)</f>
-        <v>complete</v>
-      </c>
-      <c r="L25" t="str">
-        <f t="shared" si="14"/>
-        <v>complete</v>
-      </c>
-      <c r="M25" t="str">
-        <f t="shared" si="14"/>
-        <v>complete</v>
-      </c>
-      <c r="N25" t="str">
-        <f>($D25)</f>
-        <v>complete</v>
-      </c>
-      <c r="O25" t="str">
-        <f>($D25)</f>
-        <v>complete</v>
-      </c>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-    </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26">
-        <v>5</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
-      </c>
-      <c r="S26" s="57"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="58"/>
-      <c r="W26" s="58"/>
-    </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" ref="E26" si="13">($D26)</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
-      </c>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="59"/>
-      <c r="AA27" s="59"/>
-      <c r="AB27" s="59"/>
-    </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F27" t="str">
+        <f>($D27)</f>
+        <v>complete</v>
+      </c>
+      <c r="G27" t="str">
+        <f>($D27)</f>
+        <v>complete</v>
+      </c>
+      <c r="H27" t="str">
+        <f>($D27)</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>10</v>
       </c>
+      <c r="C28">
+        <v>9</v>
+      </c>
       <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" t="str">
+        <f>($D28)</f>
+        <v>complete</v>
+      </c>
+      <c r="J28" t="str">
+        <f>($D28)</f>
+        <v>complete</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" ref="K28:M28" si="14">($D28)</f>
+        <v>complete</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="14"/>
+        <v>complete</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="14"/>
+        <v>complete</v>
+      </c>
+      <c r="N28" t="str">
+        <f>($D28)</f>
+        <v>complete</v>
+      </c>
+      <c r="O28" t="str">
+        <f>($D28)</f>
+        <v>complete</v>
+      </c>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+    </row>
+    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="S29" s="57"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="58"/>
+    </row>
+    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>19</v>
       </c>
-      <c r="AC28" s="59"/>
-      <c r="AD28" s="59"/>
-      <c r="AE28" s="59"/>
-      <c r="AF28" s="59"/>
-      <c r="AG28" s="59"/>
-      <c r="AH28" s="59"/>
-      <c r="AI28" s="59"/>
-      <c r="AJ28" s="59"/>
-      <c r="AK28" s="59"/>
-      <c r="AL28" s="59"/>
-      <c r="AM28" s="3"/>
-      <c r="AN28" s="3"/>
-      <c r="AO28" s="3"/>
-      <c r="AP28" s="3"/>
-      <c r="AQ28" s="3"/>
-    </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="X30" s="59"/>
+      <c r="Y30" s="59"/>
+      <c r="Z30" s="59"/>
+      <c r="AA30" s="59"/>
+      <c r="AB30" s="59"/>
+    </row>
+    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC31" s="59"/>
+      <c r="AD31" s="59"/>
+      <c r="AE31" s="59"/>
+      <c r="AF31" s="59"/>
+      <c r="AG31" s="59"/>
+      <c r="AH31" s="59"/>
+      <c r="AI31" s="59"/>
+      <c r="AJ31" s="59"/>
+      <c r="AK31" s="59"/>
+      <c r="AL31" s="59"/>
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3"/>
+      <c r="AO31" s="3"/>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+    </row>
+    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>37</v>
       </c>
-      <c r="B29">
+      <c r="B32">
         <v>15</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D32" t="s">
         <v>19</v>
       </c>
-      <c r="AM29" s="59"/>
-      <c r="AN29" s="59"/>
-      <c r="AO29" s="59"/>
-      <c r="AP29" s="59"/>
-      <c r="AQ29" s="59"/>
-      <c r="AR29" s="59"/>
-      <c r="AS29" s="59"/>
-      <c r="AT29" s="59"/>
-      <c r="AU29" s="59"/>
-      <c r="AV29" s="59"/>
-      <c r="AW29" s="59"/>
-      <c r="AX29" s="59"/>
-      <c r="AY29" s="59"/>
-      <c r="AZ29" s="59"/>
-      <c r="BA29" s="59"/>
-      <c r="BB29" s="3"/>
-    </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="AM32" s="59"/>
+      <c r="AN32" s="59"/>
+      <c r="AO32" s="59"/>
+      <c r="AP32" s="59"/>
+      <c r="AQ32" s="59"/>
+      <c r="AR32" s="59"/>
+      <c r="AS32" s="59"/>
+      <c r="AT32" s="59"/>
+      <c r="AU32" s="59"/>
+      <c r="AV32" s="59"/>
+      <c r="AW32" s="59"/>
+      <c r="AX32" s="59"/>
+      <c r="AY32" s="59"/>
+      <c r="AZ32" s="59"/>
+      <c r="BA32" s="59"/>
+      <c r="BB32" s="3"/>
+    </row>
+    <row r="33" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>22</v>
       </c>
-      <c r="B30">
-        <f>SUM(B23:B29)</f>
+      <c r="B33">
+        <f>SUM(B26:B32)</f>
         <v>48</v>
       </c>
-      <c r="C30">
-        <f>SUM(C23:C29)</f>
+      <c r="C33">
+        <f>SUM(C26:C32)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="34" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32">
+    <row r="35" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35">
         <v>2</v>
       </c>
-      <c r="C32">
+      <c r="C35">
         <v>3</v>
-      </c>
-      <c r="D32" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" ref="E32:I32" si="15">($D32)</f>
-        <v>complete</v>
-      </c>
-      <c r="F32" t="str">
-        <f t="shared" si="15"/>
-        <v>complete</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" si="15"/>
-        <v>complete</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="15"/>
-        <v>complete</v>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" si="15"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="33" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33">
-        <v>4</v>
-      </c>
-      <c r="C33">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" ref="J33:N33" si="16">($D33)</f>
-        <v>complete</v>
-      </c>
-      <c r="K33" t="str">
-        <f t="shared" si="16"/>
-        <v>complete</v>
-      </c>
-      <c r="L33" t="str">
-        <f t="shared" si="16"/>
-        <v>complete</v>
-      </c>
-      <c r="M33" t="str">
-        <f t="shared" si="16"/>
-        <v>complete</v>
-      </c>
-      <c r="N33" t="str">
-        <f t="shared" si="16"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="34" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>17</v>
-      </c>
-      <c r="O34" t="str">
-        <f t="shared" ref="O34:T34" si="17">($D34)</f>
-        <v>complete</v>
-      </c>
-      <c r="P34" t="str">
-        <f t="shared" si="17"/>
-        <v>complete</v>
-      </c>
-      <c r="Q34" t="str">
-        <f t="shared" si="17"/>
-        <v>complete</v>
-      </c>
-      <c r="R34" t="str">
-        <f t="shared" si="17"/>
-        <v>complete</v>
-      </c>
-      <c r="S34" t="str">
-        <f t="shared" si="17"/>
-        <v>complete</v>
-      </c>
-      <c r="T34" t="str">
-        <f t="shared" si="17"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="35" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
       </c>
-      <c r="U35" t="str">
-        <f t="shared" ref="U35:V35" si="18">($D35)</f>
-        <v>complete</v>
-      </c>
-      <c r="V35" t="str">
-        <f t="shared" si="18"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="36" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="E35" t="str">
+        <f t="shared" ref="E35:I35" si="15">($D35)</f>
+        <v>complete</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="15"/>
+        <v>complete</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="15"/>
+        <v>complete</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="15"/>
+        <v>complete</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="15"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="36" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>96</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
       </c>
-      <c r="W36" t="str">
-        <f t="shared" ref="W36:AB36" si="19">($D36)</f>
-        <v>complete</v>
-      </c>
-      <c r="X36" t="str">
-        <f t="shared" si="19"/>
-        <v>complete</v>
-      </c>
-      <c r="Y36" t="str">
-        <f t="shared" si="19"/>
-        <v>complete</v>
-      </c>
-      <c r="Z36" t="str">
-        <f t="shared" si="19"/>
-        <v>complete</v>
-      </c>
-      <c r="AA36" t="str">
-        <f t="shared" si="19"/>
-        <v>complete</v>
-      </c>
-      <c r="AB36" t="str">
-        <f t="shared" si="19"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="37" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="J36" t="str">
+        <f t="shared" ref="J36:N36" si="16">($D36)</f>
+        <v>complete</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="16"/>
+        <v>complete</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="16"/>
+        <v>complete</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="16"/>
+        <v>complete</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="16"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="37" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
       </c>
-      <c r="AC37" t="str">
-        <f t="shared" ref="AC37:AD37" si="20">($D37)</f>
-        <v>complete</v>
-      </c>
-      <c r="AD37" t="str">
-        <f t="shared" si="20"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="38" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="O37" t="str">
+        <f t="shared" ref="O37:T37" si="17">($D37)</f>
+        <v>complete</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="17"/>
+        <v>complete</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="17"/>
+        <v>complete</v>
+      </c>
+      <c r="R37" t="str">
+        <f t="shared" si="17"/>
+        <v>complete</v>
+      </c>
+      <c r="S37" t="str">
+        <f t="shared" si="17"/>
+        <v>complete</v>
+      </c>
+      <c r="T37" t="str">
+        <f t="shared" si="17"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="38" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
       </c>
-      <c r="AE38" t="str">
-        <f t="shared" ref="AE38:AH38" si="21">($D38)</f>
-        <v>complete</v>
-      </c>
-      <c r="AF38" t="str">
-        <f t="shared" si="21"/>
-        <v>complete</v>
-      </c>
-      <c r="AG38" t="str">
-        <f t="shared" si="21"/>
-        <v>complete</v>
-      </c>
-      <c r="AH38" t="str">
-        <f t="shared" si="21"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="39" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="U38" t="str">
+        <f t="shared" ref="U38:V38" si="18">($D38)</f>
+        <v>complete</v>
+      </c>
+      <c r="V38" t="str">
+        <f t="shared" si="18"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="39" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
       <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="W39" t="str">
+        <f t="shared" ref="W39:AB39" si="19">($D39)</f>
+        <v>complete</v>
+      </c>
+      <c r="X39" t="str">
+        <f t="shared" si="19"/>
+        <v>complete</v>
+      </c>
+      <c r="Y39" t="str">
+        <f t="shared" si="19"/>
+        <v>complete</v>
+      </c>
+      <c r="Z39" t="str">
+        <f t="shared" si="19"/>
+        <v>complete</v>
+      </c>
+      <c r="AA39" t="str">
+        <f t="shared" si="19"/>
+        <v>complete</v>
+      </c>
+      <c r="AB39" t="str">
+        <f t="shared" si="19"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="40" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC40" t="str">
+        <f t="shared" ref="AC40:AD40" si="20">($D40)</f>
+        <v>complete</v>
+      </c>
+      <c r="AD40" t="str">
+        <f t="shared" si="20"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="41" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41">
         <v>3</v>
       </c>
-      <c r="D39" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI39" t="str">
-        <f t="shared" ref="AI39:AN39" si="22">($D39)</f>
-        <v>complete</v>
-      </c>
-      <c r="AJ39" t="str">
-        <f t="shared" si="22"/>
-        <v>complete</v>
-      </c>
-      <c r="AK39" t="str">
-        <f t="shared" si="22"/>
-        <v>complete</v>
-      </c>
-      <c r="AL39" t="str">
-        <f t="shared" si="22"/>
-        <v>complete</v>
-      </c>
-      <c r="AM39" t="str">
-        <f t="shared" si="22"/>
-        <v>complete</v>
-      </c>
-      <c r="AN39" t="str">
-        <f t="shared" si="22"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="40" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>101</v>
-      </c>
-      <c r="B40">
-        <v>4</v>
-      </c>
-      <c r="C40">
+      <c r="C41">
         <v>3</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AO40" t="str">
-        <f t="shared" ref="AO40:AR40" si="23">($D40)</f>
-        <v>complete</v>
-      </c>
-      <c r="AP40" t="str">
-        <f t="shared" si="23"/>
-        <v>complete</v>
-      </c>
-      <c r="AQ40" t="str">
-        <f t="shared" si="23"/>
-        <v>complete</v>
-      </c>
-      <c r="AR40" t="str">
-        <f t="shared" si="23"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="41" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-      <c r="AS41" t="str">
-        <f t="shared" ref="AS41:AT41" si="24">($D41)</f>
-        <v>complete</v>
-      </c>
-      <c r="AT41" t="str">
-        <f t="shared" si="24"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="42" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="AE41" t="str">
+        <f t="shared" ref="AE41:AH41" si="21">($D41)</f>
+        <v>complete</v>
+      </c>
+      <c r="AF41" t="str">
+        <f t="shared" si="21"/>
+        <v>complete</v>
+      </c>
+      <c r="AG41" t="str">
+        <f t="shared" si="21"/>
+        <v>complete</v>
+      </c>
+      <c r="AH41" t="str">
+        <f t="shared" si="21"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="42" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>6</v>
-      </c>
-      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
-      <c r="AU42" t="str">
-        <f t="shared" ref="AU42:AV42" si="25">($D42)</f>
-        <v>complete</v>
-      </c>
-      <c r="AV42" t="str">
-        <f t="shared" si="25"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="43" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="AI42" t="str">
+        <f t="shared" ref="AI42:AN42" si="22">($D42)</f>
+        <v>complete</v>
+      </c>
+      <c r="AJ42" t="str">
+        <f t="shared" si="22"/>
+        <v>complete</v>
+      </c>
+      <c r="AK42" t="str">
+        <f t="shared" si="22"/>
+        <v>complete</v>
+      </c>
+      <c r="AL42" t="str">
+        <f t="shared" si="22"/>
+        <v>complete</v>
+      </c>
+      <c r="AM42" t="str">
+        <f t="shared" si="22"/>
+        <v>complete</v>
+      </c>
+      <c r="AN42" t="str">
+        <f t="shared" si="22"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="43" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B43">
         <v>4</v>
       </c>
-      <c r="D43" t="s">
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO43" t="str">
+        <f t="shared" ref="AO43:AR43" si="23">($D43)</f>
+        <v>complete</v>
+      </c>
+      <c r="AP43" t="str">
+        <f t="shared" si="23"/>
+        <v>complete</v>
+      </c>
+      <c r="AQ43" t="str">
+        <f t="shared" si="23"/>
+        <v>complete</v>
+      </c>
+      <c r="AR43" t="str">
+        <f t="shared" si="23"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="44" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>101</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AS44" t="str">
+        <f t="shared" ref="AS44:AT44" si="24">($D44)</f>
+        <v>complete</v>
+      </c>
+      <c r="AT44" t="str">
+        <f t="shared" si="24"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="45" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AU45" t="str">
+        <f t="shared" ref="AU45:AV45" si="25">($D45)</f>
+        <v>complete</v>
+      </c>
+      <c r="AV45" t="str">
+        <f t="shared" si="25"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="46" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-      <c r="AW43" t="str">
-        <f t="shared" ref="AW43:BA43" si="26">($D43)</f>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AW46" t="str">
+        <f t="shared" ref="AW46:BA46" si="26">($D46)</f>
         <v>planned</v>
       </c>
-      <c r="AX43" t="str">
+      <c r="AX46" t="str">
         <f t="shared" si="26"/>
         <v>planned</v>
       </c>
-      <c r="AY43" t="str">
+      <c r="AY46" t="str">
         <f t="shared" si="26"/>
         <v>planned</v>
       </c>
-      <c r="AZ43" t="str">
+      <c r="AZ46" t="str">
         <f t="shared" si="26"/>
         <v>planned</v>
       </c>
-      <c r="BA43" t="str">
+      <c r="BA46" t="str">
         <f t="shared" si="26"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="44" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="47" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>22</v>
       </c>
-      <c r="B44">
-        <f>SUM(B32:B43)</f>
+      <c r="B47">
+        <f>SUM(B35:B46)</f>
         <v>38</v>
       </c>
-      <c r="C44">
-        <f>SUM(C32:C43)</f>
+      <c r="C47">
+        <f>SUM(C35:C46)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+    <row r="48" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="49" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>38</v>
       </c>
-      <c r="B46">
+      <c r="B49">
         <v>5</v>
       </c>
-      <c r="C46">
+      <c r="C49">
         <v>5</v>
-      </c>
-      <c r="D46" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" t="str">
-        <f t="shared" ref="E46:I46" si="27">($D46)</f>
-        <v>complete</v>
-      </c>
-      <c r="F46" t="str">
-        <f t="shared" si="27"/>
-        <v>complete</v>
-      </c>
-      <c r="G46" t="str">
-        <f t="shared" si="27"/>
-        <v>complete</v>
-      </c>
-      <c r="H46" t="str">
-        <f t="shared" si="27"/>
-        <v>complete</v>
-      </c>
-      <c r="I46" t="str">
-        <f t="shared" si="27"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="47" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47">
-        <v>10</v>
-      </c>
-      <c r="C47">
-        <v>5</v>
-      </c>
-      <c r="D47" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" t="str">
-        <f t="shared" ref="J47:N47" si="28">($D47)</f>
-        <v>complete</v>
-      </c>
-      <c r="K47" t="str">
-        <f t="shared" si="28"/>
-        <v>complete</v>
-      </c>
-      <c r="L47" t="str">
-        <f t="shared" si="28"/>
-        <v>complete</v>
-      </c>
-      <c r="M47" t="str">
-        <f t="shared" si="28"/>
-        <v>complete</v>
-      </c>
-      <c r="N47" t="str">
-        <f t="shared" si="28"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="48" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48">
-        <v>10</v>
-      </c>
-      <c r="C48">
-        <v>6</v>
-      </c>
-      <c r="D48" t="s">
-        <v>17</v>
-      </c>
-      <c r="O48" t="str">
-        <f t="shared" ref="O48:T48" si="29">($D48)</f>
-        <v>complete</v>
-      </c>
-      <c r="P48" t="str">
-        <f t="shared" si="29"/>
-        <v>complete</v>
-      </c>
-      <c r="Q48" t="str">
-        <f t="shared" si="29"/>
-        <v>complete</v>
-      </c>
-      <c r="R48" t="str">
-        <f t="shared" si="29"/>
-        <v>complete</v>
-      </c>
-      <c r="S48" t="str">
-        <f t="shared" si="29"/>
-        <v>complete</v>
-      </c>
-      <c r="T48" t="str">
-        <f t="shared" si="29"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="49" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49">
-        <v>10</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
       </c>
       <c r="D49" t="s">
         <v>17</v>
       </c>
-      <c r="U49" t="str">
-        <f t="shared" ref="U49:V49" si="30">($D49)</f>
-        <v>complete</v>
-      </c>
-      <c r="V49" t="str">
-        <f t="shared" si="30"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="50" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="E49" t="str">
+        <f t="shared" ref="E49:I49" si="27">($D49)</f>
+        <v>complete</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="27"/>
+        <v>complete</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="27"/>
+        <v>complete</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="27"/>
+        <v>complete</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="27"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="50" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B50">
         <v>10</v>
       </c>
       <c r="C50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D50" t="s">
         <v>17</v>
       </c>
-      <c r="W50" t="str">
-        <f t="shared" ref="W50:AB50" si="31">($D50)</f>
-        <v>complete</v>
-      </c>
-      <c r="X50" t="str">
-        <f t="shared" si="31"/>
-        <v>complete</v>
-      </c>
-      <c r="Y50" t="str">
-        <f t="shared" si="31"/>
-        <v>complete</v>
-      </c>
-      <c r="Z50" t="str">
-        <f t="shared" si="31"/>
-        <v>complete</v>
-      </c>
-      <c r="AA50" t="str">
-        <f t="shared" si="31"/>
-        <v>complete</v>
-      </c>
-      <c r="AB50" t="str">
-        <f t="shared" si="31"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="51" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="J50" t="str">
+        <f t="shared" ref="J50:N50" si="28">($D50)</f>
+        <v>complete</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="28"/>
+        <v>complete</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="28"/>
+        <v>complete</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="28"/>
+        <v>complete</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="28"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="51" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B51">
         <v>10</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
       </c>
-      <c r="AC51" t="str">
-        <f t="shared" ref="AC51:AD51" si="32">($D51)</f>
-        <v>complete</v>
-      </c>
-      <c r="AD51" t="str">
-        <f t="shared" si="32"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="52" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="O51" t="str">
+        <f t="shared" ref="O51:T51" si="29">($D51)</f>
+        <v>complete</v>
+      </c>
+      <c r="P51" t="str">
+        <f t="shared" si="29"/>
+        <v>complete</v>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" si="29"/>
+        <v>complete</v>
+      </c>
+      <c r="R51" t="str">
+        <f t="shared" si="29"/>
+        <v>complete</v>
+      </c>
+      <c r="S51" t="str">
+        <f t="shared" si="29"/>
+        <v>complete</v>
+      </c>
+      <c r="T51" t="str">
+        <f t="shared" si="29"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="52" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B52">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="s">
         <v>17</v>
       </c>
-      <c r="AE52" t="str">
-        <f t="shared" ref="AE52:AH52" si="33">($D52)</f>
-        <v>complete</v>
-      </c>
-      <c r="AF52" t="str">
-        <f t="shared" si="33"/>
-        <v>complete</v>
-      </c>
-      <c r="AG52" t="str">
-        <f t="shared" si="33"/>
-        <v>complete</v>
-      </c>
-      <c r="AH52" t="str">
-        <f t="shared" si="33"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="53" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="U52" t="str">
+        <f t="shared" ref="U52:V52" si="30">($D52)</f>
+        <v>complete</v>
+      </c>
+      <c r="V52" t="str">
+        <f t="shared" si="30"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="53" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B53">
         <v>10</v>
@@ -4423,247 +4378,337 @@
       <c r="D53" t="s">
         <v>17</v>
       </c>
-      <c r="AI53" t="str">
-        <f t="shared" ref="AI53:AN53" si="34">($D53)</f>
-        <v>complete</v>
-      </c>
-      <c r="AJ53" t="str">
-        <f t="shared" si="34"/>
-        <v>complete</v>
-      </c>
-      <c r="AK53" t="str">
-        <f t="shared" si="34"/>
-        <v>complete</v>
-      </c>
-      <c r="AL53" t="str">
-        <f t="shared" si="34"/>
-        <v>complete</v>
-      </c>
-      <c r="AM53" t="str">
-        <f t="shared" si="34"/>
-        <v>complete</v>
-      </c>
-      <c r="AN53" t="str">
-        <f t="shared" si="34"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="54" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="W53" t="str">
+        <f t="shared" ref="W53:AB53" si="31">($D53)</f>
+        <v>complete</v>
+      </c>
+      <c r="X53" t="str">
+        <f t="shared" si="31"/>
+        <v>complete</v>
+      </c>
+      <c r="Y53" t="str">
+        <f t="shared" si="31"/>
+        <v>complete</v>
+      </c>
+      <c r="Z53" t="str">
+        <f t="shared" si="31"/>
+        <v>complete</v>
+      </c>
+      <c r="AA53" t="str">
+        <f t="shared" si="31"/>
+        <v>complete</v>
+      </c>
+      <c r="AB53" t="str">
+        <f t="shared" si="31"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="54" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
       </c>
-      <c r="AO54" t="str">
-        <f t="shared" ref="AO54:AR54" si="35">($D54)</f>
-        <v>complete</v>
-      </c>
-      <c r="AP54" t="str">
-        <f t="shared" si="35"/>
-        <v>complete</v>
-      </c>
-      <c r="AQ54" t="str">
-        <f t="shared" si="35"/>
-        <v>complete</v>
-      </c>
-      <c r="AR54" t="str">
-        <f t="shared" si="35"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="55" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="AC54" t="str">
+        <f t="shared" ref="AC54:AD54" si="32">($D54)</f>
+        <v>complete</v>
+      </c>
+      <c r="AD54" t="str">
+        <f t="shared" si="32"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="55" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="s">
         <v>17</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
-      <c r="AA55" s="3"/>
-      <c r="AS55" t="str">
-        <f t="shared" ref="AS55:AT55" si="36">($D55)</f>
-        <v>complete</v>
-      </c>
-      <c r="AT55" t="str">
+      <c r="AE55" t="str">
+        <f t="shared" ref="AE55:AH55" si="33">($D55)</f>
+        <v>complete</v>
+      </c>
+      <c r="AF55" t="str">
+        <f t="shared" si="33"/>
+        <v>complete</v>
+      </c>
+      <c r="AG55" t="str">
+        <f t="shared" si="33"/>
+        <v>complete</v>
+      </c>
+      <c r="AH55" t="str">
+        <f t="shared" si="33"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="56" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI56" t="str">
+        <f t="shared" ref="AI56:AN56" si="34">($D56)</f>
+        <v>complete</v>
+      </c>
+      <c r="AJ56" t="str">
+        <f t="shared" si="34"/>
+        <v>complete</v>
+      </c>
+      <c r="AK56" t="str">
+        <f t="shared" si="34"/>
+        <v>complete</v>
+      </c>
+      <c r="AL56" t="str">
+        <f t="shared" si="34"/>
+        <v>complete</v>
+      </c>
+      <c r="AM56" t="str">
+        <f t="shared" si="34"/>
+        <v>complete</v>
+      </c>
+      <c r="AN56" t="str">
+        <f t="shared" si="34"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="57" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO57" t="str">
+        <f t="shared" ref="AO57:AR57" si="35">($D57)</f>
+        <v>complete</v>
+      </c>
+      <c r="AP57" t="str">
+        <f t="shared" si="35"/>
+        <v>complete</v>
+      </c>
+      <c r="AQ57" t="str">
+        <f t="shared" si="35"/>
+        <v>complete</v>
+      </c>
+      <c r="AR57" t="str">
+        <f t="shared" si="35"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="58" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="3"/>
+      <c r="AS58" t="str">
+        <f t="shared" ref="AS58:AT58" si="36">($D58)</f>
+        <v>complete</v>
+      </c>
+      <c r="AT58" t="str">
         <f t="shared" si="36"/>
         <v>complete</v>
       </c>
     </row>
-    <row r="56" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="59" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>48</v>
       </c>
-      <c r="B56">
+      <c r="B59">
         <v>2</v>
       </c>
-      <c r="C56">
+      <c r="C59">
         <v>2</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D59" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-      <c r="AA56" s="3"/>
-      <c r="AU56" t="str">
-        <f t="shared" ref="AU56:AV56" si="37">($D56)</f>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+      <c r="AU59" t="str">
+        <f t="shared" ref="AU59:AV59" si="37">($D59)</f>
         <v>this week</v>
       </c>
-      <c r="AV56" t="str">
+      <c r="AV59" t="str">
         <f t="shared" si="37"/>
         <v>this week</v>
       </c>
     </row>
-    <row r="57" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="60" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>49</v>
       </c>
-      <c r="B57">
+      <c r="B60">
         <v>5</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D60" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
-      <c r="V57" s="3"/>
-      <c r="W57" s="3"/>
-      <c r="X57" s="3"/>
-      <c r="Y57" s="3"/>
-      <c r="Z57" s="3"/>
-      <c r="AA57" s="3"/>
-      <c r="AW57" t="str">
-        <f t="shared" ref="AW57:BA57" si="38">($D57)</f>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="3"/>
+      <c r="AW60" t="str">
+        <f t="shared" ref="AW60:BA60" si="38">($D60)</f>
         <v>planned</v>
       </c>
-      <c r="AX57" t="str">
+      <c r="AX60" t="str">
         <f t="shared" si="38"/>
         <v>planned</v>
       </c>
-      <c r="AY57" t="str">
+      <c r="AY60" t="str">
         <f t="shared" si="38"/>
         <v>planned</v>
       </c>
-      <c r="AZ57" t="str">
+      <c r="AZ60" t="str">
         <f t="shared" si="38"/>
         <v>planned</v>
       </c>
-      <c r="BA57" t="str">
+      <c r="BA60" t="str">
         <f t="shared" si="38"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="58" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="61" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>22</v>
       </c>
-      <c r="B58">
-        <f>SUM(B46:B57)</f>
+      <c r="B61">
+        <f>SUM(B49:B60)</f>
         <v>84</v>
       </c>
-      <c r="C58">
-        <f>SUM(C46:C57)</f>
+      <c r="C61">
+        <f>SUM(C49:C60)</f>
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
+    <row r="62" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="6">
-        <f>SUM(B30,B44,B21,B11)</f>
-        <v>149</v>
-      </c>
-      <c r="C59" s="6">
-        <f>SUM(C11,C21,C30,C44)</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="6" t="s">
+      <c r="B62" s="6">
+        <f>SUM(B33,B47,B24,B14)</f>
+        <v>168</v>
+      </c>
+      <c r="C62" s="6">
+        <f>SUM(C14,C24,C33,C47)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B60" s="53">
-        <f>B59*100</f>
-        <v>14900</v>
-      </c>
-      <c r="C60" s="53">
-        <f>C59*100</f>
-        <v>6800</v>
-      </c>
-      <c r="D60" s="53"/>
+      <c r="B63" s="53">
+        <f>B62*100</f>
+        <v>16800</v>
+      </c>
+      <c r="C63" s="53">
+        <f>C62*100</f>
+        <v>6900</v>
+      </c>
+      <c r="D63" s="53"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D13:D19">
+  <conditionalFormatting sqref="D16:D22">
     <cfRule type="cellIs" dxfId="125" priority="169" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4674,7 +4719,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
+  <conditionalFormatting sqref="D23">
     <cfRule type="cellIs" dxfId="122" priority="163" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4685,7 +4730,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
+  <conditionalFormatting sqref="D31">
     <cfRule type="cellIs" dxfId="119" priority="160" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4696,7 +4741,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29">
+  <conditionalFormatting sqref="D32">
     <cfRule type="cellIs" dxfId="116" priority="157" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4707,7 +4752,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D42:D43">
+  <conditionalFormatting sqref="D45:D46">
     <cfRule type="cellIs" dxfId="113" priority="154" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4718,7 +4763,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14 G14:BR14 E26:BR40 E25:O25 Q25:BR25 E15:BR24 F3 E4 E5:F5 H3:BR4 I5:BR5 E6:H6 E7:I7 K6:BR6 N7:BR7 E8:BR13">
+  <conditionalFormatting sqref="E17 G17:BR17 E29:BR43 E28:O28 Q28:BR28 E18:BR27 F3 E4 E5:F5 H3:BR4 I5:BR5 E6:H6 E7:I7 K6:BR6 N7:BR7 E8:BR16">
     <cfRule type="cellIs" dxfId="110" priority="151" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4729,7 +4774,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D10">
+  <conditionalFormatting sqref="D3:D13">
     <cfRule type="cellIs" dxfId="107" priority="148" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4740,7 +4785,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D27">
+  <conditionalFormatting sqref="D26:D30">
     <cfRule type="cellIs" dxfId="104" priority="142" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4751,7 +4796,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32:D41">
+  <conditionalFormatting sqref="D35:D44">
     <cfRule type="cellIs" dxfId="101" priority="139" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4817,7 +4862,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U9:AG9">
+  <conditionalFormatting sqref="U9:AG11">
     <cfRule type="cellIs" dxfId="83" priority="115" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4828,7 +4873,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH10">
+  <conditionalFormatting sqref="AH12:AH13">
     <cfRule type="cellIs" dxfId="80" priority="109" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4839,7 +4884,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS41:AT41">
+  <conditionalFormatting sqref="AS44:AT44">
     <cfRule type="cellIs" dxfId="77" priority="97" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4850,7 +4895,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU42:AV42">
+  <conditionalFormatting sqref="AU45:AV45">
     <cfRule type="cellIs" dxfId="74" priority="94" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4861,7 +4906,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW43:BA43">
+  <conditionalFormatting sqref="AW46:BA46">
     <cfRule type="cellIs" dxfId="71" priority="91" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4872,7 +4917,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D56:D57">
+  <conditionalFormatting sqref="D59:D60">
     <cfRule type="cellIs" dxfId="68" priority="88" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4883,7 +4928,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45:BR54">
+  <conditionalFormatting sqref="E48:BR57">
     <cfRule type="cellIs" dxfId="65" priority="85" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4894,7 +4939,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D46:D55">
+  <conditionalFormatting sqref="D49:D58">
     <cfRule type="cellIs" dxfId="62" priority="82" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4905,7 +4950,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS55:AT55">
+  <conditionalFormatting sqref="AS58:AT58">
     <cfRule type="cellIs" dxfId="59" priority="79" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4916,7 +4961,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU56:AV56">
+  <conditionalFormatting sqref="AU59:AV59">
     <cfRule type="cellIs" dxfId="56" priority="76" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4927,7 +4972,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW57:BA57">
+  <conditionalFormatting sqref="AW60:BA60">
     <cfRule type="cellIs" dxfId="53" priority="73" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -5092,7 +5137,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P9">
+  <conditionalFormatting sqref="P9:P11">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -5103,7 +5148,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q9">
+  <conditionalFormatting sqref="Q9:Q11">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -5114,7 +5159,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R9">
+  <conditionalFormatting sqref="R9:R11">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -5126,7 +5171,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23:D29 D32:D43 D46:D57 D13:D20 D3:D10" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26:D32 D35:D46 D49:D60 D16:D23 D3:D13" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$F$1:$H$1</formula1>
     </dataValidation>
   </dataValidations>
@@ -5143,44 +5188,44 @@
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>53</v>
       </c>
@@ -5215,7 +5260,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>62</v>
       </c>
@@ -5250,7 +5295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -5289,7 +5334,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -5322,7 +5367,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -5357,7 +5402,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -5392,7 +5437,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -5427,7 +5472,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
@@ -5476,15 +5521,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
     </row>
   </sheetData>
@@ -5498,19 +5543,19 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="19" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="19" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="31"/>
       <c r="B1" s="32" t="s">
         <v>64</v>
@@ -5567,7 +5612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>8</v>
       </c>
@@ -5583,7 +5628,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
       <c r="B3" s="35" t="s">
         <v>68</v>
@@ -5592,7 +5637,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="37">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -5600,7 +5645,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="38"/>
       <c r="B4" s="35" t="s">
         <v>69</v>
@@ -5616,7 +5661,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="52"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
       <c r="B5" s="35" t="s">
         <v>70</v>
@@ -5627,10 +5672,10 @@
       </c>
       <c r="D5" s="39">
         <f>SUM(D2:D4)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>9</v>
       </c>
@@ -5646,7 +5691,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="46"/>
       <c r="B7" s="35" t="s">
         <v>68</v>
@@ -5663,7 +5708,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="38"/>
       <c r="B8" s="35" t="s">
         <v>71</v>
@@ -5679,7 +5724,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="47"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="35" t="s">
         <v>70</v>
@@ -5693,7 +5738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>10</v>
       </c>
@@ -5708,7 +5753,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="46"/>
       <c r="B11" s="35" t="s">
         <v>68</v>
@@ -5725,7 +5770,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="40" t="s">
         <v>72</v>
@@ -5741,7 +5786,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="40" t="s">
         <v>74</v>
@@ -5756,7 +5801,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="40" t="s">
         <v>76</v>
@@ -5772,7 +5817,7 @@
       </c>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="41" t="s">
         <v>70</v>
@@ -5786,7 +5831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>11</v>
       </c>
@@ -5802,7 +5847,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="46"/>
       <c r="B17" s="35" t="s">
         <v>68</v>
@@ -5819,7 +5864,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="35" t="s">
         <v>78</v>
@@ -5835,7 +5880,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="47"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="41" t="s">
         <v>70</v>
@@ -5849,7 +5894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
         <v>12</v>
       </c>
@@ -5865,7 +5910,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="46"/>
       <c r="B21" s="35" t="s">
         <v>68</v>
@@ -5882,7 +5927,7 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="35" t="s">
         <v>79</v>
@@ -5898,7 +5943,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="47"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
       <c r="B23" s="41" t="s">
         <v>70</v>
@@ -5912,7 +5957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="42"/>
       <c r="B24" s="43" t="s">
         <v>0</v>
@@ -5923,10 +5968,10 @@
       </c>
       <c r="D24" s="45">
         <f>SUM(D5,D9,D15,D19,D23)</f>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" s="30" t="s">
         <v>80</v>
       </c>
@@ -5945,12 +5990,12 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>8</v>
@@ -5968,7 +6013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>81</v>
       </c>
@@ -5988,7 +6033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>82</v>
       </c>
@@ -6008,7 +6053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>83</v>
       </c>
@@ -6028,7 +6073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>84</v>
       </c>
@@ -6048,7 +6093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>85</v>
       </c>
@@ -6068,7 +6113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>86</v>
       </c>
@@ -6088,10 +6133,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>

--- a/docs/Gantt Chart.xlsx
+++ b/docs/Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24004"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Homework Assignments\Tower-of-Annihilation\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vandalsuidaho-my.sharepoint.com/personal/huyn3743_vandals_uidaho_edu/Documents/Room 4 Studios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24BD08C-31C7-436C-AF9B-D2F38C82CC40}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C522585-3400-4AB5-B7A7-03378F3AB5A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="SA" sheetId="4" r:id="rId4"/>
     <sheet name="Overhead" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="101">
   <si>
     <t>Total</t>
   </si>
@@ -100,10 +100,43 @@
     <t>planned</t>
   </si>
   <si>
+    <t>Requirements Collection</t>
+  </si>
+  <si>
     <t>Repo + Git Setup</t>
   </si>
   <si>
-    <t>Coin/Power-up integration</t>
+    <t>Camera Movement</t>
+  </si>
+  <si>
+    <t>Create Animations</t>
+  </si>
+  <si>
+    <t>Player Controls</t>
+  </si>
+  <si>
+    <t>Add Attack Points</t>
+  </si>
+  <si>
+    <t>Make Initial Level Map</t>
+  </si>
+  <si>
+    <t>Help With Loot Drop</t>
+  </si>
+  <si>
+    <t>Make Intro Level</t>
+  </si>
+  <si>
+    <t>Health Bars</t>
+  </si>
+  <si>
+    <t>Make Additional Levels</t>
+  </si>
+  <si>
+    <t>Music Implementation</t>
+  </si>
+  <si>
+    <t>Adding Patterns and Other Requirements</t>
   </si>
   <si>
     <t>totals</t>
@@ -121,10 +154,13 @@
     <t>Expand On Vendor Items</t>
   </si>
   <si>
+    <t>(constant)</t>
+  </si>
+  <si>
     <t>Implement Dialogue</t>
   </si>
   <si>
-    <t>Code boss' battles/ bullets</t>
+    <t>Code Boss' Battles/ Bullets</t>
   </si>
   <si>
     <t>Possibly Add Other Attack Types</t>
@@ -151,28 +187,43 @@
     <t>Audio Production</t>
   </si>
   <si>
-    <t>Quality Insurance Testing</t>
-  </si>
-  <si>
-    <t>HUD Layout</t>
-  </si>
-  <si>
-    <t>Score Control</t>
-  </si>
-  <si>
-    <t>Display Score</t>
-  </si>
-  <si>
-    <t>Implmentation of Mulitplier &amp; Display</t>
-  </si>
-  <si>
-    <t>Song Score Implementation &amp; Time Display</t>
-  </si>
-  <si>
-    <t>Menu Button Implementation and Display</t>
-  </si>
-  <si>
-    <t>Progression Bar, Mini Map</t>
+    <t>Quality Assurance Testing</t>
+  </si>
+  <si>
+    <t>Implement A*</t>
+  </si>
+  <si>
+    <t>Enemy Patrol/ Track</t>
+  </si>
+  <si>
+    <t>Enemy Attack</t>
+  </si>
+  <si>
+    <t>Other Melee Enemy Implementation</t>
+  </si>
+  <si>
+    <t>Ranged Enemy Attack</t>
+  </si>
+  <si>
+    <t>Other Enemy Improvements</t>
+  </si>
+  <si>
+    <t>Boss mechanics(?)</t>
+  </si>
+  <si>
+    <t>Create Start Screen/Options Menu</t>
+  </si>
+  <si>
+    <t>UI For In-Game Stats</t>
+  </si>
+  <si>
+    <t>In-Game Menu</t>
+  </si>
+  <si>
+    <t>Expand On Start Screen</t>
+  </si>
+  <si>
+    <t>Implement Game Saves</t>
   </si>
   <si>
     <t>HighScore Display &amp; Implmentation</t>
@@ -181,13 +232,7 @@
     <t>Background Enhancements &amp; Art</t>
   </si>
   <si>
-    <t>Character Art Enhancement</t>
-  </si>
-  <si>
-    <t>Dr-BC Mode Hotkey &amp; Undo (B, N)</t>
-  </si>
-  <si>
-    <t>Track Enhancements and Art</t>
+    <t xml:space="preserve">Dr-BC Mode </t>
   </si>
   <si>
     <t>group totals (hrs)</t>
@@ -205,25 +250,22 @@
     <t>First Meeting</t>
   </si>
   <si>
-    <t>Ananlysis Planning</t>
-  </si>
-  <si>
-    <t>Ananlysis Integration</t>
-  </si>
-  <si>
-    <t>Ananlysis presentation practice</t>
-  </si>
-  <si>
-    <t>Initial Set-up</t>
-  </si>
-  <si>
-    <t>Initial Release</t>
-  </si>
-  <si>
-    <t>Team Lead 2 demo practice</t>
-  </si>
-  <si>
-    <t>Test Code Integrateion</t>
+    <t>Initial Game Planning</t>
+  </si>
+  <si>
+    <t>Assign Roles</t>
+  </si>
+  <si>
+    <t>Debug Features</t>
+  </si>
+  <si>
+    <t>Work on SA Pres, RFP, etc</t>
+  </si>
+  <si>
+    <t>Analysis Presentation Practice</t>
+  </si>
+  <si>
+    <t>Prepare for Weekly Status</t>
   </si>
   <si>
     <t>Hours</t>
@@ -277,7 +319,7 @@
     <t>Chapter 5 and 6, glossary Terms</t>
   </si>
   <si>
-    <t>Edit Chatpers 1-3</t>
+    <t>Main Menu</t>
   </si>
   <si>
     <t>red is dependent on others</t>
@@ -289,7 +331,7 @@
     <t>SA Preesentation Prep</t>
   </si>
   <si>
-    <t>Software Specialist Presnetaion Prep</t>
+    <t>Software Specialist Presentation Prep</t>
   </si>
   <si>
     <t>Team Lead Presentation Prep</t>
@@ -299,99 +341,6 @@
   </si>
   <si>
     <t>Post Mortum Presentation Prep</t>
-  </si>
-  <si>
-    <t>Player Manager Script</t>
-  </si>
-  <si>
-    <t>Sprites / Animations / Tileset</t>
-  </si>
-  <si>
-    <t>Sound Manager</t>
-  </si>
-  <si>
-    <t>Unity Project Setup</t>
-  </si>
-  <si>
-    <t>Player Movement</t>
-  </si>
-  <si>
-    <t>Plan basic moves</t>
-  </si>
-  <si>
-    <t>create a 'can see player function'</t>
-  </si>
-  <si>
-    <t>create a chase player function</t>
-  </si>
-  <si>
-    <t>plan patrolling system</t>
-  </si>
-  <si>
-    <t>Create basic detection system</t>
-  </si>
-  <si>
-    <t>Implement A Star Pathfinding</t>
-  </si>
-  <si>
-    <t>collaborate pathfinding features</t>
-  </si>
-  <si>
-    <t>plan searching system</t>
-  </si>
-  <si>
-    <t>implement searching functions</t>
-  </si>
-  <si>
-    <t>functions to interact with enviroment</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Demo Mode</t>
-  </si>
-  <si>
-    <t>Jan. 30</t>
-  </si>
-  <si>
-    <t>Feb. 1</t>
-  </si>
-  <si>
-    <t>Feb. 13</t>
-  </si>
-  <si>
-    <t>Feb. 15</t>
-  </si>
-  <si>
-    <t>Feb. 21</t>
-  </si>
-  <si>
-    <t>Feb. 22</t>
-  </si>
-  <si>
-    <t>Feb. 23</t>
-  </si>
-  <si>
-    <t>March. 4</t>
-  </si>
-  <si>
-    <t>March. 2</t>
-  </si>
-  <si>
-    <t>March. 20</t>
-  </si>
-  <si>
-    <t>Add New Levels</t>
-  </si>
-  <si>
-    <t>Player health bars</t>
-  </si>
-  <si>
-    <t>NPC Health bars</t>
-  </si>
-  <si>
-    <t>Implement code template</t>
   </si>
 </sst>
 </file>
@@ -402,7 +351,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -664,7 +613,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -725,15 +674,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -743,672 +690,15 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="126">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="60">
     <dxf>
       <font>
         <color theme="0"/>
@@ -2322,10 +1612,10 @@
   <dimension ref="B1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
@@ -2333,7 +1623,7 @@
     <col min="6" max="6" width="3.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
     <col min="10" max="10" width="2.85546875" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
@@ -2343,12 +1633,13 @@
     <col min="16" max="16" width="14.7109375" customWidth="1"/>
     <col min="17" max="17" width="11.28515625" customWidth="1"/>
     <col min="18" max="18" width="5.140625" customWidth="1"/>
-    <col min="19" max="20" width="13.42578125" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" customWidth="1"/>
     <col min="21" max="21" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" ht="14.65" thickBot="1"/>
+    <row r="2" spans="2:21">
       <c r="C2" s="61" t="s">
         <v>0</v>
       </c>
@@ -2376,7 +1667,7 @@
       <c r="T2" s="62"/>
       <c r="U2" s="63"/>
     </row>
-    <row r="3" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:21" ht="14.65" thickBot="1">
       <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
@@ -2424,45 +1715,45 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21">
       <c r="B4" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="23">
         <f>(G4+K4 +O4+S4)</f>
-        <v>8800</v>
+        <v>9500</v>
       </c>
       <c r="D4" s="24">
         <f t="shared" ref="D4:D6" si="0">(H4+L4 +P4+T4)</f>
-        <v>7800</v>
+        <v>6300</v>
       </c>
       <c r="E4" s="25">
         <f>(C4-D4)</f>
-        <v>1000</v>
+        <v>3200</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="17">
-        <f>(Gantt!$B14)*100</f>
-        <v>3700</v>
+        <f>(Gantt!$B16)*100</f>
+        <v>3400</v>
       </c>
       <c r="H4" s="18">
-        <f>(Gantt!$C14)*100</f>
-        <v>1200</v>
+        <f>(Gantt!$C16)*100</f>
+        <v>2000</v>
       </c>
       <c r="I4" s="19">
         <f>(G4-H4)</f>
-        <v>2500</v>
+        <v>1400</v>
       </c>
       <c r="K4" s="23">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L4" s="24">
         <f>Meetings!B4*100</f>
-        <v>3000</v>
+        <v>1300</v>
       </c>
       <c r="M4" s="25">
         <f>(K4-L4)</f>
-        <v>-2000</v>
+        <v>700</v>
       </c>
       <c r="O4" s="23">
         <f>(SA!C5)*100</f>
@@ -2470,63 +1761,63 @@
       </c>
       <c r="P4" s="24">
         <f>(SA!D5)*100</f>
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="Q4" s="25">
         <f>(O4-P4)</f>
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="S4" s="23">
         <v>3000</v>
       </c>
       <c r="T4" s="24">
         <f>Overhead!B9*100</f>
-        <v>2600</v>
+        <v>1700</v>
       </c>
       <c r="U4" s="25">
         <f>(S4-T4)</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21">
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="17">
         <f t="shared" ref="C5:C6" si="1">(G5+K5 +O5+S5)</f>
-        <v>9600</v>
+        <v>10600</v>
       </c>
       <c r="D5" s="18">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="E5" s="19">
         <f t="shared" ref="E5:E6" si="2">(C5-D5)</f>
-        <v>3000</v>
+        <v>4300</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="17">
-        <f>(Gantt!$B24)*100</f>
+        <f>(Gantt!$B26)*100</f>
         <v>4500</v>
       </c>
       <c r="H5" s="18">
-        <f>(Gantt!$C24)*100</f>
-        <v>900</v>
+        <f>(Gantt!$C26)*100</f>
+        <v>1800</v>
       </c>
       <c r="I5" s="19">
         <f t="shared" ref="I5:I6" si="3">(G5-H5)</f>
-        <v>3600</v>
+        <v>2700</v>
       </c>
       <c r="K5" s="17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L5" s="18">
         <f>Meetings!B5*100</f>
-        <v>2600</v>
+        <v>1300</v>
       </c>
       <c r="M5" s="19">
         <f t="shared" ref="M5:M6" si="4">(K5-L5)</f>
-        <v>-1600</v>
+        <v>700</v>
       </c>
       <c r="O5" s="17">
         <f>(SA!C9)*100</f>
@@ -2545,116 +1836,114 @@
       </c>
       <c r="T5" s="18">
         <f>Overhead!C9*100</f>
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="U5" s="19">
         <f t="shared" ref="U5:U6" si="6">(S5-T5)</f>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21">
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="17">
         <f t="shared" si="1"/>
-        <v>9900</v>
+        <v>10900</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>9800</v>
+        <v>7500</v>
       </c>
       <c r="E6" s="19">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>3400</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="17">
-        <f>(Gantt!$B33)*100</f>
+        <f>(Gantt!$B35)*100</f>
         <v>4800</v>
       </c>
       <c r="H6" s="18">
-        <f>(Gantt!$C33)*100</f>
-        <v>1400</v>
+        <f>(Gantt!$C35)*100</f>
+        <v>2100</v>
       </c>
       <c r="I6" s="19">
         <f t="shared" si="3"/>
-        <v>3400</v>
+        <v>2700</v>
       </c>
       <c r="K6" s="17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L6" s="18">
         <f>Meetings!B6*100</f>
-        <v>2600</v>
+        <v>1300</v>
       </c>
       <c r="M6" s="19">
         <f t="shared" si="4"/>
-        <v>-1600</v>
+        <v>700</v>
       </c>
       <c r="O6" s="17">
         <f>(SA!C15)*100</f>
         <v>1100</v>
       </c>
       <c r="P6" s="18">
-        <f>(SA!D15)*100</f>
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="Q6" s="19">
         <f t="shared" si="5"/>
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="S6" s="17">
         <v>3000</v>
       </c>
       <c r="T6" s="18">
-        <f>Overhead!D9*100</f>
-        <v>4300</v>
+        <v>3000</v>
       </c>
       <c r="U6" s="19">
         <f t="shared" si="6"/>
-        <v>-1300</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21">
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="17">
         <f t="shared" ref="C7:C8" si="7">(G7+K7 +O7+S7)</f>
-        <v>8900</v>
+        <v>11000</v>
       </c>
       <c r="D7" s="18">
         <f t="shared" ref="D7:D8" si="8">(H7+L7 +P7+T7)</f>
-        <v>9800</v>
+        <v>6000</v>
       </c>
       <c r="E7" s="19">
         <f t="shared" ref="E7:E8" si="9">(C7-D7)</f>
-        <v>-900</v>
+        <v>5000</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="17">
-        <f>(Gantt!$B47)*100</f>
-        <v>3800</v>
+        <f>(Gantt!$B44)*100</f>
+        <v>4900</v>
       </c>
       <c r="H7" s="18">
-        <f>(Gantt!$C47)*100</f>
-        <v>3400</v>
+        <f>(Gantt!$C44)*100</f>
+        <v>1300</v>
       </c>
       <c r="I7" s="19">
         <f t="shared" ref="I7:I8" si="10">(G7-H7)</f>
-        <v>400</v>
+        <v>3600</v>
       </c>
       <c r="K7" s="17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L7" s="18">
         <f>Meetings!B7*100</f>
-        <v>2600</v>
+        <v>1300</v>
       </c>
       <c r="M7" s="19">
         <f t="shared" ref="M7:M8" si="11">(K7-L7)</f>
-        <v>-1600</v>
+        <v>700</v>
       </c>
       <c r="O7" s="17">
         <f>(SA!C19)*100</f>
@@ -2673,52 +1962,52 @@
       </c>
       <c r="T7" s="18">
         <f>Overhead!E9*100</f>
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="U7" s="19">
         <f t="shared" ref="U7:U8" si="13">(S7-T7)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21">
       <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="17">
         <f t="shared" si="7"/>
-        <v>13500</v>
+        <v>11800</v>
       </c>
       <c r="D8" s="18">
         <f t="shared" si="8"/>
-        <v>11400</v>
+        <v>5000</v>
       </c>
       <c r="E8" s="19">
         <f t="shared" si="9"/>
-        <v>2100</v>
+        <v>6800</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="17">
-        <f>(Gantt!$B61)*100</f>
-        <v>8400</v>
+        <f>(Gantt!$B54)*100</f>
+        <v>5700</v>
       </c>
       <c r="H8" s="18">
-        <f>(Gantt!$C61)*100</f>
-        <v>4400</v>
+        <f>(Gantt!$C54)*100</f>
+        <v>700</v>
       </c>
       <c r="I8" s="19">
         <f t="shared" si="10"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="K8" s="17">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="L8" s="18">
         <f>Meetings!B8*100</f>
-        <v>2600</v>
+        <v>1300</v>
       </c>
       <c r="M8" s="19">
         <f t="shared" si="11"/>
-        <v>-1600</v>
+        <v>700</v>
       </c>
       <c r="O8" s="17">
         <f>(SA!C23)*100</f>
@@ -2737,53 +2026,53 @@
       </c>
       <c r="T8" s="18">
         <f>Overhead!F9*100</f>
-        <v>3500</v>
+        <v>2100</v>
       </c>
       <c r="U8" s="19">
         <f t="shared" si="13"/>
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" ht="14.65" thickBot="1">
       <c r="B9" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="27">
         <f>SUM(C4:C8)</f>
-        <v>50700</v>
+        <v>53800</v>
       </c>
       <c r="D9" s="28">
         <f>SUM(D4:D8)</f>
-        <v>45400</v>
+        <v>31100</v>
       </c>
       <c r="E9" s="29">
         <f>SUM(E4:E8)</f>
-        <v>5300</v>
+        <v>22700</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="20">
         <f>SUM(G4:G8)</f>
-        <v>25200</v>
+        <v>23300</v>
       </c>
       <c r="H9" s="21">
         <f>SUM(H4:H8)</f>
-        <v>11300</v>
+        <v>7900</v>
       </c>
       <c r="I9" s="22">
         <f>SUM(I4:I8)</f>
-        <v>13900</v>
+        <v>15400</v>
       </c>
       <c r="K9" s="20">
         <f>SUM(K4:K8)</f>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L9" s="21">
         <f>SUM(L4:L8)</f>
-        <v>13400</v>
+        <v>6500</v>
       </c>
       <c r="M9" s="22">
         <f>SUM(M4:M8)</f>
-        <v>-8400</v>
+        <v>3500</v>
       </c>
       <c r="O9" s="27">
         <f>SUM(O4:O8)</f>
@@ -2791,11 +2080,11 @@
       </c>
       <c r="P9" s="28">
         <f>SUM(P4:P8)</f>
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="Q9" s="29">
         <f>SUM(Q4:Q8)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S9" s="27">
         <f>SUM(S4:S8)</f>
@@ -2803,11 +2092,11 @@
       </c>
       <c r="T9" s="28">
         <f>SUM(T4:T8)</f>
-        <v>15200</v>
+        <v>11300</v>
       </c>
       <c r="U9" s="29">
         <f>SUM(U4:U8)</f>
-        <v>-200</v>
+        <v>3700</v>
       </c>
     </row>
   </sheetData>
@@ -2825,22 +2114,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BK63"/>
+  <dimension ref="A1:BK56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="57.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63">
       <c r="A1" s="48"/>
       <c r="B1" s="48" t="s">
         <v>13</v>
@@ -2919,7 +2208,7 @@
       <c r="BJ1" s="48"/>
       <c r="BK1" s="48"/>
     </row>
-    <row r="2" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" s="2" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3159,15 +2448,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63">
       <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -3176,13 +2465,17 @@
         <f>($D3)</f>
         <v>complete</v>
       </c>
-    </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="F3" t="str">
+        <f>($D3)</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -3190,245 +2483,357 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="str">
+      <c r="G4" t="str">
         <f>($D4)</f>
         <v>complete</v>
       </c>
-    </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="H4" t="str">
+        <f t="shared" ref="H4" si="3">($D4)</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="str">
+      <c r="I5" t="str">
         <f>($D5)</f>
         <v>complete</v>
       </c>
-      <c r="H5" t="str">
-        <f>($D5)</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:63">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="I6" t="str">
+      <c r="J6" t="str">
         <f>($D6)</f>
         <v>complete</v>
       </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:63">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="J7" t="str">
-        <f>($D7)</f>
-        <v>complete</v>
-      </c>
       <c r="K7" t="str">
-        <f>($D7)</f>
+        <f t="shared" ref="K7:M7" si="4">($D7)</f>
         <v>complete</v>
       </c>
       <c r="L7" t="str">
-        <f>($D7)</f>
+        <f t="shared" si="4"/>
         <v>complete</v>
       </c>
       <c r="M7" t="str">
-        <f>($D7)</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" ref="N8" si="3">($D8)</f>
+        <f t="shared" ref="N8:P8" si="5">($D8)</f>
         <v>complete</v>
       </c>
       <c r="O8" t="str">
-        <f t="shared" ref="O8:R9" si="4">($D8)</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>complete</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="5"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="P9" t="str">
-        <f t="shared" si="4"/>
-        <v>complete</v>
-      </c>
       <c r="Q9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="Q9:T9" si="6">($D9)</f>
         <v>complete</v>
       </c>
       <c r="R9" t="str">
-        <f t="shared" si="4"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>complete</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="6"/>
+        <v>complete</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="6"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" ref="U10:AG10" si="7">($D10)</f>
+        <v>complete</v>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="7"/>
+        <v>complete</v>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="7"/>
+        <v>complete</v>
+      </c>
+      <c r="X10" t="str">
+        <f t="shared" si="7"/>
+        <v>complete</v>
+      </c>
+      <c r="Y10" t="str">
+        <f t="shared" si="7"/>
+        <v>complete</v>
+      </c>
+      <c r="Z10" t="str">
+        <f t="shared" si="7"/>
+        <v>complete</v>
+      </c>
+      <c r="AA10" t="str">
+        <f t="shared" si="7"/>
+        <v>complete</v>
+      </c>
+      <c r="AB10" t="str">
+        <f t="shared" si="7"/>
+        <v>complete</v>
+      </c>
+      <c r="AC10" t="str">
+        <f t="shared" si="7"/>
+        <v>complete</v>
+      </c>
+      <c r="AD10" t="str">
+        <f t="shared" si="7"/>
+        <v>complete</v>
+      </c>
+      <c r="AE10" t="str">
+        <f t="shared" si="7"/>
+        <v>complete</v>
+      </c>
+      <c r="AF10" t="str">
+        <f t="shared" si="7"/>
+        <v>complete</v>
+      </c>
+      <c r="AG10" t="str">
+        <f t="shared" si="7"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="AH11" t="str">
+        <f>($D11)</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="S12" t="str">
-        <f t="shared" ref="S12:T12" si="5">($D12)</f>
+      <c r="AI12" t="str">
+        <f>($D12)</f>
         <v>this week</v>
       </c>
-      <c r="T12" t="str">
-        <f t="shared" si="5"/>
-        <v>this week</v>
-      </c>
-    </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:63">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="AJ13" t="str">
+        <f t="shared" ref="AJ13:AN13" si="8">($D13)</f>
+        <v>planned</v>
+      </c>
+      <c r="AK13" t="str">
+        <f t="shared" si="8"/>
+        <v>planned</v>
+      </c>
+      <c r="AL13" t="str">
+        <f t="shared" si="8"/>
+        <v>planned</v>
+      </c>
+      <c r="AM13" t="str">
+        <f t="shared" si="8"/>
+        <v>planned</v>
+      </c>
+      <c r="AN13" t="str">
+        <f t="shared" si="8"/>
+        <v>planned</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B14">
-        <f>SUM(B3:B13)</f>
-        <v>37</v>
-      </c>
-      <c r="C14">
-        <f>SUM(C3:C12)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO14" t="str">
+        <f t="shared" ref="AO14:AV14" si="9">($D14)</f>
+        <v>planned</v>
+      </c>
+      <c r="AP14" t="str">
+        <f t="shared" si="9"/>
+        <v>planned</v>
+      </c>
+      <c r="AQ14" t="str">
+        <f t="shared" si="9"/>
+        <v>planned</v>
+      </c>
+      <c r="AR14" t="str">
+        <f t="shared" si="9"/>
+        <v>planned</v>
+      </c>
+      <c r="AS14" t="str">
+        <f t="shared" si="9"/>
+        <v>planned</v>
+      </c>
+      <c r="AT14" t="str">
+        <f t="shared" si="9"/>
+        <v>planned</v>
+      </c>
+      <c r="AU14" t="str">
+        <f t="shared" si="9"/>
+        <v>planned</v>
+      </c>
+      <c r="AV14" t="str">
+        <f t="shared" si="9"/>
+        <v>planned</v>
+      </c>
+    </row>
+    <row r="15" spans="1:63">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW15" t="str">
+        <f t="shared" ref="AW15:AZ15" si="10">($D15)</f>
+        <v>planned</v>
+      </c>
+      <c r="AX15" t="str">
+        <f t="shared" si="10"/>
+        <v>planned</v>
+      </c>
+      <c r="AY15" t="str">
+        <f t="shared" si="10"/>
+        <v>planned</v>
+      </c>
+      <c r="AZ15" t="str">
+        <f t="shared" si="10"/>
+        <v>planned</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <f>SUM(B3:B15)</f>
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <f>SUM(C3:C15)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" s="2" customFormat="1">
+      <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16">
+    <row r="18" spans="1:46">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
         <v>2</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="str">
-        <f>($D16)</f>
-        <v>complete</v>
-      </c>
-      <c r="F16" s="56"/>
-    </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="54"/>
-      <c r="G17" s="56"/>
-      <c r="H17" t="str">
-        <f t="shared" ref="H17:I17" si="6">($D17)</f>
-        <v>complete</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="6"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -3436,1742 +2841,1164 @@
       <c r="D18" t="s">
         <v>17</v>
       </c>
-      <c r="J18" t="str">
-        <f t="shared" ref="J18:K18" si="7">($D18)</f>
-        <v>complete</v>
-      </c>
-      <c r="K18" t="str">
-        <f t="shared" si="7"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="E18" t="str">
+        <f>($D18)</f>
+        <v>complete</v>
+      </c>
+      <c r="F18" s="55"/>
+    </row>
+    <row r="19" spans="1:46">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="64" t="str">
+        <f t="shared" ref="E19" si="11">($D19)</f>
+        <v>complete</v>
+      </c>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+    </row>
+    <row r="20" spans="1:46">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" t="str">
+        <f>($D20)</f>
+        <v>complete</v>
+      </c>
+      <c r="J20" t="str">
+        <f>($D20)</f>
+        <v>complete</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" ref="K20" si="12">($D20)</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
         <v>8</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
         <v>18</v>
       </c>
-      <c r="L19" t="str">
-        <f t="shared" ref="L19:M19" si="8">($D19)</f>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="64" t="str">
+        <f t="shared" ref="L21" si="13">($D21)</f>
         <v>this week</v>
       </c>
-      <c r="M19" t="str">
-        <f t="shared" si="8"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="64"/>
+    </row>
+    <row r="22" spans="1:46">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="T22" s="64" t="str">
+        <f>($D22)</f>
+        <v>complete</v>
+      </c>
+      <c r="U22" s="64"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="64"/>
+    </row>
+    <row r="23" spans="1:46" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="64" t="str">
+        <f>($D23)</f>
         <v>this week</v>
       </c>
-    </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+    </row>
+    <row r="24" spans="1:46">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
         <v>19</v>
       </c>
-      <c r="N20" t="str">
-        <f t="shared" ref="N20:Q20" si="9">($D20)</f>
-        <v>planned</v>
-      </c>
-      <c r="O20" t="str">
-        <f t="shared" si="9"/>
-        <v>planned</v>
-      </c>
-      <c r="P20" t="str">
-        <f t="shared" si="9"/>
-        <v>planned</v>
-      </c>
-      <c r="Q20" t="str">
-        <f t="shared" si="9"/>
-        <v>planned</v>
-      </c>
-    </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21">
+      <c r="G24" s="64" t="str">
+        <f>($D24)</f>
+        <v>planned</v>
+      </c>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+    </row>
+    <row r="25" spans="1:46">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y25" s="64" t="str">
+        <f>($D25)</f>
+        <v>planned</v>
+      </c>
+      <c r="Z25" s="64"/>
+      <c r="AA25" s="64"/>
+      <c r="AQ25" t="str">
+        <f t="shared" ref="AQ25:AT25" si="14">($D25)</f>
+        <v>planned</v>
+      </c>
+      <c r="AR25" t="str">
+        <f t="shared" si="14"/>
+        <v>planned</v>
+      </c>
+      <c r="AS25" t="str">
+        <f t="shared" si="14"/>
+        <v>planned</v>
+      </c>
+      <c r="AT25" t="str">
+        <f t="shared" si="14"/>
+        <v>planned</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26">
+        <f>SUM(B18:B25)</f>
+        <v>45</v>
+      </c>
+      <c r="C26">
+        <f>SUM(C18:C25)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" s="2" customFormat="1">
+      <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-      <c r="R21" t="str">
-        <f t="shared" ref="R21:T21" si="10">($D21)</f>
-        <v>planned</v>
-      </c>
-      <c r="S21" t="str">
-        <f t="shared" si="10"/>
-        <v>planned</v>
-      </c>
-      <c r="T21" t="str">
-        <f t="shared" si="10"/>
-        <v>planned</v>
-      </c>
-    </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22">
-        <v>10</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="V22" t="str">
-        <f t="shared" ref="V22:AA22" si="11">($D22)</f>
-        <v>planned</v>
-      </c>
-      <c r="W22" t="str">
-        <f t="shared" si="11"/>
-        <v>planned</v>
-      </c>
-      <c r="X22" t="str">
-        <f t="shared" si="11"/>
-        <v>planned</v>
-      </c>
-      <c r="Y22" t="str">
-        <f t="shared" si="11"/>
-        <v>planned</v>
-      </c>
-      <c r="Z22" t="str">
-        <f t="shared" si="11"/>
-        <v>planned</v>
-      </c>
-      <c r="AA22" t="str">
-        <f t="shared" si="11"/>
-        <v>planned</v>
-      </c>
-    </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
-      <c r="AQ23" t="str">
-        <f t="shared" ref="AQ23:AT23" si="12">($D23)</f>
-        <v>planned</v>
-      </c>
-      <c r="AR23" t="str">
-        <f t="shared" si="12"/>
-        <v>planned</v>
-      </c>
-      <c r="AS23" t="str">
-        <f t="shared" si="12"/>
-        <v>planned</v>
-      </c>
-      <c r="AT23" t="str">
-        <f t="shared" si="12"/>
-        <v>planned</v>
-      </c>
-    </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <f>SUM(B16:B23)</f>
-        <v>45</v>
-      </c>
-      <c r="C24">
-        <f>SUM(C16:C23)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
+    </row>
+    <row r="28" spans="1:46">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28">
         <v>1</v>
       </c>
-      <c r="C26">
+      <c r="C28">
         <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" ref="E26" si="13">($D26)</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" t="str">
-        <f>($D27)</f>
-        <v>complete</v>
-      </c>
-      <c r="G27" t="str">
-        <f>($D27)</f>
-        <v>complete</v>
-      </c>
-      <c r="H27" t="str">
-        <f>($D27)</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>10</v>
-      </c>
-      <c r="C28">
-        <v>9</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
       </c>
-      <c r="I28" t="str">
-        <f>($D28)</f>
-        <v>complete</v>
-      </c>
-      <c r="J28" t="str">
-        <f>($D28)</f>
-        <v>complete</v>
-      </c>
-      <c r="K28" t="str">
-        <f t="shared" ref="K28:M28" si="14">($D28)</f>
-        <v>complete</v>
-      </c>
-      <c r="L28" t="str">
-        <f t="shared" si="14"/>
-        <v>complete</v>
-      </c>
-      <c r="M28" t="str">
-        <f t="shared" si="14"/>
-        <v>complete</v>
-      </c>
-      <c r="N28" t="str">
-        <f>($D28)</f>
-        <v>complete</v>
-      </c>
-      <c r="O28" t="str">
-        <f>($D28)</f>
-        <v>complete</v>
-      </c>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-    </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="E28" t="str">
+        <f t="shared" ref="E28" si="15">($D28)</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="str">
+        <f>($D29)</f>
+        <v>complete</v>
+      </c>
+      <c r="G29" t="str">
+        <f>($D29)</f>
+        <v>complete</v>
+      </c>
+      <c r="H29" t="str">
+        <f>($D29)</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" t="str">
+        <f>($D30)</f>
+        <v>complete</v>
+      </c>
+      <c r="J30" t="str">
+        <f>($D30)</f>
+        <v>complete</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" ref="K30:M30" si="16">($D30)</f>
+        <v>complete</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="16"/>
+        <v>complete</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="16"/>
+        <v>complete</v>
+      </c>
+      <c r="N30" t="str">
+        <f>($D30)</f>
+        <v>complete</v>
+      </c>
+      <c r="O30" t="str">
+        <f>($D30)</f>
+        <v>complete</v>
+      </c>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+    </row>
+    <row r="31" spans="1:46">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31">
         <v>5</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" t="s">
-        <v>18</v>
-      </c>
-      <c r="S29" s="57"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="58"/>
-      <c r="W29" s="58"/>
-    </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
-        <v>19</v>
-      </c>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="59"/>
-      <c r="Z30" s="59"/>
-      <c r="AA30" s="59"/>
-      <c r="AB30" s="59"/>
-    </row>
-    <row r="31" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>10</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
       </c>
-      <c r="AC31" s="59"/>
-      <c r="AD31" s="59"/>
-      <c r="AE31" s="59"/>
-      <c r="AF31" s="59"/>
-      <c r="AG31" s="59"/>
-      <c r="AH31" s="59"/>
-      <c r="AI31" s="59"/>
-      <c r="AJ31" s="59"/>
-      <c r="AK31" s="59"/>
-      <c r="AL31" s="59"/>
-      <c r="AM31" s="3"/>
-      <c r="AN31" s="3"/>
-      <c r="AO31" s="3"/>
-      <c r="AP31" s="3"/>
-      <c r="AQ31" s="3"/>
-    </row>
-    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="S31" s="60"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="57"/>
+    </row>
+    <row r="32" spans="1:46">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B32">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
         <v>19</v>
       </c>
-      <c r="AM32" s="59"/>
-      <c r="AN32" s="59"/>
-      <c r="AO32" s="59"/>
-      <c r="AP32" s="59"/>
-      <c r="AQ32" s="59"/>
-      <c r="AR32" s="59"/>
-      <c r="AS32" s="59"/>
-      <c r="AT32" s="59"/>
-      <c r="AU32" s="59"/>
-      <c r="AV32" s="59"/>
-      <c r="AW32" s="59"/>
-      <c r="AX32" s="59"/>
-      <c r="AY32" s="59"/>
-      <c r="AZ32" s="59"/>
-      <c r="BA32" s="59"/>
-      <c r="BB32" s="3"/>
-    </row>
-    <row r="33" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="X32" s="57"/>
+      <c r="Y32" s="57"/>
+      <c r="Z32" s="57"/>
+      <c r="AA32" s="57"/>
+      <c r="AB32" s="57"/>
+    </row>
+    <row r="33" spans="1:54">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B33">
-        <f>SUM(B26:B32)</f>
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC33" s="56"/>
+      <c r="AD33" s="56"/>
+      <c r="AE33" s="56"/>
+      <c r="AF33" s="56"/>
+      <c r="AG33" s="56"/>
+      <c r="AH33" s="56"/>
+      <c r="AI33" s="56"/>
+      <c r="AJ33" s="56"/>
+      <c r="AK33" s="56"/>
+      <c r="AL33" s="56"/>
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3"/>
+      <c r="AO33" s="3"/>
+      <c r="AP33" s="3"/>
+      <c r="AQ33" s="3"/>
+    </row>
+    <row r="34" spans="1:54">
+      <c r="A34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM34" s="56"/>
+      <c r="AN34" s="56"/>
+      <c r="AO34" s="56"/>
+      <c r="AP34" s="56"/>
+      <c r="AQ34" s="56"/>
+      <c r="AR34" s="56"/>
+      <c r="AS34" s="56"/>
+      <c r="AT34" s="56"/>
+      <c r="AU34" s="56"/>
+      <c r="AV34" s="56"/>
+      <c r="AW34" s="56"/>
+      <c r="AX34" s="56"/>
+      <c r="AY34" s="56"/>
+      <c r="AZ34" s="56"/>
+      <c r="BA34" s="56"/>
+      <c r="BB34" s="3"/>
+    </row>
+    <row r="35" spans="1:54">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <f>SUM(B28:B34)</f>
         <v>48</v>
       </c>
-      <c r="C33">
-        <f>SUM(C26:C32)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="C35">
+        <f>SUM(C28:C34)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:54" s="2" customFormat="1">
+      <c r="A36" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" t="str">
-        <f t="shared" ref="E35:I35" si="15">($D35)</f>
-        <v>complete</v>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" si="15"/>
-        <v>complete</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="15"/>
-        <v>complete</v>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="15"/>
-        <v>complete</v>
-      </c>
-      <c r="I35" t="str">
-        <f t="shared" si="15"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="36" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36">
-        <v>4</v>
-      </c>
-      <c r="C36">
+    <row r="37" spans="1:54">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37">
         <v>5</v>
       </c>
-      <c r="D36" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" t="str">
-        <f t="shared" ref="J36:N36" si="16">($D36)</f>
-        <v>complete</v>
-      </c>
-      <c r="K36" t="str">
-        <f t="shared" si="16"/>
-        <v>complete</v>
-      </c>
-      <c r="L36" t="str">
-        <f t="shared" si="16"/>
-        <v>complete</v>
-      </c>
-      <c r="M36" t="str">
-        <f t="shared" si="16"/>
-        <v>complete</v>
-      </c>
-      <c r="N36" t="str">
-        <f t="shared" si="16"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="37" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
       <c r="C37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
       </c>
-      <c r="O37" t="str">
-        <f t="shared" ref="O37:T37" si="17">($D37)</f>
-        <v>complete</v>
-      </c>
-      <c r="P37" t="str">
+      <c r="E37" t="str">
+        <f t="shared" ref="E37:I37" si="17">($D37)</f>
+        <v>complete</v>
+      </c>
+      <c r="F37" t="str">
         <f t="shared" si="17"/>
         <v>complete</v>
       </c>
-      <c r="Q37" t="str">
+      <c r="G37" t="str">
         <f t="shared" si="17"/>
         <v>complete</v>
       </c>
-      <c r="R37" t="str">
+      <c r="H37" t="str">
         <f t="shared" si="17"/>
         <v>complete</v>
       </c>
-      <c r="S37" t="str">
+      <c r="I37" t="str">
         <f t="shared" si="17"/>
         <v>complete</v>
       </c>
-      <c r="T37" t="str">
-        <f t="shared" si="17"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="38" spans="1:53" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:54">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
       </c>
-      <c r="U38" t="str">
-        <f t="shared" ref="U38:V38" si="18">($D38)</f>
-        <v>complete</v>
-      </c>
-      <c r="V38" t="str">
+      <c r="J38" t="str">
+        <f t="shared" ref="J38:N38" si="18">($D38)</f>
+        <v>complete</v>
+      </c>
+      <c r="K38" t="str">
         <f t="shared" si="18"/>
         <v>complete</v>
       </c>
-    </row>
-    <row r="39" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="L38" t="str">
+        <f t="shared" si="18"/>
+        <v>complete</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="18"/>
+        <v>complete</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="18"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="39" spans="1:54">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
         <v>3</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
       </c>
-      <c r="W39" t="str">
-        <f t="shared" ref="W39:AB39" si="19">($D39)</f>
-        <v>complete</v>
-      </c>
-      <c r="X39" t="str">
+      <c r="O39" t="str">
+        <f t="shared" ref="O39:T39" si="19">($D39)</f>
+        <v>complete</v>
+      </c>
+      <c r="P39" t="str">
         <f t="shared" si="19"/>
         <v>complete</v>
       </c>
-      <c r="Y39" t="str">
+      <c r="Q39" t="str">
         <f t="shared" si="19"/>
         <v>complete</v>
       </c>
-      <c r="Z39" t="str">
+      <c r="R39" t="str">
         <f t="shared" si="19"/>
         <v>complete</v>
       </c>
-      <c r="AA39" t="str">
+      <c r="S39" t="str">
         <f t="shared" si="19"/>
         <v>complete</v>
       </c>
-      <c r="AB39" t="str">
+      <c r="T39" t="str">
         <f t="shared" si="19"/>
         <v>complete</v>
       </c>
     </row>
-    <row r="40" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:54">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="U40" t="str">
+        <f t="shared" ref="U40:V40" si="20">($D40)</f>
+        <v>this week</v>
+      </c>
+      <c r="V40" t="str">
+        <f t="shared" si="20"/>
+        <v>this week</v>
+      </c>
+    </row>
+    <row r="41" spans="1:54">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="W41" t="str">
+        <f t="shared" ref="W41:AB41" si="21">($D41)</f>
+        <v>planned</v>
+      </c>
+      <c r="X41" t="str">
+        <f t="shared" si="21"/>
+        <v>planned</v>
+      </c>
+      <c r="Y41" t="str">
+        <f t="shared" si="21"/>
+        <v>planned</v>
+      </c>
+      <c r="Z41" t="str">
+        <f t="shared" si="21"/>
+        <v>planned</v>
+      </c>
+      <c r="AA41" t="str">
+        <f t="shared" si="21"/>
+        <v>planned</v>
+      </c>
+      <c r="AB41" t="str">
+        <f t="shared" si="21"/>
+        <v>planned</v>
+      </c>
+    </row>
+    <row r="42" spans="1:54">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC42" t="str">
+        <f t="shared" ref="AC42:AD42" si="22">($D42)</f>
+        <v>planned</v>
+      </c>
+      <c r="AD42" t="str">
+        <f t="shared" si="22"/>
+        <v>planned</v>
+      </c>
+    </row>
+    <row r="43" spans="1:54" ht="15" customHeight="1">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43">
         <v>5</v>
       </c>
-      <c r="C40">
-        <v>6</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE43" t="str">
+        <f t="shared" ref="AE43:AH43" si="23">($D43)</f>
+        <v>planned</v>
+      </c>
+      <c r="AF43" t="str">
+        <f t="shared" si="23"/>
+        <v>planned</v>
+      </c>
+      <c r="AG43" t="str">
+        <f t="shared" si="23"/>
+        <v>planned</v>
+      </c>
+      <c r="AH43" t="str">
+        <f t="shared" si="23"/>
+        <v>planned</v>
+      </c>
+    </row>
+    <row r="44" spans="1:54">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44">
+        <f>SUM(B37:B43)</f>
+        <v>49</v>
+      </c>
+      <c r="C44">
+        <f>SUM(C37:C43)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:54" s="2" customFormat="1">
+      <c r="A45" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:54">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
         <v>17</v>
       </c>
-      <c r="AC40" t="str">
-        <f t="shared" ref="AC40:AD40" si="20">($D40)</f>
-        <v>complete</v>
-      </c>
-      <c r="AD40" t="str">
-        <f t="shared" si="20"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="41" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>98</v>
-      </c>
-      <c r="B41">
-        <v>3</v>
-      </c>
-      <c r="C41">
-        <v>3</v>
-      </c>
-      <c r="D41" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE41" t="str">
-        <f t="shared" ref="AE41:AH41" si="21">($D41)</f>
-        <v>complete</v>
-      </c>
-      <c r="AF41" t="str">
-        <f t="shared" si="21"/>
-        <v>complete</v>
-      </c>
-      <c r="AG41" t="str">
-        <f t="shared" si="21"/>
-        <v>complete</v>
-      </c>
-      <c r="AH41" t="str">
-        <f t="shared" si="21"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="42" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>99</v>
-      </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-      <c r="C42">
-        <v>3</v>
-      </c>
-      <c r="D42" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI42" t="str">
-        <f t="shared" ref="AI42:AN42" si="22">($D42)</f>
-        <v>complete</v>
-      </c>
-      <c r="AJ42" t="str">
-        <f t="shared" si="22"/>
-        <v>complete</v>
-      </c>
-      <c r="AK42" t="str">
-        <f t="shared" si="22"/>
-        <v>complete</v>
-      </c>
-      <c r="AL42" t="str">
-        <f t="shared" si="22"/>
-        <v>complete</v>
-      </c>
-      <c r="AM42" t="str">
-        <f t="shared" si="22"/>
-        <v>complete</v>
-      </c>
-      <c r="AN42" t="str">
-        <f t="shared" si="22"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="43" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>100</v>
-      </c>
-      <c r="B43">
-        <v>4</v>
-      </c>
-      <c r="C43">
-        <v>3</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="AO43" t="str">
-        <f t="shared" ref="AO43:AR43" si="23">($D43)</f>
-        <v>complete</v>
-      </c>
-      <c r="AP43" t="str">
-        <f t="shared" si="23"/>
-        <v>complete</v>
-      </c>
-      <c r="AQ43" t="str">
-        <f t="shared" si="23"/>
-        <v>complete</v>
-      </c>
-      <c r="AR43" t="str">
-        <f t="shared" si="23"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="44" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
-      <c r="AS44" t="str">
-        <f t="shared" ref="AS44:AT44" si="24">($D44)</f>
-        <v>complete</v>
-      </c>
-      <c r="AT44" t="str">
+      <c r="E46" t="str">
+        <f t="shared" ref="E46:I46" si="24">($D46)</f>
+        <v>complete</v>
+      </c>
+      <c r="F46" t="str">
         <f t="shared" si="24"/>
         <v>complete</v>
       </c>
-    </row>
-    <row r="45" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>103</v>
-      </c>
-      <c r="B45">
+      <c r="G46" t="str">
+        <f t="shared" si="24"/>
+        <v>complete</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="24"/>
+        <v>complete</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="24"/>
+        <v>complete</v>
+      </c>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+    </row>
+    <row r="47" spans="1:54">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47">
         <v>5</v>
       </c>
-      <c r="C45">
-        <v>6</v>
-      </c>
-      <c r="D45" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
-      <c r="AA45" s="3"/>
-      <c r="AU45" t="str">
-        <f t="shared" ref="AU45:AV45" si="25">($D45)</f>
-        <v>complete</v>
-      </c>
-      <c r="AV45" t="str">
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" ref="L47:P47" si="25">($D47)</f>
+        <v>this week</v>
+      </c>
+      <c r="M47" t="str">
         <f t="shared" si="25"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="46" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>102</v>
-      </c>
-      <c r="B46">
-        <v>4</v>
-      </c>
-      <c r="D46" t="s">
+        <v>this week</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="25"/>
+        <v>this week</v>
+      </c>
+      <c r="O47" s="58" t="str">
+        <f>($D47)</f>
+        <v>this week</v>
+      </c>
+      <c r="P47" s="3" t="str">
+        <f t="shared" si="25"/>
+        <v>this week</v>
+      </c>
+    </row>
+    <row r="48" spans="1:54">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="D48" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" ref="Q48:V48" si="26">($D48)</f>
+        <v>this week</v>
+      </c>
+      <c r="R48" t="str">
+        <f t="shared" si="26"/>
+        <v>this week</v>
+      </c>
+      <c r="S48" t="str">
+        <f t="shared" si="26"/>
+        <v>this week</v>
+      </c>
+      <c r="T48" t="str">
+        <f t="shared" si="26"/>
+        <v>this week</v>
+      </c>
+      <c r="U48" t="str">
+        <f t="shared" si="26"/>
+        <v>this week</v>
+      </c>
+      <c r="V48" t="str">
+        <f t="shared" si="26"/>
+        <v>this week</v>
+      </c>
+    </row>
+    <row r="49" spans="1:42">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-      <c r="AA46" s="3"/>
-      <c r="AW46" t="str">
-        <f t="shared" ref="AW46:BA46" si="26">($D46)</f>
-        <v>planned</v>
-      </c>
-      <c r="AX46" t="str">
-        <f t="shared" si="26"/>
-        <v>planned</v>
-      </c>
-      <c r="AY46" t="str">
-        <f t="shared" si="26"/>
-        <v>planned</v>
-      </c>
-      <c r="AZ46" t="str">
-        <f t="shared" si="26"/>
-        <v>planned</v>
-      </c>
-      <c r="BA46" t="str">
-        <f t="shared" si="26"/>
-        <v>planned</v>
-      </c>
-    </row>
-    <row r="47" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47">
-        <f>SUM(B35:B46)</f>
-        <v>38</v>
-      </c>
-      <c r="C47">
-        <f>SUM(C35:C46)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49">
-        <v>5</v>
-      </c>
-      <c r="C49">
-        <v>5</v>
-      </c>
-      <c r="D49" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" t="str">
-        <f t="shared" ref="E49:I49" si="27">($D49)</f>
-        <v>complete</v>
-      </c>
-      <c r="F49" t="str">
+      <c r="W49" t="str">
+        <f t="shared" ref="W49:X49" si="27">($D49)</f>
+        <v>planned</v>
+      </c>
+      <c r="X49" t="str">
         <f t="shared" si="27"/>
-        <v>complete</v>
-      </c>
-      <c r="G49" t="str">
-        <f t="shared" si="27"/>
-        <v>complete</v>
-      </c>
-      <c r="H49" t="str">
-        <f t="shared" si="27"/>
-        <v>complete</v>
-      </c>
-      <c r="I49" t="str">
-        <f t="shared" si="27"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="50" spans="1:53" x14ac:dyDescent="0.25">
+        <v>planned</v>
+      </c>
+    </row>
+    <row r="50" spans="1:42">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B50">
         <v>10</v>
       </c>
-      <c r="C50">
-        <v>5</v>
-      </c>
       <c r="D50" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" t="str">
-        <f t="shared" ref="J50:N50" si="28">($D50)</f>
-        <v>complete</v>
-      </c>
-      <c r="K50" t="str">
+        <v>19</v>
+      </c>
+      <c r="Y50" t="str">
+        <f t="shared" ref="Y50:AD50" si="28">($D50)</f>
+        <v>planned</v>
+      </c>
+      <c r="Z50" t="str">
         <f t="shared" si="28"/>
-        <v>complete</v>
-      </c>
-      <c r="L50" t="str">
+        <v>planned</v>
+      </c>
+      <c r="AA50" t="str">
         <f t="shared" si="28"/>
-        <v>complete</v>
-      </c>
-      <c r="M50" t="str">
+        <v>planned</v>
+      </c>
+      <c r="AB50" t="str">
         <f t="shared" si="28"/>
-        <v>complete</v>
-      </c>
-      <c r="N50" t="str">
+        <v>planned</v>
+      </c>
+      <c r="AC50" t="str">
         <f t="shared" si="28"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="51" spans="1:53" x14ac:dyDescent="0.25">
+        <v>planned</v>
+      </c>
+      <c r="AD50" t="str">
+        <f t="shared" si="28"/>
+        <v>planned</v>
+      </c>
+    </row>
+    <row r="51" spans="1:42">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B51">
         <v>10</v>
       </c>
-      <c r="C51">
-        <v>6</v>
-      </c>
       <c r="D51" t="s">
-        <v>17</v>
-      </c>
-      <c r="O51" t="str">
-        <f t="shared" ref="O51:T51" si="29">($D51)</f>
-        <v>complete</v>
-      </c>
-      <c r="P51" t="str">
+        <v>19</v>
+      </c>
+      <c r="AE51" t="str">
+        <f t="shared" ref="AE51:AJ51" si="29">($D51)</f>
+        <v>planned</v>
+      </c>
+      <c r="AF51" t="str">
         <f t="shared" si="29"/>
-        <v>complete</v>
-      </c>
-      <c r="Q51" t="str">
+        <v>planned</v>
+      </c>
+      <c r="AG51" t="str">
         <f t="shared" si="29"/>
-        <v>complete</v>
-      </c>
-      <c r="R51" t="str">
+        <v>planned</v>
+      </c>
+      <c r="AH51" t="str">
         <f t="shared" si="29"/>
-        <v>complete</v>
-      </c>
-      <c r="S51" t="str">
+        <v>planned</v>
+      </c>
+      <c r="AI51" t="str">
         <f t="shared" si="29"/>
-        <v>complete</v>
-      </c>
-      <c r="T51" t="str">
+        <v>planned</v>
+      </c>
+      <c r="AJ51" t="str">
         <f t="shared" si="29"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="52" spans="1:53" x14ac:dyDescent="0.25">
+        <v>planned</v>
+      </c>
+    </row>
+    <row r="52" spans="1:42">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B52">
-        <v>10</v>
-      </c>
-      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK52" t="str">
+        <f t="shared" ref="AK52:AN52" si="30">($D52)</f>
+        <v>planned</v>
+      </c>
+      <c r="AL52" t="str">
+        <f t="shared" si="30"/>
+        <v>planned</v>
+      </c>
+      <c r="AM52" t="str">
+        <f t="shared" si="30"/>
+        <v>planned</v>
+      </c>
+      <c r="AN52" t="str">
+        <f t="shared" si="30"/>
+        <v>planned</v>
+      </c>
+    </row>
+    <row r="53" spans="1:42">
+      <c r="A53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53">
         <v>2</v>
       </c>
-      <c r="D52" t="s">
-        <v>17</v>
-      </c>
-      <c r="U52" t="str">
-        <f t="shared" ref="U52:V52" si="30">($D52)</f>
-        <v>complete</v>
-      </c>
-      <c r="V52" t="str">
-        <f t="shared" si="30"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="53" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53">
-        <v>10</v>
-      </c>
-      <c r="C53">
-        <v>6</v>
-      </c>
       <c r="D53" t="s">
-        <v>17</v>
-      </c>
-      <c r="W53" t="str">
-        <f t="shared" ref="W53:AB53" si="31">($D53)</f>
-        <v>complete</v>
-      </c>
-      <c r="X53" t="str">
+        <v>19</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+      <c r="AO53" t="str">
+        <f t="shared" ref="AO53:AP53" si="31">($D53)</f>
+        <v>planned</v>
+      </c>
+      <c r="AP53" t="str">
         <f t="shared" si="31"/>
-        <v>complete</v>
-      </c>
-      <c r="Y53" t="str">
-        <f t="shared" si="31"/>
-        <v>complete</v>
-      </c>
-      <c r="Z53" t="str">
-        <f t="shared" si="31"/>
-        <v>complete</v>
-      </c>
-      <c r="AA53" t="str">
-        <f t="shared" si="31"/>
-        <v>complete</v>
-      </c>
-      <c r="AB53" t="str">
-        <f t="shared" si="31"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="54" spans="1:53" x14ac:dyDescent="0.25">
+        <v>planned</v>
+      </c>
+    </row>
+    <row r="54" spans="1:42">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B54">
-        <v>10</v>
+        <f>SUM(B46:B53)</f>
+        <v>57</v>
       </c>
       <c r="C54">
-        <v>2</v>
-      </c>
-      <c r="D54" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC54" t="str">
-        <f t="shared" ref="AC54:AD54" si="32">($D54)</f>
-        <v>complete</v>
-      </c>
-      <c r="AD54" t="str">
-        <f t="shared" si="32"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="55" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B55">
-        <v>5</v>
-      </c>
-      <c r="C55">
-        <v>4</v>
-      </c>
-      <c r="D55" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE55" t="str">
-        <f t="shared" ref="AE55:AH55" si="33">($D55)</f>
-        <v>complete</v>
-      </c>
-      <c r="AF55" t="str">
-        <f t="shared" si="33"/>
-        <v>complete</v>
-      </c>
-      <c r="AG55" t="str">
-        <f t="shared" si="33"/>
-        <v>complete</v>
-      </c>
-      <c r="AH55" t="str">
-        <f t="shared" si="33"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="56" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>45</v>
-      </c>
-      <c r="B56">
-        <v>10</v>
-      </c>
-      <c r="C56">
-        <v>6</v>
-      </c>
-      <c r="D56" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI56" t="str">
-        <f t="shared" ref="AI56:AN56" si="34">($D56)</f>
-        <v>complete</v>
-      </c>
-      <c r="AJ56" t="str">
-        <f t="shared" si="34"/>
-        <v>complete</v>
-      </c>
-      <c r="AK56" t="str">
-        <f t="shared" si="34"/>
-        <v>complete</v>
-      </c>
-      <c r="AL56" t="str">
-        <f t="shared" si="34"/>
-        <v>complete</v>
-      </c>
-      <c r="AM56" t="str">
-        <f t="shared" si="34"/>
-        <v>complete</v>
-      </c>
-      <c r="AN56" t="str">
-        <f t="shared" si="34"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="57" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57">
-        <v>5</v>
-      </c>
-      <c r="C57">
-        <v>4</v>
-      </c>
-      <c r="D57" t="s">
-        <v>17</v>
-      </c>
-      <c r="AO57" t="str">
-        <f t="shared" ref="AO57:AR57" si="35">($D57)</f>
-        <v>complete</v>
-      </c>
-      <c r="AP57" t="str">
-        <f t="shared" si="35"/>
-        <v>complete</v>
-      </c>
-      <c r="AQ57" t="str">
-        <f t="shared" si="35"/>
-        <v>complete</v>
-      </c>
-      <c r="AR57" t="str">
-        <f t="shared" si="35"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="58" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>47</v>
-      </c>
-      <c r="B58">
-        <v>2</v>
-      </c>
-      <c r="C58">
-        <v>2</v>
-      </c>
-      <c r="D58" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
-      <c r="W58" s="3"/>
-      <c r="X58" s="3"/>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="3"/>
-      <c r="AA58" s="3"/>
-      <c r="AS58" t="str">
-        <f t="shared" ref="AS58:AT58" si="36">($D58)</f>
-        <v>complete</v>
-      </c>
-      <c r="AT58" t="str">
-        <f t="shared" si="36"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="59" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>48</v>
-      </c>
-      <c r="B59">
-        <v>2</v>
-      </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
-      <c r="D59" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
-      <c r="X59" s="3"/>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="3"/>
-      <c r="AA59" s="3"/>
-      <c r="AU59" t="str">
-        <f t="shared" ref="AU59:AV59" si="37">($D59)</f>
-        <v>this week</v>
-      </c>
-      <c r="AV59" t="str">
-        <f t="shared" si="37"/>
-        <v>this week</v>
-      </c>
-    </row>
-    <row r="60" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>49</v>
-      </c>
-      <c r="B60">
-        <v>5</v>
-      </c>
-      <c r="D60" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
-      <c r="X60" s="3"/>
-      <c r="Y60" s="3"/>
-      <c r="Z60" s="3"/>
-      <c r="AA60" s="3"/>
-      <c r="AW60" t="str">
-        <f t="shared" ref="AW60:BA60" si="38">($D60)</f>
-        <v>planned</v>
-      </c>
-      <c r="AX60" t="str">
-        <f t="shared" si="38"/>
-        <v>planned</v>
-      </c>
-      <c r="AY60" t="str">
-        <f t="shared" si="38"/>
-        <v>planned</v>
-      </c>
-      <c r="AZ60" t="str">
-        <f t="shared" si="38"/>
-        <v>planned</v>
-      </c>
-      <c r="BA60" t="str">
-        <f t="shared" si="38"/>
-        <v>planned</v>
-      </c>
-    </row>
-    <row r="61" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>22</v>
-      </c>
-      <c r="B61">
-        <f>SUM(B49:B60)</f>
-        <v>84</v>
-      </c>
-      <c r="C61">
-        <f>SUM(C49:C60)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="62" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B62" s="6">
-        <f>SUM(B33,B47,B24,B14)</f>
-        <v>168</v>
-      </c>
-      <c r="C62" s="6">
-        <f>SUM(C14,C24,C33,C47)</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="1:53" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B63" s="53">
-        <f>B62*100</f>
-        <v>16800</v>
-      </c>
-      <c r="C63" s="53">
-        <f>C62*100</f>
-        <v>6900</v>
-      </c>
-      <c r="D63" s="53"/>
+        <f>SUM(C46:C53)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:42" s="6" customFormat="1">
+      <c r="A55" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="6">
+        <f>SUM(B35,B44,B26,B16)</f>
+        <v>176</v>
+      </c>
+      <c r="C55" s="6">
+        <f>SUM(C16,C26,C35,C44)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:42" s="6" customFormat="1">
+      <c r="A56" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="53">
+        <f>B55*100</f>
+        <v>17600</v>
+      </c>
+      <c r="C56" s="53">
+        <f>C55*100</f>
+        <v>7200</v>
+      </c>
+      <c r="D56" s="53"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D16:D22">
-    <cfRule type="cellIs" dxfId="125" priority="169" operator="equal">
+  <mergeCells count="6">
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="E23:N23"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="L21:S21"/>
+    <mergeCell ref="T22:X22"/>
+    <mergeCell ref="G24:P24"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3 D18:D24 D46:D52">
+    <cfRule type="cellIs" dxfId="59" priority="115" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="116" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="117" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="122" priority="163" operator="equal">
+  <conditionalFormatting sqref="D13:D15">
+    <cfRule type="cellIs" dxfId="56" priority="112" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="113" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="114" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="119" priority="160" operator="equal">
+  <conditionalFormatting sqref="D25">
+    <cfRule type="cellIs" dxfId="53" priority="109" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="110" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="111" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="cellIs" dxfId="116" priority="157" operator="equal">
+  <conditionalFormatting sqref="D33">
+    <cfRule type="cellIs" dxfId="50" priority="106" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="107" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="108" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D45:D46">
-    <cfRule type="cellIs" dxfId="113" priority="154" operator="equal">
+  <conditionalFormatting sqref="D34">
+    <cfRule type="cellIs" dxfId="47" priority="103" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="104" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="105" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17 G17:BR17 E29:BR43 E28:O28 Q28:BR28 E18:BR27 F3 E4 E5:F5 H3:BR4 I5:BR5 E6:H6 E7:I7 K6:BR6 N7:BR7 E8:BR16">
-    <cfRule type="cellIs" dxfId="110" priority="151" operator="equal">
+  <conditionalFormatting sqref="E3:BR18 E31:BR43 E30:O30 Q30:BR30 E20:BR20 E45:BR46 E47:I47 E48:J48 L47:BR47 L48:N48 Q48:BR48 E50:V50 E49:T49 E51:AJ51 Y50:AR50 W49:AR49 AW49:BR52 AM51:AR51 AQ52:AR52 E52:AN52 AO53:AP53 E26:BR29 E23 O23:BR23 I19:BR19 E19 E22:T22 E21:L21 T21:BR21 Y22:BR22 E24:G24 Q24:BR24 E25:Y25 AB25:BR25">
+    <cfRule type="cellIs" dxfId="44" priority="97" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="98" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="99" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D13">
-    <cfRule type="cellIs" dxfId="107" priority="148" operator="equal">
+  <conditionalFormatting sqref="D4:D12">
+    <cfRule type="cellIs" dxfId="41" priority="94" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="95" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="96" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D30">
-    <cfRule type="cellIs" dxfId="104" priority="142" operator="equal">
+  <conditionalFormatting sqref="D28:D32">
+    <cfRule type="cellIs" dxfId="38" priority="88" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="89" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="90" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35:D44">
-    <cfRule type="cellIs" dxfId="101" priority="139" operator="equal">
+  <conditionalFormatting sqref="D37:D43">
+    <cfRule type="cellIs" dxfId="35" priority="85" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="86" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="87" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="cellIs" dxfId="98" priority="130" operator="equal">
+  <conditionalFormatting sqref="F3">
+    <cfRule type="cellIs" dxfId="32" priority="82" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="83" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="84" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="95" priority="127" operator="equal">
+  <conditionalFormatting sqref="G4:H4">
+    <cfRule type="cellIs" dxfId="29" priority="79" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="80" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="129" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6:M6">
-    <cfRule type="cellIs" dxfId="92" priority="124" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="125" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="126" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7:P7">
-    <cfRule type="cellIs" dxfId="89" priority="121" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="122" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="123" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q8:T8">
-    <cfRule type="cellIs" dxfId="86" priority="118" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="119" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="120" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U9:AG11">
-    <cfRule type="cellIs" dxfId="83" priority="115" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="116" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="117" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH12:AH13">
-    <cfRule type="cellIs" dxfId="80" priority="109" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="110" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="111" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS44:AT44">
-    <cfRule type="cellIs" dxfId="77" priority="97" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="98" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="99" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU45:AV45">
-    <cfRule type="cellIs" dxfId="74" priority="94" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="95" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="96" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW46:BA46">
-    <cfRule type="cellIs" dxfId="71" priority="91" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="92" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="93" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D59:D60">
-    <cfRule type="cellIs" dxfId="68" priority="88" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="89" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="90" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48:BR57">
-    <cfRule type="cellIs" dxfId="65" priority="85" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="86" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="87" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D58">
-    <cfRule type="cellIs" dxfId="62" priority="82" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="83" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="84" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS58:AT58">
-    <cfRule type="cellIs" dxfId="59" priority="79" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="80" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="81" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU59:AV59">
-    <cfRule type="cellIs" dxfId="56" priority="76" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="77" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="78" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW60:BA60">
-    <cfRule type="cellIs" dxfId="53" priority="73" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="74" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="75" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="51" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="45" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="81" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="76" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="77" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="78" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+  <conditionalFormatting sqref="I5">
+    <cfRule type="cellIs" dxfId="23" priority="73" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="74" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="75" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+  <conditionalFormatting sqref="K7:M7">
+    <cfRule type="cellIs" dxfId="20" priority="70" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="71" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="72" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+  <conditionalFormatting sqref="N8:P8">
+    <cfRule type="cellIs" dxfId="17" priority="67" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="68" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="69" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+  <conditionalFormatting sqref="Q9:T9">
+    <cfRule type="cellIs" dxfId="14" priority="64" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="65" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="66" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+  <conditionalFormatting sqref="U10:AG10">
+    <cfRule type="cellIs" dxfId="11" priority="61" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="62" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="63" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+  <conditionalFormatting sqref="AI12">
+    <cfRule type="cellIs" dxfId="8" priority="58" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="59" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="60" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P9:P11">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+  <conditionalFormatting sqref="AH11">
+    <cfRule type="cellIs" dxfId="5" priority="55" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="56" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="57" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q9:Q11">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+  <conditionalFormatting sqref="D53">
+    <cfRule type="cellIs" dxfId="2" priority="34" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="35" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R9:R11">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26:D32 D35:D46 D49:D60 D16:D23 D3:D13" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28:D34 D3:D15 D18:D25 D46:D53 D37:D43" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$F$1:$H$1</formula1>
     </dataValidation>
   </dataValidations>
@@ -5185,90 +4012,78 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="B1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="C1" s="59">
+        <v>44210</v>
+      </c>
+      <c r="D1" s="59">
+        <v>44229</v>
+      </c>
+      <c r="E1" s="59">
+        <v>44231</v>
+      </c>
+      <c r="F1" s="59">
+        <v>44243</v>
+      </c>
+      <c r="G1" s="59">
+        <v>44247</v>
+      </c>
+      <c r="H1" s="59">
+        <v>44249</v>
+      </c>
+      <c r="I1" s="59">
+        <v>44279</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" ht="62.25" customHeight="1">
       <c r="B2" s="6" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="B3" s="6" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
       </c>
       <c r="D3" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3" s="6">
         <v>2</v>
@@ -5277,7 +4092,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" s="6">
         <v>2</v>
@@ -5285,200 +4100,182 @@
       <c r="I3" s="6">
         <v>2</v>
       </c>
-      <c r="J3" s="6">
-        <v>6</v>
-      </c>
-      <c r="K3" s="6">
-        <v>1</v>
-      </c>
-      <c r="L3" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="6">
         <f>SUMIF(C4:L4,A$11,C$3:Z$3)</f>
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="6">
         <f>SUMIF(C5:L5,A$11,C$3:Z$3)</f>
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="6">
         <f>SUMIF(C6:L6,A$11,C$3:Z$3)</f>
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="H6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="6">
         <f>SUMIF(C7:L7,A$11,C$3:Z$3)</f>
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="I7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="6">
         <f>SUMIF(C8:L8,A$11,C$3:Z$3)</f>
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="I8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="8">
         <f>SUM(B4:B8)</f>
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" ref="C9:L9" si="0">COUNTIF(C4:C8,"*ü*") * C3</f>
@@ -5486,7 +4283,7 @@
       </c>
       <c r="D9" s="8">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E9" s="8">
         <f t="shared" si="0"/>
@@ -5498,38 +4295,38 @@
       </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I9" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L9" s="8">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="5"/>
     </row>
   </sheetData>
@@ -5543,28 +4340,28 @@
   <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
     <col min="5" max="19" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="31"/>
       <c r="B1" s="32" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E1">
         <v>1</v>
@@ -5612,12 +4409,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C2" s="36">
         <v>2</v>
@@ -5628,16 +4425,16 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="46"/>
       <c r="B3" s="35" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C3" s="36">
         <v>5</v>
       </c>
       <c r="D3" s="37">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -5645,10 +4442,10 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="38"/>
       <c r="B4" s="35" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C4" s="36">
         <v>4</v>
@@ -5661,10 +4458,10 @@
       <c r="I4" s="4"/>
       <c r="J4" s="52"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="38"/>
       <c r="B5" s="35" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C5" s="35">
         <f>SUM(C2:C4)</f>
@@ -5672,15 +4469,15 @@
       </c>
       <c r="D5" s="39">
         <f>SUM(D2:D4)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C6" s="36">
         <v>2</v>
@@ -5691,10 +4488,10 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="46"/>
       <c r="B7" s="35" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C7" s="36">
         <v>5</v>
@@ -5708,10 +4505,10 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="38"/>
       <c r="B8" s="35" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C8" s="36">
         <v>4</v>
@@ -5724,10 +4521,10 @@
       <c r="I8" s="4"/>
       <c r="J8" s="47"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="38"/>
       <c r="B9" s="35" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C9" s="35">
         <f>SUM(C6:C8)</f>
@@ -5738,12 +4535,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="34" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C10" s="36">
         <v>1</v>
@@ -5753,10 +4550,10 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="46"/>
       <c r="B11" s="35" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C11" s="36">
         <v>5</v>
@@ -5770,10 +4567,10 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="38"/>
       <c r="B12" s="40" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="C12" s="36">
         <v>2</v>
@@ -5782,14 +4579,14 @@
         <v>2</v>
       </c>
       <c r="K12" s="47" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="38"/>
       <c r="B13" s="40" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C13" s="36">
         <v>1</v>
@@ -5798,13 +4595,13 @@
         <v>1</v>
       </c>
       <c r="M13" s="47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="38"/>
       <c r="B14" s="40" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C14" s="36">
         <v>2</v>
@@ -5813,14 +4610,14 @@
         <v>3</v>
       </c>
       <c r="N14" s="47" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="38"/>
       <c r="B15" s="41" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C15" s="35">
         <f>SUM(C10:C14)</f>
@@ -5831,12 +4628,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C16" s="36">
         <v>2</v>
@@ -5847,10 +4644,10 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="46"/>
       <c r="B17" s="35" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C17" s="36">
         <v>5</v>
@@ -5864,10 +4661,10 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="38"/>
       <c r="B18" s="35" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C18" s="36">
         <v>4</v>
@@ -5880,10 +4677,10 @@
       <c r="I18" s="4"/>
       <c r="J18" s="47"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="38"/>
       <c r="B19" s="41" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C19" s="35">
         <f>SUM(C16:C18)</f>
@@ -5894,12 +4691,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15">
       <c r="A20" s="34" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C20" s="36">
         <v>2</v>
@@ -5910,10 +4707,10 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" s="46"/>
       <c r="B21" s="35" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C21" s="36">
         <v>5</v>
@@ -5927,10 +4724,10 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="38"/>
       <c r="B22" s="35" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C22" s="36">
         <v>4</v>
@@ -5943,10 +4740,10 @@
       <c r="I22" s="4"/>
       <c r="J22" s="47"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" s="38"/>
       <c r="B23" s="41" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C23" s="35">
         <f>SUM(C20:C22)</f>
@@ -5957,7 +4754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="14.65" thickBot="1">
       <c r="A24" s="42"/>
       <c r="B24" s="43" t="s">
         <v>0</v>
@@ -5968,12 +4765,12 @@
       </c>
       <c r="D24" s="45">
         <f>SUM(D5,D9,D15,D19,D23)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="B25" s="30" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -5987,15 +4784,15 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>8</v>
@@ -6013,9 +4810,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -6027,15 +4824,15 @@
         <v>27</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -6047,21 +4844,21 @@
         <v>1</v>
       </c>
       <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -6073,9 +4870,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -6087,78 +4884,48 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="6">
         <f>SUM(B2:B8)</f>
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C9" s="6">
         <f t="shared" ref="C9:F9" si="0">SUM(C2:C8)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="6">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F9" s="6">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Gantt Chart.xlsx
+++ b/docs/Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vandalsuidaho-my.sharepoint.com/personal/huyn3743_vandals_uidaho_edu/Documents/Room 4 Studios/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Homework Assignments\Tower-of-Annihilation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C522585-3400-4AB5-B7A7-03378F3AB5A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A531ECE-BD66-4EBA-B603-010A4DE0C24F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="SA" sheetId="4" r:id="rId4"/>
     <sheet name="Overhead" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -124,9 +124,6 @@
     <t>Help With Loot Drop</t>
   </si>
   <si>
-    <t>Make Intro Level</t>
-  </si>
-  <si>
     <t>Health Bars</t>
   </si>
   <si>
@@ -341,6 +338,9 @@
   </si>
   <si>
     <t>Post Mortum Presentation Prep</t>
+  </si>
+  <si>
+    <t>Create Level 1 (Demo)</t>
   </si>
 </sst>
 </file>
@@ -351,7 +351,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,7 +698,637 @@
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="123">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -1615,7 +2245,7 @@
       <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
@@ -1638,8 +2268,8 @@
     <col min="21" max="21" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="14.65" thickBot="1"/>
-    <row r="2" spans="2:21">
+    <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C2" s="61" t="s">
         <v>0</v>
       </c>
@@ -1667,7 +2297,7 @@
       <c r="T2" s="62"/>
       <c r="U2" s="63"/>
     </row>
-    <row r="3" spans="2:21" ht="14.65" thickBot="1">
+    <row r="3" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
@@ -1715,34 +2345,34 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:21">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="23">
         <f>(G4+K4 +O4+S4)</f>
-        <v>9500</v>
+        <v>10500</v>
       </c>
       <c r="D4" s="24">
         <f t="shared" ref="D4:D6" si="0">(H4+L4 +P4+T4)</f>
-        <v>6300</v>
+        <v>7400</v>
       </c>
       <c r="E4" s="25">
         <f>(C4-D4)</f>
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="17">
         <f>(Gantt!$B16)*100</f>
-        <v>3400</v>
+        <v>4400</v>
       </c>
       <c r="H4" s="18">
         <f>(Gantt!$C16)*100</f>
-        <v>2000</v>
+        <v>3100</v>
       </c>
       <c r="I4" s="19">
         <f>(G4-H4)</f>
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K4" s="23">
         <v>2000</v>
@@ -1779,7 +2409,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="5" spans="2:21">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
@@ -1843,7 +2473,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="2:21">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
@@ -1905,7 +2535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:21">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
@@ -1969,7 +2599,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="2:21">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
@@ -2033,34 +2663,34 @@
         <v>900</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="14.65" thickBot="1">
+    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="27">
         <f>SUM(C4:C8)</f>
-        <v>53800</v>
+        <v>54800</v>
       </c>
       <c r="D9" s="28">
         <f>SUM(D4:D8)</f>
-        <v>31100</v>
+        <v>32200</v>
       </c>
       <c r="E9" s="29">
         <f>SUM(E4:E8)</f>
-        <v>22700</v>
+        <v>22600</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="20">
         <f>SUM(G4:G8)</f>
-        <v>23300</v>
+        <v>24300</v>
       </c>
       <c r="H9" s="21">
         <f>SUM(H4:H8)</f>
-        <v>7900</v>
+        <v>9000</v>
       </c>
       <c r="I9" s="22">
         <f>SUM(I4:I8)</f>
-        <v>15400</v>
+        <v>15300</v>
       </c>
       <c r="K9" s="20">
         <f>SUM(K4:K8)</f>
@@ -2116,11 +2746,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BK56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AR9" sqref="AR9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
@@ -2129,7 +2759,7 @@
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1" s="48"/>
       <c r="B1" s="48" t="s">
         <v>13</v>
@@ -2208,7 +2838,7 @@
       <c r="BJ1" s="48"/>
       <c r="BK1" s="48"/>
     </row>
-    <row r="2" spans="1:63" s="2" customFormat="1">
+    <row r="2" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2448,7 +3078,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:63">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -2470,7 +3100,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="4" spans="1:63">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2492,15 +3122,15 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="5" spans="1:63">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
@@ -2509,26 +3139,42 @@
         <f>($D5)</f>
         <v>complete</v>
       </c>
-    </row>
-    <row r="6" spans="1:63">
+      <c r="J5" t="str">
+        <f>($D5)</f>
+        <v>complete</v>
+      </c>
+      <c r="K5" t="str">
+        <f>($D5)</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="J6" t="str">
+      <c r="L6" t="str">
         <f>($D6)</f>
         <v>complete</v>
       </c>
-    </row>
-    <row r="7" spans="1:63">
+      <c r="M6" t="str">
+        <f>($D6)</f>
+        <v>complete</v>
+      </c>
+      <c r="N6" t="str">
+        <f>($D6)</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2541,20 +3187,20 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="K7" t="str">
-        <f t="shared" ref="K7:M7" si="4">($D7)</f>
-        <v>complete</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="4"/>
-        <v>complete</v>
-      </c>
-      <c r="M7" t="str">
-        <f t="shared" si="4"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="8" spans="1:63">
+      <c r="O7" t="str">
+        <f>($D7)</f>
+        <v>complete</v>
+      </c>
+      <c r="P7" t="str">
+        <f>($D7)</f>
+        <v>complete</v>
+      </c>
+      <c r="Q7" t="str">
+        <f>($D7)</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2567,20 +3213,20 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="N8" t="str">
-        <f t="shared" ref="N8:P8" si="5">($D8)</f>
-        <v>complete</v>
-      </c>
-      <c r="O8" t="str">
-        <f t="shared" si="5"/>
-        <v>complete</v>
-      </c>
-      <c r="P8" t="str">
-        <f t="shared" si="5"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="9" spans="1:63">
+      <c r="R8" t="str">
+        <f>($D8)</f>
+        <v>complete</v>
+      </c>
+      <c r="S8" t="str">
+        <f>($D8)</f>
+        <v>complete</v>
+      </c>
+      <c r="T8" t="str">
+        <f>($D8)</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2593,24 +3239,24 @@
       <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="Q9" t="str">
-        <f t="shared" ref="Q9:T9" si="6">($D9)</f>
-        <v>complete</v>
-      </c>
-      <c r="R9" t="str">
-        <f t="shared" si="6"/>
-        <v>complete</v>
-      </c>
-      <c r="S9" t="str">
-        <f t="shared" si="6"/>
-        <v>complete</v>
-      </c>
-      <c r="T9" t="str">
-        <f t="shared" si="6"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="10" spans="1:63">
+      <c r="U9" t="str">
+        <f t="shared" ref="Q9:X9" si="4">($D9)</f>
+        <v>complete</v>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="4"/>
+        <v>complete</v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="4"/>
+        <v>complete</v>
+      </c>
+      <c r="X9" t="str">
+        <f t="shared" si="4"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2623,126 +3269,96 @@
       <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="U10" t="str">
-        <f t="shared" ref="U10:AG10" si="7">($D10)</f>
-        <v>complete</v>
-      </c>
-      <c r="V10" t="str">
-        <f t="shared" si="7"/>
-        <v>complete</v>
-      </c>
-      <c r="W10" t="str">
-        <f t="shared" si="7"/>
-        <v>complete</v>
-      </c>
-      <c r="X10" t="str">
-        <f t="shared" si="7"/>
-        <v>complete</v>
-      </c>
       <c r="Y10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="U10:AI13" si="5">($D10)</f>
         <v>complete</v>
       </c>
       <c r="Z10" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>complete</v>
       </c>
       <c r="AA10" t="str">
-        <f t="shared" si="7"/>
-        <v>complete</v>
-      </c>
-      <c r="AB10" t="str">
-        <f t="shared" si="7"/>
-        <v>complete</v>
-      </c>
-      <c r="AC10" t="str">
-        <f t="shared" si="7"/>
-        <v>complete</v>
-      </c>
-      <c r="AD10" t="str">
-        <f t="shared" si="7"/>
-        <v>complete</v>
-      </c>
-      <c r="AE10" t="str">
-        <f t="shared" si="7"/>
-        <v>complete</v>
-      </c>
-      <c r="AF10" t="str">
-        <f t="shared" si="7"/>
-        <v>complete</v>
-      </c>
-      <c r="AG10" t="str">
-        <f t="shared" si="7"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="11" spans="1:63">
+        <f t="shared" si="5"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="AH11" t="str">
-        <f>($D11)</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="12" spans="1:63">
+      <c r="AB11" t="str">
+        <f t="shared" si="5"/>
+        <v>complete</v>
+      </c>
+      <c r="AC11" t="str">
+        <f t="shared" si="5"/>
+        <v>complete</v>
+      </c>
+      <c r="AD11" t="str">
+        <f t="shared" si="5"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="AI12" t="str">
-        <f>($D12)</f>
+      <c r="AE12" t="str">
+        <f t="shared" si="5"/>
         <v>this week</v>
       </c>
-    </row>
-    <row r="13" spans="1:63">
+      <c r="AF12" t="str">
+        <f t="shared" si="5"/>
+        <v>this week</v>
+      </c>
+      <c r="AG12" t="str">
+        <f t="shared" si="5"/>
+        <v>this week</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
       <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ13" t="str">
-        <f t="shared" ref="AJ13:AN13" si="8">($D13)</f>
-        <v>planned</v>
-      </c>
-      <c r="AK13" t="str">
-        <f t="shared" si="8"/>
-        <v>planned</v>
-      </c>
-      <c r="AL13" t="str">
-        <f t="shared" si="8"/>
-        <v>planned</v>
-      </c>
-      <c r="AM13" t="str">
-        <f t="shared" si="8"/>
-        <v>planned</v>
-      </c>
-      <c r="AN13" t="str">
-        <f t="shared" si="8"/>
-        <v>planned</v>
-      </c>
-    </row>
-    <row r="14" spans="1:63">
+        <v>18</v>
+      </c>
+      <c r="AH13" t="str">
+        <f t="shared" si="5"/>
+        <v>this week</v>
+      </c>
+      <c r="AI13" t="str">
+        <f t="shared" si="5"/>
+        <v>this week</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -2750,42 +3366,10 @@
       <c r="D14" t="s">
         <v>19</v>
       </c>
-      <c r="AO14" t="str">
-        <f t="shared" ref="AO14:AV14" si="9">($D14)</f>
-        <v>planned</v>
-      </c>
-      <c r="AP14" t="str">
-        <f t="shared" si="9"/>
-        <v>planned</v>
-      </c>
-      <c r="AQ14" t="str">
-        <f t="shared" si="9"/>
-        <v>planned</v>
-      </c>
-      <c r="AR14" t="str">
-        <f t="shared" si="9"/>
-        <v>planned</v>
-      </c>
-      <c r="AS14" t="str">
-        <f t="shared" si="9"/>
-        <v>planned</v>
-      </c>
-      <c r="AT14" t="str">
-        <f t="shared" si="9"/>
-        <v>planned</v>
-      </c>
-      <c r="AU14" t="str">
-        <f t="shared" si="9"/>
-        <v>planned</v>
-      </c>
-      <c r="AV14" t="str">
-        <f t="shared" si="9"/>
-        <v>planned</v>
-      </c>
-    </row>
-    <row r="15" spans="1:63">
+    </row>
+    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -2793,44 +3377,28 @@
       <c r="D15" t="s">
         <v>19</v>
       </c>
-      <c r="AW15" t="str">
-        <f t="shared" ref="AW15:AZ15" si="10">($D15)</f>
-        <v>planned</v>
-      </c>
-      <c r="AX15" t="str">
-        <f t="shared" si="10"/>
-        <v>planned</v>
-      </c>
-      <c r="AY15" t="str">
-        <f t="shared" si="10"/>
-        <v>planned</v>
-      </c>
-      <c r="AZ15" t="str">
-        <f t="shared" si="10"/>
-        <v>planned</v>
-      </c>
-    </row>
-    <row r="16" spans="1:63">
+    </row>
+    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <f>SUM(B3:B15)</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C16">
         <f>SUM(C3:C15)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:46" s="2" customFormat="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:46">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -2847,9 +3415,9 @@
       </c>
       <c r="F18" s="55"/>
     </row>
-    <row r="19" spans="1:46">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -2861,16 +3429,16 @@
         <v>17</v>
       </c>
       <c r="E19" s="64" t="str">
-        <f t="shared" ref="E19" si="11">($D19)</f>
+        <f t="shared" ref="E19" si="6">($D19)</f>
         <v>complete</v>
       </c>
       <c r="F19" s="64"/>
       <c r="G19" s="64"/>
       <c r="H19" s="64"/>
     </row>
-    <row r="20" spans="1:46">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -2890,13 +3458,13 @@
         <v>complete</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" ref="K20" si="12">($D20)</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="21" spans="1:46" ht="14.25" customHeight="1">
+        <f t="shared" ref="K20" si="7">($D20)</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -2908,10 +3476,10 @@
         <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L21" s="64" t="str">
-        <f t="shared" ref="L21" si="13">($D21)</f>
+        <f t="shared" ref="L21" si="8">($D21)</f>
         <v>this week</v>
       </c>
       <c r="M21" s="64"/>
@@ -2922,9 +3490,9 @@
       <c r="R21" s="64"/>
       <c r="S21" s="64"/>
     </row>
-    <row r="22" spans="1:46">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <v>5</v>
@@ -2944,9 +3512,9 @@
       <c r="W22" s="64"/>
       <c r="X22" s="64"/>
     </row>
-    <row r="23" spans="1:46" ht="14.25" customHeight="1">
+    <row r="23" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23">
         <v>10</v>
@@ -2971,9 +3539,9 @@
       <c r="M23" s="64"/>
       <c r="N23" s="64"/>
     </row>
-    <row r="24" spans="1:46">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -2995,9 +3563,9 @@
       <c r="O24" s="64"/>
       <c r="P24" s="64"/>
     </row>
-    <row r="25" spans="1:46">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -3012,25 +3580,25 @@
       <c r="Z25" s="64"/>
       <c r="AA25" s="64"/>
       <c r="AQ25" t="str">
-        <f t="shared" ref="AQ25:AT25" si="14">($D25)</f>
+        <f t="shared" ref="AQ25:AT25" si="9">($D25)</f>
         <v>planned</v>
       </c>
       <c r="AR25" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>planned</v>
       </c>
       <c r="AS25" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>planned</v>
       </c>
       <c r="AT25" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="26" spans="1:46">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <f>SUM(B18:B25)</f>
@@ -3041,14 +3609,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:46" s="2" customFormat="1">
+    <row r="27" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:46">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3060,13 +3628,13 @@
         <v>17</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" ref="E28" si="15">($D28)</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="29" spans="1:46">
+        <f t="shared" ref="E28" si="10">($D28)</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -3090,9 +3658,9 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="30" spans="1:46">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30">
         <v>10</v>
@@ -3112,15 +3680,15 @@
         <v>complete</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" ref="K30:M30" si="16">($D30)</f>
+        <f t="shared" ref="K30:M30" si="11">($D30)</f>
         <v>complete</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>complete</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>complete</v>
       </c>
       <c r="N30" t="str">
@@ -3135,9 +3703,9 @@
       <c r="Q30" s="55"/>
       <c r="R30" s="55"/>
     </row>
-    <row r="31" spans="1:46">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -3151,9 +3719,9 @@
       <c r="V31" s="57"/>
       <c r="W31" s="57"/>
     </row>
-    <row r="32" spans="1:46">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -3167,9 +3735,9 @@
       <c r="AA32" s="57"/>
       <c r="AB32" s="57"/>
     </row>
-    <row r="33" spans="1:54">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33">
         <v>10</v>
@@ -3196,9 +3764,9 @@
       <c r="AP33" s="3"/>
       <c r="AQ33" s="3"/>
     </row>
-    <row r="34" spans="1:54">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34">
         <v>15</v>
@@ -3226,9 +3794,9 @@
       <c r="BA34" s="56"/>
       <c r="BB34" s="3"/>
     </row>
-    <row r="35" spans="1:54">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35">
         <f>SUM(B28:B34)</f>
@@ -3239,14 +3807,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:54" s="2" customFormat="1">
+    <row r="36" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:54">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -3258,29 +3826,29 @@
         <v>17</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" ref="E37:I37" si="17">($D37)</f>
+        <f t="shared" ref="E37:I37" si="12">($D37)</f>
         <v>complete</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>complete</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>complete</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>complete</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="17"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="38" spans="1:54">
+        <f t="shared" si="12"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -3292,29 +3860,29 @@
         <v>17</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" ref="J38:N38" si="18">($D38)</f>
+        <f t="shared" ref="J38:N38" si="13">($D38)</f>
         <v>complete</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>complete</v>
       </c>
       <c r="L38" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>complete</v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>complete</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="18"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="39" spans="1:54">
+        <f t="shared" si="13"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -3326,33 +3894,33 @@
         <v>17</v>
       </c>
       <c r="O39" t="str">
-        <f t="shared" ref="O39:T39" si="19">($D39)</f>
+        <f t="shared" ref="O39:T39" si="14">($D39)</f>
         <v>complete</v>
       </c>
       <c r="P39" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>complete</v>
       </c>
       <c r="Q39" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>complete</v>
       </c>
       <c r="R39" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>complete</v>
       </c>
       <c r="S39" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>complete</v>
       </c>
       <c r="T39" t="str">
-        <f t="shared" si="19"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="40" spans="1:54">
+        <f t="shared" si="14"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40">
         <v>10</v>
@@ -3361,17 +3929,17 @@
         <v>18</v>
       </c>
       <c r="U40" t="str">
-        <f t="shared" ref="U40:V40" si="20">($D40)</f>
+        <f t="shared" ref="U40:V40" si="15">($D40)</f>
         <v>this week</v>
       </c>
       <c r="V40" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>this week</v>
       </c>
     </row>
-    <row r="41" spans="1:54">
+    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41">
         <v>10</v>
@@ -3380,33 +3948,33 @@
         <v>19</v>
       </c>
       <c r="W41" t="str">
-        <f t="shared" ref="W41:AB41" si="21">($D41)</f>
+        <f t="shared" ref="W41:AB41" si="16">($D41)</f>
         <v>planned</v>
       </c>
       <c r="X41" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>planned</v>
       </c>
       <c r="Y41" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>planned</v>
       </c>
       <c r="Z41" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>planned</v>
       </c>
       <c r="AA41" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>planned</v>
       </c>
       <c r="AB41" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="42" spans="1:54">
+    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42">
         <v>10</v>
@@ -3415,17 +3983,17 @@
         <v>19</v>
       </c>
       <c r="AC42" t="str">
-        <f t="shared" ref="AC42:AD42" si="22">($D42)</f>
+        <f t="shared" ref="AC42:AD42" si="17">($D42)</f>
         <v>planned</v>
       </c>
       <c r="AD42" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="43" spans="1:54" ht="15" customHeight="1">
+    <row r="43" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43">
         <v>5</v>
@@ -3434,25 +4002,25 @@
         <v>19</v>
       </c>
       <c r="AE43" t="str">
-        <f t="shared" ref="AE43:AH43" si="23">($D43)</f>
+        <f t="shared" ref="AE43:AH43" si="18">($D43)</f>
         <v>planned</v>
       </c>
       <c r="AF43" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>planned</v>
       </c>
       <c r="AG43" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>planned</v>
       </c>
       <c r="AH43" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="44" spans="1:54">
+    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B44">
         <f>SUM(B37:B43)</f>
@@ -3463,14 +4031,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:54" s="2" customFormat="1">
+    <row r="45" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:54">
+    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46">
         <v>10</v>
@@ -3482,31 +4050,31 @@
         <v>17</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" ref="E46:I46" si="24">($D46)</f>
+        <f t="shared" ref="E46:I46" si="19">($D46)</f>
         <v>complete</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>complete</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>complete</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>complete</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v>complete</v>
       </c>
       <c r="J46" s="55"/>
       <c r="K46" s="55"/>
     </row>
-    <row r="47" spans="1:54">
+    <row r="47" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47">
         <v>5</v>
@@ -3515,15 +4083,15 @@
         <v>18</v>
       </c>
       <c r="L47" t="str">
-        <f t="shared" ref="L47:P47" si="25">($D47)</f>
+        <f t="shared" ref="L47:P47" si="20">($D47)</f>
         <v>this week</v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>this week</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>this week</v>
       </c>
       <c r="O47" s="58" t="str">
@@ -3531,13 +4099,13 @@
         <v>this week</v>
       </c>
       <c r="P47" s="3" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="20"/>
         <v>this week</v>
       </c>
     </row>
-    <row r="48" spans="1:54">
+    <row r="48" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48">
         <v>5</v>
@@ -3546,33 +4114,33 @@
         <v>18</v>
       </c>
       <c r="Q48" t="str">
-        <f t="shared" ref="Q48:V48" si="26">($D48)</f>
+        <f t="shared" ref="Q48:V48" si="21">($D48)</f>
         <v>this week</v>
       </c>
       <c r="R48" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>this week</v>
       </c>
       <c r="S48" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>this week</v>
       </c>
       <c r="T48" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>this week</v>
       </c>
       <c r="U48" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>this week</v>
       </c>
       <c r="V48" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="21"/>
         <v>this week</v>
       </c>
     </row>
-    <row r="49" spans="1:42">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B49">
         <v>10</v>
@@ -3581,17 +4149,17 @@
         <v>19</v>
       </c>
       <c r="W49" t="str">
-        <f t="shared" ref="W49:X49" si="27">($D49)</f>
+        <f t="shared" ref="W49:X49" si="22">($D49)</f>
         <v>planned</v>
       </c>
       <c r="X49" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="22"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="50" spans="1:42">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B50">
         <v>10</v>
@@ -3600,33 +4168,33 @@
         <v>19</v>
       </c>
       <c r="Y50" t="str">
-        <f t="shared" ref="Y50:AD50" si="28">($D50)</f>
+        <f t="shared" ref="Y50:AD50" si="23">($D50)</f>
         <v>planned</v>
       </c>
       <c r="Z50" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>planned</v>
       </c>
       <c r="AA50" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>planned</v>
       </c>
       <c r="AB50" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>planned</v>
       </c>
       <c r="AC50" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>planned</v>
       </c>
       <c r="AD50" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="23"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="51" spans="1:42">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B51">
         <v>10</v>
@@ -3635,33 +4203,33 @@
         <v>19</v>
       </c>
       <c r="AE51" t="str">
-        <f t="shared" ref="AE51:AJ51" si="29">($D51)</f>
+        <f t="shared" ref="AE51:AJ51" si="24">($D51)</f>
         <v>planned</v>
       </c>
       <c r="AF51" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>planned</v>
       </c>
       <c r="AG51" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>planned</v>
       </c>
       <c r="AH51" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>planned</v>
       </c>
       <c r="AI51" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>planned</v>
       </c>
       <c r="AJ51" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="24"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="52" spans="1:42">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52">
         <v>5</v>
@@ -3670,25 +4238,25 @@
         <v>19</v>
       </c>
       <c r="AK52" t="str">
-        <f t="shared" ref="AK52:AN52" si="30">($D52)</f>
+        <f t="shared" ref="AK52:AN52" si="25">($D52)</f>
         <v>planned</v>
       </c>
       <c r="AL52" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>planned</v>
       </c>
       <c r="AM52" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>planned</v>
       </c>
       <c r="AN52" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="25"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="53" spans="1:42">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -3720,17 +4288,17 @@
       <c r="Z53" s="3"/>
       <c r="AA53" s="3"/>
       <c r="AO53" t="str">
-        <f t="shared" ref="AO53:AP53" si="31">($D53)</f>
+        <f t="shared" ref="AO53:AP53" si="26">($D53)</f>
         <v>planned</v>
       </c>
       <c r="AP53" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="26"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="54" spans="1:42">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B54">
         <f>SUM(B46:B53)</f>
@@ -3741,30 +4309,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:42" s="6" customFormat="1">
+    <row r="55" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B55" s="6">
         <f>SUM(B35,B44,B26,B16)</f>
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C55" s="6">
         <f>SUM(C16,C26,C35,C44)</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:42" s="6" customFormat="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B56" s="53">
         <f>B55*100</f>
-        <v>17600</v>
+        <v>18600</v>
       </c>
       <c r="C56" s="53">
         <f>C55*100</f>
-        <v>7200</v>
+        <v>8300</v>
       </c>
       <c r="D56" s="53"/>
     </row>
@@ -3778,222 +4346,453 @@
     <mergeCell ref="G24:P24"/>
   </mergeCells>
   <conditionalFormatting sqref="D3 D18:D24 D46:D52">
-    <cfRule type="cellIs" dxfId="59" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="178" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="179" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="180" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D15">
-    <cfRule type="cellIs" dxfId="56" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="175" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="176" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="177" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" dxfId="53" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="172" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="173" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="174" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="cellIs" dxfId="50" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="169" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="170" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="171" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="47" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="166" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="167" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="168" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:BR18 E31:BR43 E30:O30 Q30:BR30 E20:BR20 E45:BR46 E47:I47 E48:J48 L47:BR47 L48:N48 Q48:BR48 E50:V50 E49:T49 E51:AJ51 Y50:AR50 W49:AR49 AW49:BR52 AM51:AR51 AQ52:AR52 E52:AN52 AO53:AP53 E26:BR29 E23 O23:BR23 I19:BR19 E19 E22:T22 E21:L21 T21:BR21 Y22:BR22 E24:G24 Q24:BR24 E25:Y25 AB25:BR25">
-    <cfRule type="cellIs" dxfId="44" priority="97" operator="equal">
+  <conditionalFormatting sqref="E31:BR43 E30:O30 Q30:BR30 E20:BR20 E45:BR46 E47:I47 E48:J48 L47:BR47 L48:N48 Q48:BR48 E50:V50 E49:T49 E51:AJ51 Y50:AR50 W49:AR49 AW49:BR52 AM51:AR51 AQ52:AR52 E52:AN52 AO53:AP53 E26:BR29 E23 O23:BR23 I19:BR19 E19 E22:T22 E21:L21 T21:BR21 Y22:BR22 E24:G24 Q24:BR24 E25:Y25 AB25:BR25 E3:BR5 E6:I6 K6:BR6 E7:BR18">
+    <cfRule type="cellIs" dxfId="107" priority="160" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="161" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="162" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D12">
-    <cfRule type="cellIs" dxfId="41" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="157" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="158" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="159" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D32">
-    <cfRule type="cellIs" dxfId="38" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="151" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="152" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="153" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:D43">
-    <cfRule type="cellIs" dxfId="35" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="148" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="149" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="150" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="32" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="145" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="146" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="147" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H4">
-    <cfRule type="cellIs" dxfId="29" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="142" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="143" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="144" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="cellIs" dxfId="26" priority="76" operator="equal">
+  <conditionalFormatting sqref="L6">
+    <cfRule type="cellIs" dxfId="89" priority="139" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="140" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="141" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="23" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="136" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="137" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="138" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:M7">
-    <cfRule type="cellIs" dxfId="20" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="133" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="134" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="135" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:P8">
-    <cfRule type="cellIs" dxfId="17" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="130" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="131" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="132" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9:T9">
-    <cfRule type="cellIs" dxfId="14" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="127" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="128" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="129" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10:AG10">
-    <cfRule type="cellIs" dxfId="11" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="124" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="125" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="126" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI12">
-    <cfRule type="cellIs" dxfId="8" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="121" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="122" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="123" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH11">
-    <cfRule type="cellIs" dxfId="5" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="118" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="119" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="120" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="2" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="97" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="98" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="99" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="62" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="63" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:K5">
+    <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6">
+    <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="57" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:N6">
+    <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="53" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="54" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7 M6:N6">
+    <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="51" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7:P7 M6:N6">
+    <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7:Q7 M6:N6">
+    <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="45" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8 O7:Q7 M6:N6">
+    <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8:S8 O7:Q7 M6:N6">
+    <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="39" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8:T8 O7:Q7 M6:N6">
+    <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9">
+    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9:V9">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9:W9">
+    <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9:X9">
+    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB11">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC11">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD11">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE12:AF12">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG12">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH13">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH13:AI13">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4015,11 +4814,11 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="59">
         <v>44210</v>
@@ -4046,38 +4845,38 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:12" ht="62.25" customHeight="1">
+    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -4104,7 +4903,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -4113,31 +4912,31 @@
         <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -4146,31 +4945,31 @@
         <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -4179,31 +4978,31 @@
         <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -4212,31 +5011,31 @@
         <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -4245,31 +5044,31 @@
         <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
@@ -4318,15 +5117,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
     </row>
   </sheetData>
@@ -4343,7 +5142,7 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
@@ -4352,16 +5151,16 @@
     <col min="5" max="19" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="31"/>
       <c r="B1" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="33" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>80</v>
       </c>
       <c r="E1">
         <v>1</v>
@@ -4409,12 +5208,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="36">
         <v>2</v>
@@ -4425,10 +5224,10 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
       <c r="B3" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="36">
         <v>5</v>
@@ -4442,10 +5241,10 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="38"/>
       <c r="B4" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="36">
         <v>4</v>
@@ -4458,10 +5257,10 @@
       <c r="I4" s="4"/>
       <c r="J4" s="52"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
       <c r="B5" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="35">
         <f>SUM(C2:C4)</f>
@@ -4472,12 +5271,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="36">
         <v>2</v>
@@ -4488,10 +5287,10 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="46"/>
       <c r="B7" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="36">
         <v>5</v>
@@ -4505,10 +5304,10 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="38"/>
       <c r="B8" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="36">
         <v>4</v>
@@ -4521,10 +5320,10 @@
       <c r="I8" s="4"/>
       <c r="J8" s="47"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="35">
         <f>SUM(C6:C8)</f>
@@ -4535,12 +5334,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="36">
         <v>1</v>
@@ -4550,10 +5349,10 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="46"/>
       <c r="B11" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="36">
         <v>5</v>
@@ -4567,10 +5366,10 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="36">
         <v>2</v>
@@ -4579,14 +5378,14 @@
         <v>2</v>
       </c>
       <c r="K12" s="47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13" s="36">
         <v>1</v>
@@ -4595,13 +5394,13 @@
         <v>1</v>
       </c>
       <c r="M13" s="47" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="36">
         <v>2</v>
@@ -4610,14 +5409,14 @@
         <v>3</v>
       </c>
       <c r="N14" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="35">
         <f>SUM(C10:C14)</f>
@@ -4628,12 +5427,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="36">
         <v>2</v>
@@ -4644,10 +5443,10 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="46"/>
       <c r="B17" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="36">
         <v>5</v>
@@ -4661,10 +5460,10 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="36">
         <v>4</v>
@@ -4677,10 +5476,10 @@
       <c r="I18" s="4"/>
       <c r="J18" s="47"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="35">
         <f>SUM(C16:C18)</f>
@@ -4691,12 +5490,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="36">
         <v>2</v>
@@ -4707,10 +5506,10 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="46"/>
       <c r="B21" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" s="36">
         <v>5</v>
@@ -4724,10 +5523,10 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" s="36">
         <v>4</v>
@@ -4740,10 +5539,10 @@
       <c r="I22" s="4"/>
       <c r="J22" s="47"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
       <c r="B23" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="35">
         <f>SUM(C20:C22)</f>
@@ -4754,7 +5553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="14.65" thickBot="1">
+    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="42"/>
       <c r="B24" s="43" t="s">
         <v>0</v>
@@ -4768,9 +5567,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4787,12 +5586,12 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>8</v>
@@ -4810,9 +5609,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -4830,9 +5629,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4850,9 +5649,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4870,9 +5669,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4890,20 +5689,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>

--- a/docs/Gantt Chart.xlsx
+++ b/docs/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Homework Assignments\Tower-of-Annihilation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A531ECE-BD66-4EBA-B603-010A4DE0C24F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3757A4F-FA21-48DD-B9C1-D674848F2322}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="103">
   <si>
     <t>Total</t>
   </si>
@@ -341,6 +341,12 @@
   </si>
   <si>
     <t>Create Level 1 (Demo)</t>
+  </si>
+  <si>
+    <t>NPC / item spawn points</t>
+  </si>
+  <si>
+    <t>Make player Static</t>
   </si>
 </sst>
 </file>
@@ -2351,28 +2357,28 @@
       </c>
       <c r="C4" s="23">
         <f>(G4+K4 +O4+S4)</f>
-        <v>10500</v>
+        <v>11200</v>
       </c>
       <c r="D4" s="24">
         <f t="shared" ref="D4:D6" si="0">(H4+L4 +P4+T4)</f>
-        <v>7400</v>
+        <v>8300</v>
       </c>
       <c r="E4" s="25">
         <f>(C4-D4)</f>
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="17">
-        <f>(Gantt!$B16)*100</f>
-        <v>4400</v>
+        <f>(Gantt!$B18)*100</f>
+        <v>5100</v>
       </c>
       <c r="H4" s="18">
-        <f>(Gantt!$C16)*100</f>
-        <v>3100</v>
+        <f>(Gantt!$C18)*100</f>
+        <v>4000</v>
       </c>
       <c r="I4" s="19">
         <f>(G4-H4)</f>
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="K4" s="23">
         <v>2000</v>
@@ -2427,11 +2433,11 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="17">
-        <f>(Gantt!$B26)*100</f>
+        <f>(Gantt!$B28)*100</f>
         <v>4500</v>
       </c>
       <c r="H5" s="18">
-        <f>(Gantt!$C26)*100</f>
+        <f>(Gantt!$C28)*100</f>
         <v>1800</v>
       </c>
       <c r="I5" s="19">
@@ -2491,11 +2497,11 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="17">
-        <f>(Gantt!$B35)*100</f>
+        <f>(Gantt!$B37)*100</f>
         <v>4800</v>
       </c>
       <c r="H6" s="18">
-        <f>(Gantt!$C35)*100</f>
+        <f>(Gantt!$C37)*100</f>
         <v>2100</v>
       </c>
       <c r="I6" s="19">
@@ -2553,11 +2559,11 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="17">
-        <f>(Gantt!$B44)*100</f>
+        <f>(Gantt!$B46)*100</f>
         <v>4900</v>
       </c>
       <c r="H7" s="18">
-        <f>(Gantt!$C44)*100</f>
+        <f>(Gantt!$C46)*100</f>
         <v>1300</v>
       </c>
       <c r="I7" s="19">
@@ -2617,11 +2623,11 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="17">
-        <f>(Gantt!$B54)*100</f>
+        <f>(Gantt!$B56)*100</f>
         <v>5700</v>
       </c>
       <c r="H8" s="18">
-        <f>(Gantt!$C54)*100</f>
+        <f>(Gantt!$C56)*100</f>
         <v>700</v>
       </c>
       <c r="I8" s="19">
@@ -2669,28 +2675,28 @@
       </c>
       <c r="C9" s="27">
         <f>SUM(C4:C8)</f>
-        <v>54800</v>
+        <v>55500</v>
       </c>
       <c r="D9" s="28">
         <f>SUM(D4:D8)</f>
-        <v>32200</v>
+        <v>33100</v>
       </c>
       <c r="E9" s="29">
         <f>SUM(E4:E8)</f>
-        <v>22600</v>
+        <v>22400</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="20">
         <f>SUM(G4:G8)</f>
-        <v>24300</v>
+        <v>25000</v>
       </c>
       <c r="H9" s="21">
         <f>SUM(H4:H8)</f>
-        <v>9000</v>
+        <v>9900</v>
       </c>
       <c r="I9" s="22">
         <f>SUM(I4:I8)</f>
-        <v>15300</v>
+        <v>15100</v>
       </c>
       <c r="K9" s="20">
         <f>SUM(K4:K8)</f>
@@ -2744,10 +2750,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BK56"/>
+  <dimension ref="A1:BK58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AR9" sqref="AR9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3240,7 +3246,7 @@
         <v>17</v>
       </c>
       <c r="U9" t="str">
-        <f t="shared" ref="Q9:X9" si="4">($D9)</f>
+        <f t="shared" ref="U9:X9" si="4">($D9)</f>
         <v>complete</v>
       </c>
       <c r="V9" t="str">
@@ -3258,36 +3264,24 @@
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="Y10" t="str">
-        <f t="shared" ref="U10:AI13" si="5">($D10)</f>
-        <v>complete</v>
-      </c>
-      <c r="Z10" t="str">
-        <f t="shared" si="5"/>
-        <v>complete</v>
-      </c>
-      <c r="AA10" t="str">
-        <f t="shared" si="5"/>
-        <v>complete</v>
-      </c>
     </row>
     <row r="11" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -3295,153 +3289,153 @@
       <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="AB11" t="str">
+      <c r="Y11" t="str">
+        <f t="shared" ref="Y11:AI14" si="5">($D11)</f>
+        <v>complete</v>
+      </c>
+      <c r="Z11" t="str">
         <f t="shared" si="5"/>
         <v>complete</v>
       </c>
-      <c r="AC11" t="str">
-        <f t="shared" si="5"/>
-        <v>complete</v>
-      </c>
-      <c r="AD11" t="str">
+      <c r="AA11" t="str">
         <f t="shared" si="5"/>
         <v>complete</v>
       </c>
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB12" t="str">
+        <f t="shared" si="5"/>
+        <v>complete</v>
+      </c>
+      <c r="AC12" t="str">
+        <f t="shared" si="5"/>
+        <v>complete</v>
+      </c>
+      <c r="AD12" t="str">
+        <f t="shared" si="5"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="AE12" t="str">
+      <c r="AE13" t="str">
         <f t="shared" si="5"/>
         <v>this week</v>
       </c>
-      <c r="AF12" t="str">
+      <c r="AF13" t="str">
         <f t="shared" si="5"/>
         <v>this week</v>
       </c>
-      <c r="AG12" t="str">
+      <c r="AG13" t="str">
         <f t="shared" si="5"/>
         <v>this week</v>
       </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>5</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>18</v>
       </c>
-      <c r="AH13" t="str">
+      <c r="AH14" t="str">
         <f t="shared" si="5"/>
         <v>this week</v>
       </c>
-      <c r="AI13" t="str">
+      <c r="AI14" t="str">
         <f t="shared" si="5"/>
         <v>this week</v>
       </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="B16">
-        <f>SUM(B3:B15)</f>
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <f>SUM(C3:C15)</f>
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>9</v>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <f>SUM(B3:B17)</f>
+        <v>51</v>
       </c>
       <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="str">
-        <f>($D18)</f>
-        <v>complete</v>
-      </c>
-      <c r="F18" s="55"/>
-    </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="64" t="str">
-        <f t="shared" ref="E19" si="6">($D19)</f>
-        <v>complete</v>
-      </c>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
+        <f>SUM(C3:C17)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -3449,903 +3443,943 @@
       <c r="D20" t="s">
         <v>17</v>
       </c>
-      <c r="I20" t="str">
+      <c r="E20" t="str">
         <f>($D20)</f>
         <v>complete</v>
       </c>
-      <c r="J20" t="str">
-        <f>($D20)</f>
-        <v>complete</v>
-      </c>
-      <c r="K20" t="str">
-        <f t="shared" ref="K20" si="7">($D20)</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="21" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="55"/>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
-      <c r="L21" s="64" t="str">
-        <f t="shared" ref="L21" si="8">($D21)</f>
-        <v>this week</v>
-      </c>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="64"/>
+        <v>17</v>
+      </c>
+      <c r="E21" s="64" t="str">
+        <f t="shared" ref="E21" si="6">($D21)</f>
+        <v>complete</v>
+      </c>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
       </c>
-      <c r="T22" s="64" t="str">
+      <c r="I22" t="str">
         <f>($D22)</f>
         <v>complete</v>
       </c>
-      <c r="U22" s="64"/>
-      <c r="V22" s="64"/>
-      <c r="W22" s="64"/>
-      <c r="X22" s="64"/>
+      <c r="J22" t="str">
+        <f>($D22)</f>
+        <v>complete</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" ref="K22" si="7">($D22)</f>
+        <v>complete</v>
+      </c>
     </row>
     <row r="23" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="64" t="str">
-        <f>($D23)</f>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" s="64" t="str">
+        <f t="shared" ref="L23" si="8">($D23)</f>
         <v>this week</v>
       </c>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
       <c r="M23" s="64"/>
       <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="64"/>
     </row>
     <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="T24" s="64" t="str">
+        <f>($D24)</f>
+        <v>complete</v>
+      </c>
+      <c r="U24" s="64"/>
+      <c r="V24" s="64"/>
+      <c r="W24" s="64"/>
+      <c r="X24" s="64"/>
+    </row>
+    <row r="25" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="64" t="str">
+        <f>($D25)</f>
+        <v>this week</v>
+      </c>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>40</v>
       </c>
-      <c r="B24">
+      <c r="B26">
         <v>10</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D26" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="64" t="str">
-        <f>($D24)</f>
+      <c r="G26" s="64" t="str">
+        <f>($D26)</f>
         <v>planned</v>
       </c>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-    </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>41</v>
       </c>
-      <c r="B25">
+      <c r="B27">
         <v>3</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D27" t="s">
         <v>19</v>
       </c>
-      <c r="Y25" s="64" t="str">
-        <f>($D25)</f>
+      <c r="Y27" s="64" t="str">
+        <f>($D27)</f>
         <v>planned</v>
       </c>
-      <c r="Z25" s="64"/>
-      <c r="AA25" s="64"/>
-      <c r="AQ25" t="str">
-        <f t="shared" ref="AQ25:AT25" si="9">($D25)</f>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="64"/>
+      <c r="AQ27" t="str">
+        <f t="shared" ref="AQ27:AT27" si="9">($D27)</f>
         <v>planned</v>
       </c>
-      <c r="AR25" t="str">
+      <c r="AR27" t="str">
         <f t="shared" si="9"/>
         <v>planned</v>
       </c>
-      <c r="AS25" t="str">
+      <c r="AS27" t="str">
         <f t="shared" si="9"/>
         <v>planned</v>
       </c>
-      <c r="AT25" t="str">
+      <c r="AT27" t="str">
         <f t="shared" si="9"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26">
-        <f>SUM(B18:B25)</f>
-        <v>45</v>
-      </c>
-      <c r="C26">
-        <f>SUM(C18:C25)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <f>SUM(B20:B27)</f>
+        <v>45</v>
       </c>
       <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" ref="E28" si="10">($D28)</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" t="str">
-        <f>($D29)</f>
-        <v>complete</v>
-      </c>
-      <c r="G29" t="str">
-        <f>($D29)</f>
-        <v>complete</v>
-      </c>
-      <c r="H29" t="str">
-        <f>($D29)</f>
-        <v>complete</v>
+        <f>SUM(C20:C27)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
       </c>
-      <c r="I30" t="str">
-        <f>($D30)</f>
-        <v>complete</v>
-      </c>
-      <c r="J30" t="str">
-        <f>($D30)</f>
-        <v>complete</v>
-      </c>
-      <c r="K30" t="str">
-        <f t="shared" ref="K30:M30" si="11">($D30)</f>
-        <v>complete</v>
-      </c>
-      <c r="L30" t="str">
-        <f t="shared" si="11"/>
-        <v>complete</v>
-      </c>
-      <c r="M30" t="str">
-        <f t="shared" si="11"/>
-        <v>complete</v>
-      </c>
-      <c r="N30" t="str">
-        <f>($D30)</f>
-        <v>complete</v>
-      </c>
-      <c r="O30" t="str">
-        <f>($D30)</f>
-        <v>complete</v>
-      </c>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
+      <c r="E30" t="str">
+        <f t="shared" ref="E30" si="10">($D30)</f>
+        <v>complete</v>
+      </c>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
-      </c>
-      <c r="S31" s="60"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="57"/>
-      <c r="V31" s="57"/>
-      <c r="W31" s="57"/>
+        <v>17</v>
+      </c>
+      <c r="F31" t="str">
+        <f>($D31)</f>
+        <v>complete</v>
+      </c>
+      <c r="G31" t="str">
+        <f>($D31)</f>
+        <v>complete</v>
+      </c>
+      <c r="H31" t="str">
+        <f>($D31)</f>
+        <v>complete</v>
+      </c>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
-      </c>
-      <c r="X32" s="57"/>
-      <c r="Y32" s="57"/>
-      <c r="Z32" s="57"/>
-      <c r="AA32" s="57"/>
-      <c r="AB32" s="57"/>
+        <v>17</v>
+      </c>
+      <c r="I32" t="str">
+        <f>($D32)</f>
+        <v>complete</v>
+      </c>
+      <c r="J32" t="str">
+        <f>($D32)</f>
+        <v>complete</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" ref="K32:M32" si="11">($D32)</f>
+        <v>complete</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="11"/>
+        <v>complete</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="11"/>
+        <v>complete</v>
+      </c>
+      <c r="N32" t="str">
+        <f>($D32)</f>
+        <v>complete</v>
+      </c>
+      <c r="O32" t="str">
+        <f>($D32)</f>
+        <v>complete</v>
+      </c>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="55"/>
     </row>
     <row r="33" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33">
-        <v>10</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC33" s="56"/>
-      <c r="AD33" s="56"/>
-      <c r="AE33" s="56"/>
-      <c r="AF33" s="56"/>
-      <c r="AG33" s="56"/>
-      <c r="AH33" s="56"/>
-      <c r="AI33" s="56"/>
-      <c r="AJ33" s="56"/>
-      <c r="AK33" s="56"/>
-      <c r="AL33" s="56"/>
-      <c r="AM33" s="3"/>
-      <c r="AN33" s="3"/>
-      <c r="AO33" s="3"/>
-      <c r="AP33" s="3"/>
-      <c r="AQ33" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="S33" s="60"/>
+      <c r="T33" s="57"/>
+      <c r="U33" s="57"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="57"/>
     </row>
     <row r="34" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B34">
-        <v>15</v>
-      </c>
-      <c r="C34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM34" s="56"/>
-      <c r="AN34" s="56"/>
-      <c r="AO34" s="56"/>
-      <c r="AP34" s="56"/>
-      <c r="AQ34" s="56"/>
-      <c r="AR34" s="56"/>
-      <c r="AS34" s="56"/>
-      <c r="AT34" s="56"/>
-      <c r="AU34" s="56"/>
-      <c r="AV34" s="56"/>
-      <c r="AW34" s="56"/>
-      <c r="AX34" s="56"/>
-      <c r="AY34" s="56"/>
-      <c r="AZ34" s="56"/>
-      <c r="BA34" s="56"/>
-      <c r="BB34" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="X34" s="57"/>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="57"/>
+      <c r="AA34" s="57"/>
+      <c r="AB34" s="57"/>
     </row>
     <row r="35" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B35">
-        <f>SUM(B28:B34)</f>
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC35" s="56"/>
+      <c r="AD35" s="56"/>
+      <c r="AE35" s="56"/>
+      <c r="AF35" s="56"/>
+      <c r="AG35" s="56"/>
+      <c r="AH35" s="56"/>
+      <c r="AI35" s="56"/>
+      <c r="AJ35" s="56"/>
+      <c r="AK35" s="56"/>
+      <c r="AL35" s="56"/>
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="3"/>
+      <c r="AO35" s="3"/>
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="3"/>
+    </row>
+    <row r="36" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>48</v>
       </c>
-      <c r="C35">
-        <f>SUM(C28:C34)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B36">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM36" s="56"/>
+      <c r="AN36" s="56"/>
+      <c r="AO36" s="56"/>
+      <c r="AP36" s="56"/>
+      <c r="AQ36" s="56"/>
+      <c r="AR36" s="56"/>
+      <c r="AS36" s="56"/>
+      <c r="AT36" s="56"/>
+      <c r="AU36" s="56"/>
+      <c r="AV36" s="56"/>
+      <c r="AW36" s="56"/>
+      <c r="AX36" s="56"/>
+      <c r="AY36" s="56"/>
+      <c r="AZ36" s="56"/>
+      <c r="BA36" s="56"/>
+      <c r="BB36" s="3"/>
     </row>
     <row r="37" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <f>SUM(B30:B36)</f>
+        <v>48</v>
       </c>
       <c r="C37">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" ref="E37:I37" si="12">($D37)</f>
-        <v>complete</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="12"/>
-        <v>complete</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="12"/>
-        <v>complete</v>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" si="12"/>
-        <v>complete</v>
-      </c>
-      <c r="I37" t="str">
-        <f t="shared" si="12"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38">
-        <v>5</v>
-      </c>
-      <c r="C38">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" t="str">
-        <f t="shared" ref="J38:N38" si="13">($D38)</f>
-        <v>complete</v>
-      </c>
-      <c r="K38" t="str">
-        <f t="shared" si="13"/>
-        <v>complete</v>
-      </c>
-      <c r="L38" t="str">
-        <f t="shared" si="13"/>
-        <v>complete</v>
-      </c>
-      <c r="M38" t="str">
-        <f t="shared" si="13"/>
-        <v>complete</v>
-      </c>
-      <c r="N38" t="str">
-        <f t="shared" si="13"/>
-        <v>complete</v>
+        <f>SUM(C30:C36)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
       </c>
-      <c r="O39" t="str">
-        <f t="shared" ref="O39:T39" si="14">($D39)</f>
-        <v>complete</v>
-      </c>
-      <c r="P39" t="str">
-        <f t="shared" si="14"/>
-        <v>complete</v>
-      </c>
-      <c r="Q39" t="str">
-        <f t="shared" si="14"/>
-        <v>complete</v>
-      </c>
-      <c r="R39" t="str">
-        <f t="shared" si="14"/>
-        <v>complete</v>
-      </c>
-      <c r="S39" t="str">
-        <f t="shared" si="14"/>
-        <v>complete</v>
-      </c>
-      <c r="T39" t="str">
-        <f t="shared" si="14"/>
+      <c r="E39" t="str">
+        <f t="shared" ref="E39:I39" si="12">($D39)</f>
+        <v>complete</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="12"/>
+        <v>complete</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="12"/>
+        <v>complete</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="12"/>
+        <v>complete</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="12"/>
         <v>complete</v>
       </c>
     </row>
     <row r="40" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" ref="J40:N40" si="13">($D40)</f>
+        <v>complete</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="13"/>
+        <v>complete</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="13"/>
+        <v>complete</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="13"/>
+        <v>complete</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="13"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>17</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" ref="O41:T41" si="14">($D41)</f>
+        <v>complete</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="14"/>
+        <v>complete</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="14"/>
+        <v>complete</v>
+      </c>
+      <c r="R41" t="str">
+        <f t="shared" si="14"/>
+        <v>complete</v>
+      </c>
+      <c r="S41" t="str">
+        <f t="shared" si="14"/>
+        <v>complete</v>
+      </c>
+      <c r="T41" t="str">
+        <f t="shared" si="14"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>52</v>
       </c>
-      <c r="B40">
+      <c r="B42">
         <v>10</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D42" t="s">
         <v>18</v>
       </c>
-      <c r="U40" t="str">
-        <f t="shared" ref="U40:V40" si="15">($D40)</f>
+      <c r="U42" t="str">
+        <f t="shared" ref="U42:V42" si="15">($D42)</f>
         <v>this week</v>
       </c>
-      <c r="V40" t="str">
+      <c r="V42" t="str">
         <f t="shared" si="15"/>
         <v>this week</v>
       </c>
     </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>53</v>
       </c>
-      <c r="B41">
+      <c r="B43">
         <v>10</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D43" t="s">
         <v>19</v>
       </c>
-      <c r="W41" t="str">
-        <f t="shared" ref="W41:AB41" si="16">($D41)</f>
+      <c r="W43" t="str">
+        <f t="shared" ref="W43:AB43" si="16">($D43)</f>
         <v>planned</v>
       </c>
-      <c r="X41" t="str">
+      <c r="X43" t="str">
         <f t="shared" si="16"/>
         <v>planned</v>
       </c>
-      <c r="Y41" t="str">
+      <c r="Y43" t="str">
         <f t="shared" si="16"/>
         <v>planned</v>
       </c>
-      <c r="Z41" t="str">
+      <c r="Z43" t="str">
         <f t="shared" si="16"/>
         <v>planned</v>
       </c>
-      <c r="AA41" t="str">
+      <c r="AA43" t="str">
         <f t="shared" si="16"/>
         <v>planned</v>
       </c>
-      <c r="AB41" t="str">
+      <c r="AB43" t="str">
         <f t="shared" si="16"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>54</v>
       </c>
-      <c r="B42">
+      <c r="B44">
         <v>10</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D44" t="s">
         <v>19</v>
       </c>
-      <c r="AC42" t="str">
-        <f t="shared" ref="AC42:AD42" si="17">($D42)</f>
+      <c r="AC44" t="str">
+        <f t="shared" ref="AC44:AD44" si="17">($D44)</f>
         <v>planned</v>
       </c>
-      <c r="AD42" t="str">
+      <c r="AD44" t="str">
         <f t="shared" si="17"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="43" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="45" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>55</v>
       </c>
-      <c r="B43">
+      <c r="B45">
         <v>5</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D45" t="s">
         <v>19</v>
       </c>
-      <c r="AE43" t="str">
-        <f t="shared" ref="AE43:AH43" si="18">($D43)</f>
+      <c r="AE45" t="str">
+        <f t="shared" ref="AE45:AH45" si="18">($D45)</f>
         <v>planned</v>
       </c>
-      <c r="AF43" t="str">
+      <c r="AF45" t="str">
         <f t="shared" si="18"/>
         <v>planned</v>
       </c>
-      <c r="AG43" t="str">
+      <c r="AG45" t="str">
         <f t="shared" si="18"/>
         <v>planned</v>
       </c>
-      <c r="AH43" t="str">
+      <c r="AH45" t="str">
         <f t="shared" si="18"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>32</v>
-      </c>
-      <c r="B44">
-        <f>SUM(B37:B43)</f>
-        <v>49</v>
-      </c>
-      <c r="C44">
-        <f>SUM(C37:C43)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="46" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46">
+        <f>SUM(B39:B45)</f>
+        <v>49</v>
+      </c>
+      <c r="C46">
+        <f>SUM(C39:C45)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>56</v>
       </c>
-      <c r="B46">
+      <c r="B48">
         <v>10</v>
       </c>
-      <c r="C46">
+      <c r="C48">
         <v>7</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D48" t="s">
         <v>17</v>
       </c>
-      <c r="E46" t="str">
-        <f t="shared" ref="E46:I46" si="19">($D46)</f>
-        <v>complete</v>
-      </c>
-      <c r="F46" t="str">
+      <c r="E48" t="str">
+        <f t="shared" ref="E48:I48" si="19">($D48)</f>
+        <v>complete</v>
+      </c>
+      <c r="F48" t="str">
         <f t="shared" si="19"/>
         <v>complete</v>
       </c>
-      <c r="G46" t="str">
+      <c r="G48" t="str">
         <f t="shared" si="19"/>
         <v>complete</v>
       </c>
-      <c r="H46" t="str">
+      <c r="H48" t="str">
         <f t="shared" si="19"/>
         <v>complete</v>
       </c>
-      <c r="I46" t="str">
+      <c r="I48" t="str">
         <f t="shared" si="19"/>
         <v>complete</v>
       </c>
-      <c r="J46" s="55"/>
-      <c r="K46" s="55"/>
-    </row>
-    <row r="47" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+    </row>
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>57</v>
       </c>
-      <c r="B47">
+      <c r="B49">
         <v>5</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D49" t="s">
         <v>18</v>
       </c>
-      <c r="L47" t="str">
-        <f t="shared" ref="L47:P47" si="20">($D47)</f>
+      <c r="L49" t="str">
+        <f t="shared" ref="L49:P49" si="20">($D49)</f>
         <v>this week</v>
       </c>
-      <c r="M47" t="str">
+      <c r="M49" t="str">
         <f t="shared" si="20"/>
         <v>this week</v>
       </c>
-      <c r="N47" t="str">
+      <c r="N49" t="str">
         <f t="shared" si="20"/>
         <v>this week</v>
       </c>
-      <c r="O47" s="58" t="str">
-        <f>($D47)</f>
+      <c r="O49" s="58" t="str">
+        <f>($D49)</f>
         <v>this week</v>
       </c>
-      <c r="P47" s="3" t="str">
+      <c r="P49" s="3" t="str">
         <f t="shared" si="20"/>
         <v>this week</v>
       </c>
     </row>
-    <row r="48" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>58</v>
       </c>
-      <c r="B48">
+      <c r="B50">
         <v>5</v>
       </c>
-      <c r="D48" s="56" t="s">
+      <c r="D50" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="Q48" t="str">
-        <f t="shared" ref="Q48:V48" si="21">($D48)</f>
+      <c r="Q50" t="str">
+        <f t="shared" ref="Q50:V50" si="21">($D50)</f>
         <v>this week</v>
       </c>
-      <c r="R48" t="str">
+      <c r="R50" t="str">
         <f t="shared" si="21"/>
         <v>this week</v>
       </c>
-      <c r="S48" t="str">
+      <c r="S50" t="str">
         <f t="shared" si="21"/>
         <v>this week</v>
       </c>
-      <c r="T48" t="str">
+      <c r="T50" t="str">
         <f t="shared" si="21"/>
         <v>this week</v>
       </c>
-      <c r="U48" t="str">
+      <c r="U50" t="str">
         <f t="shared" si="21"/>
         <v>this week</v>
       </c>
-      <c r="V48" t="str">
+      <c r="V50" t="str">
         <f t="shared" si="21"/>
         <v>this week</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>59</v>
       </c>
-      <c r="B49">
+      <c r="B51">
         <v>10</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D51" t="s">
         <v>19</v>
       </c>
-      <c r="W49" t="str">
-        <f t="shared" ref="W49:X49" si="22">($D49)</f>
+      <c r="W51" t="str">
+        <f t="shared" ref="W51:X51" si="22">($D51)</f>
         <v>planned</v>
       </c>
-      <c r="X49" t="str">
+      <c r="X51" t="str">
         <f t="shared" si="22"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>60</v>
       </c>
-      <c r="B50">
+      <c r="B52">
         <v>10</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D52" t="s">
         <v>19</v>
       </c>
-      <c r="Y50" t="str">
-        <f t="shared" ref="Y50:AD50" si="23">($D50)</f>
+      <c r="Y52" t="str">
+        <f t="shared" ref="Y52:AD52" si="23">($D52)</f>
         <v>planned</v>
       </c>
-      <c r="Z50" t="str">
+      <c r="Z52" t="str">
         <f t="shared" si="23"/>
         <v>planned</v>
       </c>
-      <c r="AA50" t="str">
+      <c r="AA52" t="str">
         <f t="shared" si="23"/>
         <v>planned</v>
       </c>
-      <c r="AB50" t="str">
+      <c r="AB52" t="str">
         <f t="shared" si="23"/>
         <v>planned</v>
       </c>
-      <c r="AC50" t="str">
+      <c r="AC52" t="str">
         <f t="shared" si="23"/>
         <v>planned</v>
       </c>
-      <c r="AD50" t="str">
+      <c r="AD52" t="str">
         <f t="shared" si="23"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>61</v>
       </c>
-      <c r="B51">
+      <c r="B53">
         <v>10</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D53" t="s">
         <v>19</v>
       </c>
-      <c r="AE51" t="str">
-        <f t="shared" ref="AE51:AJ51" si="24">($D51)</f>
+      <c r="AE53" t="str">
+        <f t="shared" ref="AE53:AJ53" si="24">($D53)</f>
         <v>planned</v>
       </c>
-      <c r="AF51" t="str">
+      <c r="AF53" t="str">
         <f t="shared" si="24"/>
         <v>planned</v>
       </c>
-      <c r="AG51" t="str">
+      <c r="AG53" t="str">
         <f t="shared" si="24"/>
         <v>planned</v>
       </c>
-      <c r="AH51" t="str">
+      <c r="AH53" t="str">
         <f t="shared" si="24"/>
         <v>planned</v>
       </c>
-      <c r="AI51" t="str">
+      <c r="AI53" t="str">
         <f t="shared" si="24"/>
         <v>planned</v>
       </c>
-      <c r="AJ51" t="str">
+      <c r="AJ53" t="str">
         <f t="shared" si="24"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>62</v>
       </c>
-      <c r="B52">
+      <c r="B54">
         <v>5</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D54" t="s">
         <v>19</v>
       </c>
-      <c r="AK52" t="str">
-        <f t="shared" ref="AK52:AN52" si="25">($D52)</f>
+      <c r="AK54" t="str">
+        <f t="shared" ref="AK54:AN54" si="25">($D54)</f>
         <v>planned</v>
       </c>
-      <c r="AL52" t="str">
+      <c r="AL54" t="str">
         <f t="shared" si="25"/>
         <v>planned</v>
       </c>
-      <c r="AM52" t="str">
+      <c r="AM54" t="str">
         <f t="shared" si="25"/>
         <v>planned</v>
       </c>
-      <c r="AN52" t="str">
+      <c r="AN54" t="str">
         <f t="shared" si="25"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>63</v>
       </c>
-      <c r="B53">
+      <c r="B55">
         <v>2</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D55" t="s">
         <v>19</v>
       </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
-      <c r="AA53" s="3"/>
-      <c r="AO53" t="str">
-        <f t="shared" ref="AO53:AP53" si="26">($D53)</f>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+      <c r="AO55" t="str">
+        <f t="shared" ref="AO55:AP55" si="26">($D55)</f>
         <v>planned</v>
       </c>
-      <c r="AP53" t="str">
+      <c r="AP55" t="str">
         <f t="shared" si="26"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>32</v>
       </c>
-      <c r="B54">
-        <f>SUM(B46:B53)</f>
+      <c r="B56">
+        <f>SUM(B48:B55)</f>
         <v>57</v>
       </c>
-      <c r="C54">
-        <f>SUM(C46:C53)</f>
+      <c r="C56">
+        <f>SUM(C48:C55)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+    <row r="57" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="6">
-        <f>SUM(B35,B44,B26,B16)</f>
-        <v>186</v>
-      </c>
-      <c r="C55" s="6">
-        <f>SUM(C16,C26,C35,C44)</f>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+      <c r="B57" s="6">
+        <f>SUM(B37,B46,B28,B18)</f>
+        <v>193</v>
+      </c>
+      <c r="C57" s="6">
+        <f>SUM(C18,C28,C37,C46)</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B56" s="53">
-        <f>B55*100</f>
-        <v>18600</v>
-      </c>
-      <c r="C56" s="53">
-        <f>C55*100</f>
-        <v>8300</v>
-      </c>
-      <c r="D56" s="53"/>
+      <c r="B58" s="53">
+        <f>B57*100</f>
+        <v>19300</v>
+      </c>
+      <c r="C58" s="53">
+        <f>C57*100</f>
+        <v>9200</v>
+      </c>
+      <c r="D58" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="E23:N23"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="L21:S21"/>
-    <mergeCell ref="T22:X22"/>
-    <mergeCell ref="G24:P24"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="E25:N25"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="L23:S23"/>
+    <mergeCell ref="T24:X24"/>
+    <mergeCell ref="G26:P26"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3 D18:D24 D46:D52">
+  <conditionalFormatting sqref="D3 D20:D26 D48:D54">
     <cfRule type="cellIs" dxfId="122" priority="178" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4356,7 +4390,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D15">
+  <conditionalFormatting sqref="D14:D17">
     <cfRule type="cellIs" dxfId="119" priority="175" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4367,7 +4401,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
+  <conditionalFormatting sqref="D27">
     <cfRule type="cellIs" dxfId="116" priority="172" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4378,7 +4412,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D35">
     <cfRule type="cellIs" dxfId="113" priority="169" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4389,7 +4423,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34">
+  <conditionalFormatting sqref="D36">
     <cfRule type="cellIs" dxfId="110" priority="166" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4400,7 +4434,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31:BR43 E30:O30 Q30:BR30 E20:BR20 E45:BR46 E47:I47 E48:J48 L47:BR47 L48:N48 Q48:BR48 E50:V50 E49:T49 E51:AJ51 Y50:AR50 W49:AR49 AW49:BR52 AM51:AR51 AQ52:AR52 E52:AN52 AO53:AP53 E26:BR29 E23 O23:BR23 I19:BR19 E19 E22:T22 E21:L21 T21:BR21 Y22:BR22 E24:G24 Q24:BR24 E25:Y25 AB25:BR25 E3:BR5 E6:I6 K6:BR6 E7:BR18">
+  <conditionalFormatting sqref="E33:BR45 E32:O32 Q32:BR32 E22:BR22 E47:BR48 E49:I49 E50:J50 L49:BR49 L50:N50 Q50:BR50 E52:V52 E51:T51 E53:AJ53 Y52:AR52 W51:AR51 AW51:BR54 AM53:AR53 AQ54:AR54 E54:AN54 AO55:AP55 E28:BR31 E25 O25:BR25 I21:BR21 E21 E24:T24 E23:L23 T23:BR23 Y24:BR24 E26:G26 Q26:BR26 E27:Y27 AB27:BR27 E3:BR5 E6:I6 K6:BR6 E7:BR20">
     <cfRule type="cellIs" dxfId="107" priority="160" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4411,7 +4445,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D12">
+  <conditionalFormatting sqref="D4:D13">
     <cfRule type="cellIs" dxfId="104" priority="157" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4422,7 +4456,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D32">
+  <conditionalFormatting sqref="D30:D34">
     <cfRule type="cellIs" dxfId="101" priority="151" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4433,7 +4467,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37:D43">
+  <conditionalFormatting sqref="D39:D45">
     <cfRule type="cellIs" dxfId="98" priority="148" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4510,7 +4544,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q9:T9">
+  <conditionalFormatting sqref="Q9:T10">
     <cfRule type="cellIs" dxfId="77" priority="127" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4521,7 +4555,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U10:AG10">
+  <conditionalFormatting sqref="U11:AG11">
     <cfRule type="cellIs" dxfId="74" priority="124" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4532,7 +4566,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI12">
+  <conditionalFormatting sqref="AI13">
     <cfRule type="cellIs" dxfId="71" priority="121" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4543,7 +4577,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH11">
+  <conditionalFormatting sqref="AH12">
     <cfRule type="cellIs" dxfId="68" priority="118" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4554,7 +4588,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
+  <conditionalFormatting sqref="D55">
     <cfRule type="cellIs" dxfId="65" priority="97" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4675,7 +4709,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U9">
+  <conditionalFormatting sqref="U9:U10">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4686,7 +4720,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U9:V9">
+  <conditionalFormatting sqref="U9:V10">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4697,7 +4731,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U9:W9">
+  <conditionalFormatting sqref="U9:W10">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4708,7 +4742,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U9:X9">
+  <conditionalFormatting sqref="U9:X10">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4719,7 +4753,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB11">
+  <conditionalFormatting sqref="AB12">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4730,7 +4764,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC11">
+  <conditionalFormatting sqref="AC12">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4741,7 +4775,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD11">
+  <conditionalFormatting sqref="AD12">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4752,7 +4786,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE12:AF12">
+  <conditionalFormatting sqref="AE13:AF13">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4763,7 +4797,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG12">
+  <conditionalFormatting sqref="AG13">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4774,7 +4808,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH13">
+  <conditionalFormatting sqref="AH14">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4785,7 +4819,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH13:AI13">
+  <conditionalFormatting sqref="AH14:AI14">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4797,7 +4831,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28:D34 D3:D15 D18:D25 D46:D53 D37:D43" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30:D36 D3:D17 D20:D27 D48:D55 D39:D45" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$F$1:$H$1</formula1>
     </dataValidation>
   </dataValidations>

--- a/docs/Gantt Chart.xlsx
+++ b/docs/Gantt Chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Homework Assignments\Tower-of-Annihilation\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\CS383\Tower-of-Annihilation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3757A4F-FA21-48DD-B9C1-D674848F2322}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D5F41B-43FF-4A0F-8BDC-6D749AAA762A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2615,11 +2615,11 @@
       </c>
       <c r="D8" s="18">
         <f t="shared" si="8"/>
-        <v>5000</v>
+        <v>5600</v>
       </c>
       <c r="E8" s="19">
         <f t="shared" si="9"/>
-        <v>6800</v>
+        <v>6200</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="17">
@@ -2628,11 +2628,11 @@
       </c>
       <c r="H8" s="18">
         <f>(Gantt!$C56)*100</f>
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="I8" s="19">
         <f t="shared" si="10"/>
-        <v>5000</v>
+        <v>4400</v>
       </c>
       <c r="K8" s="17">
         <v>2000</v>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="D9" s="28">
         <f>SUM(D4:D8)</f>
-        <v>33100</v>
+        <v>33700</v>
       </c>
       <c r="E9" s="29">
         <f>SUM(E4:E8)</f>
-        <v>22400</v>
+        <v>21800</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="20">
@@ -2692,11 +2692,11 @@
       </c>
       <c r="H9" s="21">
         <f>SUM(H4:H8)</f>
-        <v>9900</v>
+        <v>10500</v>
       </c>
       <c r="I9" s="22">
         <f>SUM(I4:I8)</f>
-        <v>15100</v>
+        <v>14500</v>
       </c>
       <c r="K9" s="20">
         <f>SUM(K4:K8)</f>
@@ -2752,8 +2752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BK58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4144,6 +4144,9 @@
       <c r="B50">
         <v>5</v>
       </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
       <c r="D50" s="56" t="s">
         <v>18</v>
       </c>
@@ -4179,16 +4182,19 @@
       <c r="B51">
         <v>10</v>
       </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="W51" t="str">
         <f t="shared" ref="W51:X51" si="22">($D51)</f>
-        <v>planned</v>
+        <v>complete</v>
       </c>
       <c r="X51" t="str">
         <f t="shared" si="22"/>
-        <v>planned</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.25">
@@ -4269,23 +4275,23 @@
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK54" t="str">
         <f t="shared" ref="AK54:AN54" si="25">($D54)</f>
-        <v>planned</v>
+        <v>this week</v>
       </c>
       <c r="AL54" t="str">
         <f t="shared" si="25"/>
-        <v>planned</v>
+        <v>this week</v>
       </c>
       <c r="AM54" t="str">
         <f t="shared" si="25"/>
-        <v>planned</v>
+        <v>this week</v>
       </c>
       <c r="AN54" t="str">
         <f t="shared" si="25"/>
-        <v>planned</v>
+        <v>this week</v>
       </c>
     </row>
     <row r="55" spans="1:42" x14ac:dyDescent="0.25">
@@ -4340,7 +4346,7 @@
       </c>
       <c r="C56">
         <f>SUM(C48:C55)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">

--- a/docs/Gantt Chart.xlsx
+++ b/docs/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\CS383\Tower-of-Annihilation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D5F41B-43FF-4A0F-8BDC-6D749AAA762A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C95F1E4-9070-4D9B-9C5B-B58FC8E5FDAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="Overhead" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2615,11 +2616,11 @@
       </c>
       <c r="D8" s="18">
         <f t="shared" si="8"/>
-        <v>5600</v>
+        <v>6600</v>
       </c>
       <c r="E8" s="19">
         <f t="shared" si="9"/>
-        <v>6200</v>
+        <v>5200</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="17">
@@ -2628,11 +2629,11 @@
       </c>
       <c r="H8" s="18">
         <f>(Gantt!$C56)*100</f>
-        <v>1300</v>
+        <v>2300</v>
       </c>
       <c r="I8" s="19">
         <f t="shared" si="10"/>
-        <v>4400</v>
+        <v>3400</v>
       </c>
       <c r="K8" s="17">
         <v>2000</v>
@@ -2679,11 +2680,11 @@
       </c>
       <c r="D9" s="28">
         <f>SUM(D4:D8)</f>
-        <v>33700</v>
+        <v>34700</v>
       </c>
       <c r="E9" s="29">
         <f>SUM(E4:E8)</f>
-        <v>21800</v>
+        <v>20800</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="20">
@@ -2692,11 +2693,11 @@
       </c>
       <c r="H9" s="21">
         <f>SUM(H4:H8)</f>
-        <v>10500</v>
+        <v>11500</v>
       </c>
       <c r="I9" s="22">
         <f>SUM(I4:I8)</f>
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="K9" s="20">
         <f>SUM(K4:K8)</f>
@@ -2752,8 +2753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BK58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4113,6 +4114,9 @@
       <c r="B49">
         <v>5</v>
       </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
       <c r="D49" t="s">
         <v>18</v>
       </c>
@@ -4145,7 +4149,7 @@
         <v>5</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D50" s="56" t="s">
         <v>18</v>
@@ -4183,7 +4187,7 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
@@ -4273,6 +4277,9 @@
       </c>
       <c r="B54">
         <v>5</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
       </c>
       <c r="D54" t="s">
         <v>18</v>
@@ -4346,7 +4353,7 @@
       </c>
       <c r="C56">
         <f>SUM(C48:C55)</f>
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4358,8 +4365,8 @@
         <v>193</v>
       </c>
       <c r="C57" s="6">
-        <f>SUM(C18,C28,C37,C46)</f>
-        <v>92</v>
+        <f>SUM(C18,C28,C37,C46,C56)</f>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4372,7 +4379,7 @@
       </c>
       <c r="C58" s="53">
         <f>C57*100</f>
-        <v>9200</v>
+        <v>11500</v>
       </c>
       <c r="D58" s="53"/>
     </row>

--- a/docs/Gantt Chart.xlsx
+++ b/docs/Gantt Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\CS383\Tower-of-Annihilation\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C95F1E4-9070-4D9B-9C5B-B58FC8E5FDAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDD8301-282D-4676-B6C9-0DEFC56424C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="264" yWindow="552" windowWidth="18816" windowHeight="11400" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Overhead" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="104">
   <si>
     <t>Total</t>
   </si>
@@ -348,6 +347,9 @@
   </si>
   <si>
     <t>Make player Static</t>
+  </si>
+  <si>
+    <t>Enemy Health Bar</t>
   </si>
 </sst>
 </file>
@@ -420,7 +422,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,6 +474,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -620,7 +628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -700,6 +708,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -2252,31 +2263,31 @@
       <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="3.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="2.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" customWidth="1"/>
-    <col min="18" max="18" width="5.140625" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" customWidth="1"/>
+    <col min="14" max="14" width="5.44140625" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" customWidth="1"/>
+    <col min="18" max="18" width="5.109375" customWidth="1"/>
+    <col min="19" max="19" width="13.44140625" customWidth="1"/>
+    <col min="20" max="20" width="13.5546875" customWidth="1"/>
+    <col min="21" max="21" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C2" s="61" t="s">
         <v>0</v>
       </c>
@@ -2304,7 +2315,7 @@
       <c r="T2" s="62"/>
       <c r="U2" s="63"/>
     </row>
-    <row r="3" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
@@ -2352,7 +2363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" s="26" t="s">
         <v>8</v>
       </c>
@@ -2416,7 +2427,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
@@ -2426,11 +2437,11 @@
       </c>
       <c r="D5" s="18">
         <f t="shared" si="0"/>
-        <v>6300</v>
+        <v>7000</v>
       </c>
       <c r="E5" s="19">
         <f t="shared" ref="E5:E6" si="2">(C5-D5)</f>
-        <v>4300</v>
+        <v>3600</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="17">
@@ -2439,11 +2450,11 @@
       </c>
       <c r="H5" s="18">
         <f>(Gantt!$C28)*100</f>
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="I5" s="19">
         <f t="shared" ref="I5:I6" si="3">(G5-H5)</f>
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="K5" s="17">
         <v>2000</v>
@@ -2480,34 +2491,34 @@
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="17">
         <f t="shared" si="1"/>
-        <v>10900</v>
+        <v>10500</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>7500</v>
+        <v>8600</v>
       </c>
       <c r="E6" s="19">
         <f t="shared" si="2"/>
-        <v>3400</v>
+        <v>1900</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="17">
-        <f>(Gantt!$B37)*100</f>
-        <v>4800</v>
+        <f>(Gantt!$B38)*100</f>
+        <v>4400</v>
       </c>
       <c r="H6" s="18">
-        <f>(Gantt!$C37)*100</f>
-        <v>2100</v>
+        <f>(Gantt!$C38)*100</f>
+        <v>3200</v>
       </c>
       <c r="I6" s="19">
         <f t="shared" si="3"/>
-        <v>2700</v>
+        <v>1200</v>
       </c>
       <c r="K6" s="17">
         <v>2000</v>
@@ -2542,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
@@ -2560,11 +2571,11 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="17">
-        <f>(Gantt!$B46)*100</f>
+        <f>(Gantt!$B47)*100</f>
         <v>4900</v>
       </c>
       <c r="H7" s="18">
-        <f>(Gantt!$C46)*100</f>
+        <f>(Gantt!$C47)*100</f>
         <v>1300</v>
       </c>
       <c r="I7" s="19">
@@ -2606,7 +2617,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
@@ -2624,11 +2635,11 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="17">
-        <f>(Gantt!$B56)*100</f>
+        <f>(Gantt!$B57)*100</f>
         <v>5700</v>
       </c>
       <c r="H8" s="18">
-        <f>(Gantt!$C56)*100</f>
+        <f>(Gantt!$C57)*100</f>
         <v>2300</v>
       </c>
       <c r="I8" s="19">
@@ -2670,34 +2681,34 @@
         <v>900</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="27">
         <f>SUM(C4:C8)</f>
-        <v>55500</v>
+        <v>55100</v>
       </c>
       <c r="D9" s="28">
         <f>SUM(D4:D8)</f>
-        <v>34700</v>
+        <v>36500</v>
       </c>
       <c r="E9" s="29">
         <f>SUM(E4:E8)</f>
-        <v>20800</v>
+        <v>18600</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="20">
         <f>SUM(G4:G8)</f>
-        <v>25000</v>
+        <v>24600</v>
       </c>
       <c r="H9" s="21">
         <f>SUM(H4:H8)</f>
-        <v>11500</v>
+        <v>13300</v>
       </c>
       <c r="I9" s="22">
         <f>SUM(I4:I8)</f>
-        <v>13500</v>
+        <v>11300</v>
       </c>
       <c r="K9" s="20">
         <f>SUM(K4:K8)</f>
@@ -2751,22 +2762,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BK58"/>
+  <dimension ref="A1:BK59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A1" s="48"/>
       <c r="B1" s="48" t="s">
         <v>13</v>
@@ -2845,7 +2856,7 @@
       <c r="BJ1" s="48"/>
       <c r="BK1" s="48"/>
     </row>
-    <row r="2" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3085,7 +3096,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -3107,7 +3118,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -3129,7 +3140,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3155,7 +3166,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3181,7 +3192,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -3207,7 +3218,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="8" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3233,7 +3244,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -3263,7 +3274,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -3277,7 +3288,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -3303,7 +3314,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>100</v>
       </c>
@@ -3329,7 +3340,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -3355,7 +3366,7 @@
         <v>this week</v>
       </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -3377,7 +3388,7 @@
         <v>this week</v>
       </c>
     </row>
-    <row r="15" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -3388,7 +3399,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -3402,7 +3413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -3413,7 +3424,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -3426,19 +3437,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="65">
         <v>2</v>
       </c>
       <c r="D20" t="s">
@@ -3450,14 +3461,14 @@
       </c>
       <c r="F20" s="55"/>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
       <c r="B21">
         <v>4</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="65">
         <v>5</v>
       </c>
       <c r="D21" t="s">
@@ -3471,14 +3482,14 @@
       <c r="G21" s="64"/>
       <c r="H21" s="64"/>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>35</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="65">
         <v>2</v>
       </c>
       <c r="D22" t="s">
@@ -3497,15 +3508,15 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="23" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>36</v>
       </c>
       <c r="B23">
         <v>8</v>
       </c>
-      <c r="C23">
-        <v>3</v>
+      <c r="C23" s="65">
+        <v>4</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -3525,14 +3536,14 @@
       <c r="R23" s="64"/>
       <c r="S23" s="64"/>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="65">
         <v>5</v>
       </c>
       <c r="D24" t="s">
@@ -3547,15 +3558,15 @@
       <c r="W24" s="64"/>
       <c r="X24" s="64"/>
     </row>
-    <row r="25" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
       <c r="B25">
         <v>10</v>
       </c>
-      <c r="C25">
-        <v>1</v>
+      <c r="C25" s="65">
+        <v>7</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -3574,7 +3585,7 @@
       <c r="M25" s="64"/>
       <c r="N25" s="64"/>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -3598,7 +3609,7 @@
       <c r="O26" s="64"/>
       <c r="P26" s="64"/>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -3631,7 +3642,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -3641,22 +3652,22 @@
       </c>
       <c r="C28">
         <f>SUM(C20:C27)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>42</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="65">
         <v>1</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="65">
         <v>1</v>
       </c>
       <c r="D30" t="s">
@@ -3667,14 +3678,14 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>43</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="65">
         <v>2</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="65">
         <v>3</v>
       </c>
       <c r="D31" t="s">
@@ -3693,14 +3704,14 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>44</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="65">
         <v>10</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="65">
         <v>9</v>
       </c>
       <c r="D32" t="s">
@@ -3738,15 +3749,18 @@
       <c r="Q32" s="55"/>
       <c r="R32" s="55"/>
     </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>45</v>
       </c>
-      <c r="B33">
-        <v>5</v>
+      <c r="B33" s="65">
+        <v>6</v>
+      </c>
+      <c r="C33" s="65">
+        <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="S33" s="60"/>
       <c r="T33" s="57"/>
@@ -3754,13 +3768,14 @@
       <c r="V33" s="57"/>
       <c r="W33" s="57"/>
     </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>46</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="65">
         <v>5</v>
       </c>
+      <c r="C34" s="65"/>
       <c r="D34" t="s">
         <v>19</v>
       </c>
@@ -3770,15 +3785,15 @@
       <c r="AA34" s="57"/>
       <c r="AB34" s="57"/>
     </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>47</v>
       </c>
-      <c r="B35">
-        <v>10</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
+      <c r="B35" s="65">
+        <v>5</v>
+      </c>
+      <c r="C35" s="65">
+        <v>4</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -3799,91 +3814,87 @@
       <c r="AP35" s="3"/>
       <c r="AQ35" s="3"/>
     </row>
-    <row r="36" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>48</v>
       </c>
-      <c r="B36">
-        <v>15</v>
-      </c>
-      <c r="C36">
-        <v>6</v>
+      <c r="B36" s="65">
+        <v>12</v>
+      </c>
+      <c r="C36" s="65">
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM36" s="56"/>
-      <c r="AN36" s="56"/>
-      <c r="AO36" s="56"/>
-      <c r="AP36" s="56"/>
-      <c r="AQ36" s="56"/>
-      <c r="AR36" s="56"/>
-      <c r="AS36" s="56"/>
-      <c r="AT36" s="56"/>
-      <c r="AU36" s="56"/>
-      <c r="AV36" s="56"/>
-      <c r="AW36" s="56"/>
-      <c r="AX36" s="56"/>
-      <c r="AY36" s="56"/>
-      <c r="AZ36" s="56"/>
-      <c r="BA36" s="56"/>
+        <v>17</v>
+      </c>
+      <c r="AM36" s="67"/>
+      <c r="AN36" s="67"/>
+      <c r="AO36" s="67"/>
+      <c r="AP36" s="67"/>
+      <c r="AQ36" s="67"/>
+      <c r="AR36" s="67"/>
+      <c r="AS36" s="67"/>
+      <c r="AT36" s="67"/>
+      <c r="AU36" s="67"/>
+      <c r="AV36" s="67"/>
+      <c r="AW36" s="67"/>
+      <c r="AX36" s="67"/>
+      <c r="AY36" s="67"/>
+      <c r="AZ36" s="67"/>
+      <c r="BA36" s="67"/>
       <c r="BB36" s="3"/>
     </row>
-    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="65">
+        <v>3</v>
+      </c>
+      <c r="C37" s="65">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="3"/>
+      <c r="AR37" s="3"/>
+      <c r="AS37" s="3"/>
+      <c r="AT37" s="3"/>
+      <c r="AU37" s="3"/>
+      <c r="AV37" s="3"/>
+      <c r="AW37" s="3"/>
+      <c r="AX37" s="3"/>
+      <c r="AY37" s="3"/>
+      <c r="AZ37" s="66"/>
+      <c r="BA37" s="66"/>
+      <c r="BB37" s="3"/>
+    </row>
+    <row r="38" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>32</v>
       </c>
-      <c r="B37">
-        <f>SUM(B30:B36)</f>
-        <v>48</v>
-      </c>
-      <c r="C37">
-        <f>SUM(C30:C36)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="B38">
+        <f>SUM(B30:B37)</f>
+        <v>44</v>
+      </c>
+      <c r="C38">
+        <f>SUM(C30:C37)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>49</v>
-      </c>
-      <c r="B39">
-        <v>5</v>
-      </c>
-      <c r="C39">
-        <v>5</v>
-      </c>
-      <c r="D39" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" ref="E39:I39" si="12">($D39)</f>
-        <v>complete</v>
-      </c>
-      <c r="F39" t="str">
-        <f t="shared" si="12"/>
-        <v>complete</v>
-      </c>
-      <c r="G39" t="str">
-        <f t="shared" si="12"/>
-        <v>complete</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="12"/>
-        <v>complete</v>
-      </c>
-      <c r="I39" t="str">
-        <f t="shared" si="12"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>50</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -3894,494 +3905,528 @@
       <c r="D40" t="s">
         <v>17</v>
       </c>
-      <c r="J40" t="str">
-        <f t="shared" ref="J40:N40" si="13">($D40)</f>
-        <v>complete</v>
-      </c>
-      <c r="K40" t="str">
-        <f t="shared" si="13"/>
-        <v>complete</v>
-      </c>
-      <c r="L40" t="str">
-        <f t="shared" si="13"/>
-        <v>complete</v>
-      </c>
-      <c r="M40" t="str">
-        <f t="shared" si="13"/>
-        <v>complete</v>
-      </c>
-      <c r="N40" t="str">
-        <f t="shared" si="13"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="E40" t="str">
+        <f t="shared" ref="E40:I40" si="12">($D40)</f>
+        <v>complete</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="12"/>
+        <v>complete</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="12"/>
+        <v>complete</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="12"/>
+        <v>complete</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="12"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="41" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
       </c>
-      <c r="O41" t="str">
-        <f t="shared" ref="O41:T41" si="14">($D41)</f>
-        <v>complete</v>
-      </c>
-      <c r="P41" t="str">
+      <c r="J41" t="str">
+        <f t="shared" ref="J41:N41" si="13">($D41)</f>
+        <v>complete</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="13"/>
+        <v>complete</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="13"/>
+        <v>complete</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="13"/>
+        <v>complete</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="13"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="42" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" ref="O42:T42" si="14">($D42)</f>
+        <v>complete</v>
+      </c>
+      <c r="P42" t="str">
         <f t="shared" si="14"/>
         <v>complete</v>
       </c>
-      <c r="Q41" t="str">
+      <c r="Q42" t="str">
         <f t="shared" si="14"/>
         <v>complete</v>
       </c>
-      <c r="R41" t="str">
+      <c r="R42" t="str">
         <f t="shared" si="14"/>
         <v>complete</v>
       </c>
-      <c r="S41" t="str">
+      <c r="S42" t="str">
         <f t="shared" si="14"/>
         <v>complete</v>
       </c>
-      <c r="T41" t="str">
+      <c r="T42" t="str">
         <f t="shared" si="14"/>
         <v>complete</v>
       </c>
     </row>
-    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>52</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>10</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" t="s">
         <v>18</v>
       </c>
-      <c r="U42" t="str">
-        <f t="shared" ref="U42:V42" si="15">($D42)</f>
+      <c r="U43" t="str">
+        <f t="shared" ref="U43:V43" si="15">($D43)</f>
         <v>this week</v>
       </c>
-      <c r="V42" t="str">
+      <c r="V43" t="str">
         <f t="shared" si="15"/>
         <v>this week</v>
       </c>
     </row>
-    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="44" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>53</v>
       </c>
-      <c r="B43">
+      <c r="B44">
         <v>10</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>19</v>
       </c>
-      <c r="W43" t="str">
-        <f t="shared" ref="W43:AB43" si="16">($D43)</f>
+      <c r="W44" t="str">
+        <f t="shared" ref="W44:AB44" si="16">($D44)</f>
         <v>planned</v>
       </c>
-      <c r="X43" t="str">
+      <c r="X44" t="str">
         <f t="shared" si="16"/>
         <v>planned</v>
       </c>
-      <c r="Y43" t="str">
+      <c r="Y44" t="str">
         <f t="shared" si="16"/>
         <v>planned</v>
       </c>
-      <c r="Z43" t="str">
+      <c r="Z44" t="str">
         <f t="shared" si="16"/>
         <v>planned</v>
       </c>
-      <c r="AA43" t="str">
+      <c r="AA44" t="str">
         <f t="shared" si="16"/>
         <v>planned</v>
       </c>
-      <c r="AB43" t="str">
+      <c r="AB44" t="str">
         <f t="shared" si="16"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>54</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>10</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" t="s">
         <v>19</v>
       </c>
-      <c r="AC44" t="str">
-        <f t="shared" ref="AC44:AD44" si="17">($D44)</f>
+      <c r="AC45" t="str">
+        <f t="shared" ref="AC45:AD45" si="17">($D45)</f>
         <v>planned</v>
       </c>
-      <c r="AD44" t="str">
+      <c r="AD45" t="str">
         <f t="shared" si="17"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="45" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="46" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>55</v>
       </c>
-      <c r="B45">
+      <c r="B46">
         <v>5</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>19</v>
       </c>
-      <c r="AE45" t="str">
-        <f t="shared" ref="AE45:AH45" si="18">($D45)</f>
+      <c r="AE46" t="str">
+        <f t="shared" ref="AE46:AH46" si="18">($D46)</f>
         <v>planned</v>
       </c>
-      <c r="AF45" t="str">
+      <c r="AF46" t="str">
         <f t="shared" si="18"/>
         <v>planned</v>
       </c>
-      <c r="AG45" t="str">
+      <c r="AG46" t="str">
         <f t="shared" si="18"/>
         <v>planned</v>
       </c>
-      <c r="AH45" t="str">
+      <c r="AH46" t="str">
         <f t="shared" si="18"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>32</v>
       </c>
-      <c r="B46">
-        <f>SUM(B39:B45)</f>
+      <c r="B47">
+        <f>SUM(B40:B46)</f>
         <v>49</v>
       </c>
-      <c r="C46">
-        <f>SUM(C39:C45)</f>
+      <c r="C47">
+        <f>SUM(C40:C46)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="48" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>56</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>10</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <v>7</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>17</v>
       </c>
-      <c r="E48" t="str">
-        <f t="shared" ref="E48:I48" si="19">($D48)</f>
-        <v>complete</v>
-      </c>
-      <c r="F48" t="str">
+      <c r="E49" t="str">
+        <f t="shared" ref="E49:I49" si="19">($D49)</f>
+        <v>complete</v>
+      </c>
+      <c r="F49" t="str">
         <f t="shared" si="19"/>
         <v>complete</v>
       </c>
-      <c r="G48" t="str">
+      <c r="G49" t="str">
         <f t="shared" si="19"/>
         <v>complete</v>
       </c>
-      <c r="H48" t="str">
+      <c r="H49" t="str">
         <f t="shared" si="19"/>
         <v>complete</v>
       </c>
-      <c r="I48" t="str">
+      <c r="I49" t="str">
         <f t="shared" si="19"/>
         <v>complete</v>
       </c>
-      <c r="J48" s="55"/>
-      <c r="K48" s="55"/>
-    </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+    </row>
+    <row r="50" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>57</v>
       </c>
-      <c r="B49">
+      <c r="B50">
         <v>5</v>
       </c>
-      <c r="C49">
+      <c r="C50">
         <v>2</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" t="s">
         <v>18</v>
       </c>
-      <c r="L49" t="str">
-        <f t="shared" ref="L49:P49" si="20">($D49)</f>
+      <c r="L50" t="str">
+        <f t="shared" ref="L50:P50" si="20">($D50)</f>
         <v>this week</v>
       </c>
-      <c r="M49" t="str">
+      <c r="M50" t="str">
         <f t="shared" si="20"/>
         <v>this week</v>
       </c>
-      <c r="N49" t="str">
+      <c r="N50" t="str">
         <f t="shared" si="20"/>
         <v>this week</v>
       </c>
-      <c r="O49" s="58" t="str">
-        <f>($D49)</f>
+      <c r="O50" s="58" t="str">
+        <f>($D50)</f>
         <v>this week</v>
       </c>
-      <c r="P49" s="3" t="str">
+      <c r="P50" s="3" t="str">
         <f t="shared" si="20"/>
         <v>this week</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>58</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>5</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <v>7</v>
       </c>
-      <c r="D50" s="56" t="s">
+      <c r="D51" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" t="str">
-        <f t="shared" ref="Q50:V50" si="21">($D50)</f>
+      <c r="Q51" t="str">
+        <f t="shared" ref="Q51:V51" si="21">($D51)</f>
         <v>this week</v>
       </c>
-      <c r="R50" t="str">
+      <c r="R51" t="str">
         <f t="shared" si="21"/>
         <v>this week</v>
       </c>
-      <c r="S50" t="str">
+      <c r="S51" t="str">
         <f t="shared" si="21"/>
         <v>this week</v>
       </c>
-      <c r="T50" t="str">
+      <c r="T51" t="str">
         <f t="shared" si="21"/>
         <v>this week</v>
       </c>
-      <c r="U50" t="str">
+      <c r="U51" t="str">
         <f t="shared" si="21"/>
         <v>this week</v>
       </c>
-      <c r="V50" t="str">
+      <c r="V51" t="str">
         <f t="shared" si="21"/>
         <v>this week</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>59</v>
-      </c>
-      <c r="B51">
-        <v>10</v>
-      </c>
-      <c r="C51">
-        <v>5</v>
-      </c>
-      <c r="D51" t="s">
-        <v>17</v>
-      </c>
-      <c r="W51" t="str">
-        <f t="shared" ref="W51:X51" si="22">($D51)</f>
-        <v>complete</v>
-      </c>
-      <c r="X51" t="str">
-        <f t="shared" si="22"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>60</v>
       </c>
       <c r="B52">
         <v>10</v>
       </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
       <c r="D52" t="s">
+        <v>17</v>
+      </c>
+      <c r="W52" t="str">
+        <f t="shared" ref="W52:X52" si="22">($D52)</f>
+        <v>complete</v>
+      </c>
+      <c r="X52" t="str">
+        <f t="shared" si="22"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="53" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
         <v>19</v>
       </c>
-      <c r="Y52" t="str">
-        <f t="shared" ref="Y52:AD52" si="23">($D52)</f>
+      <c r="Y53" t="str">
+        <f t="shared" ref="Y53:AD53" si="23">($D53)</f>
         <v>planned</v>
       </c>
-      <c r="Z52" t="str">
+      <c r="Z53" t="str">
         <f t="shared" si="23"/>
         <v>planned</v>
       </c>
-      <c r="AA52" t="str">
+      <c r="AA53" t="str">
         <f t="shared" si="23"/>
         <v>planned</v>
       </c>
-      <c r="AB52" t="str">
+      <c r="AB53" t="str">
         <f t="shared" si="23"/>
         <v>planned</v>
       </c>
-      <c r="AC52" t="str">
+      <c r="AC53" t="str">
         <f t="shared" si="23"/>
         <v>planned</v>
       </c>
-      <c r="AD52" t="str">
+      <c r="AD53" t="str">
         <f t="shared" si="23"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>61</v>
       </c>
-      <c r="B53">
+      <c r="B54">
         <v>10</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>19</v>
       </c>
-      <c r="AE53" t="str">
-        <f t="shared" ref="AE53:AJ53" si="24">($D53)</f>
+      <c r="AE54" t="str">
+        <f t="shared" ref="AE54:AJ54" si="24">($D54)</f>
         <v>planned</v>
       </c>
-      <c r="AF53" t="str">
+      <c r="AF54" t="str">
         <f t="shared" si="24"/>
         <v>planned</v>
       </c>
-      <c r="AG53" t="str">
+      <c r="AG54" t="str">
         <f t="shared" si="24"/>
         <v>planned</v>
       </c>
-      <c r="AH53" t="str">
+      <c r="AH54" t="str">
         <f t="shared" si="24"/>
         <v>planned</v>
       </c>
-      <c r="AI53" t="str">
+      <c r="AI54" t="str">
         <f t="shared" si="24"/>
         <v>planned</v>
       </c>
-      <c r="AJ53" t="str">
+      <c r="AJ54" t="str">
         <f t="shared" si="24"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>62</v>
       </c>
-      <c r="B54">
+      <c r="B55">
         <v>5</v>
       </c>
-      <c r="C54">
+      <c r="C55">
         <v>2</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D55" t="s">
         <v>18</v>
       </c>
-      <c r="AK54" t="str">
-        <f t="shared" ref="AK54:AN54" si="25">($D54)</f>
+      <c r="AK55" t="str">
+        <f t="shared" ref="AK55:AN55" si="25">($D55)</f>
         <v>this week</v>
       </c>
-      <c r="AL54" t="str">
+      <c r="AL55" t="str">
         <f t="shared" si="25"/>
         <v>this week</v>
       </c>
-      <c r="AM54" t="str">
+      <c r="AM55" t="str">
         <f t="shared" si="25"/>
         <v>this week</v>
       </c>
-      <c r="AN54" t="str">
+      <c r="AN55" t="str">
         <f t="shared" si="25"/>
         <v>this week</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>63</v>
       </c>
-      <c r="B55">
+      <c r="B56">
         <v>2</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D56" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
-      <c r="AA55" s="3"/>
-      <c r="AO55" t="str">
-        <f t="shared" ref="AO55:AP55" si="26">($D55)</f>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AO56" t="str">
+        <f t="shared" ref="AO56:AP56" si="26">($D56)</f>
         <v>planned</v>
       </c>
-      <c r="AP55" t="str">
+      <c r="AP56" t="str">
         <f t="shared" si="26"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>32</v>
       </c>
-      <c r="B56">
-        <f>SUM(B48:B55)</f>
+      <c r="B57">
+        <f>SUM(B49:B56)</f>
         <v>57</v>
       </c>
-      <c r="C56">
-        <f>SUM(C48:C55)</f>
+      <c r="C57">
+        <f>SUM(C49:C56)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+    <row r="58" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="6">
-        <f>SUM(B37,B46,B28,B18)</f>
-        <v>193</v>
-      </c>
-      <c r="C57" s="6">
-        <f>SUM(C18,C28,C37,C46,C56)</f>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+      <c r="B58" s="6">
+        <f>SUM(B38,B47,B28,B18)</f>
+        <v>189</v>
+      </c>
+      <c r="C58" s="6">
+        <f>SUM(C18,C28,C38,C47,C57)</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="53">
-        <f>B57*100</f>
-        <v>19300</v>
-      </c>
-      <c r="C58" s="53">
-        <f>C57*100</f>
-        <v>11500</v>
-      </c>
-      <c r="D58" s="53"/>
+      <c r="B59" s="53">
+        <f>B58*100</f>
+        <v>18900</v>
+      </c>
+      <c r="C59" s="53">
+        <f>C58*100</f>
+        <v>13300</v>
+      </c>
+      <c r="D59" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4392,7 +4437,7 @@
     <mergeCell ref="T24:X24"/>
     <mergeCell ref="G26:P26"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3 D20:D26 D48:D54">
+  <conditionalFormatting sqref="D3 D20:D26 D49:D55">
     <cfRule type="cellIs" dxfId="122" priority="178" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4436,7 +4481,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D36:D37">
     <cfRule type="cellIs" dxfId="110" priority="166" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4447,7 +4492,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:BR45 E32:O32 Q32:BR32 E22:BR22 E47:BR48 E49:I49 E50:J50 L49:BR49 L50:N50 Q50:BR50 E52:V52 E51:T51 E53:AJ53 Y52:AR52 W51:AR51 AW51:BR54 AM53:AR53 AQ54:AR54 E54:AN54 AO55:AP55 E28:BR31 E25 O25:BR25 I21:BR21 E21 E24:T24 E23:L23 T23:BR23 Y24:BR24 E26:G26 Q26:BR26 E27:Y27 AB27:BR27 E3:BR5 E6:I6 K6:BR6 E7:BR20">
+  <conditionalFormatting sqref="E33:BR36 E32:O32 Q32:BR32 E22:BR22 E48:BR49 E50:I50 E51:J51 L50:BR50 L51:N51 Q51:BR51 E53:V53 E52:T52 E54:AJ54 Y53:AR53 W52:AR52 AW52:BR55 AM54:AR54 AQ55:AR55 E55:AN55 AO56:AP56 E28:BR31 E25 O25:BR25 I21:BR21 E21 E24:T24 E23:L23 T23:BR23 Y24:BR24 E26:G26 Q26:BR26 E27:Y27 AB27:BR27 E3:BR5 E6:I6 K6:BR6 E7:BR20 E38:BR46 E37:AY37 BB37:BR37">
     <cfRule type="cellIs" dxfId="107" priority="160" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4480,7 +4525,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39:D45">
+  <conditionalFormatting sqref="D40:D46">
     <cfRule type="cellIs" dxfId="98" priority="148" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4601,7 +4646,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
+  <conditionalFormatting sqref="D56">
     <cfRule type="cellIs" dxfId="65" priority="97" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4844,7 +4889,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30:D36 D3:D17 D20:D27 D48:D55 D39:D45" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30:D37 D3:D17 D20:D27 D49:D56 D40:D46" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$F$1:$H$1</formula1>
     </dataValidation>
   </dataValidations>
@@ -4861,9 +4906,9 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
         <v>66</v>
       </c>
@@ -4892,7 +4937,7 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>67</v>
       </c>
@@ -4921,7 +4966,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>75</v>
       </c>
@@ -4950,7 +4995,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -4983,7 +5028,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -5016,7 +5061,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -5049,7 +5094,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -5082,7 +5127,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -5115,7 +5160,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
@@ -5164,15 +5209,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
     </row>
   </sheetData>
@@ -5189,16 +5234,16 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="19" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="19" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="31"/>
       <c r="B1" s="32" t="s">
         <v>77</v>
@@ -5255,7 +5300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>8</v>
       </c>
@@ -5271,7 +5316,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="46"/>
       <c r="B3" s="35" t="s">
         <v>81</v>
@@ -5288,7 +5333,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="38"/>
       <c r="B4" s="35" t="s">
         <v>82</v>
@@ -5304,7 +5349,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="52"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="38"/>
       <c r="B5" s="35" t="s">
         <v>83</v>
@@ -5318,7 +5363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>9</v>
       </c>
@@ -5334,7 +5379,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="46"/>
       <c r="B7" s="35" t="s">
         <v>81</v>
@@ -5351,7 +5396,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="38"/>
       <c r="B8" s="35" t="s">
         <v>84</v>
@@ -5367,7 +5412,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="47"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="38"/>
       <c r="B9" s="35" t="s">
         <v>83</v>
@@ -5381,7 +5426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>10</v>
       </c>
@@ -5396,7 +5441,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="46"/>
       <c r="B11" s="35" t="s">
         <v>81</v>
@@ -5413,7 +5458,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="38"/>
       <c r="B12" s="40" t="s">
         <v>85</v>
@@ -5429,7 +5474,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="38"/>
       <c r="B13" s="40" t="s">
         <v>87</v>
@@ -5444,7 +5489,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="38"/>
       <c r="B14" s="40" t="s">
         <v>89</v>
@@ -5460,7 +5505,7 @@
       </c>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="38"/>
       <c r="B15" s="41" t="s">
         <v>83</v>
@@ -5474,7 +5519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>11</v>
       </c>
@@ -5490,7 +5535,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="46"/>
       <c r="B17" s="35" t="s">
         <v>81</v>
@@ -5507,7 +5552,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="B18" s="35" t="s">
         <v>91</v>
@@ -5523,7 +5568,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="47"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="38"/>
       <c r="B19" s="41" t="s">
         <v>83</v>
@@ -5537,7 +5582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
         <v>12</v>
       </c>
@@ -5553,7 +5598,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="46"/>
       <c r="B21" s="35" t="s">
         <v>81</v>
@@ -5570,7 +5615,7 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="38"/>
       <c r="B22" s="35" t="s">
         <v>92</v>
@@ -5586,7 +5631,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="47"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="38"/>
       <c r="B23" s="41" t="s">
         <v>83</v>
@@ -5600,7 +5645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="42"/>
       <c r="B24" s="43" t="s">
         <v>0</v>
@@ -5614,7 +5659,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B25" s="30" t="s">
         <v>93</v>
       </c>
@@ -5633,12 +5678,12 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>8</v>
@@ -5656,7 +5701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>94</v>
       </c>
@@ -5676,7 +5721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>95</v>
       </c>
@@ -5696,7 +5741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>96</v>
       </c>
@@ -5716,7 +5761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>97</v>
       </c>
@@ -5736,20 +5781,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>

--- a/docs/Gantt Chart.xlsx
+++ b/docs/Gantt Chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\CS383\Tower-of-Annihilation\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Homework Assignments\Tower-of-Annihilation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C95F1E4-9070-4D9B-9C5B-B58FC8E5FDAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C21CB2-178C-4FAB-9221-EB49A46C5DC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <sheet name="Overhead" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="105">
   <si>
     <t>Total</t>
   </si>
@@ -348,6 +347,12 @@
   </si>
   <si>
     <t>Make player Static</t>
+  </si>
+  <si>
+    <t>Create Inventory System</t>
+  </si>
+  <si>
+    <t>Level Generation</t>
   </si>
 </sst>
 </file>
@@ -705,7 +710,817 @@
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="123">
+  <dxfs count="204">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -2358,28 +3173,28 @@
       </c>
       <c r="C4" s="23">
         <f>(G4+K4 +O4+S4)</f>
-        <v>11200</v>
+        <v>12000</v>
       </c>
       <c r="D4" s="24">
         <f t="shared" ref="D4:D6" si="0">(H4+L4 +P4+T4)</f>
-        <v>8300</v>
+        <v>9000</v>
       </c>
       <c r="E4" s="25">
         <f>(C4-D4)</f>
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="17">
-        <f>(Gantt!$B18)*100</f>
-        <v>5100</v>
+        <f>(Gantt!$B20)*100</f>
+        <v>5900</v>
       </c>
       <c r="H4" s="18">
-        <f>(Gantt!$C18)*100</f>
-        <v>4000</v>
+        <f>(Gantt!$C20)*100</f>
+        <v>4700</v>
       </c>
       <c r="I4" s="19">
         <f>(G4-H4)</f>
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K4" s="23">
         <v>2000</v>
@@ -2434,11 +3249,11 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="17">
-        <f>(Gantt!$B28)*100</f>
+        <f>(Gantt!$B30)*100</f>
         <v>4500</v>
       </c>
       <c r="H5" s="18">
-        <f>(Gantt!$C28)*100</f>
+        <f>(Gantt!$C30)*100</f>
         <v>1800</v>
       </c>
       <c r="I5" s="19">
@@ -2498,11 +3313,11 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="17">
-        <f>(Gantt!$B37)*100</f>
+        <f>(Gantt!$B39)*100</f>
         <v>4800</v>
       </c>
       <c r="H6" s="18">
-        <f>(Gantt!$C37)*100</f>
+        <f>(Gantt!$C39)*100</f>
         <v>2100</v>
       </c>
       <c r="I6" s="19">
@@ -2560,11 +3375,11 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="17">
-        <f>(Gantt!$B46)*100</f>
+        <f>(Gantt!$B48)*100</f>
         <v>4900</v>
       </c>
       <c r="H7" s="18">
-        <f>(Gantt!$C46)*100</f>
+        <f>(Gantt!$C48)*100</f>
         <v>1300</v>
       </c>
       <c r="I7" s="19">
@@ -2624,11 +3439,11 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="17">
-        <f>(Gantt!$B56)*100</f>
+        <f>(Gantt!$B58)*100</f>
         <v>5700</v>
       </c>
       <c r="H8" s="18">
-        <f>(Gantt!$C56)*100</f>
+        <f>(Gantt!$C58)*100</f>
         <v>2300</v>
       </c>
       <c r="I8" s="19">
@@ -2676,28 +3491,28 @@
       </c>
       <c r="C9" s="27">
         <f>SUM(C4:C8)</f>
-        <v>55500</v>
+        <v>56300</v>
       </c>
       <c r="D9" s="28">
         <f>SUM(D4:D8)</f>
-        <v>34700</v>
+        <v>35400</v>
       </c>
       <c r="E9" s="29">
         <f>SUM(E4:E8)</f>
-        <v>20800</v>
+        <v>20900</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="20">
         <f>SUM(G4:G8)</f>
-        <v>25000</v>
+        <v>25800</v>
       </c>
       <c r="H9" s="21">
         <f>SUM(H4:H8)</f>
-        <v>11500</v>
+        <v>12200</v>
       </c>
       <c r="I9" s="22">
         <f>SUM(I4:I8)</f>
-        <v>13500</v>
+        <v>13600</v>
       </c>
       <c r="K9" s="20">
         <f>SUM(K4:K8)</f>
@@ -2751,15 +3566,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BK58"/>
+  <dimension ref="A1:BK60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BD18" sqref="BD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
@@ -3276,6 +4091,18 @@
       <c r="D10" t="s">
         <v>17</v>
       </c>
+      <c r="Y10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3290,17 +4117,14 @@
       <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="Y11" t="str">
-        <f t="shared" ref="Y11:AI14" si="5">($D11)</f>
-        <v>complete</v>
-      </c>
-      <c r="Z11" t="str">
-        <f t="shared" si="5"/>
-        <v>complete</v>
-      </c>
-      <c r="AA11" t="str">
-        <f t="shared" si="5"/>
-        <v>complete</v>
+      <c r="AC11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.25">
@@ -3316,167 +4140,193 @@
       <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="AB12" t="str">
-        <f t="shared" si="5"/>
-        <v>complete</v>
-      </c>
-      <c r="AC12" t="str">
-        <f t="shared" si="5"/>
-        <v>complete</v>
-      </c>
-      <c r="AD12" t="str">
-        <f t="shared" si="5"/>
-        <v>complete</v>
+      <c r="AF12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>6</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
         <v>18</v>
       </c>
-      <c r="AE13" t="str">
+      <c r="AP15" t="str">
+        <f t="shared" ref="Y11:AQ15" si="5">($D15)</f>
+        <v>this week</v>
+      </c>
+      <c r="AQ15" t="str">
         <f t="shared" si="5"/>
         <v>this week</v>
       </c>
-      <c r="AF13" t="str">
-        <f t="shared" si="5"/>
-        <v>this week</v>
-      </c>
-      <c r="AG13" t="str">
-        <f t="shared" si="5"/>
-        <v>this week</v>
-      </c>
-    </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH14" t="str">
-        <f t="shared" si="5"/>
-        <v>this week</v>
-      </c>
-      <c r="AI14" t="str">
-        <f t="shared" si="5"/>
-        <v>this week</v>
-      </c>
-    </row>
-    <row r="15" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="16" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
       <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW17" t="str">
+        <f t="shared" ref="AW17:BD18" si="6">($D17)</f>
+        <v>complete</v>
+      </c>
+      <c r="AX17" t="str">
+        <f t="shared" si="6"/>
+        <v>complete</v>
+      </c>
+      <c r="AY17" t="str">
+        <f t="shared" si="6"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="18" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ18" t="str">
+        <f t="shared" si="6"/>
+        <v>complete</v>
+      </c>
+      <c r="BA18" t="str">
+        <f t="shared" si="6"/>
+        <v>complete</v>
+      </c>
+      <c r="BB18" t="str">
+        <f t="shared" si="6"/>
+        <v>complete</v>
+      </c>
+      <c r="BC18" t="str">
+        <f t="shared" si="6"/>
+        <v>complete</v>
+      </c>
+      <c r="BD18" t="str">
+        <f t="shared" si="6"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
-      <c r="B18">
-        <f>SUM(B3:B17)</f>
-        <v>51</v>
-      </c>
-      <c r="C18">
-        <f>SUM(C3:C17)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B20">
+        <f>SUM(B3:B19)</f>
+        <v>59</v>
+      </c>
+      <c r="C20">
+        <f>SUM(C3:C19)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>33</v>
       </c>
-      <c r="B20">
+      <c r="B22">
         <v>2</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" t="str">
-        <f>($D20)</f>
-        <v>complete</v>
-      </c>
-      <c r="F20" s="55"/>
-    </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="64" t="str">
-        <f t="shared" ref="E21" si="6">($D21)</f>
-        <v>complete</v>
-      </c>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-    </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -3484,1135 +4334,1472 @@
       <c r="D22" t="s">
         <v>17</v>
       </c>
-      <c r="I22" t="str">
+      <c r="E22" t="str">
         <f>($D22)</f>
         <v>complete</v>
       </c>
-      <c r="J22" t="str">
-        <f>($D22)</f>
+      <c r="F22" s="55"/>
+    </row>
+    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="64" t="str">
+        <f t="shared" ref="E23" si="7">($D23)</f>
         <v>complete</v>
       </c>
-      <c r="K22" t="str">
-        <f t="shared" ref="K22" si="7">($D22)</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="23" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23">
-        <v>8</v>
-      </c>
-      <c r="C23">
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+    </row>
+    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
         <v>3</v>
       </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" t="s">
-        <v>37</v>
-      </c>
-      <c r="L23" s="64" t="str">
-        <f t="shared" ref="L23" si="8">($D23)</f>
-        <v>this week</v>
-      </c>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="64"/>
-    </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
       <c r="C24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
       </c>
-      <c r="T24" s="64" t="str">
+      <c r="I24" t="str">
         <f>($D24)</f>
         <v>complete</v>
       </c>
-      <c r="U24" s="64"/>
-      <c r="V24" s="64"/>
-      <c r="W24" s="64"/>
-      <c r="X24" s="64"/>
-    </row>
-    <row r="25" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J24" t="str">
+        <f>($D24)</f>
+        <v>complete</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" ref="K24" si="8">($D24)</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="25" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="64" t="str">
-        <f>($D25)</f>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" s="64" t="str">
+        <f t="shared" ref="L25" si="9">($D25)</f>
         <v>this week</v>
       </c>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
       <c r="M25" s="64"/>
       <c r="N25" s="64"/>
-    </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="64"/>
+    </row>
+    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="T26" s="64" t="str">
+        <f>($D26)</f>
+        <v>complete</v>
+      </c>
+      <c r="U26" s="64"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="64"/>
+      <c r="X26" s="64"/>
+    </row>
+    <row r="27" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="64" t="str">
+        <f>($D27)</f>
+        <v>this week</v>
+      </c>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+    </row>
+    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>40</v>
       </c>
-      <c r="B26">
+      <c r="B28">
         <v>10</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D28" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="64" t="str">
-        <f>($D26)</f>
+      <c r="G28" s="64" t="str">
+        <f>($D28)</f>
         <v>planned</v>
       </c>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="64"/>
-    </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+    </row>
+    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>41</v>
       </c>
-      <c r="B27">
+      <c r="B29">
         <v>3</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D29" t="s">
         <v>19</v>
       </c>
-      <c r="Y27" s="64" t="str">
-        <f>($D27)</f>
+      <c r="Y29" s="64" t="str">
+        <f>($D29)</f>
         <v>planned</v>
       </c>
-      <c r="Z27" s="64"/>
-      <c r="AA27" s="64"/>
-      <c r="AQ27" t="str">
-        <f t="shared" ref="AQ27:AT27" si="9">($D27)</f>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="64"/>
+      <c r="AQ29" t="str">
+        <f t="shared" ref="AQ29:AT29" si="10">($D29)</f>
         <v>planned</v>
       </c>
-      <c r="AR27" t="str">
-        <f t="shared" si="9"/>
+      <c r="AR29" t="str">
+        <f t="shared" si="10"/>
         <v>planned</v>
       </c>
-      <c r="AS27" t="str">
-        <f t="shared" si="9"/>
+      <c r="AS29" t="str">
+        <f t="shared" si="10"/>
         <v>planned</v>
       </c>
-      <c r="AT27" t="str">
-        <f t="shared" si="9"/>
+      <c r="AT29" t="str">
+        <f t="shared" si="10"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="30" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B28">
-        <f>SUM(B20:B27)</f>
+      <c r="B30">
+        <f>SUM(B22:B29)</f>
         <v>45</v>
       </c>
-      <c r="C28">
-        <f>SUM(C20:C27)</f>
+      <c r="C30">
+        <f>SUM(C22:C29)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="31" spans="1:56" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="32" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>42</v>
       </c>
-      <c r="B30">
+      <c r="B32">
         <v>1</v>
       </c>
-      <c r="C30">
+      <c r="C32">
         <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" ref="E30" si="10">($D30)</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="D31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" t="str">
-        <f>($D31)</f>
-        <v>complete</v>
-      </c>
-      <c r="G31" t="str">
-        <f>($D31)</f>
-        <v>complete</v>
-      </c>
-      <c r="H31" t="str">
-        <f>($D31)</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32">
-        <v>10</v>
-      </c>
-      <c r="C32">
-        <v>9</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
       </c>
-      <c r="I32" t="str">
-        <f>($D32)</f>
+      <c r="E32" t="str">
+        <f t="shared" ref="E32" si="11">($D32)</f>
         <v>complete</v>
       </c>
-      <c r="J32" t="str">
-        <f>($D32)</f>
-        <v>complete</v>
-      </c>
-      <c r="K32" t="str">
-        <f t="shared" ref="K32:M32" si="11">($D32)</f>
-        <v>complete</v>
-      </c>
-      <c r="L32" t="str">
-        <f t="shared" si="11"/>
-        <v>complete</v>
-      </c>
-      <c r="M32" t="str">
-        <f t="shared" si="11"/>
-        <v>complete</v>
-      </c>
-      <c r="N32" t="str">
-        <f>($D32)</f>
-        <v>complete</v>
-      </c>
-      <c r="O32" t="str">
-        <f>($D32)</f>
-        <v>complete</v>
-      </c>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="55"/>
     </row>
     <row r="33" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
-      </c>
-      <c r="S33" s="60"/>
-      <c r="T33" s="57"/>
-      <c r="U33" s="57"/>
-      <c r="V33" s="57"/>
-      <c r="W33" s="57"/>
+        <v>17</v>
+      </c>
+      <c r="F33" t="str">
+        <f>($D33)</f>
+        <v>complete</v>
+      </c>
+      <c r="G33" t="str">
+        <f>($D33)</f>
+        <v>complete</v>
+      </c>
+      <c r="H33" t="str">
+        <f>($D33)</f>
+        <v>complete</v>
+      </c>
     </row>
     <row r="34" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
-      </c>
-      <c r="X34" s="57"/>
-      <c r="Y34" s="57"/>
-      <c r="Z34" s="57"/>
-      <c r="AA34" s="57"/>
-      <c r="AB34" s="57"/>
+        <v>17</v>
+      </c>
+      <c r="I34" t="str">
+        <f>($D34)</f>
+        <v>complete</v>
+      </c>
+      <c r="J34" t="str">
+        <f>($D34)</f>
+        <v>complete</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" ref="K34:M34" si="12">($D34)</f>
+        <v>complete</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="12"/>
+        <v>complete</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="12"/>
+        <v>complete</v>
+      </c>
+      <c r="N34" t="str">
+        <f>($D34)</f>
+        <v>complete</v>
+      </c>
+      <c r="O34" t="str">
+        <f>($D34)</f>
+        <v>complete</v>
+      </c>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="55"/>
     </row>
     <row r="35" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>10</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC35" s="56"/>
-      <c r="AD35" s="56"/>
-      <c r="AE35" s="56"/>
-      <c r="AF35" s="56"/>
-      <c r="AG35" s="56"/>
-      <c r="AH35" s="56"/>
-      <c r="AI35" s="56"/>
-      <c r="AJ35" s="56"/>
-      <c r="AK35" s="56"/>
-      <c r="AL35" s="56"/>
-      <c r="AM35" s="3"/>
-      <c r="AN35" s="3"/>
-      <c r="AO35" s="3"/>
-      <c r="AP35" s="3"/>
-      <c r="AQ35" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="S35" s="60"/>
+      <c r="T35" s="57"/>
+      <c r="U35" s="57"/>
+      <c r="V35" s="57"/>
+      <c r="W35" s="57"/>
     </row>
     <row r="36" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B36">
-        <v>15</v>
-      </c>
-      <c r="C36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM36" s="56"/>
-      <c r="AN36" s="56"/>
-      <c r="AO36" s="56"/>
-      <c r="AP36" s="56"/>
-      <c r="AQ36" s="56"/>
-      <c r="AR36" s="56"/>
-      <c r="AS36" s="56"/>
-      <c r="AT36" s="56"/>
-      <c r="AU36" s="56"/>
-      <c r="AV36" s="56"/>
-      <c r="AW36" s="56"/>
-      <c r="AX36" s="56"/>
-      <c r="AY36" s="56"/>
-      <c r="AZ36" s="56"/>
-      <c r="BA36" s="56"/>
-      <c r="BB36" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="X36" s="57"/>
+      <c r="Y36" s="57"/>
+      <c r="Z36" s="57"/>
+      <c r="AA36" s="57"/>
+      <c r="AB36" s="57"/>
     </row>
     <row r="37" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B37">
-        <f>SUM(B30:B36)</f>
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC37" s="56"/>
+      <c r="AD37" s="56"/>
+      <c r="AE37" s="56"/>
+      <c r="AF37" s="56"/>
+      <c r="AG37" s="56"/>
+      <c r="AH37" s="56"/>
+      <c r="AI37" s="56"/>
+      <c r="AJ37" s="56"/>
+      <c r="AK37" s="56"/>
+      <c r="AL37" s="56"/>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="3"/>
+    </row>
+    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>48</v>
       </c>
-      <c r="C37">
-        <f>SUM(C30:C36)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="B38">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM38" s="56"/>
+      <c r="AN38" s="56"/>
+      <c r="AO38" s="56"/>
+      <c r="AP38" s="56"/>
+      <c r="AQ38" s="56"/>
+      <c r="AR38" s="56"/>
+      <c r="AS38" s="56"/>
+      <c r="AT38" s="56"/>
+      <c r="AU38" s="56"/>
+      <c r="AV38" s="56"/>
+      <c r="AW38" s="56"/>
+      <c r="AX38" s="56"/>
+      <c r="AY38" s="56"/>
+      <c r="AZ38" s="56"/>
+      <c r="BA38" s="56"/>
+      <c r="BB38" s="3"/>
     </row>
     <row r="39" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39">
+        <f>SUM(B32:B38)</f>
+        <v>48</v>
+      </c>
+      <c r="C39">
+        <f>SUM(C32:C38)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>49</v>
       </c>
-      <c r="B39">
+      <c r="B41">
         <v>5</v>
       </c>
-      <c r="C39">
+      <c r="C41">
         <v>5</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D41" t="s">
         <v>17</v>
       </c>
-      <c r="E39" t="str">
-        <f t="shared" ref="E39:I39" si="12">($D39)</f>
+      <c r="E41" t="str">
+        <f t="shared" ref="E41:I41" si="13">($D41)</f>
         <v>complete</v>
       </c>
-      <c r="F39" t="str">
-        <f t="shared" si="12"/>
-        <v>complete</v>
-      </c>
-      <c r="G39" t="str">
-        <f t="shared" si="12"/>
-        <v>complete</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="12"/>
-        <v>complete</v>
-      </c>
-      <c r="I39" t="str">
-        <f t="shared" si="12"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40">
-        <v>5</v>
-      </c>
-      <c r="C40">
-        <v>5</v>
-      </c>
-      <c r="D40" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" t="str">
-        <f t="shared" ref="J40:N40" si="13">($D40)</f>
-        <v>complete</v>
-      </c>
-      <c r="K40" t="str">
+      <c r="F41" t="str">
         <f t="shared" si="13"/>
         <v>complete</v>
       </c>
-      <c r="L40" t="str">
+      <c r="G41" t="str">
         <f t="shared" si="13"/>
         <v>complete</v>
       </c>
-      <c r="M40" t="str">
+      <c r="H41" t="str">
         <f t="shared" si="13"/>
         <v>complete</v>
       </c>
-      <c r="N40" t="str">
+      <c r="I41" t="str">
         <f t="shared" si="13"/>
         <v>complete</v>
       </c>
     </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41">
-        <v>4</v>
-      </c>
-      <c r="C41">
-        <v>3</v>
-      </c>
-      <c r="D41" t="s">
+    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
         <v>17</v>
       </c>
-      <c r="O41" t="str">
-        <f t="shared" ref="O41:T41" si="14">($D41)</f>
+      <c r="J42" t="str">
+        <f t="shared" ref="J42:N42" si="14">($D42)</f>
         <v>complete</v>
       </c>
-      <c r="P41" t="str">
+      <c r="K42" t="str">
         <f t="shared" si="14"/>
         <v>complete</v>
       </c>
-      <c r="Q41" t="str">
+      <c r="L42" t="str">
         <f t="shared" si="14"/>
         <v>complete</v>
       </c>
-      <c r="R41" t="str">
+      <c r="M42" t="str">
         <f t="shared" si="14"/>
         <v>complete</v>
       </c>
-      <c r="S41" t="str">
+      <c r="N42" t="str">
         <f t="shared" si="14"/>
         <v>complete</v>
       </c>
-      <c r="T41" t="str">
-        <f t="shared" si="14"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42">
-        <v>10</v>
-      </c>
-      <c r="D42" t="s">
-        <v>18</v>
-      </c>
-      <c r="U42" t="str">
-        <f t="shared" ref="U42:V42" si="15">($D42)</f>
-        <v>this week</v>
-      </c>
-      <c r="V42" t="str">
-        <f t="shared" si="15"/>
-        <v>this week</v>
-      </c>
     </row>
     <row r="43" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
-      </c>
-      <c r="W43" t="str">
-        <f t="shared" ref="W43:AB43" si="16">($D43)</f>
-        <v>planned</v>
-      </c>
-      <c r="X43" t="str">
-        <f t="shared" si="16"/>
-        <v>planned</v>
-      </c>
-      <c r="Y43" t="str">
-        <f t="shared" si="16"/>
-        <v>planned</v>
-      </c>
-      <c r="Z43" t="str">
-        <f t="shared" si="16"/>
-        <v>planned</v>
-      </c>
-      <c r="AA43" t="str">
-        <f t="shared" si="16"/>
-        <v>planned</v>
-      </c>
-      <c r="AB43" t="str">
-        <f t="shared" si="16"/>
-        <v>planned</v>
+        <v>17</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" ref="O43:T43" si="15">($D43)</f>
+        <v>complete</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="15"/>
+        <v>complete</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="15"/>
+        <v>complete</v>
+      </c>
+      <c r="R43" t="str">
+        <f t="shared" si="15"/>
+        <v>complete</v>
+      </c>
+      <c r="S43" t="str">
+        <f t="shared" si="15"/>
+        <v>complete</v>
+      </c>
+      <c r="T43" t="str">
+        <f t="shared" si="15"/>
+        <v>complete</v>
       </c>
     </row>
     <row r="44" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B44">
         <v>10</v>
       </c>
       <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="U44" t="str">
+        <f t="shared" ref="U44:V44" si="16">($D44)</f>
+        <v>this week</v>
+      </c>
+      <c r="V44" t="str">
+        <f t="shared" si="16"/>
+        <v>this week</v>
+      </c>
+    </row>
+    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
         <v>19</v>
       </c>
-      <c r="AC44" t="str">
-        <f t="shared" ref="AC44:AD44" si="17">($D44)</f>
+      <c r="W45" t="str">
+        <f t="shared" ref="W45:AB45" si="17">($D45)</f>
         <v>planned</v>
       </c>
-      <c r="AD44" t="str">
+      <c r="X45" t="str">
         <f t="shared" si="17"/>
         <v>planned</v>
       </c>
-    </row>
-    <row r="45" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45">
-        <v>5</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="Y45" t="str">
+        <f t="shared" si="17"/>
+        <v>planned</v>
+      </c>
+      <c r="Z45" t="str">
+        <f t="shared" si="17"/>
+        <v>planned</v>
+      </c>
+      <c r="AA45" t="str">
+        <f t="shared" si="17"/>
+        <v>planned</v>
+      </c>
+      <c r="AB45" t="str">
+        <f t="shared" si="17"/>
+        <v>planned</v>
+      </c>
+    </row>
+    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
         <v>19</v>
       </c>
-      <c r="AE45" t="str">
-        <f t="shared" ref="AE45:AH45" si="18">($D45)</f>
+      <c r="AC46" t="str">
+        <f t="shared" ref="AC46:AD46" si="18">($D46)</f>
         <v>planned</v>
       </c>
-      <c r="AF45" t="str">
+      <c r="AD46" t="str">
         <f t="shared" si="18"/>
         <v>planned</v>
       </c>
-      <c r="AG45" t="str">
-        <f t="shared" si="18"/>
+    </row>
+    <row r="47" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE47" t="str">
+        <f t="shared" ref="AE47:AH47" si="19">($D47)</f>
         <v>planned</v>
       </c>
-      <c r="AH45" t="str">
-        <f t="shared" si="18"/>
+      <c r="AF47" t="str">
+        <f t="shared" si="19"/>
         <v>planned</v>
       </c>
-    </row>
-    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46">
-        <f>SUM(B39:B45)</f>
-        <v>49</v>
-      </c>
-      <c r="C46">
-        <f>SUM(C39:C45)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>12</v>
+      <c r="AG47" t="str">
+        <f t="shared" si="19"/>
+        <v>planned</v>
+      </c>
+      <c r="AH47" t="str">
+        <f t="shared" si="19"/>
+        <v>planned</v>
       </c>
     </row>
     <row r="48" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B48">
-        <v>10</v>
+        <f>SUM(B41:B47)</f>
+        <v>49</v>
       </c>
       <c r="C48">
-        <v>7</v>
-      </c>
-      <c r="D48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" t="str">
-        <f t="shared" ref="E48:I48" si="19">($D48)</f>
-        <v>complete</v>
-      </c>
-      <c r="F48" t="str">
-        <f t="shared" si="19"/>
-        <v>complete</v>
-      </c>
-      <c r="G48" t="str">
-        <f t="shared" si="19"/>
-        <v>complete</v>
-      </c>
-      <c r="H48" t="str">
-        <f t="shared" si="19"/>
-        <v>complete</v>
-      </c>
-      <c r="I48" t="str">
-        <f t="shared" si="19"/>
-        <v>complete</v>
-      </c>
-      <c r="J48" s="55"/>
-      <c r="K48" s="55"/>
-    </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49">
-        <v>5</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49" t="s">
-        <v>18</v>
-      </c>
-      <c r="L49" t="str">
-        <f t="shared" ref="L49:P49" si="20">($D49)</f>
-        <v>this week</v>
-      </c>
-      <c r="M49" t="str">
-        <f t="shared" si="20"/>
-        <v>this week</v>
-      </c>
-      <c r="N49" t="str">
-        <f t="shared" si="20"/>
-        <v>this week</v>
-      </c>
-      <c r="O49" s="58" t="str">
-        <f>($D49)</f>
-        <v>this week</v>
-      </c>
-      <c r="P49" s="3" t="str">
-        <f t="shared" si="20"/>
-        <v>this week</v>
+        <f>SUM(C41:C47)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C50">
         <v>7</v>
       </c>
-      <c r="D50" s="56" t="s">
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" ref="E50:I50" si="20">($D50)</f>
+        <v>complete</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="20"/>
+        <v>complete</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="20"/>
+        <v>complete</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="20"/>
+        <v>complete</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="20"/>
+        <v>complete</v>
+      </c>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+    </row>
+    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
         <v>18</v>
       </c>
-      <c r="Q50" t="str">
-        <f t="shared" ref="Q50:V50" si="21">($D50)</f>
+      <c r="L51" t="str">
+        <f t="shared" ref="L51:P51" si="21">($D51)</f>
         <v>this week</v>
       </c>
-      <c r="R50" t="str">
+      <c r="M51" t="str">
         <f t="shared" si="21"/>
         <v>this week</v>
       </c>
-      <c r="S50" t="str">
+      <c r="N51" t="str">
         <f t="shared" si="21"/>
         <v>this week</v>
       </c>
-      <c r="T50" t="str">
+      <c r="O51" s="58" t="str">
+        <f>($D51)</f>
+        <v>this week</v>
+      </c>
+      <c r="P51" s="3" t="str">
         <f t="shared" si="21"/>
         <v>this week</v>
       </c>
-      <c r="U50" t="str">
-        <f t="shared" si="21"/>
-        <v>this week</v>
-      </c>
-      <c r="V50" t="str">
-        <f t="shared" si="21"/>
-        <v>this week</v>
-      </c>
-    </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51">
-        <v>10</v>
-      </c>
-      <c r="C51">
-        <v>5</v>
-      </c>
-      <c r="D51" t="s">
-        <v>17</v>
-      </c>
-      <c r="W51" t="str">
-        <f t="shared" ref="W51:X51" si="22">($D51)</f>
-        <v>complete</v>
-      </c>
-      <c r="X51" t="str">
-        <f t="shared" si="22"/>
-        <v>complete</v>
-      </c>
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B52">
-        <v>10</v>
-      </c>
-      <c r="D52" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y52" t="str">
-        <f t="shared" ref="Y52:AD52" si="23">($D52)</f>
-        <v>planned</v>
-      </c>
-      <c r="Z52" t="str">
-        <f t="shared" si="23"/>
-        <v>planned</v>
-      </c>
-      <c r="AA52" t="str">
-        <f t="shared" si="23"/>
-        <v>planned</v>
-      </c>
-      <c r="AB52" t="str">
-        <f t="shared" si="23"/>
-        <v>planned</v>
-      </c>
-      <c r="AC52" t="str">
-        <f t="shared" si="23"/>
-        <v>planned</v>
-      </c>
-      <c r="AD52" t="str">
-        <f t="shared" si="23"/>
-        <v>planned</v>
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" ref="Q52:V52" si="22">($D52)</f>
+        <v>this week</v>
+      </c>
+      <c r="R52" t="str">
+        <f t="shared" si="22"/>
+        <v>this week</v>
+      </c>
+      <c r="S52" t="str">
+        <f t="shared" si="22"/>
+        <v>this week</v>
+      </c>
+      <c r="T52" t="str">
+        <f t="shared" si="22"/>
+        <v>this week</v>
+      </c>
+      <c r="U52" t="str">
+        <f t="shared" si="22"/>
+        <v>this week</v>
+      </c>
+      <c r="V52" t="str">
+        <f t="shared" si="22"/>
+        <v>this week</v>
       </c>
     </row>
     <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B53">
         <v>10</v>
       </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
       <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="W53" t="str">
+        <f t="shared" ref="W53:X53" si="23">($D53)</f>
+        <v>complete</v>
+      </c>
+      <c r="X53" t="str">
+        <f t="shared" si="23"/>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
         <v>19</v>
       </c>
-      <c r="AE53" t="str">
-        <f t="shared" ref="AE53:AJ53" si="24">($D53)</f>
+      <c r="Y54" t="str">
+        <f t="shared" ref="Y54:AD54" si="24">($D54)</f>
         <v>planned</v>
       </c>
-      <c r="AF53" t="str">
+      <c r="Z54" t="str">
         <f t="shared" si="24"/>
         <v>planned</v>
       </c>
-      <c r="AG53" t="str">
+      <c r="AA54" t="str">
         <f t="shared" si="24"/>
         <v>planned</v>
       </c>
-      <c r="AH53" t="str">
+      <c r="AB54" t="str">
         <f t="shared" si="24"/>
         <v>planned</v>
       </c>
-      <c r="AI53" t="str">
+      <c r="AC54" t="str">
         <f t="shared" si="24"/>
         <v>planned</v>
       </c>
-      <c r="AJ53" t="str">
+      <c r="AD54" t="str">
         <f t="shared" si="24"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>62</v>
-      </c>
-      <c r="B54">
-        <v>5</v>
-      </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-      <c r="D54" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK54" t="str">
-        <f t="shared" ref="AK54:AN54" si="25">($D54)</f>
-        <v>this week</v>
-      </c>
-      <c r="AL54" t="str">
-        <f t="shared" si="25"/>
-        <v>this week</v>
-      </c>
-      <c r="AM54" t="str">
-        <f t="shared" si="25"/>
-        <v>this week</v>
-      </c>
-      <c r="AN54" t="str">
-        <f t="shared" si="25"/>
-        <v>this week</v>
-      </c>
-    </row>
     <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
-      <c r="AA55" s="3"/>
-      <c r="AO55" t="str">
-        <f t="shared" ref="AO55:AP55" si="26">($D55)</f>
+      <c r="AE55" t="str">
+        <f t="shared" ref="AE55:AJ55" si="25">($D55)</f>
         <v>planned</v>
       </c>
-      <c r="AP55" t="str">
-        <f t="shared" si="26"/>
+      <c r="AF55" t="str">
+        <f t="shared" si="25"/>
+        <v>planned</v>
+      </c>
+      <c r="AG55" t="str">
+        <f t="shared" si="25"/>
+        <v>planned</v>
+      </c>
+      <c r="AH55" t="str">
+        <f t="shared" si="25"/>
+        <v>planned</v>
+      </c>
+      <c r="AI55" t="str">
+        <f t="shared" si="25"/>
+        <v>planned</v>
+      </c>
+      <c r="AJ55" t="str">
+        <f t="shared" si="25"/>
         <v>planned</v>
       </c>
     </row>
     <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK56" t="str">
+        <f t="shared" ref="AK56:AN56" si="26">($D56)</f>
+        <v>this week</v>
+      </c>
+      <c r="AL56" t="str">
+        <f t="shared" si="26"/>
+        <v>this week</v>
+      </c>
+      <c r="AM56" t="str">
+        <f t="shared" si="26"/>
+        <v>this week</v>
+      </c>
+      <c r="AN56" t="str">
+        <f t="shared" si="26"/>
+        <v>this week</v>
+      </c>
+    </row>
+    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+      <c r="AO57" t="str">
+        <f t="shared" ref="AO57:AP57" si="27">($D57)</f>
+        <v>planned</v>
+      </c>
+      <c r="AP57" t="str">
+        <f t="shared" si="27"/>
+        <v>planned</v>
+      </c>
+    </row>
+    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>32</v>
       </c>
-      <c r="B56">
-        <f>SUM(B48:B55)</f>
+      <c r="B58">
+        <f>SUM(B50:B57)</f>
         <v>57</v>
       </c>
-      <c r="C56">
-        <f>SUM(C48:C55)</f>
+      <c r="C58">
+        <f>SUM(C50:C57)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+    <row r="59" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="6">
-        <f>SUM(B37,B46,B28,B18)</f>
-        <v>193</v>
-      </c>
-      <c r="C57" s="6">
-        <f>SUM(C18,C28,C37,C46,C56)</f>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+      <c r="B59" s="6">
+        <f>SUM(B39,B48,B30,B20)</f>
+        <v>201</v>
+      </c>
+      <c r="C59" s="6">
+        <f>SUM(C20,C30,C39,C48,C58)</f>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="53">
-        <f>B57*100</f>
-        <v>19300</v>
-      </c>
-      <c r="C58" s="53">
-        <f>C57*100</f>
-        <v>11500</v>
-      </c>
-      <c r="D58" s="53"/>
+      <c r="B60" s="53">
+        <f>B59*100</f>
+        <v>20100</v>
+      </c>
+      <c r="C60" s="53">
+        <f>C59*100</f>
+        <v>12200</v>
+      </c>
+      <c r="D60" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="E25:N25"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="L23:S23"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="G26:P26"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="L25:S25"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="G28:P28"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3 D20:D26 D48:D54">
-    <cfRule type="cellIs" dxfId="122" priority="178" operator="equal">
+  <conditionalFormatting sqref="D3 D22:D28 D50:D56">
+    <cfRule type="cellIs" dxfId="203" priority="259" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="260" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="261" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D17">
-    <cfRule type="cellIs" dxfId="119" priority="175" operator="equal">
+  <conditionalFormatting sqref="D15:D19">
+    <cfRule type="cellIs" dxfId="200" priority="256" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="257" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="258" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="116" priority="172" operator="equal">
+  <conditionalFormatting sqref="D29">
+    <cfRule type="cellIs" dxfId="197" priority="253" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="254" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="255" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="113" priority="169" operator="equal">
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="194" priority="250" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="251" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="252" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="110" priority="166" operator="equal">
+  <conditionalFormatting sqref="D38">
+    <cfRule type="cellIs" dxfId="191" priority="247" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="248" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="249" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33:BR45 E32:O32 Q32:BR32 E22:BR22 E47:BR48 E49:I49 E50:J50 L49:BR49 L50:N50 Q50:BR50 E52:V52 E51:T51 E53:AJ53 Y52:AR52 W51:AR51 AW51:BR54 AM53:AR53 AQ54:AR54 E54:AN54 AO55:AP55 E28:BR31 E25 O25:BR25 I21:BR21 E21 E24:T24 E23:L23 T23:BR23 Y24:BR24 E26:G26 Q26:BR26 E27:Y27 AB27:BR27 E3:BR5 E6:I6 K6:BR6 E7:BR20">
-    <cfRule type="cellIs" dxfId="107" priority="160" operator="equal">
+  <conditionalFormatting sqref="E35:BR47 E34:O34 Q34:BR34 E24:BR24 E49:BR50 E51:I51 E52:J52 L51:BR51 L52:N52 Q52:BR52 E54:V54 E53:T53 E55:AJ55 Y54:AR54 W53:AR53 AW53:BR56 AM55:AR55 AQ56:AR56 E56:AN56 AO57:AP57 E30:BR33 E27 O27:BR27 I23:BR23 E23 E26:T26 E25:L25 T25:BR25 Y26:BR26 E28:G28 Q28:BR28 E29:Y29 AB29:BR29 E3:BR5 E6:I6 K6:BR6 E7:BR14 E15:AG15 AJ15:BR15 E16:BR22">
+    <cfRule type="cellIs" dxfId="188" priority="241" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="242" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="243" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D13">
-    <cfRule type="cellIs" dxfId="104" priority="157" operator="equal">
+  <conditionalFormatting sqref="D4:D14">
+    <cfRule type="cellIs" dxfId="185" priority="238" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="239" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="240" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:D34">
-    <cfRule type="cellIs" dxfId="101" priority="151" operator="equal">
+  <conditionalFormatting sqref="D32:D36">
+    <cfRule type="cellIs" dxfId="182" priority="232" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="233" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="234" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39:D45">
-    <cfRule type="cellIs" dxfId="98" priority="148" operator="equal">
+  <conditionalFormatting sqref="D41:D47">
+    <cfRule type="cellIs" dxfId="179" priority="229" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="230" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="231" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="95" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="226" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="227" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="228" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H4">
-    <cfRule type="cellIs" dxfId="92" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="223" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="224" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="225" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="89" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="220" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="221" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="222" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="86" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="217" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="218" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="219" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:M7">
-    <cfRule type="cellIs" dxfId="83" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="214" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="215" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="216" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:P8">
-    <cfRule type="cellIs" dxfId="80" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="211" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="212" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="213" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9:T10">
-    <cfRule type="cellIs" dxfId="77" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="208" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="209" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="210" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11:AG11">
-    <cfRule type="cellIs" dxfId="74" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="205" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="206" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="207" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI14">
+    <cfRule type="cellIs" dxfId="152" priority="202" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="203" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="204" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH12:AH13">
+    <cfRule type="cellIs" dxfId="149" priority="199" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="200" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="201" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="cellIs" dxfId="146" priority="178" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="179" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="180" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="cellIs" dxfId="143" priority="142" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="143" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="144" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:K5">
+    <cfRule type="cellIs" dxfId="140" priority="139" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="140" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="141" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6">
+    <cfRule type="cellIs" dxfId="137" priority="136" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="137" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="138" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:N6">
+    <cfRule type="cellIs" dxfId="134" priority="133" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="134" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="135" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7 M6:N6">
+    <cfRule type="cellIs" dxfId="131" priority="130" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="131" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="132" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7:P7 M6:N6">
+    <cfRule type="cellIs" dxfId="128" priority="127" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="128" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="129" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7:Q7 M6:N6">
+    <cfRule type="cellIs" dxfId="125" priority="124" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="125" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="126" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8 O7:Q7 M6:N6">
+    <cfRule type="cellIs" dxfId="122" priority="121" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="122" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="123" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8:S8 O7:Q7 M6:N6">
+    <cfRule type="cellIs" dxfId="119" priority="118" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="119" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="120" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8:T8 O7:Q7 M6:N6">
+    <cfRule type="cellIs" dxfId="116" priority="115" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="116" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="117" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9:U10">
+    <cfRule type="cellIs" dxfId="113" priority="112" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="113" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="114" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9:V10">
+    <cfRule type="cellIs" dxfId="110" priority="109" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="110" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="111" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9:W10">
+    <cfRule type="cellIs" dxfId="107" priority="106" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="107" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="108" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9:X10">
+    <cfRule type="cellIs" dxfId="104" priority="103" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="104" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="105" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB12:AB13">
+    <cfRule type="cellIs" dxfId="101" priority="100" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="101" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="102" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC12:AC13">
+    <cfRule type="cellIs" dxfId="98" priority="97" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="98" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="99" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD12:AD13">
+    <cfRule type="cellIs" dxfId="95" priority="94" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="95" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="96" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE14:AF14">
+    <cfRule type="cellIs" dxfId="92" priority="91" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="92" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="93" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG14">
+    <cfRule type="cellIs" dxfId="89" priority="88" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="89" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="90" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP15">
+    <cfRule type="cellIs" dxfId="86" priority="85" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="86" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="87" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP15:AQ15">
+    <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="84" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y10">
+    <cfRule type="cellIs" dxfId="80" priority="79" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="81" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y10:Z10">
+    <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="78" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y10:AA10">
+    <cfRule type="cellIs" dxfId="74" priority="73" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="74" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="75" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y10:AB10">
+    <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="71" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="72" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF12:AH12">
+    <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="68" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="69" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI13">
-    <cfRule type="cellIs" dxfId="71" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="66" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH12">
-    <cfRule type="cellIs" dxfId="68" priority="118" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="119" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="120" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D55">
-    <cfRule type="cellIs" dxfId="65" priority="97" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="98" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="99" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
+  <conditionalFormatting sqref="AI13:AJ13">
     <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4623,7 +5810,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:K5">
+  <conditionalFormatting sqref="AI13:AK13">
     <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4634,7 +5821,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6">
+  <conditionalFormatting sqref="AI13:AL13">
     <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4645,7 +5832,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6:N6">
+  <conditionalFormatting sqref="AM14:AO14">
     <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4656,7 +5843,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7 M6:N6">
+  <conditionalFormatting sqref="AO14">
     <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4667,7 +5854,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7:P7 M6:N6">
+  <conditionalFormatting sqref="AW17">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4678,7 +5865,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7:Q7 M6:N6">
+  <conditionalFormatting sqref="AW17">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4689,7 +5876,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8 O7:Q7 M6:N6">
+  <conditionalFormatting sqref="AX17">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4700,7 +5887,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8:S8 O7:Q7 M6:N6">
+  <conditionalFormatting sqref="AX17">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4711,7 +5898,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8:T8 O7:Q7 M6:N6">
+  <conditionalFormatting sqref="AY17">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4722,7 +5909,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U9:U10">
+  <conditionalFormatting sqref="AY17">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4733,7 +5920,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U9:V10">
+  <conditionalFormatting sqref="AZ18">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4744,7 +5931,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U9:W10">
+  <conditionalFormatting sqref="AZ18">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4755,7 +5942,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U9:X10">
+  <conditionalFormatting sqref="BA18">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4766,7 +5953,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB12">
+  <conditionalFormatting sqref="BA18">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4777,7 +5964,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC12">
+  <conditionalFormatting sqref="BB18">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4788,7 +5975,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD12">
+  <conditionalFormatting sqref="BB18">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4799,7 +5986,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE13:AF13">
+  <conditionalFormatting sqref="BC18">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4810,7 +5997,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG13">
+  <conditionalFormatting sqref="BC18">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4821,7 +6008,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH14">
+  <conditionalFormatting sqref="BD18">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4832,7 +6019,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH14:AI14">
+  <conditionalFormatting sqref="BD18">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4844,7 +6031,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30:D36 D3:D17 D20:D27 D48:D55 D39:D45" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32:D38 D3:D19 D22:D29 D50:D57 D41:D47" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$F$1:$H$1</formula1>
     </dataValidation>
   </dataValidations>

--- a/docs/Gantt Chart.xlsx
+++ b/docs/Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakur\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattmorrison/Documents/GitHub/Tower-of-Annihilation/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDD8301-282D-4676-B6C9-0DEFC56424C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9BD9F3-5A36-8344-9C5D-F619718C21AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="264" yWindow="552" windowWidth="18816" windowHeight="11400" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7460" yWindow="520" windowWidth="18820" windowHeight="11400" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="3" r:id="rId1"/>
@@ -696,6 +696,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -708,9 +711,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -2263,59 +2263,58 @@
       <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="3.44140625" customWidth="1"/>
+    <col min="6" max="6" width="3.5" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1"/>
-    <col min="10" max="10" width="2.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="2.83203125" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" customWidth="1"/>
-    <col min="14" max="14" width="5.44140625" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" customWidth="1"/>
+    <col min="14" max="14" width="5.5" customWidth="1"/>
     <col min="15" max="15" width="12.33203125" customWidth="1"/>
     <col min="16" max="16" width="14.6640625" customWidth="1"/>
     <col min="17" max="17" width="11.33203125" customWidth="1"/>
-    <col min="18" max="18" width="5.109375" customWidth="1"/>
-    <col min="19" max="19" width="13.44140625" customWidth="1"/>
-    <col min="20" max="20" width="13.5546875" customWidth="1"/>
-    <col min="21" max="21" width="16.44140625" customWidth="1"/>
+    <col min="18" max="18" width="5.1640625" customWidth="1"/>
+    <col min="19" max="20" width="13.5" customWidth="1"/>
+    <col min="21" max="21" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C2" s="61" t="s">
+    <row r="1" spans="2:21" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="9"/>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="63"/>
-      <c r="K2" s="61" t="s">
+      <c r="H2" s="65"/>
+      <c r="I2" s="66"/>
+      <c r="K2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
-      <c r="O2" s="61" t="s">
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+      <c r="O2" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="63"/>
-      <c r="S2" s="61" t="s">
+      <c r="P2" s="65"/>
+      <c r="Q2" s="66"/>
+      <c r="S2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="62"/>
-      <c r="U2" s="63"/>
-    </row>
-    <row r="3" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T2" s="65"/>
+      <c r="U2" s="66"/>
+    </row>
+    <row r="3" spans="2:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
@@ -2363,7 +2362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B4" s="26" t="s">
         <v>8</v>
       </c>
@@ -2427,7 +2426,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
@@ -2491,7 +2490,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
@@ -2553,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
@@ -2617,7 +2616,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
@@ -2681,7 +2680,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>0</v>
       </c>
@@ -2764,20 +2763,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BK59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A1" s="48"/>
       <c r="B1" s="48" t="s">
         <v>13</v>
@@ -2856,7 +2855,7 @@
       <c r="BJ1" s="48"/>
       <c r="BK1" s="48"/>
     </row>
-    <row r="2" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3096,7 +3095,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -3118,7 +3117,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -3140,7 +3139,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3166,7 +3165,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3192,7 +3191,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -3218,7 +3217,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="8" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3244,7 +3243,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -3274,7 +3273,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -3288,7 +3287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -3314,7 +3313,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>100</v>
       </c>
@@ -3340,7 +3339,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -3366,7 +3365,7 @@
         <v>this week</v>
       </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -3388,7 +3387,7 @@
         <v>this week</v>
       </c>
     </row>
-    <row r="15" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -3399,7 +3398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -3413,7 +3412,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -3424,7 +3423,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -3437,19 +3436,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20" s="65">
+      <c r="C20" s="61">
         <v>2</v>
       </c>
       <c r="D20" t="s">
@@ -3461,35 +3460,35 @@
       </c>
       <c r="F20" s="55"/>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>34</v>
       </c>
       <c r="B21">
         <v>4</v>
       </c>
-      <c r="C21" s="65">
+      <c r="C21" s="61">
         <v>5</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="64" t="str">
+      <c r="E21" s="67" t="str">
         <f t="shared" ref="E21" si="6">($D21)</f>
         <v>complete</v>
       </c>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-    </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="C22" s="65">
+      <c r="C22" s="61">
         <v>2</v>
       </c>
       <c r="D22" t="s">
@@ -3508,14 +3507,14 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="23" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>36</v>
       </c>
       <c r="B23">
         <v>8</v>
       </c>
-      <c r="C23" s="65">
+      <c r="C23" s="61">
         <v>4</v>
       </c>
       <c r="D23" t="s">
@@ -3524,68 +3523,68 @@
       <c r="E23" t="s">
         <v>37</v>
       </c>
-      <c r="L23" s="64" t="str">
+      <c r="L23" s="67" t="str">
         <f t="shared" ref="L23" si="8">($D23)</f>
         <v>this week</v>
       </c>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="64"/>
-    </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>38</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="C24" s="65">
+      <c r="C24" s="61">
         <v>5</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
       </c>
-      <c r="T24" s="64" t="str">
+      <c r="T24" s="67" t="str">
         <f>($D24)</f>
         <v>complete</v>
       </c>
-      <c r="U24" s="64"/>
-      <c r="V24" s="64"/>
-      <c r="W24" s="64"/>
-      <c r="X24" s="64"/>
-    </row>
-    <row r="25" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+    </row>
+    <row r="25" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>39</v>
       </c>
       <c r="B25">
         <v>10</v>
       </c>
-      <c r="C25" s="65">
+      <c r="C25" s="61">
         <v>7</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="64" t="str">
+      <c r="E25" s="67" t="str">
         <f>($D25)</f>
         <v>this week</v>
       </c>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
-    </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -3595,21 +3594,21 @@
       <c r="D26" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="64" t="str">
+      <c r="G26" s="67" t="str">
         <f>($D26)</f>
         <v>planned</v>
       </c>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="64"/>
-    </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -3619,12 +3618,12 @@
       <c r="D27" t="s">
         <v>19</v>
       </c>
-      <c r="Y27" s="64" t="str">
+      <c r="Y27" s="67" t="str">
         <f>($D27)</f>
         <v>planned</v>
       </c>
-      <c r="Z27" s="64"/>
-      <c r="AA27" s="64"/>
+      <c r="Z27" s="67"/>
+      <c r="AA27" s="67"/>
       <c r="AQ27" t="str">
         <f t="shared" ref="AQ27:AT27" si="9">($D27)</f>
         <v>planned</v>
@@ -3642,7 +3641,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -3655,19 +3654,19 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="65">
+      <c r="B30" s="61">
         <v>1</v>
       </c>
-      <c r="C30" s="65">
+      <c r="C30" s="61">
         <v>1</v>
       </c>
       <c r="D30" t="s">
@@ -3678,14 +3677,14 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="65">
+      <c r="B31" s="61">
         <v>2</v>
       </c>
-      <c r="C31" s="65">
+      <c r="C31" s="61">
         <v>3</v>
       </c>
       <c r="D31" t="s">
@@ -3704,14 +3703,14 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="65">
+      <c r="B32" s="61">
         <v>10</v>
       </c>
-      <c r="C32" s="65">
+      <c r="C32" s="61">
         <v>9</v>
       </c>
       <c r="D32" t="s">
@@ -3749,14 +3748,14 @@
       <c r="Q32" s="55"/>
       <c r="R32" s="55"/>
     </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="65">
+      <c r="B33" s="61">
         <v>6</v>
       </c>
-      <c r="C33" s="65">
+      <c r="C33" s="61">
         <v>3</v>
       </c>
       <c r="D33" t="s">
@@ -3768,14 +3767,14 @@
       <c r="V33" s="57"/>
       <c r="W33" s="57"/>
     </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="65">
+      <c r="B34" s="61">
         <v>5</v>
       </c>
-      <c r="C34" s="65"/>
+      <c r="C34" s="61"/>
       <c r="D34" t="s">
         <v>19</v>
       </c>
@@ -3785,14 +3784,14 @@
       <c r="AA34" s="57"/>
       <c r="AB34" s="57"/>
     </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="65">
+      <c r="B35" s="61">
         <v>5</v>
       </c>
-      <c r="C35" s="65">
+      <c r="C35" s="61">
         <v>4</v>
       </c>
       <c r="D35" t="s">
@@ -3814,44 +3813,44 @@
       <c r="AP35" s="3"/>
       <c r="AQ35" s="3"/>
     </row>
-    <row r="36" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="65">
+      <c r="B36" s="61">
         <v>12</v>
       </c>
-      <c r="C36" s="65">
+      <c r="C36" s="61">
         <v>10</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
       </c>
-      <c r="AM36" s="67"/>
-      <c r="AN36" s="67"/>
-      <c r="AO36" s="67"/>
-      <c r="AP36" s="67"/>
-      <c r="AQ36" s="67"/>
-      <c r="AR36" s="67"/>
-      <c r="AS36" s="67"/>
-      <c r="AT36" s="67"/>
-      <c r="AU36" s="67"/>
-      <c r="AV36" s="67"/>
-      <c r="AW36" s="67"/>
-      <c r="AX36" s="67"/>
-      <c r="AY36" s="67"/>
-      <c r="AZ36" s="67"/>
-      <c r="BA36" s="67"/>
+      <c r="AM36" s="63"/>
+      <c r="AN36" s="63"/>
+      <c r="AO36" s="63"/>
+      <c r="AP36" s="63"/>
+      <c r="AQ36" s="63"/>
+      <c r="AR36" s="63"/>
+      <c r="AS36" s="63"/>
+      <c r="AT36" s="63"/>
+      <c r="AU36" s="63"/>
+      <c r="AV36" s="63"/>
+      <c r="AW36" s="63"/>
+      <c r="AX36" s="63"/>
+      <c r="AY36" s="63"/>
+      <c r="AZ36" s="63"/>
+      <c r="BA36" s="63"/>
       <c r="BB36" s="3"/>
     </row>
-    <row r="37" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>103</v>
       </c>
-      <c r="B37" s="65">
+      <c r="B37" s="61">
         <v>3</v>
       </c>
-      <c r="C37" s="65">
+      <c r="C37" s="61">
         <v>2</v>
       </c>
       <c r="D37" t="s">
@@ -3870,11 +3869,11 @@
       <c r="AW37" s="3"/>
       <c r="AX37" s="3"/>
       <c r="AY37" s="3"/>
-      <c r="AZ37" s="66"/>
-      <c r="BA37" s="66"/>
+      <c r="AZ37" s="62"/>
+      <c r="BA37" s="62"/>
       <c r="BB37" s="3"/>
     </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>32</v>
       </c>
@@ -3887,12 +3886,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -3926,7 +3925,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -3960,7 +3959,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="42" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -3998,7 +3997,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="43" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -4006,18 +4005,18 @@
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U43" t="str">
         <f t="shared" ref="U43:V43" si="15">($D43)</f>
-        <v>this week</v>
+        <v>complete</v>
       </c>
       <c r="V43" t="str">
         <f t="shared" si="15"/>
-        <v>this week</v>
-      </c>
-    </row>
-    <row r="44" spans="1:54" x14ac:dyDescent="0.3">
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="44" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -4025,34 +4024,34 @@
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W44" t="str">
         <f t="shared" ref="W44:AB44" si="16">($D44)</f>
-        <v>planned</v>
+        <v>this week</v>
       </c>
       <c r="X44" t="str">
         <f t="shared" si="16"/>
-        <v>planned</v>
+        <v>this week</v>
       </c>
       <c r="Y44" t="str">
         <f t="shared" si="16"/>
-        <v>planned</v>
+        <v>this week</v>
       </c>
       <c r="Z44" t="str">
         <f t="shared" si="16"/>
-        <v>planned</v>
+        <v>this week</v>
       </c>
       <c r="AA44" t="str">
         <f t="shared" si="16"/>
-        <v>planned</v>
+        <v>this week</v>
       </c>
       <c r="AB44" t="str">
         <f t="shared" si="16"/>
-        <v>planned</v>
-      </c>
-    </row>
-    <row r="45" spans="1:54" x14ac:dyDescent="0.3">
+        <v>this week</v>
+      </c>
+    </row>
+    <row r="45" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -4071,7 +4070,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="46" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -4098,7 +4097,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="47" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -4111,12 +4110,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -4152,7 +4151,7 @@
       <c r="J49" s="55"/>
       <c r="K49" s="55"/>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -4186,7 +4185,7 @@
         <v>this week</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -4224,7 +4223,7 @@
         <v>this week</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -4246,7 +4245,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -4281,7 +4280,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -4316,7 +4315,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -4346,7 +4345,7 @@
         <v>this week</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -4388,7 +4387,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>32</v>
       </c>
@@ -4401,7 +4400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>64</v>
       </c>
@@ -4414,7 +4413,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>65</v>
       </c>
@@ -4906,9 +4905,9 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>66</v>
       </c>
@@ -4937,7 +4936,7 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>67</v>
       </c>
@@ -4966,7 +4965,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>75</v>
       </c>
@@ -4995,7 +4994,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -5028,7 +5027,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -5061,7 +5060,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -5094,7 +5093,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -5127,7 +5126,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -5160,7 +5159,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
@@ -5209,15 +5208,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
     </row>
   </sheetData>
@@ -5234,16 +5233,16 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
     <col min="5" max="19" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="31"/>
       <c r="B1" s="32" t="s">
         <v>77</v>
@@ -5300,7 +5299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>8</v>
       </c>
@@ -5316,7 +5315,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="46"/>
       <c r="B3" s="35" t="s">
         <v>81</v>
@@ -5333,7 +5332,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
       <c r="B4" s="35" t="s">
         <v>82</v>
@@ -5349,7 +5348,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="52"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="38"/>
       <c r="B5" s="35" t="s">
         <v>83</v>
@@ -5363,7 +5362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
         <v>9</v>
       </c>
@@ -5379,7 +5378,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="46"/>
       <c r="B7" s="35" t="s">
         <v>81</v>
@@ -5396,7 +5395,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="38"/>
       <c r="B8" s="35" t="s">
         <v>84</v>
@@ -5412,7 +5411,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="47"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="35" t="s">
         <v>83</v>
@@ -5426,7 +5425,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
         <v>10</v>
       </c>
@@ -5441,7 +5440,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="46"/>
       <c r="B11" s="35" t="s">
         <v>81</v>
@@ -5458,7 +5457,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="38"/>
       <c r="B12" s="40" t="s">
         <v>85</v>
@@ -5474,7 +5473,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="38"/>
       <c r="B13" s="40" t="s">
         <v>87</v>
@@ -5489,7 +5488,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="38"/>
       <c r="B14" s="40" t="s">
         <v>89</v>
@@ -5505,7 +5504,7 @@
       </c>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="38"/>
       <c r="B15" s="41" t="s">
         <v>83</v>
@@ -5519,7 +5518,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
         <v>11</v>
       </c>
@@ -5535,7 +5534,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="46"/>
       <c r="B17" s="35" t="s">
         <v>81</v>
@@ -5552,7 +5551,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="38"/>
       <c r="B18" s="35" t="s">
         <v>91</v>
@@ -5568,7 +5567,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="47"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="38"/>
       <c r="B19" s="41" t="s">
         <v>83</v>
@@ -5582,7 +5581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="34" t="s">
         <v>12</v>
       </c>
@@ -5598,7 +5597,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="46"/>
       <c r="B21" s="35" t="s">
         <v>81</v>
@@ -5615,7 +5614,7 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="38"/>
       <c r="B22" s="35" t="s">
         <v>92</v>
@@ -5631,7 +5630,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="47"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="38"/>
       <c r="B23" s="41" t="s">
         <v>83</v>
@@ -5645,7 +5644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="42"/>
       <c r="B24" s="43" t="s">
         <v>0</v>
@@ -5659,7 +5658,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B25" s="30" t="s">
         <v>93</v>
       </c>
@@ -5678,12 +5677,12 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>8</v>
@@ -5701,7 +5700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>94</v>
       </c>
@@ -5721,7 +5720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>95</v>
       </c>
@@ -5741,7 +5740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>96</v>
       </c>
@@ -5761,7 +5760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>97</v>
       </c>
@@ -5781,20 +5780,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>

--- a/docs/Gantt Chart.xlsx
+++ b/docs/Gantt Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattmorrison/Documents/GitHub/Tower-of-Annihilation/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Homework Assignments\Tower-of-Annihilation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9BD9F3-5A36-8344-9C5D-F619718C21AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37BDFDB-9848-4575-A5D9-5F464DAE5899}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7460" yWindow="520" windowWidth="18820" windowHeight="11400" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="106">
   <si>
     <t>Total</t>
   </si>
@@ -350,6 +350,12 @@
   </si>
   <si>
     <t>Enemy Health Bar</t>
+  </si>
+  <si>
+    <t>Level Generation</t>
+  </si>
+  <si>
+    <t>Player Inventory</t>
   </si>
 </sst>
 </file>
@@ -716,7 +722,1147 @@
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="123">
+  <dxfs count="237">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -2263,30 +3409,30 @@
       <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="3.5" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="2.83203125" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" customWidth="1"/>
-    <col min="14" max="14" width="5.5" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" customWidth="1"/>
-    <col min="18" max="18" width="5.1640625" customWidth="1"/>
-    <col min="19" max="20" width="13.5" customWidth="1"/>
-    <col min="21" max="21" width="16.5" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" customWidth="1"/>
+    <col min="19" max="20" width="13.42578125" customWidth="1"/>
+    <col min="21" max="21" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C2" s="64" t="s">
         <v>0</v>
       </c>
@@ -2314,7 +3460,7 @@
       <c r="T2" s="65"/>
       <c r="U2" s="66"/>
     </row>
-    <row r="3" spans="2:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
@@ -2362,17 +3508,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="23">
         <f>(G4+K4 +O4+S4)</f>
-        <v>11200</v>
+        <v>12100</v>
       </c>
       <c r="D4" s="24">
         <f t="shared" ref="D4:D6" si="0">(H4+L4 +P4+T4)</f>
-        <v>8300</v>
+        <v>9200</v>
       </c>
       <c r="E4" s="25">
         <f>(C4-D4)</f>
@@ -2380,12 +3526,12 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="17">
-        <f>(Gantt!$B18)*100</f>
-        <v>5100</v>
+        <f>(Gantt!$B20)*100</f>
+        <v>6000</v>
       </c>
       <c r="H4" s="18">
-        <f>(Gantt!$C18)*100</f>
-        <v>4000</v>
+        <f>(Gantt!$C20)*100</f>
+        <v>4900</v>
       </c>
       <c r="I4" s="19">
         <f>(G4-H4)</f>
@@ -2426,7 +3572,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
@@ -2444,11 +3590,11 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="17">
-        <f>(Gantt!$B28)*100</f>
+        <f>(Gantt!$B30)*100</f>
         <v>4500</v>
       </c>
       <c r="H5" s="18">
-        <f>(Gantt!$C28)*100</f>
+        <f>(Gantt!$C30)*100</f>
         <v>2500</v>
       </c>
       <c r="I5" s="19">
@@ -2490,7 +3636,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
@@ -2508,11 +3654,11 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="17">
-        <f>(Gantt!$B38)*100</f>
+        <f>(Gantt!$B40)*100</f>
         <v>4400</v>
       </c>
       <c r="H6" s="18">
-        <f>(Gantt!$C38)*100</f>
+        <f>(Gantt!$C40)*100</f>
         <v>3200</v>
       </c>
       <c r="I6" s="19">
@@ -2552,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
@@ -2570,11 +3716,11 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="17">
-        <f>(Gantt!$B47)*100</f>
+        <f>(Gantt!$B49)*100</f>
         <v>4900</v>
       </c>
       <c r="H7" s="18">
-        <f>(Gantt!$C47)*100</f>
+        <f>(Gantt!$C49)*100</f>
         <v>1300</v>
       </c>
       <c r="I7" s="19">
@@ -2616,7 +3762,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
@@ -2634,11 +3780,11 @@
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="17">
-        <f>(Gantt!$B57)*100</f>
+        <f>(Gantt!$B59)*100</f>
         <v>5700</v>
       </c>
       <c r="H8" s="18">
-        <f>(Gantt!$C57)*100</f>
+        <f>(Gantt!$C59)*100</f>
         <v>2300</v>
       </c>
       <c r="I8" s="19">
@@ -2680,17 +3826,17 @@
         <v>900</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="27">
         <f>SUM(C4:C8)</f>
-        <v>55100</v>
+        <v>56000</v>
       </c>
       <c r="D9" s="28">
         <f>SUM(D4:D8)</f>
-        <v>36500</v>
+        <v>37400</v>
       </c>
       <c r="E9" s="29">
         <f>SUM(E4:E8)</f>
@@ -2699,11 +3845,11 @@
       <c r="F9" s="3"/>
       <c r="G9" s="20">
         <f>SUM(G4:G8)</f>
-        <v>24600</v>
+        <v>25500</v>
       </c>
       <c r="H9" s="21">
         <f>SUM(H4:H8)</f>
-        <v>13300</v>
+        <v>14200</v>
       </c>
       <c r="I9" s="22">
         <f>SUM(I4:I8)</f>
@@ -2761,22 +3907,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BK59"/>
+  <dimension ref="A1:BK61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1" s="48"/>
       <c r="B1" s="48" t="s">
         <v>13</v>
@@ -2855,7 +4001,7 @@
       <c r="BJ1" s="48"/>
       <c r="BK1" s="48"/>
     </row>
-    <row r="2" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3095,7 +4241,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -3117,7 +4263,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -3139,7 +4285,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3165,7 +4311,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3191,7 +4337,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -3217,7 +4363,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="8" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3243,7 +4389,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -3273,7 +4419,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -3286,8 +4432,20 @@
       <c r="D10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="Y10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -3300,20 +4458,17 @@
       <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="Y11" t="str">
-        <f t="shared" ref="Y11:AI14" si="5">($D11)</f>
-        <v>complete</v>
-      </c>
-      <c r="Z11" t="str">
-        <f t="shared" si="5"/>
-        <v>complete</v>
-      </c>
-      <c r="AA11" t="str">
-        <f t="shared" si="5"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="AC11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>100</v>
       </c>
@@ -3326,20 +4481,17 @@
       <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="AB12" t="str">
-        <f t="shared" si="5"/>
-        <v>complete</v>
-      </c>
-      <c r="AC12" t="str">
-        <f t="shared" si="5"/>
-        <v>complete</v>
-      </c>
-      <c r="AD12" t="str">
-        <f t="shared" si="5"/>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.2">
+      <c r="AF12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -3352,141 +4504,171 @@
       <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="AE13" t="str">
+      <c r="AI13" t="str">
+        <f t="shared" ref="AI13:AM14" si="5">($D13)</f>
+        <v>this week</v>
+      </c>
+      <c r="AJ13" t="str">
         <f t="shared" si="5"/>
         <v>this week</v>
       </c>
-      <c r="AF13" t="str">
+      <c r="AK13" t="str">
         <f t="shared" si="5"/>
         <v>this week</v>
       </c>
-      <c r="AG13" t="str">
+    </row>
+    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL14" t="str">
         <f t="shared" si="5"/>
         <v>this week</v>
       </c>
-    </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH14" t="str">
+      <c r="AM14" t="str">
         <f t="shared" si="5"/>
         <v>this week</v>
       </c>
-      <c r="AI14" t="str">
-        <f t="shared" si="5"/>
-        <v>this week</v>
-      </c>
-    </row>
-    <row r="15" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AS16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>17</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>17</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="B17">
+      <c r="B19">
         <v>4</v>
       </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
-      <c r="B18">
-        <f>SUM(B3:B17)</f>
-        <v>51</v>
-      </c>
-      <c r="C18">
-        <f>SUM(C3:C17)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="B20">
+        <f>SUM(B3:B19)</f>
+        <v>60</v>
+      </c>
+      <c r="C20">
+        <f>SUM(C3:C19)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>33</v>
       </c>
-      <c r="B20">
+      <c r="B22">
         <v>2</v>
-      </c>
-      <c r="C20" s="61">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" t="str">
-        <f>($D20)</f>
-        <v>complete</v>
-      </c>
-      <c r="F20" s="55"/>
-    </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21" s="61">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="67" t="str">
-        <f t="shared" ref="E21" si="6">($D21)</f>
-        <v>complete</v>
-      </c>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-    </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
       </c>
       <c r="C22" s="61">
         <v>2</v>
@@ -3494,1169 +4676,1627 @@
       <c r="D22" t="s">
         <v>17</v>
       </c>
-      <c r="I22" t="str">
+      <c r="E22" t="str">
         <f>($D22)</f>
         <v>complete</v>
       </c>
-      <c r="J22" t="str">
-        <f>($D22)</f>
+      <c r="F22" s="55"/>
+    </row>
+    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" s="61">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="67" t="str">
+        <f t="shared" ref="E23" si="6">($D23)</f>
         <v>complete</v>
       </c>
-      <c r="K22" t="str">
-        <f t="shared" ref="K22" si="7">($D22)</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="23" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23">
-        <v>8</v>
-      </c>
-      <c r="C23" s="61">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" t="s">
-        <v>37</v>
-      </c>
-      <c r="L23" s="67" t="str">
-        <f t="shared" ref="L23" si="8">($D23)</f>
-        <v>this week</v>
-      </c>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67"/>
-      <c r="S23" s="67"/>
-    </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+    </row>
+    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24" s="61">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
       </c>
-      <c r="T24" s="67" t="str">
+      <c r="I24" t="str">
         <f>($D24)</f>
         <v>complete</v>
       </c>
-      <c r="U24" s="67"/>
-      <c r="V24" s="67"/>
-      <c r="W24" s="67"/>
-      <c r="X24" s="67"/>
-    </row>
-    <row r="25" spans="1:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J24" t="str">
+        <f>($D24)</f>
+        <v>complete</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" ref="K24" si="7">($D24)</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="25" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C25" s="61">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="67" t="str">
-        <f>($D25)</f>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" s="67" t="str">
+        <f t="shared" ref="L25" si="8">($D25)</f>
         <v>this week</v>
       </c>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
       <c r="M25" s="67"/>
       <c r="N25" s="67"/>
-    </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="67"/>
+    </row>
+    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" s="61">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="T26" s="67" t="str">
+        <f>($D26)</f>
+        <v>complete</v>
+      </c>
+      <c r="U26" s="67"/>
+      <c r="V26" s="67"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="67"/>
+    </row>
+    <row r="27" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27" s="61">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="67" t="str">
+        <f>($D27)</f>
+        <v>this week</v>
+      </c>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
+    </row>
+    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>40</v>
       </c>
-      <c r="B26">
+      <c r="B28">
         <v>10</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D28" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="67" t="str">
-        <f>($D26)</f>
+      <c r="G28" s="67" t="str">
+        <f>($D28)</f>
         <v>planned</v>
       </c>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-    </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="67"/>
+    </row>
+    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>41</v>
       </c>
-      <c r="B27">
+      <c r="B29">
         <v>3</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D29" t="s">
         <v>19</v>
       </c>
-      <c r="Y27" s="67" t="str">
-        <f>($D27)</f>
+      <c r="Y29" s="67" t="str">
+        <f>($D29)</f>
         <v>planned</v>
       </c>
-      <c r="Z27" s="67"/>
-      <c r="AA27" s="67"/>
-      <c r="AQ27" t="str">
-        <f t="shared" ref="AQ27:AT27" si="9">($D27)</f>
+      <c r="Z29" s="67"/>
+      <c r="AA29" s="67"/>
+      <c r="AQ29" t="str">
+        <f t="shared" ref="AQ29:AT29" si="9">($D29)</f>
         <v>planned</v>
       </c>
-      <c r="AR27" t="str">
+      <c r="AR29" t="str">
         <f t="shared" si="9"/>
         <v>planned</v>
       </c>
-      <c r="AS27" t="str">
+      <c r="AS29" t="str">
         <f t="shared" si="9"/>
         <v>planned</v>
       </c>
-      <c r="AT27" t="str">
+      <c r="AT29" t="str">
         <f t="shared" si="9"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B28">
-        <f>SUM(B20:B27)</f>
+      <c r="B30">
+        <f>SUM(B22:B29)</f>
         <v>45</v>
       </c>
-      <c r="C28">
-        <f>SUM(C20:C27)</f>
+      <c r="C30">
+        <f>SUM(C22:C29)</f>
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="31" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="61">
+      <c r="B32" s="61">
         <v>1</v>
       </c>
-      <c r="C30" s="61">
+      <c r="C32" s="61">
         <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" ref="E30" si="10">($D30)</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="61">
-        <v>2</v>
-      </c>
-      <c r="C31" s="61">
-        <v>3</v>
-      </c>
-      <c r="D31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" t="str">
-        <f>($D31)</f>
-        <v>complete</v>
-      </c>
-      <c r="G31" t="str">
-        <f>($D31)</f>
-        <v>complete</v>
-      </c>
-      <c r="H31" t="str">
-        <f>($D31)</f>
-        <v>complete</v>
-      </c>
-    </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="61">
-        <v>10</v>
-      </c>
-      <c r="C32" s="61">
-        <v>9</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
       </c>
-      <c r="I32" t="str">
-        <f>($D32)</f>
+      <c r="E32" t="str">
+        <f t="shared" ref="E32" si="10">($D32)</f>
         <v>complete</v>
       </c>
-      <c r="J32" t="str">
-        <f>($D32)</f>
+    </row>
+    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="61">
+        <v>2</v>
+      </c>
+      <c r="C33" s="61">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="str">
+        <f>($D33)</f>
         <v>complete</v>
       </c>
-      <c r="K32" t="str">
-        <f t="shared" ref="K32:M32" si="11">($D32)</f>
+      <c r="G33" t="str">
+        <f>($D33)</f>
         <v>complete</v>
       </c>
-      <c r="L32" t="str">
+      <c r="H33" t="str">
+        <f>($D33)</f>
+        <v>complete</v>
+      </c>
+    </row>
+    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="61">
+        <v>10</v>
+      </c>
+      <c r="C34" s="61">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" t="str">
+        <f>($D34)</f>
+        <v>complete</v>
+      </c>
+      <c r="J34" t="str">
+        <f>($D34)</f>
+        <v>complete</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" ref="K34:M34" si="11">($D34)</f>
+        <v>complete</v>
+      </c>
+      <c r="L34" t="str">
         <f t="shared" si="11"/>
         <v>complete</v>
       </c>
-      <c r="M32" t="str">
+      <c r="M34" t="str">
         <f t="shared" si="11"/>
         <v>complete</v>
       </c>
-      <c r="N32" t="str">
-        <f>($D32)</f>
+      <c r="N34" t="str">
+        <f>($D34)</f>
         <v>complete</v>
       </c>
-      <c r="O32" t="str">
-        <f>($D32)</f>
+      <c r="O34" t="str">
+        <f>($D34)</f>
         <v>complete</v>
       </c>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="55"/>
-    </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="P34" s="54"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="55"/>
+    </row>
+    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="61">
+      <c r="B35" s="61">
         <v>6</v>
       </c>
-      <c r="C33" s="61">
+      <c r="C35" s="61">
         <v>3</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>17</v>
       </c>
-      <c r="S33" s="60"/>
-      <c r="T33" s="57"/>
-      <c r="U33" s="57"/>
-      <c r="V33" s="57"/>
-      <c r="W33" s="57"/>
-    </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="S35" s="60"/>
+      <c r="T35" s="57"/>
+      <c r="U35" s="57"/>
+      <c r="V35" s="57"/>
+      <c r="W35" s="57"/>
+    </row>
+    <row r="36" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="61">
+      <c r="B36" s="61">
         <v>5</v>
       </c>
-      <c r="C34" s="61"/>
-      <c r="D34" t="s">
+      <c r="C36" s="61"/>
+      <c r="D36" t="s">
         <v>19</v>
       </c>
-      <c r="X34" s="57"/>
-      <c r="Y34" s="57"/>
-      <c r="Z34" s="57"/>
-      <c r="AA34" s="57"/>
-      <c r="AB34" s="57"/>
-    </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="X36" s="57"/>
+      <c r="Y36" s="57"/>
+      <c r="Z36" s="57"/>
+      <c r="AA36" s="57"/>
+      <c r="AB36" s="57"/>
+    </row>
+    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="61">
+      <c r="B37" s="61">
         <v>5</v>
       </c>
-      <c r="C35" s="61">
+      <c r="C37" s="61">
         <v>4</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D37" t="s">
         <v>18</v>
       </c>
-      <c r="AC35" s="56"/>
-      <c r="AD35" s="56"/>
-      <c r="AE35" s="56"/>
-      <c r="AF35" s="56"/>
-      <c r="AG35" s="56"/>
-      <c r="AH35" s="56"/>
-      <c r="AI35" s="56"/>
-      <c r="AJ35" s="56"/>
-      <c r="AK35" s="56"/>
-      <c r="AL35" s="56"/>
-      <c r="AM35" s="3"/>
-      <c r="AN35" s="3"/>
-      <c r="AO35" s="3"/>
-      <c r="AP35" s="3"/>
-      <c r="AQ35" s="3"/>
-    </row>
-    <row r="36" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="61">
-        <v>12</v>
-      </c>
-      <c r="C36" s="61">
-        <v>10</v>
-      </c>
-      <c r="D36" t="s">
-        <v>17</v>
-      </c>
-      <c r="AM36" s="63"/>
-      <c r="AN36" s="63"/>
-      <c r="AO36" s="63"/>
-      <c r="AP36" s="63"/>
-      <c r="AQ36" s="63"/>
-      <c r="AR36" s="63"/>
-      <c r="AS36" s="63"/>
-      <c r="AT36" s="63"/>
-      <c r="AU36" s="63"/>
-      <c r="AV36" s="63"/>
-      <c r="AW36" s="63"/>
-      <c r="AX36" s="63"/>
-      <c r="AY36" s="63"/>
-      <c r="AZ36" s="63"/>
-      <c r="BA36" s="63"/>
-      <c r="BB36" s="3"/>
-    </row>
-    <row r="37" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>103</v>
-      </c>
-      <c r="B37" s="61">
-        <v>3</v>
-      </c>
-      <c r="C37" s="61">
-        <v>2</v>
-      </c>
-      <c r="D37" t="s">
-        <v>17</v>
-      </c>
+      <c r="AC37" s="56"/>
+      <c r="AD37" s="56"/>
+      <c r="AE37" s="56"/>
+      <c r="AF37" s="56"/>
+      <c r="AG37" s="56"/>
+      <c r="AH37" s="56"/>
+      <c r="AI37" s="56"/>
+      <c r="AJ37" s="56"/>
+      <c r="AK37" s="56"/>
+      <c r="AL37" s="56"/>
       <c r="AM37" s="3"/>
       <c r="AN37" s="3"/>
       <c r="AO37" s="3"/>
       <c r="AP37" s="3"/>
       <c r="AQ37" s="3"/>
-      <c r="AR37" s="3"/>
-      <c r="AS37" s="3"/>
-      <c r="AT37" s="3"/>
-      <c r="AU37" s="3"/>
-      <c r="AV37" s="3"/>
-      <c r="AW37" s="3"/>
-      <c r="AX37" s="3"/>
-      <c r="AY37" s="3"/>
-      <c r="AZ37" s="62"/>
-      <c r="BA37" s="62"/>
-      <c r="BB37" s="3"/>
-    </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="61">
+        <v>12</v>
+      </c>
+      <c r="C38" s="61">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM38" s="63"/>
+      <c r="AN38" s="63"/>
+      <c r="AO38" s="63"/>
+      <c r="AP38" s="63"/>
+      <c r="AQ38" s="63"/>
+      <c r="AR38" s="63"/>
+      <c r="AS38" s="63"/>
+      <c r="AT38" s="63"/>
+      <c r="AU38" s="63"/>
+      <c r="AV38" s="63"/>
+      <c r="AW38" s="63"/>
+      <c r="AX38" s="63"/>
+      <c r="AY38" s="63"/>
+      <c r="AZ38" s="63"/>
+      <c r="BA38" s="63"/>
+      <c r="BB38" s="3"/>
+    </row>
+    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="61">
+        <v>3</v>
+      </c>
+      <c r="C39" s="61">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM39" s="3"/>
+      <c r="AN39" s="3"/>
+      <c r="AO39" s="3"/>
+      <c r="AP39" s="3"/>
+      <c r="AQ39" s="3"/>
+      <c r="AR39" s="3"/>
+      <c r="AS39" s="3"/>
+      <c r="AT39" s="3"/>
+      <c r="AU39" s="3"/>
+      <c r="AV39" s="3"/>
+      <c r="AW39" s="3"/>
+      <c r="AX39" s="3"/>
+      <c r="AY39" s="3"/>
+      <c r="AZ39" s="62"/>
+      <c r="BA39" s="62"/>
+      <c r="BB39" s="3"/>
+    </row>
+    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>32</v>
       </c>
-      <c r="B38">
-        <f>SUM(B30:B37)</f>
+      <c r="B40">
+        <f>SUM(B32:B39)</f>
         <v>44</v>
       </c>
-      <c r="C38">
-        <f>SUM(C30:C37)</f>
+      <c r="C40">
+        <f>SUM(C32:C39)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+    <row r="41" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>49</v>
       </c>
-      <c r="B40">
+      <c r="B42">
         <v>5</v>
       </c>
-      <c r="C40">
+      <c r="C42">
         <v>5</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D42" t="s">
         <v>17</v>
       </c>
-      <c r="E40" t="str">
-        <f t="shared" ref="E40:I40" si="12">($D40)</f>
+      <c r="E42" t="str">
+        <f t="shared" ref="E42:I42" si="12">($D42)</f>
         <v>complete</v>
       </c>
-      <c r="F40" t="str">
+      <c r="F42" t="str">
         <f t="shared" si="12"/>
         <v>complete</v>
       </c>
-      <c r="G40" t="str">
+      <c r="G42" t="str">
         <f t="shared" si="12"/>
         <v>complete</v>
       </c>
-      <c r="H40" t="str">
+      <c r="H42" t="str">
         <f t="shared" si="12"/>
         <v>complete</v>
       </c>
-      <c r="I40" t="str">
+      <c r="I42" t="str">
         <f t="shared" si="12"/>
         <v>complete</v>
       </c>
     </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>50</v>
       </c>
-      <c r="B41">
+      <c r="B43">
         <v>5</v>
       </c>
-      <c r="C41">
+      <c r="C43">
         <v>5</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D43" t="s">
         <v>17</v>
       </c>
-      <c r="J41" t="str">
-        <f t="shared" ref="J41:N41" si="13">($D41)</f>
+      <c r="J43" t="str">
+        <f t="shared" ref="J43:N43" si="13">($D43)</f>
         <v>complete</v>
       </c>
-      <c r="K41" t="str">
+      <c r="K43" t="str">
         <f t="shared" si="13"/>
         <v>complete</v>
       </c>
-      <c r="L41" t="str">
+      <c r="L43" t="str">
         <f t="shared" si="13"/>
         <v>complete</v>
       </c>
-      <c r="M41" t="str">
+      <c r="M43" t="str">
         <f t="shared" si="13"/>
         <v>complete</v>
       </c>
-      <c r="N41" t="str">
+      <c r="N43" t="str">
         <f t="shared" si="13"/>
         <v>complete</v>
       </c>
     </row>
-    <row r="42" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>51</v>
       </c>
-      <c r="B42">
+      <c r="B44">
         <v>4</v>
       </c>
-      <c r="C42">
+      <c r="C44">
         <v>3</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D44" t="s">
         <v>17</v>
       </c>
-      <c r="O42" t="str">
-        <f t="shared" ref="O42:T42" si="14">($D42)</f>
+      <c r="O44" t="str">
+        <f t="shared" ref="O44:T44" si="14">($D44)</f>
         <v>complete</v>
       </c>
-      <c r="P42" t="str">
+      <c r="P44" t="str">
         <f t="shared" si="14"/>
         <v>complete</v>
       </c>
-      <c r="Q42" t="str">
+      <c r="Q44" t="str">
         <f t="shared" si="14"/>
         <v>complete</v>
       </c>
-      <c r="R42" t="str">
+      <c r="R44" t="str">
         <f t="shared" si="14"/>
         <v>complete</v>
       </c>
-      <c r="S42" t="str">
+      <c r="S44" t="str">
         <f t="shared" si="14"/>
         <v>complete</v>
       </c>
-      <c r="T42" t="str">
+      <c r="T44" t="str">
         <f t="shared" si="14"/>
         <v>complete</v>
       </c>
     </row>
-    <row r="43" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>52</v>
       </c>
-      <c r="B43">
+      <c r="B45">
         <v>10</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D45" t="s">
         <v>17</v>
       </c>
-      <c r="U43" t="str">
-        <f t="shared" ref="U43:V43" si="15">($D43)</f>
+      <c r="U45" t="str">
+        <f t="shared" ref="U45:V45" si="15">($D45)</f>
         <v>complete</v>
       </c>
-      <c r="V43" t="str">
+      <c r="V45" t="str">
         <f t="shared" si="15"/>
         <v>complete</v>
       </c>
     </row>
-    <row r="44" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>53</v>
       </c>
-      <c r="B44">
+      <c r="B46">
         <v>10</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D46" t="s">
         <v>18</v>
       </c>
-      <c r="W44" t="str">
-        <f t="shared" ref="W44:AB44" si="16">($D44)</f>
+      <c r="W46" t="str">
+        <f t="shared" ref="W46:AB46" si="16">($D46)</f>
         <v>this week</v>
       </c>
-      <c r="X44" t="str">
+      <c r="X46" t="str">
         <f t="shared" si="16"/>
         <v>this week</v>
       </c>
-      <c r="Y44" t="str">
+      <c r="Y46" t="str">
         <f t="shared" si="16"/>
         <v>this week</v>
       </c>
-      <c r="Z44" t="str">
+      <c r="Z46" t="str">
         <f t="shared" si="16"/>
         <v>this week</v>
       </c>
-      <c r="AA44" t="str">
+      <c r="AA46" t="str">
         <f t="shared" si="16"/>
         <v>this week</v>
       </c>
-      <c r="AB44" t="str">
+      <c r="AB46" t="str">
         <f t="shared" si="16"/>
         <v>this week</v>
       </c>
     </row>
-    <row r="45" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="47" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>54</v>
       </c>
-      <c r="B45">
+      <c r="B47">
         <v>10</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D47" t="s">
         <v>19</v>
       </c>
-      <c r="AC45" t="str">
-        <f t="shared" ref="AC45:AD45" si="17">($D45)</f>
+      <c r="AC47" t="str">
+        <f t="shared" ref="AC47:AD47" si="17">($D47)</f>
         <v>planned</v>
       </c>
-      <c r="AD45" t="str">
+      <c r="AD47" t="str">
         <f t="shared" si="17"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="46" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="48" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>55</v>
       </c>
-      <c r="B46">
+      <c r="B48">
         <v>5</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D48" t="s">
         <v>19</v>
       </c>
-      <c r="AE46" t="str">
-        <f t="shared" ref="AE46:AH46" si="18">($D46)</f>
+      <c r="AE48" t="str">
+        <f t="shared" ref="AE48:AH48" si="18">($D48)</f>
         <v>planned</v>
       </c>
-      <c r="AF46" t="str">
+      <c r="AF48" t="str">
         <f t="shared" si="18"/>
         <v>planned</v>
       </c>
-      <c r="AG46" t="str">
+      <c r="AG48" t="str">
         <f t="shared" si="18"/>
         <v>planned</v>
       </c>
-      <c r="AH46" t="str">
+      <c r="AH48" t="str">
         <f t="shared" si="18"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="47" spans="1:54" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>32</v>
       </c>
-      <c r="B47">
-        <f>SUM(B40:B46)</f>
+      <c r="B49">
+        <f>SUM(B42:B48)</f>
         <v>49</v>
       </c>
-      <c r="C47">
-        <f>SUM(C40:C46)</f>
+      <c r="C49">
+        <f>SUM(C42:C48)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+    <row r="50" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>56</v>
       </c>
-      <c r="B49">
+      <c r="B51">
         <v>10</v>
       </c>
-      <c r="C49">
+      <c r="C51">
         <v>7</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D51" t="s">
         <v>17</v>
       </c>
-      <c r="E49" t="str">
-        <f t="shared" ref="E49:I49" si="19">($D49)</f>
+      <c r="E51" t="str">
+        <f t="shared" ref="E51:I51" si="19">($D51)</f>
         <v>complete</v>
       </c>
-      <c r="F49" t="str">
+      <c r="F51" t="str">
         <f t="shared" si="19"/>
         <v>complete</v>
       </c>
-      <c r="G49" t="str">
+      <c r="G51" t="str">
         <f t="shared" si="19"/>
         <v>complete</v>
       </c>
-      <c r="H49" t="str">
+      <c r="H51" t="str">
         <f t="shared" si="19"/>
         <v>complete</v>
       </c>
-      <c r="I49" t="str">
+      <c r="I51" t="str">
         <f t="shared" si="19"/>
         <v>complete</v>
       </c>
-      <c r="J49" s="55"/>
-      <c r="K49" s="55"/>
-    </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="J51" s="55"/>
+      <c r="K51" s="55"/>
+    </row>
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>57</v>
       </c>
-      <c r="B50">
+      <c r="B52">
         <v>5</v>
       </c>
-      <c r="C50">
+      <c r="C52">
         <v>2</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D52" t="s">
         <v>18</v>
       </c>
-      <c r="L50" t="str">
-        <f t="shared" ref="L50:P50" si="20">($D50)</f>
+      <c r="L52" t="str">
+        <f t="shared" ref="L52:P52" si="20">($D52)</f>
         <v>this week</v>
       </c>
-      <c r="M50" t="str">
+      <c r="M52" t="str">
         <f t="shared" si="20"/>
         <v>this week</v>
       </c>
-      <c r="N50" t="str">
+      <c r="N52" t="str">
         <f t="shared" si="20"/>
         <v>this week</v>
       </c>
-      <c r="O50" s="58" t="str">
-        <f>($D50)</f>
+      <c r="O52" s="58" t="str">
+        <f>($D52)</f>
         <v>this week</v>
       </c>
-      <c r="P50" s="3" t="str">
+      <c r="P52" s="3" t="str">
         <f t="shared" si="20"/>
         <v>this week</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>58</v>
       </c>
-      <c r="B51">
+      <c r="B53">
         <v>5</v>
       </c>
-      <c r="C51">
+      <c r="C53">
         <v>7</v>
       </c>
-      <c r="D51" s="56" t="s">
+      <c r="D53" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="Q51" t="str">
-        <f t="shared" ref="Q51:V51" si="21">($D51)</f>
+      <c r="Q53" t="str">
+        <f t="shared" ref="Q53:V53" si="21">($D53)</f>
         <v>this week</v>
       </c>
-      <c r="R51" t="str">
+      <c r="R53" t="str">
         <f t="shared" si="21"/>
         <v>this week</v>
       </c>
-      <c r="S51" t="str">
+      <c r="S53" t="str">
         <f t="shared" si="21"/>
         <v>this week</v>
       </c>
-      <c r="T51" t="str">
+      <c r="T53" t="str">
         <f t="shared" si="21"/>
         <v>this week</v>
       </c>
-      <c r="U51" t="str">
+      <c r="U53" t="str">
         <f t="shared" si="21"/>
         <v>this week</v>
       </c>
-      <c r="V51" t="str">
+      <c r="V53" t="str">
         <f t="shared" si="21"/>
         <v>this week</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>59</v>
       </c>
-      <c r="B52">
+      <c r="B54">
         <v>10</v>
       </c>
-      <c r="C52">
+      <c r="C54">
         <v>5</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D54" t="s">
         <v>17</v>
       </c>
-      <c r="W52" t="str">
-        <f t="shared" ref="W52:X52" si="22">($D52)</f>
+      <c r="W54" t="str">
+        <f t="shared" ref="W54:X54" si="22">($D54)</f>
         <v>complete</v>
       </c>
-      <c r="X52" t="str">
+      <c r="X54" t="str">
         <f t="shared" si="22"/>
         <v>complete</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>60</v>
       </c>
-      <c r="B53">
+      <c r="B55">
         <v>10</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D55" t="s">
         <v>19</v>
       </c>
-      <c r="Y53" t="str">
-        <f t="shared" ref="Y53:AD53" si="23">($D53)</f>
+      <c r="Y55" t="str">
+        <f t="shared" ref="Y55:AD55" si="23">($D55)</f>
         <v>planned</v>
       </c>
-      <c r="Z53" t="str">
+      <c r="Z55" t="str">
         <f t="shared" si="23"/>
         <v>planned</v>
       </c>
-      <c r="AA53" t="str">
+      <c r="AA55" t="str">
         <f t="shared" si="23"/>
         <v>planned</v>
       </c>
-      <c r="AB53" t="str">
+      <c r="AB55" t="str">
         <f t="shared" si="23"/>
         <v>planned</v>
       </c>
-      <c r="AC53" t="str">
+      <c r="AC55" t="str">
         <f t="shared" si="23"/>
         <v>planned</v>
       </c>
-      <c r="AD53" t="str">
+      <c r="AD55" t="str">
         <f t="shared" si="23"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>61</v>
       </c>
-      <c r="B54">
+      <c r="B56">
         <v>10</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D56" t="s">
         <v>19</v>
       </c>
-      <c r="AE54" t="str">
-        <f t="shared" ref="AE54:AJ54" si="24">($D54)</f>
+      <c r="AE56" t="str">
+        <f t="shared" ref="AE56:AJ56" si="24">($D56)</f>
         <v>planned</v>
       </c>
-      <c r="AF54" t="str">
+      <c r="AF56" t="str">
         <f t="shared" si="24"/>
         <v>planned</v>
       </c>
-      <c r="AG54" t="str">
+      <c r="AG56" t="str">
         <f t="shared" si="24"/>
         <v>planned</v>
       </c>
-      <c r="AH54" t="str">
+      <c r="AH56" t="str">
         <f t="shared" si="24"/>
         <v>planned</v>
       </c>
-      <c r="AI54" t="str">
+      <c r="AI56" t="str">
         <f t="shared" si="24"/>
         <v>planned</v>
       </c>
-      <c r="AJ54" t="str">
+      <c r="AJ56" t="str">
         <f t="shared" si="24"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>62</v>
       </c>
-      <c r="B55">
+      <c r="B57">
         <v>5</v>
       </c>
-      <c r="C55">
+      <c r="C57">
         <v>2</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D57" t="s">
         <v>18</v>
       </c>
-      <c r="AK55" t="str">
-        <f t="shared" ref="AK55:AN55" si="25">($D55)</f>
+      <c r="AK57" t="str">
+        <f t="shared" ref="AK57:AN57" si="25">($D57)</f>
         <v>this week</v>
       </c>
-      <c r="AL55" t="str">
+      <c r="AL57" t="str">
         <f t="shared" si="25"/>
         <v>this week</v>
       </c>
-      <c r="AM55" t="str">
+      <c r="AM57" t="str">
         <f t="shared" si="25"/>
         <v>this week</v>
       </c>
-      <c r="AN55" t="str">
+      <c r="AN57" t="str">
         <f t="shared" si="25"/>
         <v>this week</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>63</v>
       </c>
-      <c r="B56">
+      <c r="B58">
         <v>2</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D58" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-      <c r="AA56" s="3"/>
-      <c r="AO56" t="str">
-        <f t="shared" ref="AO56:AP56" si="26">($D56)</f>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="3"/>
+      <c r="AA58" s="3"/>
+      <c r="AO58" t="str">
+        <f t="shared" ref="AO58:AP58" si="26">($D58)</f>
         <v>planned</v>
       </c>
-      <c r="AP56" t="str">
+      <c r="AP58" t="str">
         <f t="shared" si="26"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>32</v>
       </c>
-      <c r="B57">
-        <f>SUM(B49:B56)</f>
+      <c r="B59">
+        <f>SUM(B51:B58)</f>
         <v>57</v>
       </c>
-      <c r="C57">
-        <f>SUM(C49:C56)</f>
+      <c r="C59">
+        <f>SUM(C51:C58)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
+    <row r="60" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="6">
-        <f>SUM(B38,B47,B28,B18)</f>
-        <v>189</v>
-      </c>
-      <c r="C58" s="6">
-        <f>SUM(C18,C28,C38,C47,C57)</f>
-        <v>133</v>
-      </c>
-    </row>
-    <row r="59" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
+      <c r="B60" s="6">
+        <f>SUM(B40,B49,B30,B20)</f>
+        <v>198</v>
+      </c>
+      <c r="C60" s="6">
+        <f>SUM(C20,C30,C40,C49,C59)</f>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="53">
-        <f>B58*100</f>
-        <v>18900</v>
-      </c>
-      <c r="C59" s="53">
-        <f>C58*100</f>
-        <v>13300</v>
-      </c>
-      <c r="D59" s="53"/>
+      <c r="B61" s="53">
+        <f>B60*100</f>
+        <v>19800</v>
+      </c>
+      <c r="C61" s="53">
+        <f>C60*100</f>
+        <v>14200</v>
+      </c>
+      <c r="D61" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="E25:N25"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="L23:S23"/>
-    <mergeCell ref="T24:X24"/>
-    <mergeCell ref="G26:P26"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="E27:N27"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="L25:S25"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="G28:P28"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3 D20:D26 D49:D55">
-    <cfRule type="cellIs" dxfId="122" priority="178" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="179" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="180" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D17">
-    <cfRule type="cellIs" dxfId="119" priority="175" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="176" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="177" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="116" priority="172" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="173" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="174" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="113" priority="169" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="170" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="171" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36:D37">
-    <cfRule type="cellIs" dxfId="110" priority="166" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="167" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="168" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33:BR36 E32:O32 Q32:BR32 E22:BR22 E48:BR49 E50:I50 E51:J51 L50:BR50 L51:N51 Q51:BR51 E53:V53 E52:T52 E54:AJ54 Y53:AR53 W52:AR52 AW52:BR55 AM54:AR54 AQ55:AR55 E55:AN55 AO56:AP56 E28:BR31 E25 O25:BR25 I21:BR21 E21 E24:T24 E23:L23 T23:BR23 Y24:BR24 E26:G26 Q26:BR26 E27:Y27 AB27:BR27 E3:BR5 E6:I6 K6:BR6 E7:BR20 E38:BR46 E37:AY37 BB37:BR37">
-    <cfRule type="cellIs" dxfId="107" priority="160" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="161" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="162" operator="equal">
+  <conditionalFormatting sqref="D3 D22:D28 D51:D57">
+    <cfRule type="cellIs" dxfId="236" priority="292" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="293" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="294" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14 D18">
+    <cfRule type="cellIs" dxfId="233" priority="289" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="290" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="231" priority="291" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="cellIs" dxfId="230" priority="286" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="287" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="288" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="227" priority="283" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="284" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="285" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:D39">
+    <cfRule type="cellIs" dxfId="224" priority="280" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="281" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="282" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:BR38 E34:O34 Q34:BR34 E24:BR24 E50:BR51 E52:I52 E53:J53 L52:BR52 L53:N53 Q53:BR53 E55:V55 E54:T54 E56:AJ56 Y55:AR55 W54:AR54 AW54:BR57 AM56:AR56 AQ57:AR57 E57:AN57 AO58:AP58 E30:BR33 E27 O27:BR27 I23:BR23 E23 E26:T26 E25:L25 T25:BR25 Y26:BR26 E28:G28 Q28:BR28 E29:Y29 AB29:BR29 E3:BR5 E6:I6 K6:BR6 E40:BR48 E39:AY39 BB39:BR39 E7:BR14 E18:BR18 E20:BR22">
+    <cfRule type="cellIs" dxfId="221" priority="274" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="275" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="219" priority="276" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D13">
-    <cfRule type="cellIs" dxfId="104" priority="157" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="158" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="159" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30:D34">
-    <cfRule type="cellIs" dxfId="101" priority="151" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="152" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="153" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40:D46">
-    <cfRule type="cellIs" dxfId="98" priority="148" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="149" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="271" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="272" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="273" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D36">
+    <cfRule type="cellIs" dxfId="215" priority="265" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="266" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="267" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:D48">
+    <cfRule type="cellIs" dxfId="212" priority="262" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="211" priority="263" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="264" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="95" priority="145" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="146" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="259" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="260" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="207" priority="261" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H4">
-    <cfRule type="cellIs" dxfId="92" priority="142" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="143" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="256" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="257" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="258" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="89" priority="139" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="140" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="253" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="254" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="255" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="86" priority="136" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="137" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="250" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="251" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="252" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:M7">
-    <cfRule type="cellIs" dxfId="83" priority="133" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="134" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="247" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="248" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="195" priority="249" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8:P8">
-    <cfRule type="cellIs" dxfId="80" priority="130" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="131" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="244" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="245" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="246" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9:T10">
-    <cfRule type="cellIs" dxfId="77" priority="127" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="128" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="241" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="242" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="243" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11:AG11">
-    <cfRule type="cellIs" dxfId="74" priority="124" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="125" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="238" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="239" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="240" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI13">
-    <cfRule type="cellIs" dxfId="71" priority="121" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="122" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="235" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="236" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="237" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH12">
-    <cfRule type="cellIs" dxfId="68" priority="118" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="119" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="120" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56">
-    <cfRule type="cellIs" dxfId="65" priority="97" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="98" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="232" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="233" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="234" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="cellIs" dxfId="179" priority="211" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="212" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="213" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
+    <cfRule type="cellIs" dxfId="176" priority="175" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="176" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="177" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:K5">
+    <cfRule type="cellIs" dxfId="173" priority="172" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="173" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="174" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6">
+    <cfRule type="cellIs" dxfId="170" priority="169" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="170" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="171" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:N6">
+    <cfRule type="cellIs" dxfId="167" priority="166" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="167" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="168" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7 M6:N6">
+    <cfRule type="cellIs" dxfId="164" priority="163" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="164" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="165" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7:P7 M6:N6">
+    <cfRule type="cellIs" dxfId="161" priority="160" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="161" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="162" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7:Q7 M6:N6">
+    <cfRule type="cellIs" dxfId="158" priority="157" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="158" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="159" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8 O7:Q7 M6:N6">
+    <cfRule type="cellIs" dxfId="155" priority="154" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="155" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="156" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8:S8 O7:Q7 M6:N6">
+    <cfRule type="cellIs" dxfId="152" priority="151" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="152" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="153" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8:T8 O7:Q7 M6:N6">
+    <cfRule type="cellIs" dxfId="149" priority="148" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="149" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="150" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9:U10">
+    <cfRule type="cellIs" dxfId="146" priority="145" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="146" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="147" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9:V10">
+    <cfRule type="cellIs" dxfId="143" priority="142" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="143" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="144" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9:W10">
+    <cfRule type="cellIs" dxfId="140" priority="139" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="140" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="141" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9:X10">
+    <cfRule type="cellIs" dxfId="137" priority="136" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="137" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="138" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB12">
+    <cfRule type="cellIs" dxfId="134" priority="133" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="134" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="135" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC12">
+    <cfRule type="cellIs" dxfId="131" priority="130" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="131" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="132" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD12">
+    <cfRule type="cellIs" dxfId="128" priority="127" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="128" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="129" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE13:AF13">
+    <cfRule type="cellIs" dxfId="125" priority="124" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="125" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="126" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG13">
+    <cfRule type="cellIs" dxfId="122" priority="121" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="122" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="123" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH14">
+    <cfRule type="cellIs" dxfId="119" priority="118" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="119" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="120" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH14:AI14">
+    <cfRule type="cellIs" dxfId="116" priority="115" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="116" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="117" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y10">
+    <cfRule type="cellIs" dxfId="113" priority="112" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="113" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="114" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y10:Z10">
+    <cfRule type="cellIs" dxfId="110" priority="109" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="110" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="111" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y10:AA10">
+    <cfRule type="cellIs" dxfId="107" priority="106" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="107" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="108" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y10:AB10">
+    <cfRule type="cellIs" dxfId="104" priority="103" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="104" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="105" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF12:AH12">
+    <cfRule type="cellIs" dxfId="101" priority="100" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="101" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="102" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI13:AK13">
+    <cfRule type="cellIs" dxfId="98" priority="97" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="98" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="99" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL14">
+    <cfRule type="cellIs" dxfId="95" priority="94" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="95" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="96" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL14:AM14">
+    <cfRule type="cellIs" dxfId="92" priority="91" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="92" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="93" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK13">
+    <cfRule type="cellIs" dxfId="89" priority="88" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="89" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="90" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK13">
+    <cfRule type="cellIs" dxfId="86" priority="85" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="86" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="87" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ13:AK13">
+    <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="84" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ13:AK13">
+    <cfRule type="cellIs" dxfId="80" priority="79" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="81" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI13:AK13">
+    <cfRule type="cellIs" dxfId="77" priority="76" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="78" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI13:AK13">
+    <cfRule type="cellIs" dxfId="74" priority="73" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="74" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="75" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:D17">
+    <cfRule type="cellIs" dxfId="71" priority="70" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="71" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="72" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:AR17 E15:AM15 AS15:BR15 AW16:BR16 BB17:BR17">
+    <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="68" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="69" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="65" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="66" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:BR19">
     <cfRule type="cellIs" dxfId="62" priority="61" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4667,7 +6307,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5:K5">
+  <conditionalFormatting sqref="AN15:AQ15">
     <cfRule type="cellIs" dxfId="59" priority="58" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4678,7 +6318,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6">
+  <conditionalFormatting sqref="AN15">
     <cfRule type="cellIs" dxfId="56" priority="55" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4689,7 +6329,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M6:N6">
+  <conditionalFormatting sqref="AN15:AO15">
     <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4700,7 +6340,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7 M6:N6">
+  <conditionalFormatting sqref="AN15:AP15">
     <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4711,7 +6351,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7:P7 M6:N6">
+  <conditionalFormatting sqref="AN15:AQ15">
     <cfRule type="cellIs" dxfId="47" priority="46" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4722,7 +6362,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7:Q7 M6:N6">
+  <conditionalFormatting sqref="AR15">
     <cfRule type="cellIs" dxfId="44" priority="43" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4733,7 +6373,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8 O7:Q7 M6:N6">
+  <conditionalFormatting sqref="AR15">
     <cfRule type="cellIs" dxfId="41" priority="40" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4744,7 +6384,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8:S8 O7:Q7 M6:N6">
+  <conditionalFormatting sqref="AS16:AU17">
     <cfRule type="cellIs" dxfId="38" priority="37" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4755,7 +6395,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R8:T8 O7:Q7 M6:N6">
+  <conditionalFormatting sqref="AS16:AS17">
     <cfRule type="cellIs" dxfId="35" priority="34" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4766,7 +6406,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U9:U10">
+  <conditionalFormatting sqref="AS16:AT17">
     <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4777,7 +6417,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U9:V10">
+  <conditionalFormatting sqref="AS16:AU17">
     <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4788,7 +6428,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U9:W10">
+  <conditionalFormatting sqref="AV16:AV17">
     <cfRule type="cellIs" dxfId="26" priority="25" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4799,7 +6439,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U9:X10">
+  <conditionalFormatting sqref="AV16:AV17">
     <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4810,7 +6450,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB12">
+  <conditionalFormatting sqref="AW17:AZ17">
     <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4821,7 +6461,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC12">
+  <conditionalFormatting sqref="AW17">
     <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4832,7 +6472,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD12">
+  <conditionalFormatting sqref="AW17:AX17">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4843,7 +6483,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE13:AF13">
+  <conditionalFormatting sqref="AW17:AY17">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4854,7 +6494,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG13">
+  <conditionalFormatting sqref="AW17:AZ17">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4865,7 +6505,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH14">
+  <conditionalFormatting sqref="BA17">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4876,7 +6516,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH14:AI14">
+  <conditionalFormatting sqref="BA17">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -4888,7 +6528,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30:D37 D3:D17 D20:D27 D49:D56 D40:D46" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32:D39 D42:D48 D22:D29 D51:D58 D3:D19" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$F$1:$H$1</formula1>
     </dataValidation>
   </dataValidations>
@@ -4905,9 +6545,9 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>66</v>
       </c>
@@ -4936,7 +6576,7 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
         <v>67</v>
       </c>
@@ -4965,7 +6605,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>75</v>
       </c>
@@ -4994,7 +6634,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -5027,7 +6667,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -5060,7 +6700,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -5093,7 +6733,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -5126,7 +6766,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -5159,7 +6799,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
@@ -5208,15 +6848,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
     </row>
   </sheetData>
@@ -5233,16 +6873,16 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="19" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="19" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="31"/>
       <c r="B1" s="32" t="s">
         <v>77</v>
@@ -5299,7 +6939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>8</v>
       </c>
@@ -5315,7 +6955,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
       <c r="B3" s="35" t="s">
         <v>81</v>
@@ -5332,7 +6972,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="38"/>
       <c r="B4" s="35" t="s">
         <v>82</v>
@@ -5348,7 +6988,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="52"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
       <c r="B5" s="35" t="s">
         <v>83</v>
@@ -5362,7 +7002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>9</v>
       </c>
@@ -5378,7 +7018,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="46"/>
       <c r="B7" s="35" t="s">
         <v>81</v>
@@ -5395,7 +7035,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="38"/>
       <c r="B8" s="35" t="s">
         <v>84</v>
@@ -5411,7 +7051,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="47"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="35" t="s">
         <v>83</v>
@@ -5425,7 +7065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>10</v>
       </c>
@@ -5440,7 +7080,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="46"/>
       <c r="B11" s="35" t="s">
         <v>81</v>
@@ -5457,7 +7097,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="40" t="s">
         <v>85</v>
@@ -5473,7 +7113,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="40" t="s">
         <v>87</v>
@@ -5488,7 +7128,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="40" t="s">
         <v>89</v>
@@ -5504,7 +7144,7 @@
       </c>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="41" t="s">
         <v>83</v>
@@ -5518,7 +7158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>11</v>
       </c>
@@ -5534,7 +7174,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="46"/>
       <c r="B17" s="35" t="s">
         <v>81</v>
@@ -5551,7 +7191,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="35" t="s">
         <v>91</v>
@@ -5567,7 +7207,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="47"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="41" t="s">
         <v>83</v>
@@ -5581,7 +7221,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
         <v>12</v>
       </c>
@@ -5597,7 +7237,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="46"/>
       <c r="B21" s="35" t="s">
         <v>81</v>
@@ -5614,7 +7254,7 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="35" t="s">
         <v>92</v>
@@ -5630,7 +7270,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="47"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
       <c r="B23" s="41" t="s">
         <v>83</v>
@@ -5644,7 +7284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="42"/>
       <c r="B24" s="43" t="s">
         <v>0</v>
@@ -5658,7 +7298,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" s="30" t="s">
         <v>93</v>
       </c>
@@ -5677,12 +7317,12 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>8</v>
@@ -5700,7 +7340,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>94</v>
       </c>
@@ -5720,7 +7360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>95</v>
       </c>
@@ -5740,7 +7380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>96</v>
       </c>
@@ -5760,7 +7400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>97</v>
       </c>
@@ -5780,20 +7420,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>

--- a/docs/Gantt Chart.xlsx
+++ b/docs/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Homework Assignments\Tower-of-Annihilation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37BDFDB-9848-4575-A5D9-5F464DAE5899}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D489EE-3A5C-41F9-8363-57A0804126C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,9 +127,6 @@
     <t>Health Bars</t>
   </si>
   <si>
-    <t>Make Additional Levels</t>
-  </si>
-  <si>
     <t>Music Implementation</t>
   </si>
   <si>
@@ -356,6 +353,9 @@
   </si>
   <si>
     <t>Player Inventory</t>
+  </si>
+  <si>
+    <t>Make Additional Levels (Continuous)</t>
   </si>
 </sst>
 </file>
@@ -3910,7 +3910,7 @@
   <dimension ref="A1:BK61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4421,7 +4421,7 @@
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -4470,7 +4470,7 @@
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -4502,24 +4502,24 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="str">
         <f t="shared" ref="AI13:AM14" si="5">($D13)</f>
-        <v>this week</v>
+        <v>complete</v>
       </c>
       <c r="AJ13" t="str">
         <f t="shared" si="5"/>
-        <v>this week</v>
+        <v>complete</v>
       </c>
       <c r="AK13" t="str">
         <f t="shared" si="5"/>
-        <v>this week</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -4541,7 +4541,7 @@
     </row>
     <row r="15" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -4570,7 +4570,7 @@
     </row>
     <row r="16" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -4596,7 +4596,7 @@
     </row>
     <row r="17" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -4625,7 +4625,7 @@
     </row>
     <row r="18" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -4636,7 +4636,7 @@
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <f>SUM(B3:B19)</f>
@@ -4665,7 +4665,7 @@
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -4684,7 +4684,7 @@
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -4705,7 +4705,7 @@
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -4731,7 +4731,7 @@
     </row>
     <row r="25" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25">
         <v>8</v>
@@ -4743,7 +4743,7 @@
         <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L25" s="67" t="str">
         <f t="shared" ref="L25" si="8">($D25)</f>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="27" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27">
         <v>10</v>
@@ -4808,7 +4808,7 @@
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28">
         <v>10</v>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -4865,7 +4865,7 @@
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <f>SUM(B22:B29)</f>
@@ -4883,7 +4883,7 @@
     </row>
     <row r="32" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="61">
         <v>1</v>
@@ -4901,7 +4901,7 @@
     </row>
     <row r="33" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="61">
         <v>2</v>
@@ -4927,7 +4927,7 @@
     </row>
     <row r="34" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="61">
         <v>10</v>
@@ -4972,7 +4972,7 @@
     </row>
     <row r="35" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="61">
         <v>6</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="36" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="61">
         <v>5</v>
@@ -5008,7 +5008,7 @@
     </row>
     <row r="37" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="61">
         <v>5</v>
@@ -5037,7 +5037,7 @@
     </row>
     <row r="38" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" s="61">
         <v>12</v>
@@ -5067,7 +5067,7 @@
     </row>
     <row r="39" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B39" s="61">
         <v>3</v>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="40" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B40">
         <f>SUM(B32:B39)</f>
@@ -5115,7 +5115,7 @@
     </row>
     <row r="42" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>5</v>
@@ -5149,7 +5149,7 @@
     </row>
     <row r="43" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43">
         <v>5</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="44" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -5221,7 +5221,7 @@
     </row>
     <row r="45" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>10</v>
@@ -5240,7 +5240,7 @@
     </row>
     <row r="46" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B46">
         <v>10</v>
@@ -5275,7 +5275,7 @@
     </row>
     <row r="47" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47">
         <v>10</v>
@@ -5294,7 +5294,7 @@
     </row>
     <row r="48" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B48">
         <v>5</v>
@@ -5321,7 +5321,7 @@
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B49">
         <f>SUM(B42:B48)</f>
@@ -5339,7 +5339,7 @@
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>10</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>5</v>
@@ -5409,7 +5409,7 @@
     </row>
     <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53">
         <v>5</v>
@@ -5447,7 +5447,7 @@
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54">
         <v>10</v>
@@ -5469,7 +5469,7 @@
     </row>
     <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55">
         <v>10</v>
@@ -5504,7 +5504,7 @@
     </row>
     <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56">
         <v>10</v>
@@ -5539,7 +5539,7 @@
     </row>
     <row r="57" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -5569,7 +5569,7 @@
     </row>
     <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -5611,7 +5611,7 @@
     </row>
     <row r="59" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B59">
         <f>SUM(B51:B58)</f>
@@ -5624,7 +5624,7 @@
     </row>
     <row r="60" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B60" s="6">
         <f>SUM(B40,B49,B30,B20)</f>
@@ -5637,7 +5637,7 @@
     </row>
     <row r="61" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B61" s="53">
         <f>B60*100</f>
@@ -6549,7 +6549,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="59">
         <v>44210</v>
@@ -6578,28 +6578,28 @@
     </row>
     <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -6607,7 +6607,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -6643,25 +6643,25 @@
         <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -6676,25 +6676,25 @@
         <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -6709,25 +6709,25 @@
         <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -6742,25 +6742,25 @@
         <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -6775,25 +6775,25 @@
         <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -6853,7 +6853,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -6885,13 +6885,13 @@
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="31"/>
       <c r="B1" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="33" t="s">
         <v>78</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>79</v>
       </c>
       <c r="E1">
         <v>1</v>
@@ -6944,7 +6944,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="36">
         <v>2</v>
@@ -6958,7 +6958,7 @@
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
       <c r="B3" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="36">
         <v>5</v>
@@ -6975,7 +6975,7 @@
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="38"/>
       <c r="B4" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="36">
         <v>4</v>
@@ -6991,7 +6991,7 @@
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
       <c r="B5" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="35">
         <f>SUM(C2:C4)</f>
@@ -7007,7 +7007,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="36">
         <v>2</v>
@@ -7021,7 +7021,7 @@
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="46"/>
       <c r="B7" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="36">
         <v>5</v>
@@ -7038,7 +7038,7 @@
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="38"/>
       <c r="B8" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="36">
         <v>4</v>
@@ -7054,7 +7054,7 @@
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="35">
         <f>SUM(C6:C8)</f>
@@ -7070,7 +7070,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="36">
         <v>1</v>
@@ -7083,7 +7083,7 @@
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="46"/>
       <c r="B11" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="36">
         <v>5</v>
@@ -7100,7 +7100,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="36">
         <v>2</v>
@@ -7109,14 +7109,14 @@
         <v>2</v>
       </c>
       <c r="K12" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C13" s="36">
         <v>1</v>
@@ -7125,13 +7125,13 @@
         <v>1</v>
       </c>
       <c r="M13" s="47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="36">
         <v>2</v>
@@ -7140,14 +7140,14 @@
         <v>3</v>
       </c>
       <c r="N14" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="35">
         <f>SUM(C10:C14)</f>
@@ -7163,7 +7163,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="36">
         <v>2</v>
@@ -7177,7 +7177,7 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="46"/>
       <c r="B17" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="36">
         <v>5</v>
@@ -7194,7 +7194,7 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="36">
         <v>4</v>
@@ -7210,7 +7210,7 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" s="35">
         <f>SUM(C16:C18)</f>
@@ -7226,7 +7226,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="36">
         <v>2</v>
@@ -7240,7 +7240,7 @@
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="46"/>
       <c r="B21" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="36">
         <v>5</v>
@@ -7257,7 +7257,7 @@
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="36">
         <v>4</v>
@@ -7273,7 +7273,7 @@
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
       <c r="B23" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" s="35">
         <f>SUM(C20:C22)</f>
@@ -7300,7 +7300,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -7342,7 +7342,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -7362,7 +7362,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7382,7 +7382,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -7402,7 +7402,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7422,12 +7422,12 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">

--- a/docs/Gantt Chart.xlsx
+++ b/docs/Gantt Chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Homework Assignments\Tower-of-Annihilation\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\CS383\Tower-of-Annihilation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D489EE-3A5C-41F9-8363-57A0804126C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2975CD-215E-428E-99DB-BAAE42EEDEB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -220,9 +220,6 @@
     <t>Implement Game Saves</t>
   </si>
   <si>
-    <t>HighScore Display &amp; Implmentation</t>
-  </si>
-  <si>
     <t>Background Enhancements &amp; Art</t>
   </si>
   <si>
@@ -356,6 +353,9 @@
   </si>
   <si>
     <t>Make Additional Levels (Continuous)</t>
+  </si>
+  <si>
+    <t>Layering</t>
   </si>
 </sst>
 </file>
@@ -3909,8 +3909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BK61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4421,7 +4421,7 @@
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -4470,7 +4470,7 @@
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -4541,7 +4541,7 @@
     </row>
     <row r="15" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -4570,7 +4570,7 @@
     </row>
     <row r="16" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -4596,7 +4596,7 @@
     </row>
     <row r="17" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -5067,7 +5067,7 @@
     </row>
     <row r="39" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B39" s="61">
         <v>3</v>
@@ -5504,7 +5504,7 @@
     </row>
     <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="B56">
         <v>10</v>
@@ -5539,7 +5539,7 @@
     </row>
     <row r="57" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -5569,7 +5569,7 @@
     </row>
     <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -5624,7 +5624,7 @@
     </row>
     <row r="60" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B60" s="6">
         <f>SUM(B40,B49,B30,B20)</f>
@@ -5637,7 +5637,7 @@
     </row>
     <row r="61" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" s="53">
         <f>B60*100</f>
@@ -6549,7 +6549,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="59">
         <v>44210</v>
@@ -6578,28 +6578,28 @@
     </row>
     <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -6607,7 +6607,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -6643,25 +6643,25 @@
         <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -6676,25 +6676,25 @@
         <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -6709,25 +6709,25 @@
         <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -6742,25 +6742,25 @@
         <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -6775,25 +6775,25 @@
         <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -6853,7 +6853,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -6885,13 +6885,13 @@
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="31"/>
       <c r="B1" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="D1" s="33" t="s">
         <v>77</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>78</v>
       </c>
       <c r="E1">
         <v>1</v>
@@ -6944,7 +6944,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="36">
         <v>2</v>
@@ -6958,7 +6958,7 @@
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
       <c r="B3" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="36">
         <v>5</v>
@@ -6975,7 +6975,7 @@
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="38"/>
       <c r="B4" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="36">
         <v>4</v>
@@ -6991,7 +6991,7 @@
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
       <c r="B5" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="35">
         <f>SUM(C2:C4)</f>
@@ -7007,7 +7007,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="36">
         <v>2</v>
@@ -7021,7 +7021,7 @@
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="46"/>
       <c r="B7" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="36">
         <v>5</v>
@@ -7038,7 +7038,7 @@
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="38"/>
       <c r="B8" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="36">
         <v>4</v>
@@ -7054,7 +7054,7 @@
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="35">
         <f>SUM(C6:C8)</f>
@@ -7070,7 +7070,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="36">
         <v>1</v>
@@ -7083,7 +7083,7 @@
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="46"/>
       <c r="B11" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="36">
         <v>5</v>
@@ -7100,7 +7100,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="36">
         <v>2</v>
@@ -7109,14 +7109,14 @@
         <v>2</v>
       </c>
       <c r="K12" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="36">
         <v>1</v>
@@ -7125,13 +7125,13 @@
         <v>1</v>
       </c>
       <c r="M13" s="47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="38"/>
       <c r="B14" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="36">
         <v>2</v>
@@ -7140,14 +7140,14 @@
         <v>3</v>
       </c>
       <c r="N14" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="35">
         <f>SUM(C10:C14)</f>
@@ -7163,7 +7163,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="36">
         <v>2</v>
@@ -7177,7 +7177,7 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="46"/>
       <c r="B17" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="36">
         <v>5</v>
@@ -7194,7 +7194,7 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="36">
         <v>4</v>
@@ -7210,7 +7210,7 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="35">
         <f>SUM(C16:C18)</f>
@@ -7226,7 +7226,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="36">
         <v>2</v>
@@ -7240,7 +7240,7 @@
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="46"/>
       <c r="B21" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="36">
         <v>5</v>
@@ -7257,7 +7257,7 @@
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" s="36">
         <v>4</v>
@@ -7273,7 +7273,7 @@
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
       <c r="B23" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="35">
         <f>SUM(C20:C22)</f>
@@ -7300,7 +7300,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B25" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -7342,7 +7342,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -7362,7 +7362,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7382,7 +7382,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -7402,7 +7402,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7422,12 +7422,12 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">

--- a/docs/Gantt Chart.xlsx
+++ b/docs/Gantt Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\CS383\Tower-of-Annihilation\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2975CD-215E-428E-99DB-BAAE42EEDEB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C616DBE9-9191-41EE-A9BC-FAEA152A8019}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="612" yWindow="900" windowWidth="18816" windowHeight="11400" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="3" r:id="rId1"/>
@@ -220,6 +220,9 @@
     <t>Implement Game Saves</t>
   </si>
   <si>
+    <t>HighScore Display &amp; Implmentation</t>
+  </si>
+  <si>
     <t>Background Enhancements &amp; Art</t>
   </si>
   <si>
@@ -353,9 +356,6 @@
   </si>
   <si>
     <t>Make Additional Levels (Continuous)</t>
-  </si>
-  <si>
-    <t>Layering</t>
   </si>
 </sst>
 </file>
@@ -3409,30 +3409,30 @@
       <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="3.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="2.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" customWidth="1"/>
-    <col min="18" max="18" width="5.140625" customWidth="1"/>
-    <col min="19" max="20" width="13.42578125" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" customWidth="1"/>
+    <col min="14" max="14" width="5.44140625" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" customWidth="1"/>
+    <col min="18" max="18" width="5.109375" customWidth="1"/>
+    <col min="19" max="20" width="13.44140625" customWidth="1"/>
+    <col min="21" max="21" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C2" s="64" t="s">
         <v>0</v>
       </c>
@@ -3460,7 +3460,7 @@
       <c r="T2" s="65"/>
       <c r="U2" s="66"/>
     </row>
-    <row r="3" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" s="26" t="s">
         <v>8</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="D5" s="18">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="E5" s="19">
         <f t="shared" ref="E5:E6" si="2">(C5-D5)</f>
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="17">
@@ -3595,11 +3595,11 @@
       </c>
       <c r="H5" s="18">
         <f>(Gantt!$C30)*100</f>
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="I5" s="19">
         <f t="shared" ref="I5:I6" si="3">(G5-H5)</f>
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="K5" s="17">
         <v>2000</v>
@@ -3636,7 +3636,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="16" t="s">
         <v>0</v>
       </c>
@@ -3836,11 +3836,11 @@
       </c>
       <c r="D9" s="28">
         <f>SUM(D4:D8)</f>
-        <v>37400</v>
+        <v>37900</v>
       </c>
       <c r="E9" s="29">
         <f>SUM(E4:E8)</f>
-        <v>18600</v>
+        <v>18100</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="20">
@@ -3849,11 +3849,11 @@
       </c>
       <c r="H9" s="21">
         <f>SUM(H4:H8)</f>
-        <v>14200</v>
+        <v>14700</v>
       </c>
       <c r="I9" s="22">
         <f>SUM(I4:I8)</f>
-        <v>11300</v>
+        <v>10800</v>
       </c>
       <c r="K9" s="20">
         <f>SUM(K4:K8)</f>
@@ -3909,20 +3909,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BK61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A1" s="48"/>
       <c r="B1" s="48" t="s">
         <v>13</v>
@@ -4001,7 +4001,7 @@
       <c r="BJ1" s="48"/>
       <c r="BK1" s="48"/>
     </row>
-    <row r="2" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="8" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -4419,9 +4419,9 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -4468,9 +4468,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -4491,7 +4491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -4517,9 +4517,9 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -4539,9 +4539,9 @@
         <v>this week</v>
       </c>
     </row>
-    <row r="15" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -4568,9 +4568,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -4594,9 +4594,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -4623,7 +4623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -4658,12 +4658,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="F22" s="55"/>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -4703,7 +4703,7 @@
       <c r="G23" s="67"/>
       <c r="H23" s="67"/>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="25" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="61">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -4757,7 +4757,7 @@
       <c r="R25" s="67"/>
       <c r="S25" s="67"/>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -4779,7 +4779,7 @@
       <c r="W26" s="67"/>
       <c r="X26" s="67"/>
     </row>
-    <row r="27" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="61">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -4806,7 +4806,7 @@
       <c r="M27" s="67"/>
       <c r="N27" s="67"/>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -4830,40 +4830,43 @@
       <c r="O28" s="67"/>
       <c r="P28" s="67"/>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
+      <c r="C29" s="61">
+        <v>1</v>
+      </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y29" s="67" t="str">
         <f>($D29)</f>
-        <v>planned</v>
+        <v>this week</v>
       </c>
       <c r="Z29" s="67"/>
       <c r="AA29" s="67"/>
       <c r="AQ29" t="str">
         <f t="shared" ref="AQ29:AT29" si="9">($D29)</f>
-        <v>planned</v>
+        <v>this week</v>
       </c>
       <c r="AR29" t="str">
         <f t="shared" si="9"/>
-        <v>planned</v>
+        <v>this week</v>
       </c>
       <c r="AS29" t="str">
         <f t="shared" si="9"/>
-        <v>planned</v>
+        <v>this week</v>
       </c>
       <c r="AT29" t="str">
         <f t="shared" si="9"/>
-        <v>planned</v>
-      </c>
-    </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
+        <v>this week</v>
+      </c>
+    </row>
+    <row r="30" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -4873,15 +4876,15 @@
       </c>
       <c r="C30">
         <f>SUM(C22:C29)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -4899,7 +4902,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -4925,7 +4928,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -4970,7 +4973,7 @@
       <c r="Q34" s="55"/>
       <c r="R34" s="55"/>
     </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -4989,7 +4992,7 @@
       <c r="V35" s="57"/>
       <c r="W35" s="57"/>
     </row>
-    <row r="36" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -5006,7 +5009,7 @@
       <c r="AA36" s="57"/>
       <c r="AB36" s="57"/>
     </row>
-    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -5035,7 +5038,7 @@
       <c r="AP37" s="3"/>
       <c r="AQ37" s="3"/>
     </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -5065,9 +5068,9 @@
       <c r="BA38" s="63"/>
       <c r="BB38" s="3"/>
     </row>
-    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B39" s="61">
         <v>3</v>
@@ -5095,7 +5098,7 @@
       <c r="BA39" s="62"/>
       <c r="BB39" s="3"/>
     </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -5108,12 +5111,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -5147,7 +5150,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -5181,7 +5184,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -5219,7 +5222,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -5238,7 +5241,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -5273,7 +5276,7 @@
         <v>this week</v>
       </c>
     </row>
-    <row r="47" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -5292,7 +5295,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="48" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -5319,7 +5322,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>31</v>
       </c>
@@ -5332,12 +5335,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -5373,7 +5376,7 @@
       <c r="J51" s="55"/>
       <c r="K51" s="55"/>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -5407,7 +5410,7 @@
         <v>this week</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -5445,7 +5448,7 @@
         <v>this week</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -5467,7 +5470,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -5502,9 +5505,9 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="B56">
         <v>10</v>
@@ -5537,9 +5540,9 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -5567,9 +5570,9 @@
         <v>this week</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -5609,7 +5612,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>31</v>
       </c>
@@ -5622,9 +5625,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" s="6">
         <f>SUM(B40,B49,B30,B20)</f>
@@ -5632,12 +5635,12 @@
       </c>
       <c r="C60" s="6">
         <f>SUM(C20,C30,C40,C49,C59)</f>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="61" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" s="53">
         <f>B60*100</f>
@@ -5645,7 +5648,7 @@
       </c>
       <c r="C61" s="53">
         <f>C60*100</f>
-        <v>14200</v>
+        <v>14700</v>
       </c>
       <c r="D61" s="53"/>
     </row>
@@ -6545,11 +6548,11 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1" s="59">
         <v>44210</v>
@@ -6576,38 +6579,38 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -6634,7 +6637,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -6643,31 +6646,31 @@
         <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -6676,31 +6679,31 @@
         <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -6709,31 +6712,31 @@
         <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -6742,31 +6745,31 @@
         <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -6775,31 +6778,31 @@
         <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
@@ -6848,15 +6851,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
     </row>
   </sheetData>
@@ -6873,25 +6876,25 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="19" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="19" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="31"/>
       <c r="B1" s="32" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E1">
         <v>1</v>
@@ -6939,12 +6942,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" s="36">
         <v>2</v>
@@ -6955,10 +6958,10 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="46"/>
       <c r="B3" s="35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="36">
         <v>5</v>
@@ -6972,10 +6975,10 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="38"/>
       <c r="B4" s="35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C4" s="36">
         <v>4</v>
@@ -6988,10 +6991,10 @@
       <c r="I4" s="4"/>
       <c r="J4" s="52"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="38"/>
       <c r="B5" s="35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" s="35">
         <f>SUM(C2:C4)</f>
@@ -7002,12 +7005,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="36">
         <v>2</v>
@@ -7018,10 +7021,10 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="46"/>
       <c r="B7" s="35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="36">
         <v>5</v>
@@ -7035,10 +7038,10 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="38"/>
       <c r="B8" s="35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="36">
         <v>4</v>
@@ -7051,10 +7054,10 @@
       <c r="I8" s="4"/>
       <c r="J8" s="47"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="38"/>
       <c r="B9" s="35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C9" s="35">
         <f>SUM(C6:C8)</f>
@@ -7065,12 +7068,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" s="36">
         <v>1</v>
@@ -7080,10 +7083,10 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="46"/>
       <c r="B11" s="35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" s="36">
         <v>5</v>
@@ -7097,10 +7100,10 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="38"/>
       <c r="B12" s="40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12" s="36">
         <v>2</v>
@@ -7109,14 +7112,14 @@
         <v>2</v>
       </c>
       <c r="K12" s="47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="38"/>
       <c r="B13" s="40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C13" s="36">
         <v>1</v>
@@ -7125,13 +7128,13 @@
         <v>1</v>
       </c>
       <c r="M13" s="47" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="38"/>
       <c r="B14" s="40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C14" s="36">
         <v>2</v>
@@ -7140,14 +7143,14 @@
         <v>3</v>
       </c>
       <c r="N14" s="47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="38"/>
       <c r="B15" s="41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C15" s="35">
         <f>SUM(C10:C14)</f>
@@ -7158,12 +7161,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C16" s="36">
         <v>2</v>
@@ -7174,10 +7177,10 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="46"/>
       <c r="B17" s="35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17" s="36">
         <v>5</v>
@@ -7191,10 +7194,10 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="B18" s="35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" s="36">
         <v>4</v>
@@ -7207,10 +7210,10 @@
       <c r="I18" s="4"/>
       <c r="J18" s="47"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="38"/>
       <c r="B19" s="41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C19" s="35">
         <f>SUM(C16:C18)</f>
@@ -7221,12 +7224,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" s="36">
         <v>2</v>
@@ -7237,10 +7240,10 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="46"/>
       <c r="B21" s="35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C21" s="36">
         <v>5</v>
@@ -7254,10 +7257,10 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="38"/>
       <c r="B22" s="35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C22" s="36">
         <v>4</v>
@@ -7270,10 +7273,10 @@
       <c r="I22" s="4"/>
       <c r="J22" s="47"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="38"/>
       <c r="B23" s="41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C23" s="35">
         <f>SUM(C20:C22)</f>
@@ -7284,7 +7287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="42"/>
       <c r="B24" s="43" t="s">
         <v>0</v>
@@ -7298,9 +7301,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B25" s="30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -7317,12 +7320,12 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>8</v>
@@ -7340,9 +7343,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -7360,9 +7363,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7380,9 +7383,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -7400,9 +7403,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7420,20 +7423,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>

--- a/docs/Gantt Chart.xlsx
+++ b/docs/Gantt Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Homework Assignments\Tower-of-Annihilation\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D489EE-3A5C-41F9-8363-57A0804126C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C616DBE9-9191-41EE-A9BC-FAEA152A8019}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="612" yWindow="900" windowWidth="18816" windowHeight="11400" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="3" r:id="rId1"/>
@@ -3409,30 +3409,30 @@
       <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="3.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="2.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" customWidth="1"/>
-    <col min="18" max="18" width="5.140625" customWidth="1"/>
-    <col min="19" max="20" width="13.42578125" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" customWidth="1"/>
+    <col min="14" max="14" width="5.44140625" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" customWidth="1"/>
+    <col min="18" max="18" width="5.109375" customWidth="1"/>
+    <col min="19" max="20" width="13.44140625" customWidth="1"/>
+    <col min="21" max="21" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C2" s="64" t="s">
         <v>0</v>
       </c>
@@ -3460,7 +3460,7 @@
       <c r="T2" s="65"/>
       <c r="U2" s="66"/>
     </row>
-    <row r="3" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" s="26" t="s">
         <v>8</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
@@ -3582,11 +3582,11 @@
       </c>
       <c r="D5" s="18">
         <f t="shared" si="0"/>
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="E5" s="19">
         <f t="shared" ref="E5:E6" si="2">(C5-D5)</f>
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="17">
@@ -3595,11 +3595,11 @@
       </c>
       <c r="H5" s="18">
         <f>(Gantt!$C30)*100</f>
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="I5" s="19">
         <f t="shared" ref="I5:I6" si="3">(G5-H5)</f>
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="K5" s="17">
         <v>2000</v>
@@ -3636,7 +3636,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="16" t="s">
         <v>0</v>
       </c>
@@ -3836,11 +3836,11 @@
       </c>
       <c r="D9" s="28">
         <f>SUM(D4:D8)</f>
-        <v>37400</v>
+        <v>37900</v>
       </c>
       <c r="E9" s="29">
         <f>SUM(E4:E8)</f>
-        <v>18600</v>
+        <v>18100</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="20">
@@ -3849,11 +3849,11 @@
       </c>
       <c r="H9" s="21">
         <f>SUM(H4:H8)</f>
-        <v>14200</v>
+        <v>14700</v>
       </c>
       <c r="I9" s="22">
         <f>SUM(I4:I8)</f>
-        <v>11300</v>
+        <v>10800</v>
       </c>
       <c r="K9" s="20">
         <f>SUM(K4:K8)</f>
@@ -3909,20 +3909,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BK61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A1" s="48"/>
       <c r="B1" s="48" t="s">
         <v>13</v>
@@ -4001,7 +4001,7 @@
       <c r="BJ1" s="48"/>
       <c r="BK1" s="48"/>
     </row>
-    <row r="2" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="8" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>105</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>this week</v>
       </c>
     </row>
-    <row r="15" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>104</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -4658,12 +4658,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="F22" s="55"/>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -4703,7 +4703,7 @@
       <c r="G23" s="67"/>
       <c r="H23" s="67"/>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="25" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="61">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -4757,7 +4757,7 @@
       <c r="R25" s="67"/>
       <c r="S25" s="67"/>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -4779,7 +4779,7 @@
       <c r="W26" s="67"/>
       <c r="X26" s="67"/>
     </row>
-    <row r="27" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:53" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>10</v>
       </c>
       <c r="C27" s="61">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -4806,7 +4806,7 @@
       <c r="M27" s="67"/>
       <c r="N27" s="67"/>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -4830,40 +4830,43 @@
       <c r="O28" s="67"/>
       <c r="P28" s="67"/>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
+      <c r="C29" s="61">
+        <v>1</v>
+      </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y29" s="67" t="str">
         <f>($D29)</f>
-        <v>planned</v>
+        <v>this week</v>
       </c>
       <c r="Z29" s="67"/>
       <c r="AA29" s="67"/>
       <c r="AQ29" t="str">
         <f t="shared" ref="AQ29:AT29" si="9">($D29)</f>
-        <v>planned</v>
+        <v>this week</v>
       </c>
       <c r="AR29" t="str">
         <f t="shared" si="9"/>
-        <v>planned</v>
+        <v>this week</v>
       </c>
       <c r="AS29" t="str">
         <f t="shared" si="9"/>
-        <v>planned</v>
+        <v>this week</v>
       </c>
       <c r="AT29" t="str">
         <f t="shared" si="9"/>
-        <v>planned</v>
-      </c>
-    </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
+        <v>this week</v>
+      </c>
+    </row>
+    <row r="30" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -4873,15 +4876,15 @@
       </c>
       <c r="C30">
         <f>SUM(C22:C29)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:53" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -4899,7 +4902,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -4925,7 +4928,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -4970,7 +4973,7 @@
       <c r="Q34" s="55"/>
       <c r="R34" s="55"/>
     </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -4989,7 +4992,7 @@
       <c r="V35" s="57"/>
       <c r="W35" s="57"/>
     </row>
-    <row r="36" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -5006,7 +5009,7 @@
       <c r="AA36" s="57"/>
       <c r="AB36" s="57"/>
     </row>
-    <row r="37" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -5035,7 +5038,7 @@
       <c r="AP37" s="3"/>
       <c r="AQ37" s="3"/>
     </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -5065,7 +5068,7 @@
       <c r="BA38" s="63"/>
       <c r="BB38" s="3"/>
     </row>
-    <row r="39" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -5095,7 +5098,7 @@
       <c r="BA39" s="62"/>
       <c r="BB39" s="3"/>
     </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -5108,12 +5111,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:54" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -5147,7 +5150,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -5181,7 +5184,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="44" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -5219,7 +5222,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="45" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -5238,7 +5241,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="46" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -5273,7 +5276,7 @@
         <v>this week</v>
       </c>
     </row>
-    <row r="47" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -5292,7 +5295,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="48" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -5319,7 +5322,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>31</v>
       </c>
@@ -5332,12 +5335,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -5373,7 +5376,7 @@
       <c r="J51" s="55"/>
       <c r="K51" s="55"/>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -5407,7 +5410,7 @@
         <v>this week</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -5445,7 +5448,7 @@
         <v>this week</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -5467,7 +5470,7 @@
         <v>complete</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -5502,7 +5505,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -5537,7 +5540,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="57" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -5567,7 +5570,7 @@
         <v>this week</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -5609,7 +5612,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>31</v>
       </c>
@@ -5622,7 +5625,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>63</v>
       </c>
@@ -5632,10 +5635,10 @@
       </c>
       <c r="C60" s="6">
         <f>SUM(C20,C30,C40,C49,C59)</f>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="61" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>64</v>
       </c>
@@ -5645,7 +5648,7 @@
       </c>
       <c r="C61" s="53">
         <f>C60*100</f>
-        <v>14200</v>
+        <v>14700</v>
       </c>
       <c r="D61" s="53"/>
     </row>
@@ -6545,9 +6548,9 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
         <v>65</v>
       </c>
@@ -6576,7 +6579,7 @@
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>66</v>
       </c>
@@ -6605,7 +6608,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>74</v>
       </c>
@@ -6634,7 +6637,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -6667,7 +6670,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -6700,7 +6703,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -6733,7 +6736,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -6766,7 +6769,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -6799,7 +6802,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
@@ -6848,15 +6851,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
     </row>
   </sheetData>
@@ -6873,16 +6876,16 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="19" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="19" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="31"/>
       <c r="B1" s="32" t="s">
         <v>76</v>
@@ -6939,7 +6942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="s">
         <v>8</v>
       </c>
@@ -6955,7 +6958,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="46"/>
       <c r="B3" s="35" t="s">
         <v>80</v>
@@ -6972,7 +6975,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="38"/>
       <c r="B4" s="35" t="s">
         <v>81</v>
@@ -6988,7 +6991,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="52"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="38"/>
       <c r="B5" s="35" t="s">
         <v>82</v>
@@ -7002,7 +7005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>9</v>
       </c>
@@ -7018,7 +7021,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="46"/>
       <c r="B7" s="35" t="s">
         <v>80</v>
@@ -7035,7 +7038,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="38"/>
       <c r="B8" s="35" t="s">
         <v>83</v>
@@ -7051,7 +7054,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="47"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="38"/>
       <c r="B9" s="35" t="s">
         <v>82</v>
@@ -7065,7 +7068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>10</v>
       </c>
@@ -7080,7 +7083,7 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="46"/>
       <c r="B11" s="35" t="s">
         <v>80</v>
@@ -7097,7 +7100,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="38"/>
       <c r="B12" s="40" t="s">
         <v>84</v>
@@ -7113,7 +7116,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="38"/>
       <c r="B13" s="40" t="s">
         <v>86</v>
@@ -7128,7 +7131,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="38"/>
       <c r="B14" s="40" t="s">
         <v>88</v>
@@ -7144,7 +7147,7 @@
       </c>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="38"/>
       <c r="B15" s="41" t="s">
         <v>82</v>
@@ -7158,7 +7161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>11</v>
       </c>
@@ -7174,7 +7177,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="46"/>
       <c r="B17" s="35" t="s">
         <v>80</v>
@@ -7191,7 +7194,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="B18" s="35" t="s">
         <v>90</v>
@@ -7207,7 +7210,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="47"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="38"/>
       <c r="B19" s="41" t="s">
         <v>82</v>
@@ -7221,7 +7224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
         <v>12</v>
       </c>
@@ -7237,7 +7240,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="46"/>
       <c r="B21" s="35" t="s">
         <v>80</v>
@@ -7254,7 +7257,7 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="38"/>
       <c r="B22" s="35" t="s">
         <v>91</v>
@@ -7270,7 +7273,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="47"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="38"/>
       <c r="B23" s="41" t="s">
         <v>82</v>
@@ -7284,7 +7287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="42"/>
       <c r="B24" s="43" t="s">
         <v>0</v>
@@ -7298,7 +7301,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B25" s="30" t="s">
         <v>92</v>
       </c>
@@ -7317,12 +7320,12 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>8</v>
@@ -7340,7 +7343,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>93</v>
       </c>
@@ -7360,7 +7363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>94</v>
       </c>
@@ -7380,7 +7383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>95</v>
       </c>
@@ -7400,7 +7403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>96</v>
       </c>
@@ -7420,20 +7423,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>

--- a/docs/Gantt Chart.xlsx
+++ b/docs/Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Documents\CS383\Tower-of-Annihilation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2975CD-215E-428E-99DB-BAAE42EEDEB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129C41D8-880C-4B57-B117-ED2045FAC2E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="106">
   <si>
     <t>Total</t>
   </si>
@@ -3768,28 +3768,28 @@
       </c>
       <c r="C8" s="17">
         <f t="shared" si="7"/>
-        <v>11800</v>
+        <v>12400</v>
       </c>
       <c r="D8" s="18">
         <f t="shared" si="8"/>
-        <v>6600</v>
+        <v>8100</v>
       </c>
       <c r="E8" s="19">
         <f t="shared" si="9"/>
-        <v>5200</v>
+        <v>4300</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="17">
-        <f>(Gantt!$B59)*100</f>
-        <v>5700</v>
+        <f>(Gantt!$B60)*100</f>
+        <v>6300</v>
       </c>
       <c r="H8" s="18">
-        <f>(Gantt!$C59)*100</f>
-        <v>2300</v>
+        <f>(Gantt!$C60)*100</f>
+        <v>3800</v>
       </c>
       <c r="I8" s="19">
         <f t="shared" si="10"/>
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="K8" s="17">
         <v>2000</v>
@@ -3832,28 +3832,28 @@
       </c>
       <c r="C9" s="27">
         <f>SUM(C4:C8)</f>
-        <v>56000</v>
+        <v>56600</v>
       </c>
       <c r="D9" s="28">
         <f>SUM(D4:D8)</f>
-        <v>37400</v>
+        <v>38900</v>
       </c>
       <c r="E9" s="29">
         <f>SUM(E4:E8)</f>
-        <v>18600</v>
+        <v>17700</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="20">
         <f>SUM(G4:G8)</f>
-        <v>25500</v>
+        <v>26100</v>
       </c>
       <c r="H9" s="21">
         <f>SUM(H4:H8)</f>
-        <v>14200</v>
+        <v>15700</v>
       </c>
       <c r="I9" s="22">
         <f>SUM(I4:I8)</f>
-        <v>11300</v>
+        <v>10400</v>
       </c>
       <c r="K9" s="20">
         <f>SUM(K4:K8)</f>
@@ -3907,10 +3907,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BK61"/>
+  <dimension ref="A1:BK62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5381,30 +5381,30 @@
         <v>5</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L52" t="str">
         <f t="shared" ref="L52:P52" si="20">($D52)</f>
-        <v>this week</v>
+        <v>complete</v>
       </c>
       <c r="M52" t="str">
         <f t="shared" si="20"/>
-        <v>this week</v>
+        <v>complete</v>
       </c>
       <c r="N52" t="str">
         <f t="shared" si="20"/>
-        <v>this week</v>
+        <v>complete</v>
       </c>
       <c r="O52" s="58" t="str">
         <f>($D52)</f>
-        <v>this week</v>
+        <v>complete</v>
       </c>
       <c r="P52" s="3" t="str">
         <f t="shared" si="20"/>
-        <v>this week</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="53" spans="1:42" x14ac:dyDescent="0.25">
@@ -5418,31 +5418,31 @@
         <v>7</v>
       </c>
       <c r="D53" s="56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q53" t="str">
         <f t="shared" ref="Q53:V53" si="21">($D53)</f>
-        <v>this week</v>
+        <v>complete</v>
       </c>
       <c r="R53" t="str">
         <f t="shared" si="21"/>
-        <v>this week</v>
+        <v>complete</v>
       </c>
       <c r="S53" t="str">
         <f t="shared" si="21"/>
-        <v>this week</v>
+        <v>complete</v>
       </c>
       <c r="T53" t="str">
         <f t="shared" si="21"/>
-        <v>this week</v>
+        <v>complete</v>
       </c>
       <c r="U53" t="str">
         <f t="shared" si="21"/>
-        <v>this week</v>
+        <v>complete</v>
       </c>
       <c r="V53" t="str">
         <f t="shared" si="21"/>
-        <v>this week</v>
+        <v>complete</v>
       </c>
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.25">
@@ -5545,7 +5545,7 @@
         <v>5</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
@@ -5569,85 +5569,102 @@
     </row>
     <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>61</v>
       </c>
-      <c r="B58">
+      <c r="B59">
         <v>2</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
-      <c r="W58" s="3"/>
-      <c r="X58" s="3"/>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="3"/>
-      <c r="AA58" s="3"/>
-      <c r="AO58" t="str">
-        <f t="shared" ref="AO58:AP58" si="26">($D58)</f>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+      <c r="Z59" s="3"/>
+      <c r="AA59" s="3"/>
+      <c r="AO59" t="str">
+        <f t="shared" ref="AO59:AP59" si="26">($D59)</f>
         <v>planned</v>
       </c>
-      <c r="AP58" t="str">
+      <c r="AP59" t="str">
         <f t="shared" si="26"/>
         <v>planned</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="60" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>31</v>
       </c>
-      <c r="B59">
-        <f>SUM(B51:B58)</f>
-        <v>57</v>
-      </c>
-      <c r="C59">
-        <f>SUM(C51:C58)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+      <c r="B60">
+        <f>SUM(B51:B59)</f>
+        <v>63</v>
+      </c>
+      <c r="C60">
+        <f>SUM(C51:C59)</f>
+        <v>38</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B61" s="6">
         <f>SUM(B40,B49,B30,B20)</f>
         <v>198</v>
       </c>
-      <c r="C60" s="6">
-        <f>SUM(C20,C30,C40,C49,C59)</f>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="61" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="C61" s="6">
+        <f>SUM(C20,C30,C40,C49,C60)</f>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="53">
-        <f>B60*100</f>
+      <c r="B62" s="53">
+        <f>B61*100</f>
         <v>19800</v>
       </c>
-      <c r="C61" s="53">
-        <f>C60*100</f>
-        <v>14200</v>
-      </c>
-      <c r="D61" s="53"/>
+      <c r="C62" s="53">
+        <f>C61*100</f>
+        <v>15700</v>
+      </c>
+      <c r="D62" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5658,7 +5675,7 @@
     <mergeCell ref="T26:X26"/>
     <mergeCell ref="G28:P28"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3 D22:D28 D51:D57">
+  <conditionalFormatting sqref="D3 D22:D28 D51:D58 D60">
     <cfRule type="cellIs" dxfId="236" priority="292" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -5713,7 +5730,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E35:BR38 E34:O34 Q34:BR34 E24:BR24 E50:BR51 E52:I52 E53:J53 L52:BR52 L53:N53 Q53:BR53 E55:V55 E54:T54 E56:AJ56 Y55:AR55 W54:AR54 AW54:BR57 AM56:AR56 AQ57:AR57 E57:AN57 AO58:AP58 E30:BR33 E27 O27:BR27 I23:BR23 E23 E26:T26 E25:L25 T25:BR25 Y26:BR26 E28:G28 Q28:BR28 E29:Y29 AB29:BR29 E3:BR5 E6:I6 K6:BR6 E40:BR48 E39:AY39 BB39:BR39 E7:BR14 E18:BR18 E20:BR22">
+  <conditionalFormatting sqref="E35:BR38 E34:O34 Q34:BR34 E24:BR24 E50:BR51 E52:I52 E53:J53 L52:BR52 L53:N53 Q53:BR53 E55:V55 E54:T54 E56:AJ56 Y55:AR55 W54:AR54 AW54:BR58 AM56:AR56 AQ57:AR58 E57:AN58 AO59:AP59 E30:BR33 E27 O27:BR27 I23:BR23 E23 E26:T26 E25:L25 T25:BR25 Y26:BR26 E28:G28 Q28:BR28 E29:Y29 AB29:BR29 E3:BR5 E6:I6 K6:BR6 E40:BR48 E39:AY39 BB39:BR39 E7:BR14 E18:BR18 E20:BR22">
     <cfRule type="cellIs" dxfId="221" priority="274" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -5867,7 +5884,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D58">
+  <conditionalFormatting sqref="D59">
     <cfRule type="cellIs" dxfId="179" priority="211" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -6528,7 +6545,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32:D39 D42:D48 D22:D29 D51:D58 D3:D19" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32:D39 D42:D48 D22:D29 D51:D59 D3:D19" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$F$1:$H$1</formula1>
     </dataValidation>
   </dataValidations>
